--- a/QuanLySuCo_2018_11_08/3-Coding/code/DesktopModules/QLSC/bieumau/BAO_CAO_THANG.xlsx
+++ b/QuanLySuCo_2018_11_08/3-Coding/code/DesktopModules/QLSC/bieumau/BAO_CAO_THANG.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <r>
       <t>CỘNG TY ĐIỆN LỰC SÓC TRĂNG</t>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t xml:space="preserve">Tình hình sự cố tháng từ ngày 01 đến ngày 28/02/2018   </t>
+  </si>
+  <si>
+    <t>hhh</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -398,7 +404,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -417,13 +423,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -470,9 +469,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -490,7 +486,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -510,24 +505,92 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="23" fillId="2" borderId="1" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="20" fontId="23" fillId="2" borderId="1" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="23" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="23" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="23" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -546,12 +609,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -561,30 +618,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1185,21 +1221,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11" style="41" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="41" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11" style="38" customWidth="1"/>
+    <col min="3" max="4" width="5.85546875" style="38" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" style="4" customWidth="1"/>
     <col min="7" max="7" width="6.28515625" style="4" customWidth="1"/>
     <col min="8" max="8" width="6" style="4" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="62" customWidth="1"/>
     <col min="10" max="10" width="4.42578125" style="4" customWidth="1"/>
     <col min="11" max="11" width="4.85546875" style="2" customWidth="1"/>
     <col min="12" max="12" width="3.42578125" style="2" customWidth="1"/>
@@ -2731,13 +2766,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2745,75 +2780,76 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
     </row>
     <row r="2" spans="1:256" ht="18.75">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="I2" s="4"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="59" t="s">
+      <c r="M2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
     </row>
     <row r="3" spans="1:256">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
     </row>
     <row r="4" spans="1:256">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -2821,73 +2857,73 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="56" t="s">
+      <c r="M4" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
     </row>
     <row r="5" spans="1:256" ht="22.5" customHeight="1">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="65"/>
     </row>
     <row r="6" spans="1:256" ht="22.5" customHeight="1">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
     </row>
     <row r="7" spans="1:256" ht="18.75">
       <c r="A7" s="7"/>
@@ -2915,1458 +2951,1492 @@
       <c r="W7" s="7"/>
     </row>
     <row r="8" spans="1:256">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="65" t="s">
+      <c r="G8" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="65" t="s">
+      <c r="H8" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65" t="s">
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="65" t="s">
+      <c r="L8" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="65" t="s">
+      <c r="M8" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="65" t="s">
+      <c r="N8" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="66" t="s">
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="U8" s="65" t="s">
+      <c r="U8" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65" t="s">
+      <c r="V8" s="72"/>
+      <c r="W8" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="10"/>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="10"/>
-      <c r="AP8" s="10"/>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="10"/>
-      <c r="AS8" s="10"/>
-      <c r="AT8" s="10"/>
-      <c r="AU8" s="10"/>
-      <c r="AV8" s="10"/>
-      <c r="AW8" s="10"/>
-      <c r="AX8" s="10"/>
-      <c r="AY8" s="10"/>
-      <c r="AZ8" s="10"/>
-      <c r="BA8" s="10"/>
-      <c r="BB8" s="10"/>
-      <c r="BC8" s="10"/>
-      <c r="BD8" s="10"/>
-      <c r="BE8" s="10"/>
-      <c r="BF8" s="10"/>
-      <c r="BG8" s="10"/>
-      <c r="BH8" s="10"/>
-      <c r="BI8" s="10"/>
-      <c r="BJ8" s="10"/>
-      <c r="BK8" s="10"/>
-      <c r="BL8" s="10"/>
-      <c r="BM8" s="10"/>
-      <c r="BN8" s="10"/>
-      <c r="BO8" s="10"/>
-      <c r="BP8" s="10"/>
-      <c r="BQ8" s="10"/>
-      <c r="BR8" s="10"/>
-      <c r="BS8" s="10"/>
-      <c r="BT8" s="10"/>
-      <c r="BU8" s="10"/>
-      <c r="BV8" s="10"/>
-      <c r="BW8" s="10"/>
-      <c r="BX8" s="10"/>
-      <c r="BY8" s="10"/>
-      <c r="BZ8" s="10"/>
-      <c r="CA8" s="10"/>
-      <c r="CB8" s="10"/>
-      <c r="CC8" s="10"/>
-      <c r="CD8" s="10"/>
-      <c r="CE8" s="10"/>
-      <c r="CF8" s="10"/>
-      <c r="CG8" s="10"/>
-      <c r="CH8" s="10"/>
-      <c r="CI8" s="10"/>
-      <c r="CJ8" s="10"/>
-      <c r="CK8" s="10"/>
-      <c r="CL8" s="10"/>
-      <c r="CM8" s="10"/>
-      <c r="CN8" s="10"/>
-      <c r="CO8" s="10"/>
-      <c r="CP8" s="10"/>
-      <c r="CQ8" s="10"/>
-      <c r="CR8" s="10"/>
-      <c r="CS8" s="10"/>
-      <c r="CT8" s="10"/>
-      <c r="CU8" s="10"/>
-      <c r="CV8" s="10"/>
-      <c r="CW8" s="10"/>
-      <c r="CX8" s="10"/>
-      <c r="CY8" s="10"/>
-      <c r="CZ8" s="10"/>
-      <c r="DA8" s="10"/>
-      <c r="DB8" s="10"/>
-      <c r="DC8" s="10"/>
-      <c r="DD8" s="10"/>
-      <c r="DE8" s="10"/>
-      <c r="DF8" s="10"/>
-      <c r="DG8" s="10"/>
-      <c r="DH8" s="10"/>
-      <c r="DI8" s="10"/>
-      <c r="DJ8" s="10"/>
-      <c r="DK8" s="10"/>
-      <c r="DL8" s="10"/>
-      <c r="DM8" s="10"/>
-      <c r="DN8" s="10"/>
-      <c r="DO8" s="10"/>
-      <c r="DP8" s="10"/>
-      <c r="DQ8" s="10"/>
-      <c r="DR8" s="10"/>
-      <c r="DS8" s="10"/>
-      <c r="DT8" s="10"/>
-      <c r="DU8" s="10"/>
-      <c r="DV8" s="10"/>
-      <c r="DW8" s="10"/>
-      <c r="DX8" s="10"/>
-      <c r="DY8" s="10"/>
-      <c r="DZ8" s="10"/>
-      <c r="EA8" s="10"/>
-      <c r="EB8" s="10"/>
-      <c r="EC8" s="10"/>
-      <c r="ED8" s="10"/>
-      <c r="EE8" s="10"/>
-      <c r="EF8" s="10"/>
-      <c r="EG8" s="10"/>
-      <c r="EH8" s="10"/>
-      <c r="EI8" s="10"/>
-      <c r="EJ8" s="10"/>
-      <c r="EK8" s="10"/>
-      <c r="EL8" s="10"/>
-      <c r="EM8" s="10"/>
-      <c r="EN8" s="10"/>
-      <c r="EO8" s="10"/>
-      <c r="EP8" s="10"/>
-      <c r="EQ8" s="10"/>
-      <c r="ER8" s="10"/>
-      <c r="ES8" s="10"/>
-      <c r="ET8" s="10"/>
-      <c r="EU8" s="10"/>
-      <c r="EV8" s="10"/>
-      <c r="EW8" s="10"/>
-      <c r="EX8" s="10"/>
-      <c r="EY8" s="10"/>
-      <c r="EZ8" s="10"/>
-      <c r="FA8" s="10"/>
-      <c r="FB8" s="10"/>
-      <c r="FC8" s="10"/>
-      <c r="FD8" s="10"/>
-      <c r="FE8" s="10"/>
-      <c r="FF8" s="10"/>
-      <c r="FG8" s="10"/>
-      <c r="FH8" s="10"/>
-      <c r="FI8" s="10"/>
-      <c r="FJ8" s="10"/>
-      <c r="FK8" s="10"/>
-      <c r="FL8" s="10"/>
-      <c r="FM8" s="10"/>
-      <c r="FN8" s="10"/>
-      <c r="FO8" s="10"/>
-      <c r="FP8" s="10"/>
-      <c r="FQ8" s="10"/>
-      <c r="FR8" s="10"/>
-      <c r="FS8" s="10"/>
-      <c r="FT8" s="10"/>
-      <c r="FU8" s="10"/>
-      <c r="FV8" s="10"/>
-      <c r="FW8" s="10"/>
-      <c r="FX8" s="10"/>
-      <c r="FY8" s="10"/>
-      <c r="FZ8" s="10"/>
-      <c r="GA8" s="10"/>
-      <c r="GB8" s="10"/>
-      <c r="GC8" s="10"/>
-      <c r="GD8" s="10"/>
-      <c r="GE8" s="10"/>
-      <c r="GF8" s="10"/>
-      <c r="GG8" s="10"/>
-      <c r="GH8" s="10"/>
-      <c r="GI8" s="10"/>
-      <c r="GJ8" s="10"/>
-      <c r="GK8" s="10"/>
-      <c r="GL8" s="10"/>
-      <c r="GM8" s="10"/>
-      <c r="GN8" s="10"/>
-      <c r="GO8" s="10"/>
-      <c r="GP8" s="10"/>
-      <c r="GQ8" s="10"/>
-      <c r="GR8" s="10"/>
-      <c r="GS8" s="10"/>
-      <c r="GT8" s="10"/>
-      <c r="GU8" s="10"/>
-      <c r="GV8" s="10"/>
-      <c r="GW8" s="10"/>
-      <c r="GX8" s="10"/>
-      <c r="GY8" s="10"/>
-      <c r="GZ8" s="10"/>
-      <c r="HA8" s="10"/>
-      <c r="HB8" s="10"/>
-      <c r="HC8" s="10"/>
-      <c r="HD8" s="10"/>
-      <c r="HE8" s="10"/>
-      <c r="HF8" s="10"/>
-      <c r="HG8" s="10"/>
-      <c r="HH8" s="10"/>
-      <c r="HI8" s="10"/>
-      <c r="HJ8" s="10"/>
-      <c r="HK8" s="10"/>
-      <c r="HL8" s="10"/>
-      <c r="HM8" s="10"/>
-      <c r="HN8" s="10"/>
-      <c r="HO8" s="10"/>
-      <c r="HP8" s="10"/>
-      <c r="HQ8" s="10"/>
-      <c r="HR8" s="10"/>
-      <c r="HS8" s="10"/>
-      <c r="HT8" s="10"/>
-      <c r="HU8" s="10"/>
-      <c r="HV8" s="10"/>
-      <c r="HW8" s="10"/>
-      <c r="HX8" s="10"/>
-      <c r="HY8" s="10"/>
-      <c r="HZ8" s="10"/>
-      <c r="IA8" s="10"/>
-      <c r="IB8" s="10"/>
-      <c r="IC8" s="10"/>
-      <c r="ID8" s="10"/>
-      <c r="IE8" s="10"/>
-      <c r="IF8" s="10"/>
-      <c r="IG8" s="10"/>
-      <c r="IH8" s="10"/>
-      <c r="II8" s="10"/>
-      <c r="IJ8" s="10"/>
-      <c r="IK8" s="10"/>
-      <c r="IL8" s="10"/>
-      <c r="IM8" s="10"/>
-      <c r="IN8" s="10"/>
-      <c r="IO8" s="10"/>
-      <c r="IP8" s="10"/>
-      <c r="IQ8" s="10"/>
-      <c r="IR8" s="10"/>
-      <c r="IS8" s="10"/>
-      <c r="IT8" s="10"/>
-      <c r="IU8" s="10"/>
-      <c r="IV8" s="10"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="8"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="8"/>
+      <c r="AY8" s="8"/>
+      <c r="AZ8" s="8"/>
+      <c r="BA8" s="8"/>
+      <c r="BB8" s="8"/>
+      <c r="BC8" s="8"/>
+      <c r="BD8" s="8"/>
+      <c r="BE8" s="8"/>
+      <c r="BF8" s="8"/>
+      <c r="BG8" s="8"/>
+      <c r="BH8" s="8"/>
+      <c r="BI8" s="8"/>
+      <c r="BJ8" s="8"/>
+      <c r="BK8" s="8"/>
+      <c r="BL8" s="8"/>
+      <c r="BM8" s="8"/>
+      <c r="BN8" s="8"/>
+      <c r="BO8" s="8"/>
+      <c r="BP8" s="8"/>
+      <c r="BQ8" s="8"/>
+      <c r="BR8" s="8"/>
+      <c r="BS8" s="8"/>
+      <c r="BT8" s="8"/>
+      <c r="BU8" s="8"/>
+      <c r="BV8" s="8"/>
+      <c r="BW8" s="8"/>
+      <c r="BX8" s="8"/>
+      <c r="BY8" s="8"/>
+      <c r="BZ8" s="8"/>
+      <c r="CA8" s="8"/>
+      <c r="CB8" s="8"/>
+      <c r="CC8" s="8"/>
+      <c r="CD8" s="8"/>
+      <c r="CE8" s="8"/>
+      <c r="CF8" s="8"/>
+      <c r="CG8" s="8"/>
+      <c r="CH8" s="8"/>
+      <c r="CI8" s="8"/>
+      <c r="CJ8" s="8"/>
+      <c r="CK8" s="8"/>
+      <c r="CL8" s="8"/>
+      <c r="CM8" s="8"/>
+      <c r="CN8" s="8"/>
+      <c r="CO8" s="8"/>
+      <c r="CP8" s="8"/>
+      <c r="CQ8" s="8"/>
+      <c r="CR8" s="8"/>
+      <c r="CS8" s="8"/>
+      <c r="CT8" s="8"/>
+      <c r="CU8" s="8"/>
+      <c r="CV8" s="8"/>
+      <c r="CW8" s="8"/>
+      <c r="CX8" s="8"/>
+      <c r="CY8" s="8"/>
+      <c r="CZ8" s="8"/>
+      <c r="DA8" s="8"/>
+      <c r="DB8" s="8"/>
+      <c r="DC8" s="8"/>
+      <c r="DD8" s="8"/>
+      <c r="DE8" s="8"/>
+      <c r="DF8" s="8"/>
+      <c r="DG8" s="8"/>
+      <c r="DH8" s="8"/>
+      <c r="DI8" s="8"/>
+      <c r="DJ8" s="8"/>
+      <c r="DK8" s="8"/>
+      <c r="DL8" s="8"/>
+      <c r="DM8" s="8"/>
+      <c r="DN8" s="8"/>
+      <c r="DO8" s="8"/>
+      <c r="DP8" s="8"/>
+      <c r="DQ8" s="8"/>
+      <c r="DR8" s="8"/>
+      <c r="DS8" s="8"/>
+      <c r="DT8" s="8"/>
+      <c r="DU8" s="8"/>
+      <c r="DV8" s="8"/>
+      <c r="DW8" s="8"/>
+      <c r="DX8" s="8"/>
+      <c r="DY8" s="8"/>
+      <c r="DZ8" s="8"/>
+      <c r="EA8" s="8"/>
+      <c r="EB8" s="8"/>
+      <c r="EC8" s="8"/>
+      <c r="ED8" s="8"/>
+      <c r="EE8" s="8"/>
+      <c r="EF8" s="8"/>
+      <c r="EG8" s="8"/>
+      <c r="EH8" s="8"/>
+      <c r="EI8" s="8"/>
+      <c r="EJ8" s="8"/>
+      <c r="EK8" s="8"/>
+      <c r="EL8" s="8"/>
+      <c r="EM8" s="8"/>
+      <c r="EN8" s="8"/>
+      <c r="EO8" s="8"/>
+      <c r="EP8" s="8"/>
+      <c r="EQ8" s="8"/>
+      <c r="ER8" s="8"/>
+      <c r="ES8" s="8"/>
+      <c r="ET8" s="8"/>
+      <c r="EU8" s="8"/>
+      <c r="EV8" s="8"/>
+      <c r="EW8" s="8"/>
+      <c r="EX8" s="8"/>
+      <c r="EY8" s="8"/>
+      <c r="EZ8" s="8"/>
+      <c r="FA8" s="8"/>
+      <c r="FB8" s="8"/>
+      <c r="FC8" s="8"/>
+      <c r="FD8" s="8"/>
+      <c r="FE8" s="8"/>
+      <c r="FF8" s="8"/>
+      <c r="FG8" s="8"/>
+      <c r="FH8" s="8"/>
+      <c r="FI8" s="8"/>
+      <c r="FJ8" s="8"/>
+      <c r="FK8" s="8"/>
+      <c r="FL8" s="8"/>
+      <c r="FM8" s="8"/>
+      <c r="FN8" s="8"/>
+      <c r="FO8" s="8"/>
+      <c r="FP8" s="8"/>
+      <c r="FQ8" s="8"/>
+      <c r="FR8" s="8"/>
+      <c r="FS8" s="8"/>
+      <c r="FT8" s="8"/>
+      <c r="FU8" s="8"/>
+      <c r="FV8" s="8"/>
+      <c r="FW8" s="8"/>
+      <c r="FX8" s="8"/>
+      <c r="FY8" s="8"/>
+      <c r="FZ8" s="8"/>
+      <c r="GA8" s="8"/>
+      <c r="GB8" s="8"/>
+      <c r="GC8" s="8"/>
+      <c r="GD8" s="8"/>
+      <c r="GE8" s="8"/>
+      <c r="GF8" s="8"/>
+      <c r="GG8" s="8"/>
+      <c r="GH8" s="8"/>
+      <c r="GI8" s="8"/>
+      <c r="GJ8" s="8"/>
+      <c r="GK8" s="8"/>
+      <c r="GL8" s="8"/>
+      <c r="GM8" s="8"/>
+      <c r="GN8" s="8"/>
+      <c r="GO8" s="8"/>
+      <c r="GP8" s="8"/>
+      <c r="GQ8" s="8"/>
+      <c r="GR8" s="8"/>
+      <c r="GS8" s="8"/>
+      <c r="GT8" s="8"/>
+      <c r="GU8" s="8"/>
+      <c r="GV8" s="8"/>
+      <c r="GW8" s="8"/>
+      <c r="GX8" s="8"/>
+      <c r="GY8" s="8"/>
+      <c r="GZ8" s="8"/>
+      <c r="HA8" s="8"/>
+      <c r="HB8" s="8"/>
+      <c r="HC8" s="8"/>
+      <c r="HD8" s="8"/>
+      <c r="HE8" s="8"/>
+      <c r="HF8" s="8"/>
+      <c r="HG8" s="8"/>
+      <c r="HH8" s="8"/>
+      <c r="HI8" s="8"/>
+      <c r="HJ8" s="8"/>
+      <c r="HK8" s="8"/>
+      <c r="HL8" s="8"/>
+      <c r="HM8" s="8"/>
+      <c r="HN8" s="8"/>
+      <c r="HO8" s="8"/>
+      <c r="HP8" s="8"/>
+      <c r="HQ8" s="8"/>
+      <c r="HR8" s="8"/>
+      <c r="HS8" s="8"/>
+      <c r="HT8" s="8"/>
+      <c r="HU8" s="8"/>
+      <c r="HV8" s="8"/>
+      <c r="HW8" s="8"/>
+      <c r="HX8" s="8"/>
+      <c r="HY8" s="8"/>
+      <c r="HZ8" s="8"/>
+      <c r="IA8" s="8"/>
+      <c r="IB8" s="8"/>
+      <c r="IC8" s="8"/>
+      <c r="ID8" s="8"/>
+      <c r="IE8" s="8"/>
+      <c r="IF8" s="8"/>
+      <c r="IG8" s="8"/>
+      <c r="IH8" s="8"/>
+      <c r="II8" s="8"/>
+      <c r="IJ8" s="8"/>
+      <c r="IK8" s="8"/>
+      <c r="IL8" s="8"/>
+      <c r="IM8" s="8"/>
+      <c r="IN8" s="8"/>
+      <c r="IO8" s="8"/>
+      <c r="IP8" s="8"/>
+      <c r="IQ8" s="8"/>
+      <c r="IR8" s="8"/>
+      <c r="IS8" s="8"/>
+      <c r="IT8" s="8"/>
+      <c r="IU8" s="8"/>
+      <c r="IV8" s="8"/>
     </row>
-    <row r="9" spans="1:256" s="11" customFormat="1">
-      <c r="A9" s="63"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65" t="s">
+    <row r="9" spans="1:256" s="9" customFormat="1">
+      <c r="A9" s="80"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="65" t="s">
+      <c r="I9" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="65" t="s">
+      <c r="J9" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65" t="s">
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65" t="s">
+      <c r="O9" s="72"/>
+      <c r="P9" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65" t="s">
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="S9" s="65" t="s">
+      <c r="S9" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="T9" s="66"/>
-      <c r="U9" s="65" t="s">
+      <c r="T9" s="73"/>
+      <c r="U9" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="V9" s="65" t="s">
+      <c r="V9" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="W9" s="65"/>
+      <c r="W9" s="72"/>
     </row>
-    <row r="10" spans="1:256" s="11" customFormat="1" ht="36">
-      <c r="A10" s="63"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="12" t="s">
+    <row r="10" spans="1:256" s="9" customFormat="1" ht="36">
+      <c r="A10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="O10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="P10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Q10" s="12" t="s">
+      <c r="Q10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
     </row>
-    <row r="11" spans="1:256" s="54" customFormat="1" ht="12.75">
-      <c r="A11" s="48"/>
+    <row r="11" spans="1:256" s="48" customFormat="1" ht="12.75">
+      <c r="A11" s="44"/>
       <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52" t="s">
+      <c r="C11" s="45"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="58">
+        <v>1</v>
+      </c>
+      <c r="J11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="R11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="T11" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="V11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="W11" s="50" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:256">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="13"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="59"/>
       <c r="J12" s="2"/>
-      <c r="O12" s="69" t="s">
+      <c r="O12" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="69"/>
-      <c r="W12" s="69"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
     </row>
-    <row r="13" spans="1:256" s="19" customFormat="1" ht="12">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:256" s="17" customFormat="1" ht="12">
+      <c r="A13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="16"/>
-      <c r="AL13" s="16"/>
-      <c r="AM13" s="16"/>
-      <c r="AN13" s="16"/>
-      <c r="AO13" s="16"/>
-      <c r="AP13" s="16"/>
-      <c r="AQ13" s="16"/>
-      <c r="AR13" s="16"/>
-      <c r="AS13" s="16"/>
-      <c r="AT13" s="16"/>
-      <c r="AU13" s="16"/>
-      <c r="AV13" s="16"/>
-      <c r="AW13" s="16"/>
-      <c r="AX13" s="16"/>
-      <c r="AY13" s="16"/>
-      <c r="AZ13" s="16"/>
-      <c r="BA13" s="16"/>
-      <c r="BB13" s="16"/>
-      <c r="BC13" s="16"/>
-      <c r="BD13" s="16"/>
-      <c r="BE13" s="16"/>
-      <c r="BF13" s="16"/>
-      <c r="BG13" s="16"/>
-      <c r="BH13" s="16"/>
-      <c r="BI13" s="16"/>
-      <c r="BJ13" s="16"/>
-      <c r="BK13" s="16"/>
-      <c r="BL13" s="16"/>
-      <c r="BM13" s="16"/>
-      <c r="BN13" s="16"/>
-      <c r="BO13" s="16"/>
-      <c r="BP13" s="16"/>
-      <c r="BQ13" s="16"/>
-      <c r="BR13" s="16"/>
-      <c r="BS13" s="16"/>
-      <c r="BT13" s="16"/>
-      <c r="BU13" s="16"/>
-      <c r="BV13" s="16"/>
-      <c r="BW13" s="16"/>
-      <c r="BX13" s="16"/>
-      <c r="BY13" s="16"/>
-      <c r="BZ13" s="16"/>
-      <c r="CA13" s="16"/>
-      <c r="CB13" s="16"/>
-      <c r="CC13" s="16"/>
-      <c r="CD13" s="16"/>
-      <c r="CE13" s="16"/>
-      <c r="CF13" s="16"/>
-      <c r="CG13" s="16"/>
-      <c r="CH13" s="16"/>
-      <c r="CI13" s="16"/>
-      <c r="CJ13" s="16"/>
-      <c r="CK13" s="16"/>
-      <c r="CL13" s="16"/>
-      <c r="CM13" s="16"/>
-      <c r="CN13" s="16"/>
-      <c r="CO13" s="16"/>
-      <c r="CP13" s="16"/>
-      <c r="CQ13" s="16"/>
-      <c r="CR13" s="16"/>
-      <c r="CS13" s="16"/>
-      <c r="CT13" s="16"/>
-      <c r="CU13" s="16"/>
-      <c r="CV13" s="16"/>
-      <c r="CW13" s="16"/>
-      <c r="CX13" s="16"/>
-      <c r="CY13" s="16"/>
-      <c r="CZ13" s="16"/>
-      <c r="DA13" s="16"/>
-      <c r="DB13" s="16"/>
-      <c r="DC13" s="16"/>
-      <c r="DD13" s="16"/>
-      <c r="DE13" s="16"/>
-      <c r="DF13" s="16"/>
-      <c r="DG13" s="16"/>
-      <c r="DH13" s="16"/>
-      <c r="DI13" s="16"/>
-      <c r="DJ13" s="16"/>
-      <c r="DK13" s="16"/>
-      <c r="DL13" s="16"/>
-      <c r="DM13" s="16"/>
-      <c r="DN13" s="16"/>
-      <c r="DO13" s="16"/>
-      <c r="DP13" s="16"/>
-      <c r="DQ13" s="16"/>
-      <c r="DR13" s="16"/>
-      <c r="DS13" s="16"/>
-      <c r="DT13" s="16"/>
-      <c r="DU13" s="16"/>
-      <c r="DV13" s="16"/>
-      <c r="DW13" s="16"/>
-      <c r="DX13" s="16"/>
-      <c r="DY13" s="16"/>
-      <c r="DZ13" s="16"/>
-      <c r="EA13" s="16"/>
-      <c r="EB13" s="16"/>
-      <c r="EC13" s="16"/>
-      <c r="ED13" s="16"/>
-      <c r="EE13" s="16"/>
-      <c r="EF13" s="16"/>
-      <c r="EG13" s="16"/>
-      <c r="EH13" s="16"/>
-      <c r="EI13" s="16"/>
-      <c r="EJ13" s="16"/>
-      <c r="EK13" s="16"/>
-      <c r="EL13" s="16"/>
-      <c r="EM13" s="16"/>
-      <c r="EN13" s="16"/>
-      <c r="EO13" s="16"/>
-      <c r="EP13" s="16"/>
-      <c r="EQ13" s="16"/>
-      <c r="ER13" s="16"/>
-      <c r="ES13" s="16"/>
-      <c r="ET13" s="16"/>
-      <c r="EU13" s="16"/>
-      <c r="EV13" s="16"/>
-      <c r="EW13" s="16"/>
-      <c r="EX13" s="16"/>
-      <c r="EY13" s="16"/>
-      <c r="EZ13" s="16"/>
-      <c r="FA13" s="16"/>
-      <c r="FB13" s="16"/>
-      <c r="FC13" s="16"/>
-      <c r="FD13" s="16"/>
-      <c r="FE13" s="16"/>
-      <c r="FF13" s="16"/>
-      <c r="FG13" s="16"/>
-      <c r="FH13" s="16"/>
-      <c r="FI13" s="16"/>
-      <c r="FJ13" s="16"/>
-      <c r="FK13" s="16"/>
-      <c r="FL13" s="16"/>
-      <c r="FM13" s="16"/>
-      <c r="FN13" s="16"/>
-      <c r="FO13" s="16"/>
-      <c r="FP13" s="16"/>
-      <c r="FQ13" s="16"/>
-      <c r="FR13" s="16"/>
-      <c r="FS13" s="16"/>
-      <c r="FT13" s="16"/>
-      <c r="FU13" s="16"/>
-      <c r="FV13" s="16"/>
-      <c r="FW13" s="16"/>
-      <c r="FX13" s="16"/>
-      <c r="FY13" s="16"/>
-      <c r="FZ13" s="16"/>
-      <c r="GA13" s="16"/>
-      <c r="GB13" s="16"/>
-      <c r="GC13" s="16"/>
-      <c r="GD13" s="16"/>
-      <c r="GE13" s="16"/>
-      <c r="GF13" s="16"/>
-      <c r="GG13" s="16"/>
-      <c r="GH13" s="16"/>
-      <c r="GI13" s="16"/>
-      <c r="GJ13" s="16"/>
-      <c r="GK13" s="16"/>
-      <c r="GL13" s="16"/>
-      <c r="GM13" s="16"/>
-      <c r="GN13" s="16"/>
-      <c r="GO13" s="16"/>
-      <c r="GP13" s="16"/>
-      <c r="GQ13" s="16"/>
-      <c r="GR13" s="16"/>
-      <c r="GS13" s="16"/>
-      <c r="GT13" s="16"/>
-      <c r="GU13" s="16"/>
-      <c r="GV13" s="16"/>
-      <c r="GW13" s="16"/>
-      <c r="GX13" s="16"/>
-      <c r="GY13" s="16"/>
-      <c r="GZ13" s="16"/>
-      <c r="HA13" s="16"/>
-      <c r="HB13" s="16"/>
-      <c r="HC13" s="16"/>
-      <c r="HD13" s="16"/>
-      <c r="HE13" s="16"/>
-      <c r="HF13" s="16"/>
-      <c r="HG13" s="16"/>
-      <c r="HH13" s="16"/>
-      <c r="HI13" s="16"/>
-      <c r="HJ13" s="16"/>
-      <c r="HK13" s="16"/>
-      <c r="HL13" s="16"/>
-      <c r="HM13" s="16"/>
-      <c r="HN13" s="16"/>
-      <c r="HO13" s="16"/>
-      <c r="HP13" s="16"/>
-      <c r="HQ13" s="16"/>
-      <c r="HR13" s="16"/>
-      <c r="HS13" s="16"/>
-      <c r="HT13" s="16"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="14"/>
+      <c r="AQ13" s="14"/>
+      <c r="AR13" s="14"/>
+      <c r="AS13" s="14"/>
+      <c r="AT13" s="14"/>
+      <c r="AU13" s="14"/>
+      <c r="AV13" s="14"/>
+      <c r="AW13" s="14"/>
+      <c r="AX13" s="14"/>
+      <c r="AY13" s="14"/>
+      <c r="AZ13" s="14"/>
+      <c r="BA13" s="14"/>
+      <c r="BB13" s="14"/>
+      <c r="BC13" s="14"/>
+      <c r="BD13" s="14"/>
+      <c r="BE13" s="14"/>
+      <c r="BF13" s="14"/>
+      <c r="BG13" s="14"/>
+      <c r="BH13" s="14"/>
+      <c r="BI13" s="14"/>
+      <c r="BJ13" s="14"/>
+      <c r="BK13" s="14"/>
+      <c r="BL13" s="14"/>
+      <c r="BM13" s="14"/>
+      <c r="BN13" s="14"/>
+      <c r="BO13" s="14"/>
+      <c r="BP13" s="14"/>
+      <c r="BQ13" s="14"/>
+      <c r="BR13" s="14"/>
+      <c r="BS13" s="14"/>
+      <c r="BT13" s="14"/>
+      <c r="BU13" s="14"/>
+      <c r="BV13" s="14"/>
+      <c r="BW13" s="14"/>
+      <c r="BX13" s="14"/>
+      <c r="BY13" s="14"/>
+      <c r="BZ13" s="14"/>
+      <c r="CA13" s="14"/>
+      <c r="CB13" s="14"/>
+      <c r="CC13" s="14"/>
+      <c r="CD13" s="14"/>
+      <c r="CE13" s="14"/>
+      <c r="CF13" s="14"/>
+      <c r="CG13" s="14"/>
+      <c r="CH13" s="14"/>
+      <c r="CI13" s="14"/>
+      <c r="CJ13" s="14"/>
+      <c r="CK13" s="14"/>
+      <c r="CL13" s="14"/>
+      <c r="CM13" s="14"/>
+      <c r="CN13" s="14"/>
+      <c r="CO13" s="14"/>
+      <c r="CP13" s="14"/>
+      <c r="CQ13" s="14"/>
+      <c r="CR13" s="14"/>
+      <c r="CS13" s="14"/>
+      <c r="CT13" s="14"/>
+      <c r="CU13" s="14"/>
+      <c r="CV13" s="14"/>
+      <c r="CW13" s="14"/>
+      <c r="CX13" s="14"/>
+      <c r="CY13" s="14"/>
+      <c r="CZ13" s="14"/>
+      <c r="DA13" s="14"/>
+      <c r="DB13" s="14"/>
+      <c r="DC13" s="14"/>
+      <c r="DD13" s="14"/>
+      <c r="DE13" s="14"/>
+      <c r="DF13" s="14"/>
+      <c r="DG13" s="14"/>
+      <c r="DH13" s="14"/>
+      <c r="DI13" s="14"/>
+      <c r="DJ13" s="14"/>
+      <c r="DK13" s="14"/>
+      <c r="DL13" s="14"/>
+      <c r="DM13" s="14"/>
+      <c r="DN13" s="14"/>
+      <c r="DO13" s="14"/>
+      <c r="DP13" s="14"/>
+      <c r="DQ13" s="14"/>
+      <c r="DR13" s="14"/>
+      <c r="DS13" s="14"/>
+      <c r="DT13" s="14"/>
+      <c r="DU13" s="14"/>
+      <c r="DV13" s="14"/>
+      <c r="DW13" s="14"/>
+      <c r="DX13" s="14"/>
+      <c r="DY13" s="14"/>
+      <c r="DZ13" s="14"/>
+      <c r="EA13" s="14"/>
+      <c r="EB13" s="14"/>
+      <c r="EC13" s="14"/>
+      <c r="ED13" s="14"/>
+      <c r="EE13" s="14"/>
+      <c r="EF13" s="14"/>
+      <c r="EG13" s="14"/>
+      <c r="EH13" s="14"/>
+      <c r="EI13" s="14"/>
+      <c r="EJ13" s="14"/>
+      <c r="EK13" s="14"/>
+      <c r="EL13" s="14"/>
+      <c r="EM13" s="14"/>
+      <c r="EN13" s="14"/>
+      <c r="EO13" s="14"/>
+      <c r="EP13" s="14"/>
+      <c r="EQ13" s="14"/>
+      <c r="ER13" s="14"/>
+      <c r="ES13" s="14"/>
+      <c r="ET13" s="14"/>
+      <c r="EU13" s="14"/>
+      <c r="EV13" s="14"/>
+      <c r="EW13" s="14"/>
+      <c r="EX13" s="14"/>
+      <c r="EY13" s="14"/>
+      <c r="EZ13" s="14"/>
+      <c r="FA13" s="14"/>
+      <c r="FB13" s="14"/>
+      <c r="FC13" s="14"/>
+      <c r="FD13" s="14"/>
+      <c r="FE13" s="14"/>
+      <c r="FF13" s="14"/>
+      <c r="FG13" s="14"/>
+      <c r="FH13" s="14"/>
+      <c r="FI13" s="14"/>
+      <c r="FJ13" s="14"/>
+      <c r="FK13" s="14"/>
+      <c r="FL13" s="14"/>
+      <c r="FM13" s="14"/>
+      <c r="FN13" s="14"/>
+      <c r="FO13" s="14"/>
+      <c r="FP13" s="14"/>
+      <c r="FQ13" s="14"/>
+      <c r="FR13" s="14"/>
+      <c r="FS13" s="14"/>
+      <c r="FT13" s="14"/>
+      <c r="FU13" s="14"/>
+      <c r="FV13" s="14"/>
+      <c r="FW13" s="14"/>
+      <c r="FX13" s="14"/>
+      <c r="FY13" s="14"/>
+      <c r="FZ13" s="14"/>
+      <c r="GA13" s="14"/>
+      <c r="GB13" s="14"/>
+      <c r="GC13" s="14"/>
+      <c r="GD13" s="14"/>
+      <c r="GE13" s="14"/>
+      <c r="GF13" s="14"/>
+      <c r="GG13" s="14"/>
+      <c r="GH13" s="14"/>
+      <c r="GI13" s="14"/>
+      <c r="GJ13" s="14"/>
+      <c r="GK13" s="14"/>
+      <c r="GL13" s="14"/>
+      <c r="GM13" s="14"/>
+      <c r="GN13" s="14"/>
+      <c r="GO13" s="14"/>
+      <c r="GP13" s="14"/>
+      <c r="GQ13" s="14"/>
+      <c r="GR13" s="14"/>
+      <c r="GS13" s="14"/>
+      <c r="GT13" s="14"/>
+      <c r="GU13" s="14"/>
+      <c r="GV13" s="14"/>
+      <c r="GW13" s="14"/>
+      <c r="GX13" s="14"/>
+      <c r="GY13" s="14"/>
+      <c r="GZ13" s="14"/>
+      <c r="HA13" s="14"/>
+      <c r="HB13" s="14"/>
+      <c r="HC13" s="14"/>
+      <c r="HD13" s="14"/>
+      <c r="HE13" s="14"/>
+      <c r="HF13" s="14"/>
+      <c r="HG13" s="14"/>
+      <c r="HH13" s="14"/>
+      <c r="HI13" s="14"/>
+      <c r="HJ13" s="14"/>
+      <c r="HK13" s="14"/>
+      <c r="HL13" s="14"/>
+      <c r="HM13" s="14"/>
+      <c r="HN13" s="14"/>
+      <c r="HO13" s="14"/>
+      <c r="HP13" s="14"/>
+      <c r="HQ13" s="14"/>
+      <c r="HR13" s="14"/>
+      <c r="HS13" s="14"/>
+      <c r="HT13" s="14"/>
     </row>
-    <row r="14" spans="1:256" s="19" customFormat="1" ht="12">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:256" s="17" customFormat="1" ht="12">
+      <c r="A14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="16"/>
-      <c r="AJ14" s="16"/>
-      <c r="AK14" s="16"/>
-      <c r="AL14" s="16"/>
-      <c r="AM14" s="16"/>
-      <c r="AN14" s="16"/>
-      <c r="AO14" s="16"/>
-      <c r="AP14" s="16"/>
-      <c r="AQ14" s="16"/>
-      <c r="AR14" s="16"/>
-      <c r="AS14" s="16"/>
-      <c r="AT14" s="16"/>
-      <c r="AU14" s="16"/>
-      <c r="AV14" s="16"/>
-      <c r="AW14" s="16"/>
-      <c r="AX14" s="16"/>
-      <c r="AY14" s="16"/>
-      <c r="AZ14" s="16"/>
-      <c r="BA14" s="16"/>
-      <c r="BB14" s="16"/>
-      <c r="BC14" s="16"/>
-      <c r="BD14" s="16"/>
-      <c r="BE14" s="16"/>
-      <c r="BF14" s="16"/>
-      <c r="BG14" s="16"/>
-      <c r="BH14" s="16"/>
-      <c r="BI14" s="16"/>
-      <c r="BJ14" s="16"/>
-      <c r="BK14" s="16"/>
-      <c r="BL14" s="16"/>
-      <c r="BM14" s="16"/>
-      <c r="BN14" s="16"/>
-      <c r="BO14" s="16"/>
-      <c r="BP14" s="16"/>
-      <c r="BQ14" s="16"/>
-      <c r="BR14" s="16"/>
-      <c r="BS14" s="16"/>
-      <c r="BT14" s="16"/>
-      <c r="BU14" s="16"/>
-      <c r="BV14" s="16"/>
-      <c r="BW14" s="16"/>
-      <c r="BX14" s="16"/>
-      <c r="BY14" s="16"/>
-      <c r="BZ14" s="16"/>
-      <c r="CA14" s="16"/>
-      <c r="CB14" s="16"/>
-      <c r="CC14" s="16"/>
-      <c r="CD14" s="16"/>
-      <c r="CE14" s="16"/>
-      <c r="CF14" s="16"/>
-      <c r="CG14" s="16"/>
-      <c r="CH14" s="16"/>
-      <c r="CI14" s="16"/>
-      <c r="CJ14" s="16"/>
-      <c r="CK14" s="16"/>
-      <c r="CL14" s="16"/>
-      <c r="CM14" s="16"/>
-      <c r="CN14" s="16"/>
-      <c r="CO14" s="16"/>
-      <c r="CP14" s="16"/>
-      <c r="CQ14" s="16"/>
-      <c r="CR14" s="16"/>
-      <c r="CS14" s="16"/>
-      <c r="CT14" s="16"/>
-      <c r="CU14" s="16"/>
-      <c r="CV14" s="16"/>
-      <c r="CW14" s="16"/>
-      <c r="CX14" s="16"/>
-      <c r="CY14" s="16"/>
-      <c r="CZ14" s="16"/>
-      <c r="DA14" s="16"/>
-      <c r="DB14" s="16"/>
-      <c r="DC14" s="16"/>
-      <c r="DD14" s="16"/>
-      <c r="DE14" s="16"/>
-      <c r="DF14" s="16"/>
-      <c r="DG14" s="16"/>
-      <c r="DH14" s="16"/>
-      <c r="DI14" s="16"/>
-      <c r="DJ14" s="16"/>
-      <c r="DK14" s="16"/>
-      <c r="DL14" s="16"/>
-      <c r="DM14" s="16"/>
-      <c r="DN14" s="16"/>
-      <c r="DO14" s="16"/>
-      <c r="DP14" s="16"/>
-      <c r="DQ14" s="16"/>
-      <c r="DR14" s="16"/>
-      <c r="DS14" s="16"/>
-      <c r="DT14" s="16"/>
-      <c r="DU14" s="16"/>
-      <c r="DV14" s="16"/>
-      <c r="DW14" s="16"/>
-      <c r="DX14" s="16"/>
-      <c r="DY14" s="16"/>
-      <c r="DZ14" s="16"/>
-      <c r="EA14" s="16"/>
-      <c r="EB14" s="16"/>
-      <c r="EC14" s="16"/>
-      <c r="ED14" s="16"/>
-      <c r="EE14" s="16"/>
-      <c r="EF14" s="16"/>
-      <c r="EG14" s="16"/>
-      <c r="EH14" s="16"/>
-      <c r="EI14" s="16"/>
-      <c r="EJ14" s="16"/>
-      <c r="EK14" s="16"/>
-      <c r="EL14" s="16"/>
-      <c r="EM14" s="16"/>
-      <c r="EN14" s="16"/>
-      <c r="EO14" s="16"/>
-      <c r="EP14" s="16"/>
-      <c r="EQ14" s="16"/>
-      <c r="ER14" s="16"/>
-      <c r="ES14" s="16"/>
-      <c r="ET14" s="16"/>
-      <c r="EU14" s="16"/>
-      <c r="EV14" s="16"/>
-      <c r="EW14" s="16"/>
-      <c r="EX14" s="16"/>
-      <c r="EY14" s="16"/>
-      <c r="EZ14" s="16"/>
-      <c r="FA14" s="16"/>
-      <c r="FB14" s="16"/>
-      <c r="FC14" s="16"/>
-      <c r="FD14" s="16"/>
-      <c r="FE14" s="16"/>
-      <c r="FF14" s="16"/>
-      <c r="FG14" s="16"/>
-      <c r="FH14" s="16"/>
-      <c r="FI14" s="16"/>
-      <c r="FJ14" s="16"/>
-      <c r="FK14" s="16"/>
-      <c r="FL14" s="16"/>
-      <c r="FM14" s="16"/>
-      <c r="FN14" s="16"/>
-      <c r="FO14" s="16"/>
-      <c r="FP14" s="16"/>
-      <c r="FQ14" s="16"/>
-      <c r="FR14" s="16"/>
-      <c r="FS14" s="16"/>
-      <c r="FT14" s="16"/>
-      <c r="FU14" s="16"/>
-      <c r="FV14" s="16"/>
-      <c r="FW14" s="16"/>
-      <c r="FX14" s="16"/>
-      <c r="FY14" s="16"/>
-      <c r="FZ14" s="16"/>
-      <c r="GA14" s="16"/>
-      <c r="GB14" s="16"/>
-      <c r="GC14" s="16"/>
-      <c r="GD14" s="16"/>
-      <c r="GE14" s="16"/>
-      <c r="GF14" s="16"/>
-      <c r="GG14" s="16"/>
-      <c r="GH14" s="16"/>
-      <c r="GI14" s="16"/>
-      <c r="GJ14" s="16"/>
-      <c r="GK14" s="16"/>
-      <c r="GL14" s="16"/>
-      <c r="GM14" s="16"/>
-      <c r="GN14" s="16"/>
-      <c r="GO14" s="16"/>
-      <c r="GP14" s="16"/>
-      <c r="GQ14" s="16"/>
-      <c r="GR14" s="16"/>
-      <c r="GS14" s="16"/>
-      <c r="GT14" s="16"/>
-      <c r="GU14" s="16"/>
-      <c r="GV14" s="16"/>
-      <c r="GW14" s="16"/>
-      <c r="GX14" s="16"/>
-      <c r="GY14" s="16"/>
-      <c r="GZ14" s="16"/>
-      <c r="HA14" s="16"/>
-      <c r="HB14" s="16"/>
-      <c r="HC14" s="16"/>
-      <c r="HD14" s="16"/>
-      <c r="HE14" s="16"/>
-      <c r="HF14" s="16"/>
-      <c r="HG14" s="16"/>
-      <c r="HH14" s="16"/>
-      <c r="HI14" s="16"/>
-      <c r="HJ14" s="16"/>
-      <c r="HK14" s="16"/>
-      <c r="HL14" s="16"/>
-      <c r="HM14" s="16"/>
-      <c r="HN14" s="16"/>
-      <c r="HO14" s="16"/>
-      <c r="HP14" s="16"/>
-      <c r="HQ14" s="16"/>
-      <c r="HR14" s="16"/>
-      <c r="HS14" s="16"/>
-      <c r="HT14" s="16"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="14"/>
+      <c r="AS14" s="14"/>
+      <c r="AT14" s="14"/>
+      <c r="AU14" s="14"/>
+      <c r="AV14" s="14"/>
+      <c r="AW14" s="14"/>
+      <c r="AX14" s="14"/>
+      <c r="AY14" s="14"/>
+      <c r="AZ14" s="14"/>
+      <c r="BA14" s="14"/>
+      <c r="BB14" s="14"/>
+      <c r="BC14" s="14"/>
+      <c r="BD14" s="14"/>
+      <c r="BE14" s="14"/>
+      <c r="BF14" s="14"/>
+      <c r="BG14" s="14"/>
+      <c r="BH14" s="14"/>
+      <c r="BI14" s="14"/>
+      <c r="BJ14" s="14"/>
+      <c r="BK14" s="14"/>
+      <c r="BL14" s="14"/>
+      <c r="BM14" s="14"/>
+      <c r="BN14" s="14"/>
+      <c r="BO14" s="14"/>
+      <c r="BP14" s="14"/>
+      <c r="BQ14" s="14"/>
+      <c r="BR14" s="14"/>
+      <c r="BS14" s="14"/>
+      <c r="BT14" s="14"/>
+      <c r="BU14" s="14"/>
+      <c r="BV14" s="14"/>
+      <c r="BW14" s="14"/>
+      <c r="BX14" s="14"/>
+      <c r="BY14" s="14"/>
+      <c r="BZ14" s="14"/>
+      <c r="CA14" s="14"/>
+      <c r="CB14" s="14"/>
+      <c r="CC14" s="14"/>
+      <c r="CD14" s="14"/>
+      <c r="CE14" s="14"/>
+      <c r="CF14" s="14"/>
+      <c r="CG14" s="14"/>
+      <c r="CH14" s="14"/>
+      <c r="CI14" s="14"/>
+      <c r="CJ14" s="14"/>
+      <c r="CK14" s="14"/>
+      <c r="CL14" s="14"/>
+      <c r="CM14" s="14"/>
+      <c r="CN14" s="14"/>
+      <c r="CO14" s="14"/>
+      <c r="CP14" s="14"/>
+      <c r="CQ14" s="14"/>
+      <c r="CR14" s="14"/>
+      <c r="CS14" s="14"/>
+      <c r="CT14" s="14"/>
+      <c r="CU14" s="14"/>
+      <c r="CV14" s="14"/>
+      <c r="CW14" s="14"/>
+      <c r="CX14" s="14"/>
+      <c r="CY14" s="14"/>
+      <c r="CZ14" s="14"/>
+      <c r="DA14" s="14"/>
+      <c r="DB14" s="14"/>
+      <c r="DC14" s="14"/>
+      <c r="DD14" s="14"/>
+      <c r="DE14" s="14"/>
+      <c r="DF14" s="14"/>
+      <c r="DG14" s="14"/>
+      <c r="DH14" s="14"/>
+      <c r="DI14" s="14"/>
+      <c r="DJ14" s="14"/>
+      <c r="DK14" s="14"/>
+      <c r="DL14" s="14"/>
+      <c r="DM14" s="14"/>
+      <c r="DN14" s="14"/>
+      <c r="DO14" s="14"/>
+      <c r="DP14" s="14"/>
+      <c r="DQ14" s="14"/>
+      <c r="DR14" s="14"/>
+      <c r="DS14" s="14"/>
+      <c r="DT14" s="14"/>
+      <c r="DU14" s="14"/>
+      <c r="DV14" s="14"/>
+      <c r="DW14" s="14"/>
+      <c r="DX14" s="14"/>
+      <c r="DY14" s="14"/>
+      <c r="DZ14" s="14"/>
+      <c r="EA14" s="14"/>
+      <c r="EB14" s="14"/>
+      <c r="EC14" s="14"/>
+      <c r="ED14" s="14"/>
+      <c r="EE14" s="14"/>
+      <c r="EF14" s="14"/>
+      <c r="EG14" s="14"/>
+      <c r="EH14" s="14"/>
+      <c r="EI14" s="14"/>
+      <c r="EJ14" s="14"/>
+      <c r="EK14" s="14"/>
+      <c r="EL14" s="14"/>
+      <c r="EM14" s="14"/>
+      <c r="EN14" s="14"/>
+      <c r="EO14" s="14"/>
+      <c r="EP14" s="14"/>
+      <c r="EQ14" s="14"/>
+      <c r="ER14" s="14"/>
+      <c r="ES14" s="14"/>
+      <c r="ET14" s="14"/>
+      <c r="EU14" s="14"/>
+      <c r="EV14" s="14"/>
+      <c r="EW14" s="14"/>
+      <c r="EX14" s="14"/>
+      <c r="EY14" s="14"/>
+      <c r="EZ14" s="14"/>
+      <c r="FA14" s="14"/>
+      <c r="FB14" s="14"/>
+      <c r="FC14" s="14"/>
+      <c r="FD14" s="14"/>
+      <c r="FE14" s="14"/>
+      <c r="FF14" s="14"/>
+      <c r="FG14" s="14"/>
+      <c r="FH14" s="14"/>
+      <c r="FI14" s="14"/>
+      <c r="FJ14" s="14"/>
+      <c r="FK14" s="14"/>
+      <c r="FL14" s="14"/>
+      <c r="FM14" s="14"/>
+      <c r="FN14" s="14"/>
+      <c r="FO14" s="14"/>
+      <c r="FP14" s="14"/>
+      <c r="FQ14" s="14"/>
+      <c r="FR14" s="14"/>
+      <c r="FS14" s="14"/>
+      <c r="FT14" s="14"/>
+      <c r="FU14" s="14"/>
+      <c r="FV14" s="14"/>
+      <c r="FW14" s="14"/>
+      <c r="FX14" s="14"/>
+      <c r="FY14" s="14"/>
+      <c r="FZ14" s="14"/>
+      <c r="GA14" s="14"/>
+      <c r="GB14" s="14"/>
+      <c r="GC14" s="14"/>
+      <c r="GD14" s="14"/>
+      <c r="GE14" s="14"/>
+      <c r="GF14" s="14"/>
+      <c r="GG14" s="14"/>
+      <c r="GH14" s="14"/>
+      <c r="GI14" s="14"/>
+      <c r="GJ14" s="14"/>
+      <c r="GK14" s="14"/>
+      <c r="GL14" s="14"/>
+      <c r="GM14" s="14"/>
+      <c r="GN14" s="14"/>
+      <c r="GO14" s="14"/>
+      <c r="GP14" s="14"/>
+      <c r="GQ14" s="14"/>
+      <c r="GR14" s="14"/>
+      <c r="GS14" s="14"/>
+      <c r="GT14" s="14"/>
+      <c r="GU14" s="14"/>
+      <c r="GV14" s="14"/>
+      <c r="GW14" s="14"/>
+      <c r="GX14" s="14"/>
+      <c r="GY14" s="14"/>
+      <c r="GZ14" s="14"/>
+      <c r="HA14" s="14"/>
+      <c r="HB14" s="14"/>
+      <c r="HC14" s="14"/>
+      <c r="HD14" s="14"/>
+      <c r="HE14" s="14"/>
+      <c r="HF14" s="14"/>
+      <c r="HG14" s="14"/>
+      <c r="HH14" s="14"/>
+      <c r="HI14" s="14"/>
+      <c r="HJ14" s="14"/>
+      <c r="HK14" s="14"/>
+      <c r="HL14" s="14"/>
+      <c r="HM14" s="14"/>
+      <c r="HN14" s="14"/>
+      <c r="HO14" s="14"/>
+      <c r="HP14" s="14"/>
+      <c r="HQ14" s="14"/>
+      <c r="HR14" s="14"/>
+      <c r="HS14" s="14"/>
+      <c r="HT14" s="14"/>
     </row>
-    <row r="15" spans="1:256" s="19" customFormat="1" ht="12">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:256" s="17" customFormat="1" ht="12">
+      <c r="A15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="16"/>
-      <c r="AG15" s="16"/>
-      <c r="AH15" s="16"/>
-      <c r="AI15" s="16"/>
-      <c r="AJ15" s="16"/>
-      <c r="AK15" s="16"/>
-      <c r="AL15" s="16"/>
-      <c r="AM15" s="16"/>
-      <c r="AN15" s="16"/>
-      <c r="AO15" s="16"/>
-      <c r="AP15" s="16"/>
-      <c r="AQ15" s="16"/>
-      <c r="AR15" s="16"/>
-      <c r="AS15" s="16"/>
-      <c r="AT15" s="16"/>
-      <c r="AU15" s="16"/>
-      <c r="AV15" s="16"/>
-      <c r="AW15" s="16"/>
-      <c r="AX15" s="16"/>
-      <c r="AY15" s="16"/>
-      <c r="AZ15" s="16"/>
-      <c r="BA15" s="16"/>
-      <c r="BB15" s="16"/>
-      <c r="BC15" s="16"/>
-      <c r="BD15" s="16"/>
-      <c r="BE15" s="16"/>
-      <c r="BF15" s="16"/>
-      <c r="BG15" s="16"/>
-      <c r="BH15" s="16"/>
-      <c r="BI15" s="16"/>
-      <c r="BJ15" s="16"/>
-      <c r="BK15" s="16"/>
-      <c r="BL15" s="16"/>
-      <c r="BM15" s="16"/>
-      <c r="BN15" s="16"/>
-      <c r="BO15" s="16"/>
-      <c r="BP15" s="16"/>
-      <c r="BQ15" s="16"/>
-      <c r="BR15" s="16"/>
-      <c r="BS15" s="16"/>
-      <c r="BT15" s="16"/>
-      <c r="BU15" s="16"/>
-      <c r="BV15" s="16"/>
-      <c r="BW15" s="16"/>
-      <c r="BX15" s="16"/>
-      <c r="BY15" s="16"/>
-      <c r="BZ15" s="16"/>
-      <c r="CA15" s="16"/>
-      <c r="CB15" s="16"/>
-      <c r="CC15" s="16"/>
-      <c r="CD15" s="16"/>
-      <c r="CE15" s="16"/>
-      <c r="CF15" s="16"/>
-      <c r="CG15" s="16"/>
-      <c r="CH15" s="16"/>
-      <c r="CI15" s="16"/>
-      <c r="CJ15" s="16"/>
-      <c r="CK15" s="16"/>
-      <c r="CL15" s="16"/>
-      <c r="CM15" s="16"/>
-      <c r="CN15" s="16"/>
-      <c r="CO15" s="16"/>
-      <c r="CP15" s="16"/>
-      <c r="CQ15" s="16"/>
-      <c r="CR15" s="16"/>
-      <c r="CS15" s="16"/>
-      <c r="CT15" s="16"/>
-      <c r="CU15" s="16"/>
-      <c r="CV15" s="16"/>
-      <c r="CW15" s="16"/>
-      <c r="CX15" s="16"/>
-      <c r="CY15" s="16"/>
-      <c r="CZ15" s="16"/>
-      <c r="DA15" s="16"/>
-      <c r="DB15" s="16"/>
-      <c r="DC15" s="16"/>
-      <c r="DD15" s="16"/>
-      <c r="DE15" s="16"/>
-      <c r="DF15" s="16"/>
-      <c r="DG15" s="16"/>
-      <c r="DH15" s="16"/>
-      <c r="DI15" s="16"/>
-      <c r="DJ15" s="16"/>
-      <c r="DK15" s="16"/>
-      <c r="DL15" s="16"/>
-      <c r="DM15" s="16"/>
-      <c r="DN15" s="16"/>
-      <c r="DO15" s="16"/>
-      <c r="DP15" s="16"/>
-      <c r="DQ15" s="16"/>
-      <c r="DR15" s="16"/>
-      <c r="DS15" s="16"/>
-      <c r="DT15" s="16"/>
-      <c r="DU15" s="16"/>
-      <c r="DV15" s="16"/>
-      <c r="DW15" s="16"/>
-      <c r="DX15" s="16"/>
-      <c r="DY15" s="16"/>
-      <c r="DZ15" s="16"/>
-      <c r="EA15" s="16"/>
-      <c r="EB15" s="16"/>
-      <c r="EC15" s="16"/>
-      <c r="ED15" s="16"/>
-      <c r="EE15" s="16"/>
-      <c r="EF15" s="16"/>
-      <c r="EG15" s="16"/>
-      <c r="EH15" s="16"/>
-      <c r="EI15" s="16"/>
-      <c r="EJ15" s="16"/>
-      <c r="EK15" s="16"/>
-      <c r="EL15" s="16"/>
-      <c r="EM15" s="16"/>
-      <c r="EN15" s="16"/>
-      <c r="EO15" s="16"/>
-      <c r="EP15" s="16"/>
-      <c r="EQ15" s="16"/>
-      <c r="ER15" s="16"/>
-      <c r="ES15" s="16"/>
-      <c r="ET15" s="16"/>
-      <c r="EU15" s="16"/>
-      <c r="EV15" s="16"/>
-      <c r="EW15" s="16"/>
-      <c r="EX15" s="16"/>
-      <c r="EY15" s="16"/>
-      <c r="EZ15" s="16"/>
-      <c r="FA15" s="16"/>
-      <c r="FB15" s="16"/>
-      <c r="FC15" s="16"/>
-      <c r="FD15" s="16"/>
-      <c r="FE15" s="16"/>
-      <c r="FF15" s="16"/>
-      <c r="FG15" s="16"/>
-      <c r="FH15" s="16"/>
-      <c r="FI15" s="16"/>
-      <c r="FJ15" s="16"/>
-      <c r="FK15" s="16"/>
-      <c r="FL15" s="16"/>
-      <c r="FM15" s="16"/>
-      <c r="FN15" s="16"/>
-      <c r="FO15" s="16"/>
-      <c r="FP15" s="16"/>
-      <c r="FQ15" s="16"/>
-      <c r="FR15" s="16"/>
-      <c r="FS15" s="16"/>
-      <c r="FT15" s="16"/>
-      <c r="FU15" s="16"/>
-      <c r="FV15" s="16"/>
-      <c r="FW15" s="16"/>
-      <c r="FX15" s="16"/>
-      <c r="FY15" s="16"/>
-      <c r="FZ15" s="16"/>
-      <c r="GA15" s="16"/>
-      <c r="GB15" s="16"/>
-      <c r="GC15" s="16"/>
-      <c r="GD15" s="16"/>
-      <c r="GE15" s="16"/>
-      <c r="GF15" s="16"/>
-      <c r="GG15" s="16"/>
-      <c r="GH15" s="16"/>
-      <c r="GI15" s="16"/>
-      <c r="GJ15" s="16"/>
-      <c r="GK15" s="16"/>
-      <c r="GL15" s="16"/>
-      <c r="GM15" s="16"/>
-      <c r="GN15" s="16"/>
-      <c r="GO15" s="16"/>
-      <c r="GP15" s="16"/>
-      <c r="GQ15" s="16"/>
-      <c r="GR15" s="16"/>
-      <c r="GS15" s="16"/>
-      <c r="GT15" s="16"/>
-      <c r="GU15" s="16"/>
-      <c r="GV15" s="16"/>
-      <c r="GW15" s="16"/>
-      <c r="GX15" s="16"/>
-      <c r="GY15" s="16"/>
-      <c r="GZ15" s="16"/>
-      <c r="HA15" s="16"/>
-      <c r="HB15" s="16"/>
-      <c r="HC15" s="16"/>
-      <c r="HD15" s="16"/>
-      <c r="HE15" s="16"/>
-      <c r="HF15" s="16"/>
-      <c r="HG15" s="16"/>
-      <c r="HH15" s="16"/>
-      <c r="HI15" s="16"/>
-      <c r="HJ15" s="16"/>
-      <c r="HK15" s="16"/>
-      <c r="HL15" s="16"/>
-      <c r="HM15" s="16"/>
-      <c r="HN15" s="16"/>
-      <c r="HO15" s="16"/>
-      <c r="HP15" s="16"/>
-      <c r="HQ15" s="16"/>
-      <c r="HR15" s="16"/>
-      <c r="HS15" s="16"/>
-      <c r="HT15" s="16"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="14"/>
+      <c r="AT15" s="14"/>
+      <c r="AU15" s="14"/>
+      <c r="AV15" s="14"/>
+      <c r="AW15" s="14"/>
+      <c r="AX15" s="14"/>
+      <c r="AY15" s="14"/>
+      <c r="AZ15" s="14"/>
+      <c r="BA15" s="14"/>
+      <c r="BB15" s="14"/>
+      <c r="BC15" s="14"/>
+      <c r="BD15" s="14"/>
+      <c r="BE15" s="14"/>
+      <c r="BF15" s="14"/>
+      <c r="BG15" s="14"/>
+      <c r="BH15" s="14"/>
+      <c r="BI15" s="14"/>
+      <c r="BJ15" s="14"/>
+      <c r="BK15" s="14"/>
+      <c r="BL15" s="14"/>
+      <c r="BM15" s="14"/>
+      <c r="BN15" s="14"/>
+      <c r="BO15" s="14"/>
+      <c r="BP15" s="14"/>
+      <c r="BQ15" s="14"/>
+      <c r="BR15" s="14"/>
+      <c r="BS15" s="14"/>
+      <c r="BT15" s="14"/>
+      <c r="BU15" s="14"/>
+      <c r="BV15" s="14"/>
+      <c r="BW15" s="14"/>
+      <c r="BX15" s="14"/>
+      <c r="BY15" s="14"/>
+      <c r="BZ15" s="14"/>
+      <c r="CA15" s="14"/>
+      <c r="CB15" s="14"/>
+      <c r="CC15" s="14"/>
+      <c r="CD15" s="14"/>
+      <c r="CE15" s="14"/>
+      <c r="CF15" s="14"/>
+      <c r="CG15" s="14"/>
+      <c r="CH15" s="14"/>
+      <c r="CI15" s="14"/>
+      <c r="CJ15" s="14"/>
+      <c r="CK15" s="14"/>
+      <c r="CL15" s="14"/>
+      <c r="CM15" s="14"/>
+      <c r="CN15" s="14"/>
+      <c r="CO15" s="14"/>
+      <c r="CP15" s="14"/>
+      <c r="CQ15" s="14"/>
+      <c r="CR15" s="14"/>
+      <c r="CS15" s="14"/>
+      <c r="CT15" s="14"/>
+      <c r="CU15" s="14"/>
+      <c r="CV15" s="14"/>
+      <c r="CW15" s="14"/>
+      <c r="CX15" s="14"/>
+      <c r="CY15" s="14"/>
+      <c r="CZ15" s="14"/>
+      <c r="DA15" s="14"/>
+      <c r="DB15" s="14"/>
+      <c r="DC15" s="14"/>
+      <c r="DD15" s="14"/>
+      <c r="DE15" s="14"/>
+      <c r="DF15" s="14"/>
+      <c r="DG15" s="14"/>
+      <c r="DH15" s="14"/>
+      <c r="DI15" s="14"/>
+      <c r="DJ15" s="14"/>
+      <c r="DK15" s="14"/>
+      <c r="DL15" s="14"/>
+      <c r="DM15" s="14"/>
+      <c r="DN15" s="14"/>
+      <c r="DO15" s="14"/>
+      <c r="DP15" s="14"/>
+      <c r="DQ15" s="14"/>
+      <c r="DR15" s="14"/>
+      <c r="DS15" s="14"/>
+      <c r="DT15" s="14"/>
+      <c r="DU15" s="14"/>
+      <c r="DV15" s="14"/>
+      <c r="DW15" s="14"/>
+      <c r="DX15" s="14"/>
+      <c r="DY15" s="14"/>
+      <c r="DZ15" s="14"/>
+      <c r="EA15" s="14"/>
+      <c r="EB15" s="14"/>
+      <c r="EC15" s="14"/>
+      <c r="ED15" s="14"/>
+      <c r="EE15" s="14"/>
+      <c r="EF15" s="14"/>
+      <c r="EG15" s="14"/>
+      <c r="EH15" s="14"/>
+      <c r="EI15" s="14"/>
+      <c r="EJ15" s="14"/>
+      <c r="EK15" s="14"/>
+      <c r="EL15" s="14"/>
+      <c r="EM15" s="14"/>
+      <c r="EN15" s="14"/>
+      <c r="EO15" s="14"/>
+      <c r="EP15" s="14"/>
+      <c r="EQ15" s="14"/>
+      <c r="ER15" s="14"/>
+      <c r="ES15" s="14"/>
+      <c r="ET15" s="14"/>
+      <c r="EU15" s="14"/>
+      <c r="EV15" s="14"/>
+      <c r="EW15" s="14"/>
+      <c r="EX15" s="14"/>
+      <c r="EY15" s="14"/>
+      <c r="EZ15" s="14"/>
+      <c r="FA15" s="14"/>
+      <c r="FB15" s="14"/>
+      <c r="FC15" s="14"/>
+      <c r="FD15" s="14"/>
+      <c r="FE15" s="14"/>
+      <c r="FF15" s="14"/>
+      <c r="FG15" s="14"/>
+      <c r="FH15" s="14"/>
+      <c r="FI15" s="14"/>
+      <c r="FJ15" s="14"/>
+      <c r="FK15" s="14"/>
+      <c r="FL15" s="14"/>
+      <c r="FM15" s="14"/>
+      <c r="FN15" s="14"/>
+      <c r="FO15" s="14"/>
+      <c r="FP15" s="14"/>
+      <c r="FQ15" s="14"/>
+      <c r="FR15" s="14"/>
+      <c r="FS15" s="14"/>
+      <c r="FT15" s="14"/>
+      <c r="FU15" s="14"/>
+      <c r="FV15" s="14"/>
+      <c r="FW15" s="14"/>
+      <c r="FX15" s="14"/>
+      <c r="FY15" s="14"/>
+      <c r="FZ15" s="14"/>
+      <c r="GA15" s="14"/>
+      <c r="GB15" s="14"/>
+      <c r="GC15" s="14"/>
+      <c r="GD15" s="14"/>
+      <c r="GE15" s="14"/>
+      <c r="GF15" s="14"/>
+      <c r="GG15" s="14"/>
+      <c r="GH15" s="14"/>
+      <c r="GI15" s="14"/>
+      <c r="GJ15" s="14"/>
+      <c r="GK15" s="14"/>
+      <c r="GL15" s="14"/>
+      <c r="GM15" s="14"/>
+      <c r="GN15" s="14"/>
+      <c r="GO15" s="14"/>
+      <c r="GP15" s="14"/>
+      <c r="GQ15" s="14"/>
+      <c r="GR15" s="14"/>
+      <c r="GS15" s="14"/>
+      <c r="GT15" s="14"/>
+      <c r="GU15" s="14"/>
+      <c r="GV15" s="14"/>
+      <c r="GW15" s="14"/>
+      <c r="GX15" s="14"/>
+      <c r="GY15" s="14"/>
+      <c r="GZ15" s="14"/>
+      <c r="HA15" s="14"/>
+      <c r="HB15" s="14"/>
+      <c r="HC15" s="14"/>
+      <c r="HD15" s="14"/>
+      <c r="HE15" s="14"/>
+      <c r="HF15" s="14"/>
+      <c r="HG15" s="14"/>
+      <c r="HH15" s="14"/>
+      <c r="HI15" s="14"/>
+      <c r="HJ15" s="14"/>
+      <c r="HK15" s="14"/>
+      <c r="HL15" s="14"/>
+      <c r="HM15" s="14"/>
+      <c r="HN15" s="14"/>
+      <c r="HO15" s="14"/>
+      <c r="HP15" s="14"/>
+      <c r="HQ15" s="14"/>
+      <c r="HR15" s="14"/>
+      <c r="HS15" s="14"/>
+      <c r="HT15" s="14"/>
     </row>
     <row r="16" spans="1:256">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="I16" s="59"/>
       <c r="J16" s="2"/>
-      <c r="P16" s="26"/>
-      <c r="W16" s="27"/>
+      <c r="P16" s="24"/>
+      <c r="W16" s="25"/>
     </row>
     <row r="17" spans="1:256">
-      <c r="A17" s="24"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="I17" s="59"/>
       <c r="J17" s="2"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="W17" s="29"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="W17" s="27"/>
     </row>
     <row r="18" spans="1:256">
-      <c r="A18" s="23"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="59"/>
       <c r="J18" s="2"/>
-      <c r="P18" s="26"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="30"/>
-      <c r="AI18" s="30"/>
-      <c r="AJ18" s="30"/>
-      <c r="AK18" s="30"/>
-      <c r="AL18" s="30"/>
-      <c r="AM18" s="30"/>
-      <c r="AN18" s="30"/>
-      <c r="AO18" s="30"/>
-      <c r="AP18" s="30"/>
-      <c r="AQ18" s="30"/>
-      <c r="AR18" s="30"/>
-      <c r="AS18" s="30"/>
-      <c r="AT18" s="30"/>
-      <c r="AU18" s="30"/>
-      <c r="AV18" s="30"/>
-      <c r="AW18" s="30"/>
-      <c r="AX18" s="30"/>
-      <c r="AY18" s="30"/>
-      <c r="AZ18" s="30"/>
-      <c r="BA18" s="30"/>
-      <c r="BB18" s="30"/>
-      <c r="BC18" s="30"/>
-      <c r="BD18" s="30"/>
-      <c r="BE18" s="30"/>
-      <c r="BF18" s="30"/>
-      <c r="BG18" s="30"/>
-      <c r="BH18" s="30"/>
-      <c r="BI18" s="30"/>
-      <c r="BJ18" s="30"/>
-      <c r="BK18" s="30"/>
-      <c r="BL18" s="30"/>
-      <c r="BM18" s="30"/>
-      <c r="BN18" s="30"/>
-      <c r="BO18" s="30"/>
-      <c r="BP18" s="30"/>
-      <c r="BQ18" s="30"/>
-      <c r="BR18" s="30"/>
-      <c r="BS18" s="30"/>
-      <c r="BT18" s="30"/>
-      <c r="BU18" s="30"/>
-      <c r="BV18" s="30"/>
-      <c r="BW18" s="30"/>
-      <c r="BX18" s="30"/>
-      <c r="BY18" s="30"/>
-      <c r="BZ18" s="30"/>
-      <c r="CA18" s="30"/>
-      <c r="CB18" s="30"/>
-      <c r="CC18" s="30"/>
-      <c r="CD18" s="30"/>
-      <c r="CE18" s="30"/>
-      <c r="CF18" s="30"/>
-      <c r="CG18" s="30"/>
-      <c r="CH18" s="30"/>
-      <c r="CI18" s="30"/>
-      <c r="CJ18" s="30"/>
-      <c r="CK18" s="30"/>
-      <c r="CL18" s="30"/>
-      <c r="CM18" s="30"/>
-      <c r="CN18" s="30"/>
-      <c r="CO18" s="30"/>
-      <c r="CP18" s="30"/>
-      <c r="CQ18" s="30"/>
-      <c r="CR18" s="30"/>
-      <c r="CS18" s="30"/>
-      <c r="CT18" s="30"/>
-      <c r="CU18" s="30"/>
-      <c r="CV18" s="30"/>
-      <c r="CW18" s="30"/>
-      <c r="CX18" s="30"/>
-      <c r="CY18" s="30"/>
-      <c r="CZ18" s="30"/>
-      <c r="DA18" s="30"/>
-      <c r="DB18" s="30"/>
-      <c r="DC18" s="30"/>
-      <c r="DD18" s="30"/>
-      <c r="DE18" s="30"/>
-      <c r="DF18" s="30"/>
-      <c r="DG18" s="30"/>
-      <c r="DH18" s="30"/>
-      <c r="DI18" s="30"/>
-      <c r="DJ18" s="30"/>
-      <c r="DK18" s="30"/>
-      <c r="DL18" s="30"/>
-      <c r="DM18" s="30"/>
-      <c r="DN18" s="30"/>
-      <c r="DO18" s="30"/>
-      <c r="DP18" s="30"/>
-      <c r="DQ18" s="30"/>
-      <c r="DR18" s="30"/>
-      <c r="DS18" s="30"/>
-      <c r="DT18" s="30"/>
-      <c r="DU18" s="30"/>
-      <c r="DV18" s="30"/>
-      <c r="DW18" s="30"/>
-      <c r="DX18" s="30"/>
-      <c r="DY18" s="30"/>
-      <c r="DZ18" s="30"/>
-      <c r="EA18" s="30"/>
-      <c r="EB18" s="30"/>
-      <c r="EC18" s="30"/>
-      <c r="ED18" s="30"/>
-      <c r="EE18" s="30"/>
-      <c r="EF18" s="30"/>
-      <c r="EG18" s="30"/>
-      <c r="EH18" s="30"/>
-      <c r="EI18" s="30"/>
-      <c r="EJ18" s="30"/>
-      <c r="EK18" s="30"/>
-      <c r="EL18" s="30"/>
-      <c r="EM18" s="30"/>
-      <c r="EN18" s="30"/>
-      <c r="EO18" s="30"/>
-      <c r="EP18" s="30"/>
-      <c r="EQ18" s="30"/>
-      <c r="ER18" s="30"/>
-      <c r="ES18" s="30"/>
-      <c r="ET18" s="30"/>
-      <c r="EU18" s="30"/>
-      <c r="EV18" s="30"/>
-      <c r="EW18" s="30"/>
-      <c r="EX18" s="30"/>
-      <c r="EY18" s="30"/>
-      <c r="EZ18" s="30"/>
-      <c r="FA18" s="30"/>
-      <c r="FB18" s="30"/>
-      <c r="FC18" s="30"/>
-      <c r="FD18" s="30"/>
-      <c r="FE18" s="30"/>
-      <c r="FF18" s="30"/>
-      <c r="FG18" s="30"/>
-      <c r="FH18" s="30"/>
-      <c r="FI18" s="30"/>
-      <c r="FJ18" s="30"/>
-      <c r="FK18" s="30"/>
-      <c r="FL18" s="30"/>
-      <c r="FM18" s="30"/>
-      <c r="FN18" s="30"/>
-      <c r="FO18" s="30"/>
-      <c r="FP18" s="30"/>
-      <c r="FQ18" s="30"/>
-      <c r="FR18" s="30"/>
-      <c r="FS18" s="30"/>
-      <c r="FT18" s="30"/>
-      <c r="FU18" s="30"/>
-      <c r="FV18" s="30"/>
-      <c r="FW18" s="30"/>
-      <c r="FX18" s="30"/>
-      <c r="FY18" s="30"/>
-      <c r="FZ18" s="30"/>
-      <c r="GA18" s="30"/>
-      <c r="GB18" s="30"/>
-      <c r="GC18" s="30"/>
-      <c r="GD18" s="30"/>
-      <c r="GE18" s="30"/>
-      <c r="GF18" s="30"/>
-      <c r="GG18" s="30"/>
-      <c r="GH18" s="30"/>
-      <c r="GI18" s="30"/>
-      <c r="GJ18" s="30"/>
-      <c r="GK18" s="30"/>
-      <c r="GL18" s="30"/>
-      <c r="GM18" s="30"/>
-      <c r="GN18" s="30"/>
-      <c r="GO18" s="30"/>
-      <c r="GP18" s="30"/>
-      <c r="GQ18" s="30"/>
-      <c r="GR18" s="30"/>
-      <c r="GS18" s="30"/>
-      <c r="GT18" s="30"/>
-      <c r="GU18" s="30"/>
-      <c r="GV18" s="30"/>
-      <c r="GW18" s="30"/>
-      <c r="GX18" s="30"/>
-      <c r="GY18" s="30"/>
-      <c r="GZ18" s="30"/>
-      <c r="HA18" s="30"/>
-      <c r="HB18" s="30"/>
-      <c r="HC18" s="30"/>
-      <c r="HD18" s="30"/>
-      <c r="HE18" s="30"/>
-      <c r="HF18" s="30"/>
-      <c r="HG18" s="30"/>
-      <c r="HH18" s="30"/>
-      <c r="HI18" s="30"/>
-      <c r="HJ18" s="30"/>
-      <c r="HK18" s="30"/>
-      <c r="HL18" s="30"/>
-      <c r="HM18" s="30"/>
-      <c r="HN18" s="30"/>
-      <c r="HO18" s="30"/>
-      <c r="HP18" s="30"/>
-      <c r="HQ18" s="30"/>
-      <c r="HR18" s="30"/>
-      <c r="HS18" s="30"/>
-      <c r="HT18" s="30"/>
-      <c r="HU18" s="31"/>
-      <c r="HV18" s="31"/>
-      <c r="HW18" s="31"/>
-      <c r="HX18" s="31"/>
-      <c r="HY18" s="31"/>
-      <c r="HZ18" s="31"/>
-      <c r="IA18" s="31"/>
-      <c r="IB18" s="31"/>
-      <c r="IC18" s="31"/>
-      <c r="ID18" s="31"/>
-      <c r="IE18" s="31"/>
-      <c r="IF18" s="31"/>
-      <c r="IG18" s="31"/>
-      <c r="IH18" s="31"/>
-      <c r="II18" s="31"/>
-      <c r="IJ18" s="31"/>
-      <c r="IK18" s="31"/>
-      <c r="IL18" s="31"/>
-      <c r="IM18" s="31"/>
-      <c r="IN18" s="31"/>
-      <c r="IO18" s="31"/>
-      <c r="IP18" s="31"/>
-      <c r="IQ18" s="31"/>
-      <c r="IR18" s="31"/>
-      <c r="IS18" s="31"/>
-      <c r="IT18" s="31"/>
-      <c r="IU18" s="31"/>
-      <c r="IV18" s="31"/>
+      <c r="P18" s="24"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="28"/>
+      <c r="AK18" s="28"/>
+      <c r="AL18" s="28"/>
+      <c r="AM18" s="28"/>
+      <c r="AN18" s="28"/>
+      <c r="AO18" s="28"/>
+      <c r="AP18" s="28"/>
+      <c r="AQ18" s="28"/>
+      <c r="AR18" s="28"/>
+      <c r="AS18" s="28"/>
+      <c r="AT18" s="28"/>
+      <c r="AU18" s="28"/>
+      <c r="AV18" s="28"/>
+      <c r="AW18" s="28"/>
+      <c r="AX18" s="28"/>
+      <c r="AY18" s="28"/>
+      <c r="AZ18" s="28"/>
+      <c r="BA18" s="28"/>
+      <c r="BB18" s="28"/>
+      <c r="BC18" s="28"/>
+      <c r="BD18" s="28"/>
+      <c r="BE18" s="28"/>
+      <c r="BF18" s="28"/>
+      <c r="BG18" s="28"/>
+      <c r="BH18" s="28"/>
+      <c r="BI18" s="28"/>
+      <c r="BJ18" s="28"/>
+      <c r="BK18" s="28"/>
+      <c r="BL18" s="28"/>
+      <c r="BM18" s="28"/>
+      <c r="BN18" s="28"/>
+      <c r="BO18" s="28"/>
+      <c r="BP18" s="28"/>
+      <c r="BQ18" s="28"/>
+      <c r="BR18" s="28"/>
+      <c r="BS18" s="28"/>
+      <c r="BT18" s="28"/>
+      <c r="BU18" s="28"/>
+      <c r="BV18" s="28"/>
+      <c r="BW18" s="28"/>
+      <c r="BX18" s="28"/>
+      <c r="BY18" s="28"/>
+      <c r="BZ18" s="28"/>
+      <c r="CA18" s="28"/>
+      <c r="CB18" s="28"/>
+      <c r="CC18" s="28"/>
+      <c r="CD18" s="28"/>
+      <c r="CE18" s="28"/>
+      <c r="CF18" s="28"/>
+      <c r="CG18" s="28"/>
+      <c r="CH18" s="28"/>
+      <c r="CI18" s="28"/>
+      <c r="CJ18" s="28"/>
+      <c r="CK18" s="28"/>
+      <c r="CL18" s="28"/>
+      <c r="CM18" s="28"/>
+      <c r="CN18" s="28"/>
+      <c r="CO18" s="28"/>
+      <c r="CP18" s="28"/>
+      <c r="CQ18" s="28"/>
+      <c r="CR18" s="28"/>
+      <c r="CS18" s="28"/>
+      <c r="CT18" s="28"/>
+      <c r="CU18" s="28"/>
+      <c r="CV18" s="28"/>
+      <c r="CW18" s="28"/>
+      <c r="CX18" s="28"/>
+      <c r="CY18" s="28"/>
+      <c r="CZ18" s="28"/>
+      <c r="DA18" s="28"/>
+      <c r="DB18" s="28"/>
+      <c r="DC18" s="28"/>
+      <c r="DD18" s="28"/>
+      <c r="DE18" s="28"/>
+      <c r="DF18" s="28"/>
+      <c r="DG18" s="28"/>
+      <c r="DH18" s="28"/>
+      <c r="DI18" s="28"/>
+      <c r="DJ18" s="28"/>
+      <c r="DK18" s="28"/>
+      <c r="DL18" s="28"/>
+      <c r="DM18" s="28"/>
+      <c r="DN18" s="28"/>
+      <c r="DO18" s="28"/>
+      <c r="DP18" s="28"/>
+      <c r="DQ18" s="28"/>
+      <c r="DR18" s="28"/>
+      <c r="DS18" s="28"/>
+      <c r="DT18" s="28"/>
+      <c r="DU18" s="28"/>
+      <c r="DV18" s="28"/>
+      <c r="DW18" s="28"/>
+      <c r="DX18" s="28"/>
+      <c r="DY18" s="28"/>
+      <c r="DZ18" s="28"/>
+      <c r="EA18" s="28"/>
+      <c r="EB18" s="28"/>
+      <c r="EC18" s="28"/>
+      <c r="ED18" s="28"/>
+      <c r="EE18" s="28"/>
+      <c r="EF18" s="28"/>
+      <c r="EG18" s="28"/>
+      <c r="EH18" s="28"/>
+      <c r="EI18" s="28"/>
+      <c r="EJ18" s="28"/>
+      <c r="EK18" s="28"/>
+      <c r="EL18" s="28"/>
+      <c r="EM18" s="28"/>
+      <c r="EN18" s="28"/>
+      <c r="EO18" s="28"/>
+      <c r="EP18" s="28"/>
+      <c r="EQ18" s="28"/>
+      <c r="ER18" s="28"/>
+      <c r="ES18" s="28"/>
+      <c r="ET18" s="28"/>
+      <c r="EU18" s="28"/>
+      <c r="EV18" s="28"/>
+      <c r="EW18" s="28"/>
+      <c r="EX18" s="28"/>
+      <c r="EY18" s="28"/>
+      <c r="EZ18" s="28"/>
+      <c r="FA18" s="28"/>
+      <c r="FB18" s="28"/>
+      <c r="FC18" s="28"/>
+      <c r="FD18" s="28"/>
+      <c r="FE18" s="28"/>
+      <c r="FF18" s="28"/>
+      <c r="FG18" s="28"/>
+      <c r="FH18" s="28"/>
+      <c r="FI18" s="28"/>
+      <c r="FJ18" s="28"/>
+      <c r="FK18" s="28"/>
+      <c r="FL18" s="28"/>
+      <c r="FM18" s="28"/>
+      <c r="FN18" s="28"/>
+      <c r="FO18" s="28"/>
+      <c r="FP18" s="28"/>
+      <c r="FQ18" s="28"/>
+      <c r="FR18" s="28"/>
+      <c r="FS18" s="28"/>
+      <c r="FT18" s="28"/>
+      <c r="FU18" s="28"/>
+      <c r="FV18" s="28"/>
+      <c r="FW18" s="28"/>
+      <c r="FX18" s="28"/>
+      <c r="FY18" s="28"/>
+      <c r="FZ18" s="28"/>
+      <c r="GA18" s="28"/>
+      <c r="GB18" s="28"/>
+      <c r="GC18" s="28"/>
+      <c r="GD18" s="28"/>
+      <c r="GE18" s="28"/>
+      <c r="GF18" s="28"/>
+      <c r="GG18" s="28"/>
+      <c r="GH18" s="28"/>
+      <c r="GI18" s="28"/>
+      <c r="GJ18" s="28"/>
+      <c r="GK18" s="28"/>
+      <c r="GL18" s="28"/>
+      <c r="GM18" s="28"/>
+      <c r="GN18" s="28"/>
+      <c r="GO18" s="28"/>
+      <c r="GP18" s="28"/>
+      <c r="GQ18" s="28"/>
+      <c r="GR18" s="28"/>
+      <c r="GS18" s="28"/>
+      <c r="GT18" s="28"/>
+      <c r="GU18" s="28"/>
+      <c r="GV18" s="28"/>
+      <c r="GW18" s="28"/>
+      <c r="GX18" s="28"/>
+      <c r="GY18" s="28"/>
+      <c r="GZ18" s="28"/>
+      <c r="HA18" s="28"/>
+      <c r="HB18" s="28"/>
+      <c r="HC18" s="28"/>
+      <c r="HD18" s="28"/>
+      <c r="HE18" s="28"/>
+      <c r="HF18" s="28"/>
+      <c r="HG18" s="28"/>
+      <c r="HH18" s="28"/>
+      <c r="HI18" s="28"/>
+      <c r="HJ18" s="28"/>
+      <c r="HK18" s="28"/>
+      <c r="HL18" s="28"/>
+      <c r="HM18" s="28"/>
+      <c r="HN18" s="28"/>
+      <c r="HO18" s="28"/>
+      <c r="HP18" s="28"/>
+      <c r="HQ18" s="28"/>
+      <c r="HR18" s="28"/>
+      <c r="HS18" s="28"/>
+      <c r="HT18" s="28"/>
+      <c r="HU18" s="29"/>
+      <c r="HV18" s="29"/>
+      <c r="HW18" s="29"/>
+      <c r="HX18" s="29"/>
+      <c r="HY18" s="29"/>
+      <c r="HZ18" s="29"/>
+      <c r="IA18" s="29"/>
+      <c r="IB18" s="29"/>
+      <c r="IC18" s="29"/>
+      <c r="ID18" s="29"/>
+      <c r="IE18" s="29"/>
+      <c r="IF18" s="29"/>
+      <c r="IG18" s="29"/>
+      <c r="IH18" s="29"/>
+      <c r="II18" s="29"/>
+      <c r="IJ18" s="29"/>
+      <c r="IK18" s="29"/>
+      <c r="IL18" s="29"/>
+      <c r="IM18" s="29"/>
+      <c r="IN18" s="29"/>
+      <c r="IO18" s="29"/>
+      <c r="IP18" s="29"/>
+      <c r="IQ18" s="29"/>
+      <c r="IR18" s="29"/>
+      <c r="IS18" s="29"/>
+      <c r="IT18" s="29"/>
+      <c r="IU18" s="29"/>
+      <c r="IV18" s="29"/>
     </row>
-    <row r="19" spans="1:256" s="30" customFormat="1">
-      <c r="A19" s="23"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="HU19" s="31"/>
-      <c r="HV19" s="31"/>
-      <c r="HW19" s="31"/>
-      <c r="HX19" s="31"/>
-      <c r="HY19" s="31"/>
-      <c r="HZ19" s="31"/>
-      <c r="IA19" s="31"/>
-      <c r="IB19" s="31"/>
-      <c r="IC19" s="31"/>
-      <c r="ID19" s="31"/>
-      <c r="IE19" s="31"/>
-      <c r="IF19" s="31"/>
-      <c r="IG19" s="31"/>
-      <c r="IH19" s="31"/>
-      <c r="II19" s="31"/>
-      <c r="IJ19" s="31"/>
-      <c r="IK19" s="31"/>
-      <c r="IL19" s="31"/>
-      <c r="IM19" s="31"/>
-      <c r="IN19" s="31"/>
-      <c r="IO19" s="31"/>
-      <c r="IP19" s="31"/>
-      <c r="IQ19" s="31"/>
-      <c r="IR19" s="31"/>
-      <c r="IS19" s="31"/>
-      <c r="IT19" s="31"/>
-      <c r="IU19" s="31"/>
-      <c r="IV19" s="31"/>
+    <row r="19" spans="1:256" s="28" customFormat="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="32"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="HU19" s="29"/>
+      <c r="HV19" s="29"/>
+      <c r="HW19" s="29"/>
+      <c r="HX19" s="29"/>
+      <c r="HY19" s="29"/>
+      <c r="HZ19" s="29"/>
+      <c r="IA19" s="29"/>
+      <c r="IB19" s="29"/>
+      <c r="IC19" s="29"/>
+      <c r="ID19" s="29"/>
+      <c r="IE19" s="29"/>
+      <c r="IF19" s="29"/>
+      <c r="IG19" s="29"/>
+      <c r="IH19" s="29"/>
+      <c r="II19" s="29"/>
+      <c r="IJ19" s="29"/>
+      <c r="IK19" s="29"/>
+      <c r="IL19" s="29"/>
+      <c r="IM19" s="29"/>
+      <c r="IN19" s="29"/>
+      <c r="IO19" s="29"/>
+      <c r="IP19" s="29"/>
+      <c r="IQ19" s="29"/>
+      <c r="IR19" s="29"/>
+      <c r="IS19" s="29"/>
+      <c r="IT19" s="29"/>
+      <c r="IU19" s="29"/>
+      <c r="IV19" s="29"/>
     </row>
-    <row r="20" spans="1:256" s="30" customFormat="1">
-      <c r="A20" s="37"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="69"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="69"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="69"/>
+    <row r="20" spans="1:256" s="28" customFormat="1">
+      <c r="A20" s="34"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="32"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
@@ -4602,278 +4672,278 @@
       <c r="IV20" s="3"/>
     </row>
     <row r="21" spans="1:256">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="S21" s="30"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="S21" s="28"/>
     </row>
     <row r="22" spans="1:256">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
     </row>
     <row r="23" spans="1:256">
-      <c r="A23" s="39"/>
-      <c r="B23" s="40"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="45"/>
-      <c r="V23" s="46"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="41"/>
+      <c r="V23" s="42"/>
     </row>
     <row r="24" spans="1:256">
-      <c r="B24" s="40"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="45"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="30"/>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="30"/>
-      <c r="AG24" s="30"/>
-      <c r="AH24" s="30"/>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="30"/>
-      <c r="AK24" s="30"/>
-      <c r="AL24" s="30"/>
-      <c r="AM24" s="30"/>
-      <c r="AN24" s="30"/>
-      <c r="AO24" s="30"/>
-      <c r="AP24" s="30"/>
-      <c r="AQ24" s="30"/>
-      <c r="AR24" s="30"/>
-      <c r="AS24" s="30"/>
-      <c r="AT24" s="30"/>
-      <c r="AU24" s="30"/>
-      <c r="AV24" s="30"/>
-      <c r="AW24" s="30"/>
-      <c r="AX24" s="30"/>
-      <c r="AY24" s="30"/>
-      <c r="AZ24" s="30"/>
-      <c r="BA24" s="30"/>
-      <c r="BB24" s="30"/>
-      <c r="BC24" s="30"/>
-      <c r="BD24" s="30"/>
-      <c r="BE24" s="30"/>
-      <c r="BF24" s="30"/>
-      <c r="BG24" s="30"/>
-      <c r="BH24" s="30"/>
-      <c r="BI24" s="30"/>
-      <c r="BJ24" s="30"/>
-      <c r="BK24" s="30"/>
-      <c r="BL24" s="30"/>
-      <c r="BM24" s="30"/>
-      <c r="BN24" s="30"/>
-      <c r="BO24" s="30"/>
-      <c r="BP24" s="30"/>
-      <c r="BQ24" s="30"/>
-      <c r="BR24" s="30"/>
-      <c r="BS24" s="30"/>
-      <c r="BT24" s="30"/>
-      <c r="BU24" s="30"/>
-      <c r="BV24" s="30"/>
-      <c r="BW24" s="30"/>
-      <c r="BX24" s="30"/>
-      <c r="BY24" s="30"/>
-      <c r="BZ24" s="30"/>
-      <c r="CA24" s="30"/>
-      <c r="CB24" s="30"/>
-      <c r="CC24" s="30"/>
-      <c r="CD24" s="30"/>
-      <c r="CE24" s="30"/>
-      <c r="CF24" s="30"/>
-      <c r="CG24" s="30"/>
-      <c r="CH24" s="30"/>
-      <c r="CI24" s="30"/>
-      <c r="CJ24" s="30"/>
-      <c r="CK24" s="30"/>
-      <c r="CL24" s="30"/>
-      <c r="CM24" s="30"/>
-      <c r="CN24" s="30"/>
-      <c r="CO24" s="30"/>
-      <c r="CP24" s="30"/>
-      <c r="CQ24" s="30"/>
-      <c r="CR24" s="30"/>
-      <c r="CS24" s="30"/>
-      <c r="CT24" s="30"/>
-      <c r="CU24" s="30"/>
-      <c r="CV24" s="30"/>
-      <c r="CW24" s="30"/>
-      <c r="CX24" s="30"/>
-      <c r="CY24" s="30"/>
-      <c r="CZ24" s="30"/>
-      <c r="DA24" s="30"/>
-      <c r="DB24" s="30"/>
-      <c r="DC24" s="30"/>
-      <c r="DD24" s="30"/>
-      <c r="DE24" s="30"/>
-      <c r="DF24" s="30"/>
-      <c r="DG24" s="30"/>
-      <c r="DH24" s="30"/>
-      <c r="DI24" s="30"/>
-      <c r="DJ24" s="30"/>
-      <c r="DK24" s="30"/>
-      <c r="DL24" s="30"/>
-      <c r="DM24" s="30"/>
-      <c r="DN24" s="30"/>
-      <c r="DO24" s="30"/>
-      <c r="DP24" s="30"/>
-      <c r="DQ24" s="30"/>
-      <c r="DR24" s="30"/>
-      <c r="DS24" s="30"/>
-      <c r="DT24" s="30"/>
-      <c r="DU24" s="30"/>
-      <c r="DV24" s="30"/>
-      <c r="DW24" s="30"/>
-      <c r="DX24" s="30"/>
-      <c r="DY24" s="30"/>
-      <c r="DZ24" s="30"/>
-      <c r="EA24" s="30"/>
-      <c r="EB24" s="30"/>
-      <c r="EC24" s="30"/>
-      <c r="ED24" s="30"/>
-      <c r="EE24" s="30"/>
-      <c r="EF24" s="30"/>
-      <c r="EG24" s="30"/>
-      <c r="EH24" s="30"/>
-      <c r="EI24" s="30"/>
-      <c r="EJ24" s="30"/>
-      <c r="EK24" s="30"/>
-      <c r="EL24" s="30"/>
-      <c r="EM24" s="30"/>
-      <c r="EN24" s="30"/>
-      <c r="EO24" s="30"/>
-      <c r="EP24" s="30"/>
-      <c r="EQ24" s="30"/>
-      <c r="ER24" s="30"/>
-      <c r="ES24" s="30"/>
-      <c r="ET24" s="30"/>
-      <c r="EU24" s="30"/>
-      <c r="EV24" s="30"/>
-      <c r="EW24" s="30"/>
-      <c r="EX24" s="30"/>
-      <c r="EY24" s="30"/>
-      <c r="EZ24" s="30"/>
-      <c r="FA24" s="30"/>
-      <c r="FB24" s="30"/>
-      <c r="FC24" s="30"/>
-      <c r="FD24" s="30"/>
-      <c r="FE24" s="30"/>
-      <c r="FF24" s="30"/>
-      <c r="FG24" s="30"/>
-      <c r="FH24" s="30"/>
-      <c r="FI24" s="30"/>
-      <c r="FJ24" s="30"/>
-      <c r="FK24" s="30"/>
-      <c r="FL24" s="30"/>
-      <c r="FM24" s="30"/>
-      <c r="FN24" s="30"/>
-      <c r="FO24" s="30"/>
-      <c r="FP24" s="30"/>
-      <c r="FQ24" s="30"/>
-      <c r="FR24" s="30"/>
-      <c r="FS24" s="30"/>
-      <c r="FT24" s="30"/>
-      <c r="FU24" s="30"/>
-      <c r="FV24" s="30"/>
-      <c r="FW24" s="30"/>
-      <c r="FX24" s="30"/>
-      <c r="FY24" s="30"/>
-      <c r="FZ24" s="30"/>
-      <c r="GA24" s="30"/>
-      <c r="GB24" s="30"/>
-      <c r="GC24" s="30"/>
-      <c r="GD24" s="30"/>
-      <c r="GE24" s="30"/>
-      <c r="GF24" s="30"/>
-      <c r="GG24" s="30"/>
-      <c r="GH24" s="30"/>
-      <c r="GI24" s="30"/>
-      <c r="GJ24" s="30"/>
-      <c r="GK24" s="30"/>
-      <c r="GL24" s="30"/>
-      <c r="GM24" s="30"/>
-      <c r="GN24" s="30"/>
-      <c r="GO24" s="30"/>
-      <c r="GP24" s="30"/>
-      <c r="GQ24" s="30"/>
-      <c r="GR24" s="30"/>
-      <c r="GS24" s="30"/>
-      <c r="GT24" s="30"/>
-      <c r="GU24" s="30"/>
-      <c r="GV24" s="30"/>
-      <c r="GW24" s="30"/>
-      <c r="GX24" s="30"/>
-      <c r="GY24" s="30"/>
-      <c r="GZ24" s="30"/>
-      <c r="HA24" s="30"/>
-      <c r="HB24" s="30"/>
-      <c r="HC24" s="30"/>
-      <c r="HD24" s="30"/>
-      <c r="HE24" s="30"/>
-      <c r="HF24" s="30"/>
-      <c r="HG24" s="30"/>
-      <c r="HH24" s="30"/>
-      <c r="HI24" s="30"/>
-      <c r="HJ24" s="30"/>
-      <c r="HK24" s="30"/>
-      <c r="HL24" s="30"/>
-      <c r="HM24" s="30"/>
-      <c r="HN24" s="30"/>
-      <c r="HO24" s="30"/>
-      <c r="HP24" s="30"/>
-      <c r="HQ24" s="30"/>
-      <c r="HR24" s="30"/>
-      <c r="HS24" s="30"/>
-      <c r="HT24" s="30"/>
-      <c r="HU24" s="31"/>
-      <c r="HV24" s="31"/>
-      <c r="HW24" s="31"/>
-      <c r="HX24" s="31"/>
-      <c r="HY24" s="31"/>
-      <c r="HZ24" s="31"/>
-      <c r="IA24" s="31"/>
-      <c r="IB24" s="31"/>
-      <c r="IC24" s="31"/>
-      <c r="ID24" s="31"/>
-      <c r="IE24" s="31"/>
-      <c r="IF24" s="31"/>
-      <c r="IG24" s="31"/>
-      <c r="IH24" s="31"/>
-      <c r="II24" s="31"/>
-      <c r="IJ24" s="31"/>
-      <c r="IK24" s="31"/>
-      <c r="IL24" s="31"/>
-      <c r="IM24" s="31"/>
-      <c r="IN24" s="31"/>
-      <c r="IO24" s="31"/>
-      <c r="IP24" s="31"/>
-      <c r="IQ24" s="31"/>
-      <c r="IR24" s="31"/>
-      <c r="IS24" s="31"/>
-      <c r="IT24" s="31"/>
-      <c r="IU24" s="31"/>
-      <c r="IV24" s="31"/>
+      <c r="B24" s="37"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="41"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="28"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="28"/>
+      <c r="AL24" s="28"/>
+      <c r="AM24" s="28"/>
+      <c r="AN24" s="28"/>
+      <c r="AO24" s="28"/>
+      <c r="AP24" s="28"/>
+      <c r="AQ24" s="28"/>
+      <c r="AR24" s="28"/>
+      <c r="AS24" s="28"/>
+      <c r="AT24" s="28"/>
+      <c r="AU24" s="28"/>
+      <c r="AV24" s="28"/>
+      <c r="AW24" s="28"/>
+      <c r="AX24" s="28"/>
+      <c r="AY24" s="28"/>
+      <c r="AZ24" s="28"/>
+      <c r="BA24" s="28"/>
+      <c r="BB24" s="28"/>
+      <c r="BC24" s="28"/>
+      <c r="BD24" s="28"/>
+      <c r="BE24" s="28"/>
+      <c r="BF24" s="28"/>
+      <c r="BG24" s="28"/>
+      <c r="BH24" s="28"/>
+      <c r="BI24" s="28"/>
+      <c r="BJ24" s="28"/>
+      <c r="BK24" s="28"/>
+      <c r="BL24" s="28"/>
+      <c r="BM24" s="28"/>
+      <c r="BN24" s="28"/>
+      <c r="BO24" s="28"/>
+      <c r="BP24" s="28"/>
+      <c r="BQ24" s="28"/>
+      <c r="BR24" s="28"/>
+      <c r="BS24" s="28"/>
+      <c r="BT24" s="28"/>
+      <c r="BU24" s="28"/>
+      <c r="BV24" s="28"/>
+      <c r="BW24" s="28"/>
+      <c r="BX24" s="28"/>
+      <c r="BY24" s="28"/>
+      <c r="BZ24" s="28"/>
+      <c r="CA24" s="28"/>
+      <c r="CB24" s="28"/>
+      <c r="CC24" s="28"/>
+      <c r="CD24" s="28"/>
+      <c r="CE24" s="28"/>
+      <c r="CF24" s="28"/>
+      <c r="CG24" s="28"/>
+      <c r="CH24" s="28"/>
+      <c r="CI24" s="28"/>
+      <c r="CJ24" s="28"/>
+      <c r="CK24" s="28"/>
+      <c r="CL24" s="28"/>
+      <c r="CM24" s="28"/>
+      <c r="CN24" s="28"/>
+      <c r="CO24" s="28"/>
+      <c r="CP24" s="28"/>
+      <c r="CQ24" s="28"/>
+      <c r="CR24" s="28"/>
+      <c r="CS24" s="28"/>
+      <c r="CT24" s="28"/>
+      <c r="CU24" s="28"/>
+      <c r="CV24" s="28"/>
+      <c r="CW24" s="28"/>
+      <c r="CX24" s="28"/>
+      <c r="CY24" s="28"/>
+      <c r="CZ24" s="28"/>
+      <c r="DA24" s="28"/>
+      <c r="DB24" s="28"/>
+      <c r="DC24" s="28"/>
+      <c r="DD24" s="28"/>
+      <c r="DE24" s="28"/>
+      <c r="DF24" s="28"/>
+      <c r="DG24" s="28"/>
+      <c r="DH24" s="28"/>
+      <c r="DI24" s="28"/>
+      <c r="DJ24" s="28"/>
+      <c r="DK24" s="28"/>
+      <c r="DL24" s="28"/>
+      <c r="DM24" s="28"/>
+      <c r="DN24" s="28"/>
+      <c r="DO24" s="28"/>
+      <c r="DP24" s="28"/>
+      <c r="DQ24" s="28"/>
+      <c r="DR24" s="28"/>
+      <c r="DS24" s="28"/>
+      <c r="DT24" s="28"/>
+      <c r="DU24" s="28"/>
+      <c r="DV24" s="28"/>
+      <c r="DW24" s="28"/>
+      <c r="DX24" s="28"/>
+      <c r="DY24" s="28"/>
+      <c r="DZ24" s="28"/>
+      <c r="EA24" s="28"/>
+      <c r="EB24" s="28"/>
+      <c r="EC24" s="28"/>
+      <c r="ED24" s="28"/>
+      <c r="EE24" s="28"/>
+      <c r="EF24" s="28"/>
+      <c r="EG24" s="28"/>
+      <c r="EH24" s="28"/>
+      <c r="EI24" s="28"/>
+      <c r="EJ24" s="28"/>
+      <c r="EK24" s="28"/>
+      <c r="EL24" s="28"/>
+      <c r="EM24" s="28"/>
+      <c r="EN24" s="28"/>
+      <c r="EO24" s="28"/>
+      <c r="EP24" s="28"/>
+      <c r="EQ24" s="28"/>
+      <c r="ER24" s="28"/>
+      <c r="ES24" s="28"/>
+      <c r="ET24" s="28"/>
+      <c r="EU24" s="28"/>
+      <c r="EV24" s="28"/>
+      <c r="EW24" s="28"/>
+      <c r="EX24" s="28"/>
+      <c r="EY24" s="28"/>
+      <c r="EZ24" s="28"/>
+      <c r="FA24" s="28"/>
+      <c r="FB24" s="28"/>
+      <c r="FC24" s="28"/>
+      <c r="FD24" s="28"/>
+      <c r="FE24" s="28"/>
+      <c r="FF24" s="28"/>
+      <c r="FG24" s="28"/>
+      <c r="FH24" s="28"/>
+      <c r="FI24" s="28"/>
+      <c r="FJ24" s="28"/>
+      <c r="FK24" s="28"/>
+      <c r="FL24" s="28"/>
+      <c r="FM24" s="28"/>
+      <c r="FN24" s="28"/>
+      <c r="FO24" s="28"/>
+      <c r="FP24" s="28"/>
+      <c r="FQ24" s="28"/>
+      <c r="FR24" s="28"/>
+      <c r="FS24" s="28"/>
+      <c r="FT24" s="28"/>
+      <c r="FU24" s="28"/>
+      <c r="FV24" s="28"/>
+      <c r="FW24" s="28"/>
+      <c r="FX24" s="28"/>
+      <c r="FY24" s="28"/>
+      <c r="FZ24" s="28"/>
+      <c r="GA24" s="28"/>
+      <c r="GB24" s="28"/>
+      <c r="GC24" s="28"/>
+      <c r="GD24" s="28"/>
+      <c r="GE24" s="28"/>
+      <c r="GF24" s="28"/>
+      <c r="GG24" s="28"/>
+      <c r="GH24" s="28"/>
+      <c r="GI24" s="28"/>
+      <c r="GJ24" s="28"/>
+      <c r="GK24" s="28"/>
+      <c r="GL24" s="28"/>
+      <c r="GM24" s="28"/>
+      <c r="GN24" s="28"/>
+      <c r="GO24" s="28"/>
+      <c r="GP24" s="28"/>
+      <c r="GQ24" s="28"/>
+      <c r="GR24" s="28"/>
+      <c r="GS24" s="28"/>
+      <c r="GT24" s="28"/>
+      <c r="GU24" s="28"/>
+      <c r="GV24" s="28"/>
+      <c r="GW24" s="28"/>
+      <c r="GX24" s="28"/>
+      <c r="GY24" s="28"/>
+      <c r="GZ24" s="28"/>
+      <c r="HA24" s="28"/>
+      <c r="HB24" s="28"/>
+      <c r="HC24" s="28"/>
+      <c r="HD24" s="28"/>
+      <c r="HE24" s="28"/>
+      <c r="HF24" s="28"/>
+      <c r="HG24" s="28"/>
+      <c r="HH24" s="28"/>
+      <c r="HI24" s="28"/>
+      <c r="HJ24" s="28"/>
+      <c r="HK24" s="28"/>
+      <c r="HL24" s="28"/>
+      <c r="HM24" s="28"/>
+      <c r="HN24" s="28"/>
+      <c r="HO24" s="28"/>
+      <c r="HP24" s="28"/>
+      <c r="HQ24" s="28"/>
+      <c r="HR24" s="28"/>
+      <c r="HS24" s="28"/>
+      <c r="HT24" s="28"/>
+      <c r="HU24" s="29"/>
+      <c r="HV24" s="29"/>
+      <c r="HW24" s="29"/>
+      <c r="HX24" s="29"/>
+      <c r="HY24" s="29"/>
+      <c r="HZ24" s="29"/>
+      <c r="IA24" s="29"/>
+      <c r="IB24" s="29"/>
+      <c r="IC24" s="29"/>
+      <c r="ID24" s="29"/>
+      <c r="IE24" s="29"/>
+      <c r="IF24" s="29"/>
+      <c r="IG24" s="29"/>
+      <c r="IH24" s="29"/>
+      <c r="II24" s="29"/>
+      <c r="IJ24" s="29"/>
+      <c r="IK24" s="29"/>
+      <c r="IL24" s="29"/>
+      <c r="IM24" s="29"/>
+      <c r="IN24" s="29"/>
+      <c r="IO24" s="29"/>
+      <c r="IP24" s="29"/>
+      <c r="IQ24" s="29"/>
+      <c r="IR24" s="29"/>
+      <c r="IS24" s="29"/>
+      <c r="IT24" s="29"/>
+      <c r="IU24" s="29"/>
+      <c r="IV24" s="29"/>
     </row>
-    <row r="25" spans="1:256" s="30" customFormat="1">
+    <row r="25" spans="1:256" s="28" customFormat="1">
       <c r="A25" s="3"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="43"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
@@ -5109,14 +5179,38 @@
       <c r="IV25" s="3"/>
     </row>
     <row r="26" spans="1:256" ht="18.75">
-      <c r="A26" s="31"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="67"/>
+      <c r="A26" s="29"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A5:W5"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="M4:W4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="M1:W1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="M2:W2"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:W10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A6:W6"/>
     <mergeCell ref="P26:S26"/>
     <mergeCell ref="A12:B12"/>
@@ -5133,30 +5227,6 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A5:W5"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:W10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="M4:W4"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="M1:W1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="M2:W2"/>
-    <mergeCell ref="A3:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/QuanLySuCo_2018_11_08/3-Coding/code/DesktopModules/QLSC/bieumau/BAO_CAO_THANG.xlsx
+++ b/QuanLySuCo_2018_11_08/3-Coding/code/DesktopModules/QLSC/bieumau/BAO_CAO_THANG.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <r>
       <t>CỘNG TY ĐIỆN LỰC SÓC TRĂNG</t>
@@ -174,12 +174,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tình hình sự cố tháng từ ngày 01 đến ngày 28/02/2018   </t>
-  </si>
-  <si>
-    <t>hhh</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
 </sst>
 </file>
@@ -404,7 +398,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -561,66 +555,78 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="20" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1221,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="16.5"/>
@@ -1232,7 +1238,7 @@
     <col min="3" max="4" width="5.85546875" style="38" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="4" customWidth="1"/>
     <col min="8" max="8" width="6" style="4" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" style="62" customWidth="1"/>
     <col min="10" max="10" width="4.42578125" style="4" customWidth="1"/>
@@ -2774,7 +2780,7 @@
       <c r="D1" s="76"/>
       <c r="E1" s="76"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="G1" s="65"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -2851,7 +2857,7 @@
       <c r="D4" s="74"/>
       <c r="E4" s="74"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="G4" s="64"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -2872,58 +2878,58 @@
       <c r="W4" s="75"/>
     </row>
     <row r="5" spans="1:256" ht="22.5" customHeight="1">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="65"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
     </row>
     <row r="6" spans="1:256" ht="22.5" customHeight="1">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
     </row>
     <row r="7" spans="1:256" ht="18.75">
       <c r="A7" s="7"/>
@@ -2932,7 +2938,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="G7" s="66"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -2951,57 +2957,57 @@
       <c r="W7" s="7"/>
     </row>
     <row r="8" spans="1:256">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="72" t="s">
+      <c r="E8" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="72" t="s">
+      <c r="H8" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72" t="s">
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="72" t="s">
+      <c r="L8" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="72" t="s">
+      <c r="M8" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="72" t="s">
+      <c r="N8" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="73" t="s">
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="U8" s="72" t="s">
+      <c r="U8" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72" t="s">
+      <c r="V8" s="73"/>
+      <c r="W8" s="73" t="s">
         <v>18</v>
       </c>
       <c r="X8" s="8"/>
@@ -3239,62 +3245,62 @@
       <c r="IV8" s="8"/>
     </row>
     <row r="9" spans="1:256" s="9" customFormat="1">
-      <c r="A9" s="80"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72" t="s">
+      <c r="A9" s="71"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="72" t="s">
+      <c r="I9" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="72" t="s">
+      <c r="J9" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72" t="s">
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72" t="s">
+      <c r="O9" s="73"/>
+      <c r="P9" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72" t="s">
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="S9" s="72" t="s">
+      <c r="S9" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="T9" s="73"/>
-      <c r="U9" s="72" t="s">
+      <c r="T9" s="86"/>
+      <c r="U9" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="V9" s="72" t="s">
+      <c r="V9" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="W9" s="72"/>
+      <c r="W9" s="73"/>
     </row>
     <row r="10" spans="1:256" s="9" customFormat="1" ht="36">
-      <c r="A10" s="80"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="10" t="s">
         <v>28</v>
       </c>
@@ -3307,12 +3313,12 @@
       <c r="Q10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="72"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="86"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
     </row>
     <row r="11" spans="1:256" s="48" customFormat="1" ht="12.75">
       <c r="A11" s="44"/>
@@ -3323,82 +3329,48 @@
         <v>30</v>
       </c>
       <c r="F11" s="47"/>
-      <c r="G11" s="82" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="58">
-        <v>1</v>
-      </c>
-      <c r="J11" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="O11" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q11" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="R11" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="S11" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="T11" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="U11" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="V11" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="W11" s="50" t="s">
-        <v>40</v>
-      </c>
+      <c r="G11" s="68"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
     </row>
     <row r="12" spans="1:256">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="67"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="53"/>
       <c r="D12" s="53"/>
       <c r="E12" s="2"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="2"/>
       <c r="I12" s="59"/>
       <c r="J12" s="2"/>
-      <c r="O12" s="68" t="s">
+      <c r="O12" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="82"/>
     </row>
     <row r="13" spans="1:256" s="17" customFormat="1" ht="12">
       <c r="A13" s="12" t="s">
@@ -3409,7 +3381,7 @@
       <c r="D13" s="54"/>
       <c r="E13" s="14"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="14"/>
+      <c r="G13" s="54"/>
       <c r="H13" s="14"/>
       <c r="I13" s="60"/>
       <c r="J13" s="14"/>
@@ -3419,12 +3391,12 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
       <c r="P13" s="16"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="83"/>
       <c r="W13" s="14"/>
       <c r="X13" s="14"/>
       <c r="Y13" s="14"/>
@@ -3641,7 +3613,7 @@
       <c r="D14" s="54"/>
       <c r="E14" s="14"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="14"/>
+      <c r="G14" s="54"/>
       <c r="H14" s="14"/>
       <c r="I14" s="60"/>
       <c r="J14" s="14"/>
@@ -3873,7 +3845,7 @@
       <c r="D15" s="54"/>
       <c r="E15" s="14"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="14"/>
+      <c r="G15" s="54"/>
       <c r="H15" s="14"/>
       <c r="I15" s="60"/>
       <c r="J15" s="14"/>
@@ -4103,7 +4075,7 @@
       <c r="D16" s="55"/>
       <c r="E16" s="22"/>
       <c r="F16" s="23"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="53"/>
       <c r="H16" s="2"/>
       <c r="I16" s="59"/>
       <c r="J16" s="2"/>
@@ -4117,16 +4089,16 @@
       <c r="D17" s="56"/>
       <c r="E17" s="26"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="53"/>
       <c r="H17" s="2"/>
       <c r="I17" s="59"/>
       <c r="J17" s="2"/>
       <c r="P17" s="24"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="84"/>
+      <c r="T17" s="84"/>
+      <c r="U17" s="84"/>
       <c r="W17" s="27"/>
     </row>
     <row r="18" spans="1:256">
@@ -4136,7 +4108,7 @@
       <c r="D18" s="56"/>
       <c r="E18" s="26"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="53"/>
       <c r="H18" s="2"/>
       <c r="I18" s="59"/>
       <c r="J18" s="2"/>
@@ -4382,7 +4354,7 @@
       <c r="D19" s="40"/>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
+      <c r="G19" s="67"/>
       <c r="H19" s="32"/>
       <c r="I19" s="61"/>
       <c r="J19" s="32"/>
@@ -4426,17 +4398,17 @@
       <c r="D20" s="40"/>
       <c r="E20" s="31"/>
       <c r="F20" s="35"/>
-      <c r="G20" s="32"/>
+      <c r="G20" s="67"/>
       <c r="H20" s="32"/>
       <c r="I20" s="61"/>
       <c r="J20" s="32"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="68"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="82"/>
+      <c r="U20" s="82"/>
+      <c r="V20" s="82"/>
+      <c r="W20" s="82"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
@@ -4939,8 +4911,8 @@
       <c r="C25" s="38"/>
       <c r="D25" s="30"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
       <c r="H25" s="43"/>
       <c r="I25" s="63"/>
       <c r="J25" s="43"/>
@@ -5180,36 +5152,14 @@
     </row>
     <row r="26" spans="1:256" ht="18.75">
       <c r="A26" s="29"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="66"/>
-      <c r="S26" s="66"/>
+      <c r="P26" s="80"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A5:W5"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="M4:W4"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="M1:W1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="M2:W2"/>
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:W10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A6:W6"/>
     <mergeCell ref="P26:S26"/>
@@ -5226,7 +5176,29 @@
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
-    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="M4:W4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="M1:W1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="M2:W2"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="A5:W5"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:W10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="R9:R10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/QuanLySuCo_2018_11_08/3-Coding/code/DesktopModules/QLSC/bieumau/BAO_CAO_THANG.xlsx
+++ b/QuanLySuCo_2018_11_08/3-Coding/code/DesktopModules/QLSC/bieumau/BAO_CAO_THANG.xlsx
@@ -119,13 +119,6 @@
     <t>Khách hàng</t>
   </si>
   <si>
-    <t>Đ.
-trục</t>
-  </si>
-  <si>
-    <t>N.rẽ</t>
-  </si>
-  <si>
     <t>Không có sự cố</t>
   </si>
   <si>
@@ -174,6 +167,12 @@
   </si>
   <si>
     <t xml:space="preserve">Tình hình sự cố tháng từ ngày 01 đến ngày 28/02/2018   </t>
+  </si>
+  <si>
+    <t>Bật MC</t>
+  </si>
+  <si>
+    <t>RCS</t>
   </si>
 </sst>
 </file>
@@ -571,11 +570,54 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -584,49 +626,6 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1228,7 +1227,7 @@
   <dimension ref="A1:IV26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="X14" sqref="X13:X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="16.5"/>
@@ -2772,13 +2771,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
       <c r="F1" s="1"/>
       <c r="G1" s="65"/>
       <c r="H1" s="1"/>
@@ -2786,76 +2785,76 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="77" t="s">
+      <c r="M1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
     </row>
     <row r="2" spans="1:256" ht="18.75">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
       <c r="I2" s="4"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="78" t="s">
+      <c r="M2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
     </row>
     <row r="3" spans="1:256">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
     </row>
     <row r="4" spans="1:256">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
       <c r="F4" s="6"/>
       <c r="G4" s="64"/>
       <c r="H4" s="6"/>
@@ -2863,73 +2862,73 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="75" t="s">
+      <c r="M4" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+    </row>
+    <row r="5" spans="1:256" ht="22.5" customHeight="1">
+      <c r="A5" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="71"/>
+    </row>
+    <row r="6" spans="1:256" ht="22.5" customHeight="1">
+      <c r="A6" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
-    </row>
-    <row r="5" spans="1:256" ht="22.5" customHeight="1">
-      <c r="A5" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="70"/>
-    </row>
-    <row r="6" spans="1:256" ht="22.5" customHeight="1">
-      <c r="A6" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
     </row>
     <row r="7" spans="1:256" ht="18.75">
       <c r="A7" s="7"/>
@@ -2957,57 +2956,57 @@
       <c r="W7" s="7"/>
     </row>
     <row r="8" spans="1:256">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="73" t="s">
+      <c r="F8" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="73" t="s">
+      <c r="G8" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="73" t="s">
+      <c r="H8" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73" t="s">
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="73" t="s">
+      <c r="L8" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="73" t="s">
+      <c r="M8" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="73" t="s">
+      <c r="N8" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="86" t="s">
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="U8" s="73" t="s">
+      <c r="U8" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="V8" s="73"/>
-      <c r="W8" s="73" t="s">
+      <c r="V8" s="69"/>
+      <c r="W8" s="69" t="s">
         <v>18</v>
       </c>
       <c r="X8" s="8"/>
@@ -3245,80 +3244,80 @@
       <c r="IV8" s="8"/>
     </row>
     <row r="9" spans="1:256" s="9" customFormat="1">
-      <c r="A9" s="71"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73" t="s">
+      <c r="A9" s="85"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="73" t="s">
+      <c r="I9" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="73" t="s">
+      <c r="J9" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73" t="s">
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73" t="s">
+      <c r="O9" s="69"/>
+      <c r="P9" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73" t="s">
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="S9" s="73" t="s">
+      <c r="S9" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="T9" s="86"/>
-      <c r="U9" s="73" t="s">
+      <c r="T9" s="78"/>
+      <c r="U9" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="V9" s="73" t="s">
+      <c r="V9" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="W9" s="73"/>
+      <c r="W9" s="69"/>
     </row>
     <row r="10" spans="1:256" s="9" customFormat="1" ht="36">
-      <c r="A10" s="71"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
       <c r="N10" s="10" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="86"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="69"/>
     </row>
     <row r="11" spans="1:256" s="48" customFormat="1" ht="12.75">
       <c r="A11" s="44"/>
@@ -3326,7 +3325,7 @@
       <c r="C11" s="45"/>
       <c r="D11" s="52"/>
       <c r="E11" s="46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F11" s="47"/>
       <c r="G11" s="68"/>
@@ -3348,10 +3347,10 @@
       <c r="W11" s="50"/>
     </row>
     <row r="12" spans="1:256">
-      <c r="A12" s="81" t="s">
-        <v>31</v>
+      <c r="A12" s="73" t="s">
+        <v>29</v>
       </c>
-      <c r="B12" s="81"/>
+      <c r="B12" s="73"/>
       <c r="C12" s="53"/>
       <c r="D12" s="53"/>
       <c r="E12" s="2"/>
@@ -3360,21 +3359,21 @@
       <c r="H12" s="2"/>
       <c r="I12" s="59"/>
       <c r="J12" s="2"/>
-      <c r="O12" s="82" t="s">
-        <v>32</v>
+      <c r="O12" s="74" t="s">
+        <v>30</v>
       </c>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="82"/>
-      <c r="W12" s="82"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="74"/>
     </row>
     <row r="13" spans="1:256" s="17" customFormat="1" ht="12">
       <c r="A13" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="54"/>
@@ -3391,12 +3390,12 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
       <c r="P13" s="16"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="83"/>
-      <c r="T13" s="83"/>
-      <c r="U13" s="83"/>
-      <c r="V13" s="83"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="75"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="75"/>
       <c r="W13" s="14"/>
       <c r="X13" s="14"/>
       <c r="Y13" s="14"/>
@@ -3606,7 +3605,7 @@
     </row>
     <row r="14" spans="1:256" s="17" customFormat="1" ht="12">
       <c r="A14" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="54"/>
@@ -3838,7 +3837,7 @@
     </row>
     <row r="15" spans="1:256" s="17" customFormat="1" ht="12">
       <c r="A15" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="54"/>
@@ -4094,11 +4093,11 @@
       <c r="I17" s="59"/>
       <c r="J17" s="2"/>
       <c r="P17" s="24"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="84"/>
-      <c r="T17" s="84"/>
-      <c r="U17" s="84"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="76"/>
+      <c r="S17" s="76"/>
+      <c r="T17" s="76"/>
+      <c r="U17" s="76"/>
       <c r="W17" s="27"/>
     </row>
     <row r="18" spans="1:256">
@@ -4402,13 +4401,13 @@
       <c r="H20" s="32"/>
       <c r="I20" s="61"/>
       <c r="J20" s="32"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="82"/>
-      <c r="T20" s="82"/>
-      <c r="U20" s="82"/>
-      <c r="V20" s="82"/>
-      <c r="W20" s="82"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="74"/>
+      <c r="T20" s="74"/>
+      <c r="U20" s="74"/>
+      <c r="V20" s="74"/>
+      <c r="W20" s="74"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
@@ -4911,8 +4910,8 @@
       <c r="C25" s="38"/>
       <c r="D25" s="30"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
       <c r="H25" s="43"/>
       <c r="I25" s="63"/>
       <c r="J25" s="43"/>
@@ -5152,13 +5151,37 @@
     </row>
     <row r="26" spans="1:256" ht="18.75">
       <c r="A26" s="29"/>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="80"/>
-      <c r="R26" s="80"/>
-      <c r="S26" s="80"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:W10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="M4:W4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="M1:W1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="M2:W2"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="A5:W5"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A6:W6"/>
@@ -5175,30 +5198,6 @@
     <mergeCell ref="T8:T10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="M4:W4"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="M1:W1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="M2:W2"/>
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="A5:W5"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:W10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="R9:R10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/QuanLySuCo_2018_11_08/3-Coding/code/DesktopModules/QLSC/bieumau/BAO_CAO_THANG.xlsx
+++ b/QuanLySuCo_2018_11_08/3-Coding/code/DesktopModules/QLSC/bieumau/BAO_CAO_THANG.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <r>
       <t>CỘNG TY ĐIỆN LỰC SÓC TRĂNG</t>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>ĐV để xảy ra sự cố</t>
-  </si>
-  <si>
-    <t>VTTB sự cố</t>
   </si>
   <si>
     <t>Điện áp
@@ -174,11 +171,29 @@
   <si>
     <t>RCS</t>
   </si>
+  <si>
+    <t>Tên thiết bị đóng cắt (MC, RCS)</t>
+  </si>
+  <si>
+    <t>VTTB sự cố 2</t>
+  </si>
+  <si>
+    <t>VTTB sự cố 3</t>
+  </si>
+  <si>
+    <t>VTTB sự cố 4</t>
+  </si>
+  <si>
+    <t>VTTB sự cố 5</t>
+  </si>
+  <si>
+    <t>VTTB sự cố 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\ mmmm"/>
   </numFmts>
@@ -397,7 +412,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -570,54 +585,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -626,6 +629,27 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -822,7 +846,7 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -912,13 +936,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -1224,1560 +1248,1573 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV26"/>
+  <dimension ref="A1:JI26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X14" sqref="X13:X14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="11" style="38" customWidth="1"/>
-    <col min="3" max="4" width="5.85546875" style="38" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="4" customWidth="1"/>
+    <col min="3" max="4" width="5.88671875" style="38" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="4" customWidth="1"/>
     <col min="8" max="8" width="6" style="4" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="62" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="3.42578125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="3.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="4" style="2" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="3.28515625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="6.85546875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="4.7109375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="6" style="2" customWidth="1"/>
-    <col min="23" max="23" width="5.42578125" style="2" customWidth="1"/>
-    <col min="24" max="228" width="7" style="2" customWidth="1"/>
-    <col min="229" max="256" width="7" style="3"/>
-    <col min="257" max="257" width="4.42578125" style="3" customWidth="1"/>
-    <col min="258" max="258" width="11" style="3" customWidth="1"/>
-    <col min="259" max="260" width="5.85546875" style="3" customWidth="1"/>
-    <col min="261" max="261" width="18.85546875" style="3" customWidth="1"/>
-    <col min="262" max="262" width="17.5703125" style="3" customWidth="1"/>
-    <col min="263" max="263" width="6.28515625" style="3" customWidth="1"/>
-    <col min="264" max="264" width="6" style="3" customWidth="1"/>
-    <col min="265" max="265" width="5.5703125" style="3" customWidth="1"/>
-    <col min="266" max="266" width="4.42578125" style="3" customWidth="1"/>
-    <col min="267" max="267" width="4.85546875" style="3" customWidth="1"/>
-    <col min="268" max="268" width="3.42578125" style="3" customWidth="1"/>
-    <col min="269" max="269" width="3.7109375" style="3" customWidth="1"/>
-    <col min="270" max="270" width="4" style="3" customWidth="1"/>
-    <col min="271" max="271" width="4.7109375" style="3" customWidth="1"/>
-    <col min="272" max="272" width="3.7109375" style="3" customWidth="1"/>
-    <col min="273" max="273" width="4.42578125" style="3" customWidth="1"/>
-    <col min="274" max="274" width="4.85546875" style="3" customWidth="1"/>
-    <col min="275" max="275" width="3.28515625" style="3" customWidth="1"/>
-    <col min="276" max="276" width="6.85546875" style="3" customWidth="1"/>
-    <col min="277" max="277" width="4.7109375" style="3" customWidth="1"/>
-    <col min="278" max="278" width="6" style="3" customWidth="1"/>
-    <col min="279" max="279" width="5.42578125" style="3" customWidth="1"/>
-    <col min="280" max="484" width="7" style="3" customWidth="1"/>
-    <col min="485" max="512" width="7" style="3"/>
-    <col min="513" max="513" width="4.42578125" style="3" customWidth="1"/>
-    <col min="514" max="514" width="11" style="3" customWidth="1"/>
-    <col min="515" max="516" width="5.85546875" style="3" customWidth="1"/>
-    <col min="517" max="517" width="18.85546875" style="3" customWidth="1"/>
-    <col min="518" max="518" width="17.5703125" style="3" customWidth="1"/>
-    <col min="519" max="519" width="6.28515625" style="3" customWidth="1"/>
-    <col min="520" max="520" width="6" style="3" customWidth="1"/>
-    <col min="521" max="521" width="5.5703125" style="3" customWidth="1"/>
-    <col min="522" max="522" width="4.42578125" style="3" customWidth="1"/>
-    <col min="523" max="523" width="4.85546875" style="3" customWidth="1"/>
-    <col min="524" max="524" width="3.42578125" style="3" customWidth="1"/>
-    <col min="525" max="525" width="3.7109375" style="3" customWidth="1"/>
-    <col min="526" max="526" width="4" style="3" customWidth="1"/>
-    <col min="527" max="527" width="4.7109375" style="3" customWidth="1"/>
-    <col min="528" max="528" width="3.7109375" style="3" customWidth="1"/>
-    <col min="529" max="529" width="4.42578125" style="3" customWidth="1"/>
-    <col min="530" max="530" width="4.85546875" style="3" customWidth="1"/>
-    <col min="531" max="531" width="3.28515625" style="3" customWidth="1"/>
-    <col min="532" max="532" width="6.85546875" style="3" customWidth="1"/>
-    <col min="533" max="533" width="4.7109375" style="3" customWidth="1"/>
-    <col min="534" max="534" width="6" style="3" customWidth="1"/>
-    <col min="535" max="535" width="5.42578125" style="3" customWidth="1"/>
-    <col min="536" max="740" width="7" style="3" customWidth="1"/>
-    <col min="741" max="768" width="7" style="3"/>
-    <col min="769" max="769" width="4.42578125" style="3" customWidth="1"/>
-    <col min="770" max="770" width="11" style="3" customWidth="1"/>
-    <col min="771" max="772" width="5.85546875" style="3" customWidth="1"/>
-    <col min="773" max="773" width="18.85546875" style="3" customWidth="1"/>
-    <col min="774" max="774" width="17.5703125" style="3" customWidth="1"/>
-    <col min="775" max="775" width="6.28515625" style="3" customWidth="1"/>
-    <col min="776" max="776" width="6" style="3" customWidth="1"/>
-    <col min="777" max="777" width="5.5703125" style="3" customWidth="1"/>
-    <col min="778" max="778" width="4.42578125" style="3" customWidth="1"/>
-    <col min="779" max="779" width="4.85546875" style="3" customWidth="1"/>
-    <col min="780" max="780" width="3.42578125" style="3" customWidth="1"/>
-    <col min="781" max="781" width="3.7109375" style="3" customWidth="1"/>
-    <col min="782" max="782" width="4" style="3" customWidth="1"/>
-    <col min="783" max="783" width="4.7109375" style="3" customWidth="1"/>
-    <col min="784" max="784" width="3.7109375" style="3" customWidth="1"/>
-    <col min="785" max="785" width="4.42578125" style="3" customWidth="1"/>
-    <col min="786" max="786" width="4.85546875" style="3" customWidth="1"/>
-    <col min="787" max="787" width="3.28515625" style="3" customWidth="1"/>
-    <col min="788" max="788" width="6.85546875" style="3" customWidth="1"/>
-    <col min="789" max="789" width="4.7109375" style="3" customWidth="1"/>
-    <col min="790" max="790" width="6" style="3" customWidth="1"/>
-    <col min="791" max="791" width="5.42578125" style="3" customWidth="1"/>
-    <col min="792" max="996" width="7" style="3" customWidth="1"/>
-    <col min="997" max="1024" width="7" style="3"/>
-    <col min="1025" max="1025" width="4.42578125" style="3" customWidth="1"/>
-    <col min="1026" max="1026" width="11" style="3" customWidth="1"/>
-    <col min="1027" max="1028" width="5.85546875" style="3" customWidth="1"/>
-    <col min="1029" max="1029" width="18.85546875" style="3" customWidth="1"/>
-    <col min="1030" max="1030" width="17.5703125" style="3" customWidth="1"/>
-    <col min="1031" max="1031" width="6.28515625" style="3" customWidth="1"/>
-    <col min="1032" max="1032" width="6" style="3" customWidth="1"/>
-    <col min="1033" max="1033" width="5.5703125" style="3" customWidth="1"/>
-    <col min="1034" max="1034" width="4.42578125" style="3" customWidth="1"/>
-    <col min="1035" max="1035" width="4.85546875" style="3" customWidth="1"/>
-    <col min="1036" max="1036" width="3.42578125" style="3" customWidth="1"/>
-    <col min="1037" max="1037" width="3.7109375" style="3" customWidth="1"/>
-    <col min="1038" max="1038" width="4" style="3" customWidth="1"/>
-    <col min="1039" max="1039" width="4.7109375" style="3" customWidth="1"/>
-    <col min="1040" max="1040" width="3.7109375" style="3" customWidth="1"/>
-    <col min="1041" max="1041" width="4.42578125" style="3" customWidth="1"/>
-    <col min="1042" max="1042" width="4.85546875" style="3" customWidth="1"/>
-    <col min="1043" max="1043" width="3.28515625" style="3" customWidth="1"/>
-    <col min="1044" max="1044" width="6.85546875" style="3" customWidth="1"/>
-    <col min="1045" max="1045" width="4.7109375" style="3" customWidth="1"/>
-    <col min="1046" max="1046" width="6" style="3" customWidth="1"/>
-    <col min="1047" max="1047" width="5.42578125" style="3" customWidth="1"/>
-    <col min="1048" max="1252" width="7" style="3" customWidth="1"/>
-    <col min="1253" max="1280" width="7" style="3"/>
-    <col min="1281" max="1281" width="4.42578125" style="3" customWidth="1"/>
-    <col min="1282" max="1282" width="11" style="3" customWidth="1"/>
-    <col min="1283" max="1284" width="5.85546875" style="3" customWidth="1"/>
-    <col min="1285" max="1285" width="18.85546875" style="3" customWidth="1"/>
-    <col min="1286" max="1286" width="17.5703125" style="3" customWidth="1"/>
-    <col min="1287" max="1287" width="6.28515625" style="3" customWidth="1"/>
-    <col min="1288" max="1288" width="6" style="3" customWidth="1"/>
-    <col min="1289" max="1289" width="5.5703125" style="3" customWidth="1"/>
-    <col min="1290" max="1290" width="4.42578125" style="3" customWidth="1"/>
-    <col min="1291" max="1291" width="4.85546875" style="3" customWidth="1"/>
-    <col min="1292" max="1292" width="3.42578125" style="3" customWidth="1"/>
-    <col min="1293" max="1293" width="3.7109375" style="3" customWidth="1"/>
-    <col min="1294" max="1294" width="4" style="3" customWidth="1"/>
-    <col min="1295" max="1295" width="4.7109375" style="3" customWidth="1"/>
-    <col min="1296" max="1296" width="3.7109375" style="3" customWidth="1"/>
-    <col min="1297" max="1297" width="4.42578125" style="3" customWidth="1"/>
-    <col min="1298" max="1298" width="4.85546875" style="3" customWidth="1"/>
-    <col min="1299" max="1299" width="3.28515625" style="3" customWidth="1"/>
-    <col min="1300" max="1300" width="6.85546875" style="3" customWidth="1"/>
-    <col min="1301" max="1301" width="4.7109375" style="3" customWidth="1"/>
-    <col min="1302" max="1302" width="6" style="3" customWidth="1"/>
-    <col min="1303" max="1303" width="5.42578125" style="3" customWidth="1"/>
-    <col min="1304" max="1508" width="7" style="3" customWidth="1"/>
-    <col min="1509" max="1536" width="7" style="3"/>
-    <col min="1537" max="1537" width="4.42578125" style="3" customWidth="1"/>
-    <col min="1538" max="1538" width="11" style="3" customWidth="1"/>
-    <col min="1539" max="1540" width="5.85546875" style="3" customWidth="1"/>
-    <col min="1541" max="1541" width="18.85546875" style="3" customWidth="1"/>
-    <col min="1542" max="1542" width="17.5703125" style="3" customWidth="1"/>
-    <col min="1543" max="1543" width="6.28515625" style="3" customWidth="1"/>
-    <col min="1544" max="1544" width="6" style="3" customWidth="1"/>
-    <col min="1545" max="1545" width="5.5703125" style="3" customWidth="1"/>
-    <col min="1546" max="1546" width="4.42578125" style="3" customWidth="1"/>
-    <col min="1547" max="1547" width="4.85546875" style="3" customWidth="1"/>
-    <col min="1548" max="1548" width="3.42578125" style="3" customWidth="1"/>
-    <col min="1549" max="1549" width="3.7109375" style="3" customWidth="1"/>
-    <col min="1550" max="1550" width="4" style="3" customWidth="1"/>
-    <col min="1551" max="1551" width="4.7109375" style="3" customWidth="1"/>
-    <col min="1552" max="1552" width="3.7109375" style="3" customWidth="1"/>
-    <col min="1553" max="1553" width="4.42578125" style="3" customWidth="1"/>
-    <col min="1554" max="1554" width="4.85546875" style="3" customWidth="1"/>
-    <col min="1555" max="1555" width="3.28515625" style="3" customWidth="1"/>
-    <col min="1556" max="1556" width="6.85546875" style="3" customWidth="1"/>
-    <col min="1557" max="1557" width="4.7109375" style="3" customWidth="1"/>
-    <col min="1558" max="1558" width="6" style="3" customWidth="1"/>
-    <col min="1559" max="1559" width="5.42578125" style="3" customWidth="1"/>
-    <col min="1560" max="1764" width="7" style="3" customWidth="1"/>
-    <col min="1765" max="1792" width="7" style="3"/>
-    <col min="1793" max="1793" width="4.42578125" style="3" customWidth="1"/>
-    <col min="1794" max="1794" width="11" style="3" customWidth="1"/>
-    <col min="1795" max="1796" width="5.85546875" style="3" customWidth="1"/>
-    <col min="1797" max="1797" width="18.85546875" style="3" customWidth="1"/>
-    <col min="1798" max="1798" width="17.5703125" style="3" customWidth="1"/>
-    <col min="1799" max="1799" width="6.28515625" style="3" customWidth="1"/>
-    <col min="1800" max="1800" width="6" style="3" customWidth="1"/>
-    <col min="1801" max="1801" width="5.5703125" style="3" customWidth="1"/>
-    <col min="1802" max="1802" width="4.42578125" style="3" customWidth="1"/>
-    <col min="1803" max="1803" width="4.85546875" style="3" customWidth="1"/>
-    <col min="1804" max="1804" width="3.42578125" style="3" customWidth="1"/>
-    <col min="1805" max="1805" width="3.7109375" style="3" customWidth="1"/>
-    <col min="1806" max="1806" width="4" style="3" customWidth="1"/>
-    <col min="1807" max="1807" width="4.7109375" style="3" customWidth="1"/>
-    <col min="1808" max="1808" width="3.7109375" style="3" customWidth="1"/>
-    <col min="1809" max="1809" width="4.42578125" style="3" customWidth="1"/>
-    <col min="1810" max="1810" width="4.85546875" style="3" customWidth="1"/>
-    <col min="1811" max="1811" width="3.28515625" style="3" customWidth="1"/>
-    <col min="1812" max="1812" width="6.85546875" style="3" customWidth="1"/>
-    <col min="1813" max="1813" width="4.7109375" style="3" customWidth="1"/>
-    <col min="1814" max="1814" width="6" style="3" customWidth="1"/>
-    <col min="1815" max="1815" width="5.42578125" style="3" customWidth="1"/>
-    <col min="1816" max="2020" width="7" style="3" customWidth="1"/>
-    <col min="2021" max="2048" width="7" style="3"/>
-    <col min="2049" max="2049" width="4.42578125" style="3" customWidth="1"/>
-    <col min="2050" max="2050" width="11" style="3" customWidth="1"/>
-    <col min="2051" max="2052" width="5.85546875" style="3" customWidth="1"/>
-    <col min="2053" max="2053" width="18.85546875" style="3" customWidth="1"/>
-    <col min="2054" max="2054" width="17.5703125" style="3" customWidth="1"/>
-    <col min="2055" max="2055" width="6.28515625" style="3" customWidth="1"/>
-    <col min="2056" max="2056" width="6" style="3" customWidth="1"/>
-    <col min="2057" max="2057" width="5.5703125" style="3" customWidth="1"/>
-    <col min="2058" max="2058" width="4.42578125" style="3" customWidth="1"/>
-    <col min="2059" max="2059" width="4.85546875" style="3" customWidth="1"/>
-    <col min="2060" max="2060" width="3.42578125" style="3" customWidth="1"/>
-    <col min="2061" max="2061" width="3.7109375" style="3" customWidth="1"/>
-    <col min="2062" max="2062" width="4" style="3" customWidth="1"/>
-    <col min="2063" max="2063" width="4.7109375" style="3" customWidth="1"/>
-    <col min="2064" max="2064" width="3.7109375" style="3" customWidth="1"/>
-    <col min="2065" max="2065" width="4.42578125" style="3" customWidth="1"/>
-    <col min="2066" max="2066" width="4.85546875" style="3" customWidth="1"/>
-    <col min="2067" max="2067" width="3.28515625" style="3" customWidth="1"/>
-    <col min="2068" max="2068" width="6.85546875" style="3" customWidth="1"/>
-    <col min="2069" max="2069" width="4.7109375" style="3" customWidth="1"/>
-    <col min="2070" max="2070" width="6" style="3" customWidth="1"/>
-    <col min="2071" max="2071" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2072" max="2276" width="7" style="3" customWidth="1"/>
-    <col min="2277" max="2304" width="7" style="3"/>
-    <col min="2305" max="2305" width="4.42578125" style="3" customWidth="1"/>
-    <col min="2306" max="2306" width="11" style="3" customWidth="1"/>
-    <col min="2307" max="2308" width="5.85546875" style="3" customWidth="1"/>
-    <col min="2309" max="2309" width="18.85546875" style="3" customWidth="1"/>
-    <col min="2310" max="2310" width="17.5703125" style="3" customWidth="1"/>
-    <col min="2311" max="2311" width="6.28515625" style="3" customWidth="1"/>
-    <col min="2312" max="2312" width="6" style="3" customWidth="1"/>
-    <col min="2313" max="2313" width="5.5703125" style="3" customWidth="1"/>
-    <col min="2314" max="2314" width="4.42578125" style="3" customWidth="1"/>
-    <col min="2315" max="2315" width="4.85546875" style="3" customWidth="1"/>
-    <col min="2316" max="2316" width="3.42578125" style="3" customWidth="1"/>
-    <col min="2317" max="2317" width="3.7109375" style="3" customWidth="1"/>
-    <col min="2318" max="2318" width="4" style="3" customWidth="1"/>
-    <col min="2319" max="2319" width="4.7109375" style="3" customWidth="1"/>
-    <col min="2320" max="2320" width="3.7109375" style="3" customWidth="1"/>
-    <col min="2321" max="2321" width="4.42578125" style="3" customWidth="1"/>
-    <col min="2322" max="2322" width="4.85546875" style="3" customWidth="1"/>
-    <col min="2323" max="2323" width="3.28515625" style="3" customWidth="1"/>
-    <col min="2324" max="2324" width="6.85546875" style="3" customWidth="1"/>
-    <col min="2325" max="2325" width="4.7109375" style="3" customWidth="1"/>
-    <col min="2326" max="2326" width="6" style="3" customWidth="1"/>
-    <col min="2327" max="2327" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2328" max="2532" width="7" style="3" customWidth="1"/>
-    <col min="2533" max="2560" width="7" style="3"/>
-    <col min="2561" max="2561" width="4.42578125" style="3" customWidth="1"/>
-    <col min="2562" max="2562" width="11" style="3" customWidth="1"/>
-    <col min="2563" max="2564" width="5.85546875" style="3" customWidth="1"/>
-    <col min="2565" max="2565" width="18.85546875" style="3" customWidth="1"/>
-    <col min="2566" max="2566" width="17.5703125" style="3" customWidth="1"/>
-    <col min="2567" max="2567" width="6.28515625" style="3" customWidth="1"/>
-    <col min="2568" max="2568" width="6" style="3" customWidth="1"/>
-    <col min="2569" max="2569" width="5.5703125" style="3" customWidth="1"/>
-    <col min="2570" max="2570" width="4.42578125" style="3" customWidth="1"/>
-    <col min="2571" max="2571" width="4.85546875" style="3" customWidth="1"/>
-    <col min="2572" max="2572" width="3.42578125" style="3" customWidth="1"/>
-    <col min="2573" max="2573" width="3.7109375" style="3" customWidth="1"/>
-    <col min="2574" max="2574" width="4" style="3" customWidth="1"/>
-    <col min="2575" max="2575" width="4.7109375" style="3" customWidth="1"/>
-    <col min="2576" max="2576" width="3.7109375" style="3" customWidth="1"/>
-    <col min="2577" max="2577" width="4.42578125" style="3" customWidth="1"/>
-    <col min="2578" max="2578" width="4.85546875" style="3" customWidth="1"/>
-    <col min="2579" max="2579" width="3.28515625" style="3" customWidth="1"/>
-    <col min="2580" max="2580" width="6.85546875" style="3" customWidth="1"/>
-    <col min="2581" max="2581" width="4.7109375" style="3" customWidth="1"/>
-    <col min="2582" max="2582" width="6" style="3" customWidth="1"/>
-    <col min="2583" max="2583" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2584" max="2788" width="7" style="3" customWidth="1"/>
-    <col min="2789" max="2816" width="7" style="3"/>
-    <col min="2817" max="2817" width="4.42578125" style="3" customWidth="1"/>
-    <col min="2818" max="2818" width="11" style="3" customWidth="1"/>
-    <col min="2819" max="2820" width="5.85546875" style="3" customWidth="1"/>
-    <col min="2821" max="2821" width="18.85546875" style="3" customWidth="1"/>
-    <col min="2822" max="2822" width="17.5703125" style="3" customWidth="1"/>
-    <col min="2823" max="2823" width="6.28515625" style="3" customWidth="1"/>
-    <col min="2824" max="2824" width="6" style="3" customWidth="1"/>
-    <col min="2825" max="2825" width="5.5703125" style="3" customWidth="1"/>
-    <col min="2826" max="2826" width="4.42578125" style="3" customWidth="1"/>
-    <col min="2827" max="2827" width="4.85546875" style="3" customWidth="1"/>
-    <col min="2828" max="2828" width="3.42578125" style="3" customWidth="1"/>
-    <col min="2829" max="2829" width="3.7109375" style="3" customWidth="1"/>
-    <col min="2830" max="2830" width="4" style="3" customWidth="1"/>
-    <col min="2831" max="2831" width="4.7109375" style="3" customWidth="1"/>
-    <col min="2832" max="2832" width="3.7109375" style="3" customWidth="1"/>
-    <col min="2833" max="2833" width="4.42578125" style="3" customWidth="1"/>
-    <col min="2834" max="2834" width="4.85546875" style="3" customWidth="1"/>
-    <col min="2835" max="2835" width="3.28515625" style="3" customWidth="1"/>
-    <col min="2836" max="2836" width="6.85546875" style="3" customWidth="1"/>
-    <col min="2837" max="2837" width="4.7109375" style="3" customWidth="1"/>
-    <col min="2838" max="2838" width="6" style="3" customWidth="1"/>
-    <col min="2839" max="2839" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2840" max="3044" width="7" style="3" customWidth="1"/>
-    <col min="3045" max="3072" width="7" style="3"/>
-    <col min="3073" max="3073" width="4.42578125" style="3" customWidth="1"/>
-    <col min="3074" max="3074" width="11" style="3" customWidth="1"/>
-    <col min="3075" max="3076" width="5.85546875" style="3" customWidth="1"/>
-    <col min="3077" max="3077" width="18.85546875" style="3" customWidth="1"/>
-    <col min="3078" max="3078" width="17.5703125" style="3" customWidth="1"/>
-    <col min="3079" max="3079" width="6.28515625" style="3" customWidth="1"/>
-    <col min="3080" max="3080" width="6" style="3" customWidth="1"/>
-    <col min="3081" max="3081" width="5.5703125" style="3" customWidth="1"/>
-    <col min="3082" max="3082" width="4.42578125" style="3" customWidth="1"/>
-    <col min="3083" max="3083" width="4.85546875" style="3" customWidth="1"/>
-    <col min="3084" max="3084" width="3.42578125" style="3" customWidth="1"/>
-    <col min="3085" max="3085" width="3.7109375" style="3" customWidth="1"/>
-    <col min="3086" max="3086" width="4" style="3" customWidth="1"/>
-    <col min="3087" max="3087" width="4.7109375" style="3" customWidth="1"/>
-    <col min="3088" max="3088" width="3.7109375" style="3" customWidth="1"/>
-    <col min="3089" max="3089" width="4.42578125" style="3" customWidth="1"/>
-    <col min="3090" max="3090" width="4.85546875" style="3" customWidth="1"/>
-    <col min="3091" max="3091" width="3.28515625" style="3" customWidth="1"/>
-    <col min="3092" max="3092" width="6.85546875" style="3" customWidth="1"/>
-    <col min="3093" max="3093" width="4.7109375" style="3" customWidth="1"/>
-    <col min="3094" max="3094" width="6" style="3" customWidth="1"/>
-    <col min="3095" max="3095" width="5.42578125" style="3" customWidth="1"/>
-    <col min="3096" max="3300" width="7" style="3" customWidth="1"/>
-    <col min="3301" max="3328" width="7" style="3"/>
-    <col min="3329" max="3329" width="4.42578125" style="3" customWidth="1"/>
-    <col min="3330" max="3330" width="11" style="3" customWidth="1"/>
-    <col min="3331" max="3332" width="5.85546875" style="3" customWidth="1"/>
-    <col min="3333" max="3333" width="18.85546875" style="3" customWidth="1"/>
-    <col min="3334" max="3334" width="17.5703125" style="3" customWidth="1"/>
-    <col min="3335" max="3335" width="6.28515625" style="3" customWidth="1"/>
-    <col min="3336" max="3336" width="6" style="3" customWidth="1"/>
-    <col min="3337" max="3337" width="5.5703125" style="3" customWidth="1"/>
-    <col min="3338" max="3338" width="4.42578125" style="3" customWidth="1"/>
-    <col min="3339" max="3339" width="4.85546875" style="3" customWidth="1"/>
-    <col min="3340" max="3340" width="3.42578125" style="3" customWidth="1"/>
-    <col min="3341" max="3341" width="3.7109375" style="3" customWidth="1"/>
-    <col min="3342" max="3342" width="4" style="3" customWidth="1"/>
-    <col min="3343" max="3343" width="4.7109375" style="3" customWidth="1"/>
-    <col min="3344" max="3344" width="3.7109375" style="3" customWidth="1"/>
-    <col min="3345" max="3345" width="4.42578125" style="3" customWidth="1"/>
-    <col min="3346" max="3346" width="4.85546875" style="3" customWidth="1"/>
-    <col min="3347" max="3347" width="3.28515625" style="3" customWidth="1"/>
-    <col min="3348" max="3348" width="6.85546875" style="3" customWidth="1"/>
-    <col min="3349" max="3349" width="4.7109375" style="3" customWidth="1"/>
-    <col min="3350" max="3350" width="6" style="3" customWidth="1"/>
-    <col min="3351" max="3351" width="5.42578125" style="3" customWidth="1"/>
-    <col min="3352" max="3556" width="7" style="3" customWidth="1"/>
-    <col min="3557" max="3584" width="7" style="3"/>
-    <col min="3585" max="3585" width="4.42578125" style="3" customWidth="1"/>
-    <col min="3586" max="3586" width="11" style="3" customWidth="1"/>
-    <col min="3587" max="3588" width="5.85546875" style="3" customWidth="1"/>
-    <col min="3589" max="3589" width="18.85546875" style="3" customWidth="1"/>
-    <col min="3590" max="3590" width="17.5703125" style="3" customWidth="1"/>
-    <col min="3591" max="3591" width="6.28515625" style="3" customWidth="1"/>
-    <col min="3592" max="3592" width="6" style="3" customWidth="1"/>
-    <col min="3593" max="3593" width="5.5703125" style="3" customWidth="1"/>
-    <col min="3594" max="3594" width="4.42578125" style="3" customWidth="1"/>
-    <col min="3595" max="3595" width="4.85546875" style="3" customWidth="1"/>
-    <col min="3596" max="3596" width="3.42578125" style="3" customWidth="1"/>
-    <col min="3597" max="3597" width="3.7109375" style="3" customWidth="1"/>
-    <col min="3598" max="3598" width="4" style="3" customWidth="1"/>
-    <col min="3599" max="3599" width="4.7109375" style="3" customWidth="1"/>
-    <col min="3600" max="3600" width="3.7109375" style="3" customWidth="1"/>
-    <col min="3601" max="3601" width="4.42578125" style="3" customWidth="1"/>
-    <col min="3602" max="3602" width="4.85546875" style="3" customWidth="1"/>
-    <col min="3603" max="3603" width="3.28515625" style="3" customWidth="1"/>
-    <col min="3604" max="3604" width="6.85546875" style="3" customWidth="1"/>
-    <col min="3605" max="3605" width="4.7109375" style="3" customWidth="1"/>
-    <col min="3606" max="3606" width="6" style="3" customWidth="1"/>
-    <col min="3607" max="3607" width="5.42578125" style="3" customWidth="1"/>
-    <col min="3608" max="3812" width="7" style="3" customWidth="1"/>
-    <col min="3813" max="3840" width="7" style="3"/>
-    <col min="3841" max="3841" width="4.42578125" style="3" customWidth="1"/>
-    <col min="3842" max="3842" width="11" style="3" customWidth="1"/>
-    <col min="3843" max="3844" width="5.85546875" style="3" customWidth="1"/>
-    <col min="3845" max="3845" width="18.85546875" style="3" customWidth="1"/>
-    <col min="3846" max="3846" width="17.5703125" style="3" customWidth="1"/>
-    <col min="3847" max="3847" width="6.28515625" style="3" customWidth="1"/>
-    <col min="3848" max="3848" width="6" style="3" customWidth="1"/>
-    <col min="3849" max="3849" width="5.5703125" style="3" customWidth="1"/>
-    <col min="3850" max="3850" width="4.42578125" style="3" customWidth="1"/>
-    <col min="3851" max="3851" width="4.85546875" style="3" customWidth="1"/>
-    <col min="3852" max="3852" width="3.42578125" style="3" customWidth="1"/>
-    <col min="3853" max="3853" width="3.7109375" style="3" customWidth="1"/>
-    <col min="3854" max="3854" width="4" style="3" customWidth="1"/>
-    <col min="3855" max="3855" width="4.7109375" style="3" customWidth="1"/>
-    <col min="3856" max="3856" width="3.7109375" style="3" customWidth="1"/>
-    <col min="3857" max="3857" width="4.42578125" style="3" customWidth="1"/>
-    <col min="3858" max="3858" width="4.85546875" style="3" customWidth="1"/>
-    <col min="3859" max="3859" width="3.28515625" style="3" customWidth="1"/>
-    <col min="3860" max="3860" width="6.85546875" style="3" customWidth="1"/>
-    <col min="3861" max="3861" width="4.7109375" style="3" customWidth="1"/>
-    <col min="3862" max="3862" width="6" style="3" customWidth="1"/>
-    <col min="3863" max="3863" width="5.42578125" style="3" customWidth="1"/>
-    <col min="3864" max="4068" width="7" style="3" customWidth="1"/>
-    <col min="4069" max="4096" width="7" style="3"/>
-    <col min="4097" max="4097" width="4.42578125" style="3" customWidth="1"/>
-    <col min="4098" max="4098" width="11" style="3" customWidth="1"/>
-    <col min="4099" max="4100" width="5.85546875" style="3" customWidth="1"/>
-    <col min="4101" max="4101" width="18.85546875" style="3" customWidth="1"/>
-    <col min="4102" max="4102" width="17.5703125" style="3" customWidth="1"/>
-    <col min="4103" max="4103" width="6.28515625" style="3" customWidth="1"/>
-    <col min="4104" max="4104" width="6" style="3" customWidth="1"/>
-    <col min="4105" max="4105" width="5.5703125" style="3" customWidth="1"/>
-    <col min="4106" max="4106" width="4.42578125" style="3" customWidth="1"/>
-    <col min="4107" max="4107" width="4.85546875" style="3" customWidth="1"/>
-    <col min="4108" max="4108" width="3.42578125" style="3" customWidth="1"/>
-    <col min="4109" max="4109" width="3.7109375" style="3" customWidth="1"/>
-    <col min="4110" max="4110" width="4" style="3" customWidth="1"/>
-    <col min="4111" max="4111" width="4.7109375" style="3" customWidth="1"/>
-    <col min="4112" max="4112" width="3.7109375" style="3" customWidth="1"/>
-    <col min="4113" max="4113" width="4.42578125" style="3" customWidth="1"/>
-    <col min="4114" max="4114" width="4.85546875" style="3" customWidth="1"/>
-    <col min="4115" max="4115" width="3.28515625" style="3" customWidth="1"/>
-    <col min="4116" max="4116" width="6.85546875" style="3" customWidth="1"/>
-    <col min="4117" max="4117" width="4.7109375" style="3" customWidth="1"/>
-    <col min="4118" max="4118" width="6" style="3" customWidth="1"/>
-    <col min="4119" max="4119" width="5.42578125" style="3" customWidth="1"/>
-    <col min="4120" max="4324" width="7" style="3" customWidth="1"/>
-    <col min="4325" max="4352" width="7" style="3"/>
-    <col min="4353" max="4353" width="4.42578125" style="3" customWidth="1"/>
-    <col min="4354" max="4354" width="11" style="3" customWidth="1"/>
-    <col min="4355" max="4356" width="5.85546875" style="3" customWidth="1"/>
-    <col min="4357" max="4357" width="18.85546875" style="3" customWidth="1"/>
-    <col min="4358" max="4358" width="17.5703125" style="3" customWidth="1"/>
-    <col min="4359" max="4359" width="6.28515625" style="3" customWidth="1"/>
-    <col min="4360" max="4360" width="6" style="3" customWidth="1"/>
-    <col min="4361" max="4361" width="5.5703125" style="3" customWidth="1"/>
-    <col min="4362" max="4362" width="4.42578125" style="3" customWidth="1"/>
-    <col min="4363" max="4363" width="4.85546875" style="3" customWidth="1"/>
-    <col min="4364" max="4364" width="3.42578125" style="3" customWidth="1"/>
-    <col min="4365" max="4365" width="3.7109375" style="3" customWidth="1"/>
-    <col min="4366" max="4366" width="4" style="3" customWidth="1"/>
-    <col min="4367" max="4367" width="4.7109375" style="3" customWidth="1"/>
-    <col min="4368" max="4368" width="3.7109375" style="3" customWidth="1"/>
-    <col min="4369" max="4369" width="4.42578125" style="3" customWidth="1"/>
-    <col min="4370" max="4370" width="4.85546875" style="3" customWidth="1"/>
-    <col min="4371" max="4371" width="3.28515625" style="3" customWidth="1"/>
-    <col min="4372" max="4372" width="6.85546875" style="3" customWidth="1"/>
-    <col min="4373" max="4373" width="4.7109375" style="3" customWidth="1"/>
-    <col min="4374" max="4374" width="6" style="3" customWidth="1"/>
-    <col min="4375" max="4375" width="5.42578125" style="3" customWidth="1"/>
-    <col min="4376" max="4580" width="7" style="3" customWidth="1"/>
-    <col min="4581" max="4608" width="7" style="3"/>
-    <col min="4609" max="4609" width="4.42578125" style="3" customWidth="1"/>
-    <col min="4610" max="4610" width="11" style="3" customWidth="1"/>
-    <col min="4611" max="4612" width="5.85546875" style="3" customWidth="1"/>
-    <col min="4613" max="4613" width="18.85546875" style="3" customWidth="1"/>
-    <col min="4614" max="4614" width="17.5703125" style="3" customWidth="1"/>
-    <col min="4615" max="4615" width="6.28515625" style="3" customWidth="1"/>
-    <col min="4616" max="4616" width="6" style="3" customWidth="1"/>
-    <col min="4617" max="4617" width="5.5703125" style="3" customWidth="1"/>
-    <col min="4618" max="4618" width="4.42578125" style="3" customWidth="1"/>
-    <col min="4619" max="4619" width="4.85546875" style="3" customWidth="1"/>
-    <col min="4620" max="4620" width="3.42578125" style="3" customWidth="1"/>
-    <col min="4621" max="4621" width="3.7109375" style="3" customWidth="1"/>
-    <col min="4622" max="4622" width="4" style="3" customWidth="1"/>
-    <col min="4623" max="4623" width="4.7109375" style="3" customWidth="1"/>
-    <col min="4624" max="4624" width="3.7109375" style="3" customWidth="1"/>
-    <col min="4625" max="4625" width="4.42578125" style="3" customWidth="1"/>
-    <col min="4626" max="4626" width="4.85546875" style="3" customWidth="1"/>
-    <col min="4627" max="4627" width="3.28515625" style="3" customWidth="1"/>
-    <col min="4628" max="4628" width="6.85546875" style="3" customWidth="1"/>
-    <col min="4629" max="4629" width="4.7109375" style="3" customWidth="1"/>
-    <col min="4630" max="4630" width="6" style="3" customWidth="1"/>
-    <col min="4631" max="4631" width="5.42578125" style="3" customWidth="1"/>
-    <col min="4632" max="4836" width="7" style="3" customWidth="1"/>
-    <col min="4837" max="4864" width="7" style="3"/>
-    <col min="4865" max="4865" width="4.42578125" style="3" customWidth="1"/>
-    <col min="4866" max="4866" width="11" style="3" customWidth="1"/>
-    <col min="4867" max="4868" width="5.85546875" style="3" customWidth="1"/>
-    <col min="4869" max="4869" width="18.85546875" style="3" customWidth="1"/>
-    <col min="4870" max="4870" width="17.5703125" style="3" customWidth="1"/>
-    <col min="4871" max="4871" width="6.28515625" style="3" customWidth="1"/>
-    <col min="4872" max="4872" width="6" style="3" customWidth="1"/>
-    <col min="4873" max="4873" width="5.5703125" style="3" customWidth="1"/>
-    <col min="4874" max="4874" width="4.42578125" style="3" customWidth="1"/>
-    <col min="4875" max="4875" width="4.85546875" style="3" customWidth="1"/>
-    <col min="4876" max="4876" width="3.42578125" style="3" customWidth="1"/>
-    <col min="4877" max="4877" width="3.7109375" style="3" customWidth="1"/>
-    <col min="4878" max="4878" width="4" style="3" customWidth="1"/>
-    <col min="4879" max="4879" width="4.7109375" style="3" customWidth="1"/>
-    <col min="4880" max="4880" width="3.7109375" style="3" customWidth="1"/>
-    <col min="4881" max="4881" width="4.42578125" style="3" customWidth="1"/>
-    <col min="4882" max="4882" width="4.85546875" style="3" customWidth="1"/>
-    <col min="4883" max="4883" width="3.28515625" style="3" customWidth="1"/>
-    <col min="4884" max="4884" width="6.85546875" style="3" customWidth="1"/>
-    <col min="4885" max="4885" width="4.7109375" style="3" customWidth="1"/>
-    <col min="4886" max="4886" width="6" style="3" customWidth="1"/>
-    <col min="4887" max="4887" width="5.42578125" style="3" customWidth="1"/>
-    <col min="4888" max="5092" width="7" style="3" customWidth="1"/>
-    <col min="5093" max="5120" width="7" style="3"/>
-    <col min="5121" max="5121" width="4.42578125" style="3" customWidth="1"/>
-    <col min="5122" max="5122" width="11" style="3" customWidth="1"/>
-    <col min="5123" max="5124" width="5.85546875" style="3" customWidth="1"/>
-    <col min="5125" max="5125" width="18.85546875" style="3" customWidth="1"/>
-    <col min="5126" max="5126" width="17.5703125" style="3" customWidth="1"/>
-    <col min="5127" max="5127" width="6.28515625" style="3" customWidth="1"/>
-    <col min="5128" max="5128" width="6" style="3" customWidth="1"/>
-    <col min="5129" max="5129" width="5.5703125" style="3" customWidth="1"/>
-    <col min="5130" max="5130" width="4.42578125" style="3" customWidth="1"/>
-    <col min="5131" max="5131" width="4.85546875" style="3" customWidth="1"/>
-    <col min="5132" max="5132" width="3.42578125" style="3" customWidth="1"/>
-    <col min="5133" max="5133" width="3.7109375" style="3" customWidth="1"/>
-    <col min="5134" max="5134" width="4" style="3" customWidth="1"/>
-    <col min="5135" max="5135" width="4.7109375" style="3" customWidth="1"/>
-    <col min="5136" max="5136" width="3.7109375" style="3" customWidth="1"/>
-    <col min="5137" max="5137" width="4.42578125" style="3" customWidth="1"/>
-    <col min="5138" max="5138" width="4.85546875" style="3" customWidth="1"/>
-    <col min="5139" max="5139" width="3.28515625" style="3" customWidth="1"/>
-    <col min="5140" max="5140" width="6.85546875" style="3" customWidth="1"/>
-    <col min="5141" max="5141" width="4.7109375" style="3" customWidth="1"/>
-    <col min="5142" max="5142" width="6" style="3" customWidth="1"/>
-    <col min="5143" max="5143" width="5.42578125" style="3" customWidth="1"/>
-    <col min="5144" max="5348" width="7" style="3" customWidth="1"/>
-    <col min="5349" max="5376" width="7" style="3"/>
-    <col min="5377" max="5377" width="4.42578125" style="3" customWidth="1"/>
-    <col min="5378" max="5378" width="11" style="3" customWidth="1"/>
-    <col min="5379" max="5380" width="5.85546875" style="3" customWidth="1"/>
-    <col min="5381" max="5381" width="18.85546875" style="3" customWidth="1"/>
-    <col min="5382" max="5382" width="17.5703125" style="3" customWidth="1"/>
-    <col min="5383" max="5383" width="6.28515625" style="3" customWidth="1"/>
-    <col min="5384" max="5384" width="6" style="3" customWidth="1"/>
-    <col min="5385" max="5385" width="5.5703125" style="3" customWidth="1"/>
-    <col min="5386" max="5386" width="4.42578125" style="3" customWidth="1"/>
-    <col min="5387" max="5387" width="4.85546875" style="3" customWidth="1"/>
-    <col min="5388" max="5388" width="3.42578125" style="3" customWidth="1"/>
-    <col min="5389" max="5389" width="3.7109375" style="3" customWidth="1"/>
-    <col min="5390" max="5390" width="4" style="3" customWidth="1"/>
-    <col min="5391" max="5391" width="4.7109375" style="3" customWidth="1"/>
-    <col min="5392" max="5392" width="3.7109375" style="3" customWidth="1"/>
-    <col min="5393" max="5393" width="4.42578125" style="3" customWidth="1"/>
-    <col min="5394" max="5394" width="4.85546875" style="3" customWidth="1"/>
-    <col min="5395" max="5395" width="3.28515625" style="3" customWidth="1"/>
-    <col min="5396" max="5396" width="6.85546875" style="3" customWidth="1"/>
-    <col min="5397" max="5397" width="4.7109375" style="3" customWidth="1"/>
-    <col min="5398" max="5398" width="6" style="3" customWidth="1"/>
-    <col min="5399" max="5399" width="5.42578125" style="3" customWidth="1"/>
-    <col min="5400" max="5604" width="7" style="3" customWidth="1"/>
-    <col min="5605" max="5632" width="7" style="3"/>
-    <col min="5633" max="5633" width="4.42578125" style="3" customWidth="1"/>
-    <col min="5634" max="5634" width="11" style="3" customWidth="1"/>
-    <col min="5635" max="5636" width="5.85546875" style="3" customWidth="1"/>
-    <col min="5637" max="5637" width="18.85546875" style="3" customWidth="1"/>
-    <col min="5638" max="5638" width="17.5703125" style="3" customWidth="1"/>
-    <col min="5639" max="5639" width="6.28515625" style="3" customWidth="1"/>
-    <col min="5640" max="5640" width="6" style="3" customWidth="1"/>
-    <col min="5641" max="5641" width="5.5703125" style="3" customWidth="1"/>
-    <col min="5642" max="5642" width="4.42578125" style="3" customWidth="1"/>
-    <col min="5643" max="5643" width="4.85546875" style="3" customWidth="1"/>
-    <col min="5644" max="5644" width="3.42578125" style="3" customWidth="1"/>
-    <col min="5645" max="5645" width="3.7109375" style="3" customWidth="1"/>
-    <col min="5646" max="5646" width="4" style="3" customWidth="1"/>
-    <col min="5647" max="5647" width="4.7109375" style="3" customWidth="1"/>
-    <col min="5648" max="5648" width="3.7109375" style="3" customWidth="1"/>
-    <col min="5649" max="5649" width="4.42578125" style="3" customWidth="1"/>
-    <col min="5650" max="5650" width="4.85546875" style="3" customWidth="1"/>
-    <col min="5651" max="5651" width="3.28515625" style="3" customWidth="1"/>
-    <col min="5652" max="5652" width="6.85546875" style="3" customWidth="1"/>
-    <col min="5653" max="5653" width="4.7109375" style="3" customWidth="1"/>
-    <col min="5654" max="5654" width="6" style="3" customWidth="1"/>
-    <col min="5655" max="5655" width="5.42578125" style="3" customWidth="1"/>
-    <col min="5656" max="5860" width="7" style="3" customWidth="1"/>
-    <col min="5861" max="5888" width="7" style="3"/>
-    <col min="5889" max="5889" width="4.42578125" style="3" customWidth="1"/>
-    <col min="5890" max="5890" width="11" style="3" customWidth="1"/>
-    <col min="5891" max="5892" width="5.85546875" style="3" customWidth="1"/>
-    <col min="5893" max="5893" width="18.85546875" style="3" customWidth="1"/>
-    <col min="5894" max="5894" width="17.5703125" style="3" customWidth="1"/>
-    <col min="5895" max="5895" width="6.28515625" style="3" customWidth="1"/>
-    <col min="5896" max="5896" width="6" style="3" customWidth="1"/>
-    <col min="5897" max="5897" width="5.5703125" style="3" customWidth="1"/>
-    <col min="5898" max="5898" width="4.42578125" style="3" customWidth="1"/>
-    <col min="5899" max="5899" width="4.85546875" style="3" customWidth="1"/>
-    <col min="5900" max="5900" width="3.42578125" style="3" customWidth="1"/>
-    <col min="5901" max="5901" width="3.7109375" style="3" customWidth="1"/>
-    <col min="5902" max="5902" width="4" style="3" customWidth="1"/>
-    <col min="5903" max="5903" width="4.7109375" style="3" customWidth="1"/>
-    <col min="5904" max="5904" width="3.7109375" style="3" customWidth="1"/>
-    <col min="5905" max="5905" width="4.42578125" style="3" customWidth="1"/>
-    <col min="5906" max="5906" width="4.85546875" style="3" customWidth="1"/>
-    <col min="5907" max="5907" width="3.28515625" style="3" customWidth="1"/>
-    <col min="5908" max="5908" width="6.85546875" style="3" customWidth="1"/>
-    <col min="5909" max="5909" width="4.7109375" style="3" customWidth="1"/>
-    <col min="5910" max="5910" width="6" style="3" customWidth="1"/>
-    <col min="5911" max="5911" width="5.42578125" style="3" customWidth="1"/>
-    <col min="5912" max="6116" width="7" style="3" customWidth="1"/>
-    <col min="6117" max="6144" width="7" style="3"/>
-    <col min="6145" max="6145" width="4.42578125" style="3" customWidth="1"/>
-    <col min="6146" max="6146" width="11" style="3" customWidth="1"/>
-    <col min="6147" max="6148" width="5.85546875" style="3" customWidth="1"/>
-    <col min="6149" max="6149" width="18.85546875" style="3" customWidth="1"/>
-    <col min="6150" max="6150" width="17.5703125" style="3" customWidth="1"/>
-    <col min="6151" max="6151" width="6.28515625" style="3" customWidth="1"/>
-    <col min="6152" max="6152" width="6" style="3" customWidth="1"/>
-    <col min="6153" max="6153" width="5.5703125" style="3" customWidth="1"/>
-    <col min="6154" max="6154" width="4.42578125" style="3" customWidth="1"/>
-    <col min="6155" max="6155" width="4.85546875" style="3" customWidth="1"/>
-    <col min="6156" max="6156" width="3.42578125" style="3" customWidth="1"/>
-    <col min="6157" max="6157" width="3.7109375" style="3" customWidth="1"/>
-    <col min="6158" max="6158" width="4" style="3" customWidth="1"/>
-    <col min="6159" max="6159" width="4.7109375" style="3" customWidth="1"/>
-    <col min="6160" max="6160" width="3.7109375" style="3" customWidth="1"/>
-    <col min="6161" max="6161" width="4.42578125" style="3" customWidth="1"/>
-    <col min="6162" max="6162" width="4.85546875" style="3" customWidth="1"/>
-    <col min="6163" max="6163" width="3.28515625" style="3" customWidth="1"/>
-    <col min="6164" max="6164" width="6.85546875" style="3" customWidth="1"/>
-    <col min="6165" max="6165" width="4.7109375" style="3" customWidth="1"/>
-    <col min="6166" max="6166" width="6" style="3" customWidth="1"/>
-    <col min="6167" max="6167" width="5.42578125" style="3" customWidth="1"/>
-    <col min="6168" max="6372" width="7" style="3" customWidth="1"/>
-    <col min="6373" max="6400" width="7" style="3"/>
-    <col min="6401" max="6401" width="4.42578125" style="3" customWidth="1"/>
-    <col min="6402" max="6402" width="11" style="3" customWidth="1"/>
-    <col min="6403" max="6404" width="5.85546875" style="3" customWidth="1"/>
-    <col min="6405" max="6405" width="18.85546875" style="3" customWidth="1"/>
-    <col min="6406" max="6406" width="17.5703125" style="3" customWidth="1"/>
-    <col min="6407" max="6407" width="6.28515625" style="3" customWidth="1"/>
-    <col min="6408" max="6408" width="6" style="3" customWidth="1"/>
-    <col min="6409" max="6409" width="5.5703125" style="3" customWidth="1"/>
-    <col min="6410" max="6410" width="4.42578125" style="3" customWidth="1"/>
-    <col min="6411" max="6411" width="4.85546875" style="3" customWidth="1"/>
-    <col min="6412" max="6412" width="3.42578125" style="3" customWidth="1"/>
-    <col min="6413" max="6413" width="3.7109375" style="3" customWidth="1"/>
-    <col min="6414" max="6414" width="4" style="3" customWidth="1"/>
-    <col min="6415" max="6415" width="4.7109375" style="3" customWidth="1"/>
-    <col min="6416" max="6416" width="3.7109375" style="3" customWidth="1"/>
-    <col min="6417" max="6417" width="4.42578125" style="3" customWidth="1"/>
-    <col min="6418" max="6418" width="4.85546875" style="3" customWidth="1"/>
-    <col min="6419" max="6419" width="3.28515625" style="3" customWidth="1"/>
-    <col min="6420" max="6420" width="6.85546875" style="3" customWidth="1"/>
-    <col min="6421" max="6421" width="4.7109375" style="3" customWidth="1"/>
-    <col min="6422" max="6422" width="6" style="3" customWidth="1"/>
-    <col min="6423" max="6423" width="5.42578125" style="3" customWidth="1"/>
-    <col min="6424" max="6628" width="7" style="3" customWidth="1"/>
-    <col min="6629" max="6656" width="7" style="3"/>
-    <col min="6657" max="6657" width="4.42578125" style="3" customWidth="1"/>
-    <col min="6658" max="6658" width="11" style="3" customWidth="1"/>
-    <col min="6659" max="6660" width="5.85546875" style="3" customWidth="1"/>
-    <col min="6661" max="6661" width="18.85546875" style="3" customWidth="1"/>
-    <col min="6662" max="6662" width="17.5703125" style="3" customWidth="1"/>
-    <col min="6663" max="6663" width="6.28515625" style="3" customWidth="1"/>
-    <col min="6664" max="6664" width="6" style="3" customWidth="1"/>
-    <col min="6665" max="6665" width="5.5703125" style="3" customWidth="1"/>
-    <col min="6666" max="6666" width="4.42578125" style="3" customWidth="1"/>
-    <col min="6667" max="6667" width="4.85546875" style="3" customWidth="1"/>
-    <col min="6668" max="6668" width="3.42578125" style="3" customWidth="1"/>
-    <col min="6669" max="6669" width="3.7109375" style="3" customWidth="1"/>
-    <col min="6670" max="6670" width="4" style="3" customWidth="1"/>
-    <col min="6671" max="6671" width="4.7109375" style="3" customWidth="1"/>
-    <col min="6672" max="6672" width="3.7109375" style="3" customWidth="1"/>
-    <col min="6673" max="6673" width="4.42578125" style="3" customWidth="1"/>
-    <col min="6674" max="6674" width="4.85546875" style="3" customWidth="1"/>
-    <col min="6675" max="6675" width="3.28515625" style="3" customWidth="1"/>
-    <col min="6676" max="6676" width="6.85546875" style="3" customWidth="1"/>
-    <col min="6677" max="6677" width="4.7109375" style="3" customWidth="1"/>
-    <col min="6678" max="6678" width="6" style="3" customWidth="1"/>
-    <col min="6679" max="6679" width="5.42578125" style="3" customWidth="1"/>
-    <col min="6680" max="6884" width="7" style="3" customWidth="1"/>
-    <col min="6885" max="6912" width="7" style="3"/>
-    <col min="6913" max="6913" width="4.42578125" style="3" customWidth="1"/>
-    <col min="6914" max="6914" width="11" style="3" customWidth="1"/>
-    <col min="6915" max="6916" width="5.85546875" style="3" customWidth="1"/>
-    <col min="6917" max="6917" width="18.85546875" style="3" customWidth="1"/>
-    <col min="6918" max="6918" width="17.5703125" style="3" customWidth="1"/>
-    <col min="6919" max="6919" width="6.28515625" style="3" customWidth="1"/>
-    <col min="6920" max="6920" width="6" style="3" customWidth="1"/>
-    <col min="6921" max="6921" width="5.5703125" style="3" customWidth="1"/>
-    <col min="6922" max="6922" width="4.42578125" style="3" customWidth="1"/>
-    <col min="6923" max="6923" width="4.85546875" style="3" customWidth="1"/>
-    <col min="6924" max="6924" width="3.42578125" style="3" customWidth="1"/>
-    <col min="6925" max="6925" width="3.7109375" style="3" customWidth="1"/>
-    <col min="6926" max="6926" width="4" style="3" customWidth="1"/>
-    <col min="6927" max="6927" width="4.7109375" style="3" customWidth="1"/>
-    <col min="6928" max="6928" width="3.7109375" style="3" customWidth="1"/>
-    <col min="6929" max="6929" width="4.42578125" style="3" customWidth="1"/>
-    <col min="6930" max="6930" width="4.85546875" style="3" customWidth="1"/>
-    <col min="6931" max="6931" width="3.28515625" style="3" customWidth="1"/>
-    <col min="6932" max="6932" width="6.85546875" style="3" customWidth="1"/>
-    <col min="6933" max="6933" width="4.7109375" style="3" customWidth="1"/>
-    <col min="6934" max="6934" width="6" style="3" customWidth="1"/>
-    <col min="6935" max="6935" width="5.42578125" style="3" customWidth="1"/>
-    <col min="6936" max="7140" width="7" style="3" customWidth="1"/>
-    <col min="7141" max="7168" width="7" style="3"/>
-    <col min="7169" max="7169" width="4.42578125" style="3" customWidth="1"/>
-    <col min="7170" max="7170" width="11" style="3" customWidth="1"/>
-    <col min="7171" max="7172" width="5.85546875" style="3" customWidth="1"/>
-    <col min="7173" max="7173" width="18.85546875" style="3" customWidth="1"/>
-    <col min="7174" max="7174" width="17.5703125" style="3" customWidth="1"/>
-    <col min="7175" max="7175" width="6.28515625" style="3" customWidth="1"/>
-    <col min="7176" max="7176" width="6" style="3" customWidth="1"/>
-    <col min="7177" max="7177" width="5.5703125" style="3" customWidth="1"/>
-    <col min="7178" max="7178" width="4.42578125" style="3" customWidth="1"/>
-    <col min="7179" max="7179" width="4.85546875" style="3" customWidth="1"/>
-    <col min="7180" max="7180" width="3.42578125" style="3" customWidth="1"/>
-    <col min="7181" max="7181" width="3.7109375" style="3" customWidth="1"/>
-    <col min="7182" max="7182" width="4" style="3" customWidth="1"/>
-    <col min="7183" max="7183" width="4.7109375" style="3" customWidth="1"/>
-    <col min="7184" max="7184" width="3.7109375" style="3" customWidth="1"/>
-    <col min="7185" max="7185" width="4.42578125" style="3" customWidth="1"/>
-    <col min="7186" max="7186" width="4.85546875" style="3" customWidth="1"/>
-    <col min="7187" max="7187" width="3.28515625" style="3" customWidth="1"/>
-    <col min="7188" max="7188" width="6.85546875" style="3" customWidth="1"/>
-    <col min="7189" max="7189" width="4.7109375" style="3" customWidth="1"/>
-    <col min="7190" max="7190" width="6" style="3" customWidth="1"/>
-    <col min="7191" max="7191" width="5.42578125" style="3" customWidth="1"/>
-    <col min="7192" max="7396" width="7" style="3" customWidth="1"/>
-    <col min="7397" max="7424" width="7" style="3"/>
-    <col min="7425" max="7425" width="4.42578125" style="3" customWidth="1"/>
-    <col min="7426" max="7426" width="11" style="3" customWidth="1"/>
-    <col min="7427" max="7428" width="5.85546875" style="3" customWidth="1"/>
-    <col min="7429" max="7429" width="18.85546875" style="3" customWidth="1"/>
-    <col min="7430" max="7430" width="17.5703125" style="3" customWidth="1"/>
-    <col min="7431" max="7431" width="6.28515625" style="3" customWidth="1"/>
-    <col min="7432" max="7432" width="6" style="3" customWidth="1"/>
-    <col min="7433" max="7433" width="5.5703125" style="3" customWidth="1"/>
-    <col min="7434" max="7434" width="4.42578125" style="3" customWidth="1"/>
-    <col min="7435" max="7435" width="4.85546875" style="3" customWidth="1"/>
-    <col min="7436" max="7436" width="3.42578125" style="3" customWidth="1"/>
-    <col min="7437" max="7437" width="3.7109375" style="3" customWidth="1"/>
-    <col min="7438" max="7438" width="4" style="3" customWidth="1"/>
-    <col min="7439" max="7439" width="4.7109375" style="3" customWidth="1"/>
-    <col min="7440" max="7440" width="3.7109375" style="3" customWidth="1"/>
-    <col min="7441" max="7441" width="4.42578125" style="3" customWidth="1"/>
-    <col min="7442" max="7442" width="4.85546875" style="3" customWidth="1"/>
-    <col min="7443" max="7443" width="3.28515625" style="3" customWidth="1"/>
-    <col min="7444" max="7444" width="6.85546875" style="3" customWidth="1"/>
-    <col min="7445" max="7445" width="4.7109375" style="3" customWidth="1"/>
-    <col min="7446" max="7446" width="6" style="3" customWidth="1"/>
-    <col min="7447" max="7447" width="5.42578125" style="3" customWidth="1"/>
-    <col min="7448" max="7652" width="7" style="3" customWidth="1"/>
-    <col min="7653" max="7680" width="7" style="3"/>
-    <col min="7681" max="7681" width="4.42578125" style="3" customWidth="1"/>
-    <col min="7682" max="7682" width="11" style="3" customWidth="1"/>
-    <col min="7683" max="7684" width="5.85546875" style="3" customWidth="1"/>
-    <col min="7685" max="7685" width="18.85546875" style="3" customWidth="1"/>
-    <col min="7686" max="7686" width="17.5703125" style="3" customWidth="1"/>
-    <col min="7687" max="7687" width="6.28515625" style="3" customWidth="1"/>
-    <col min="7688" max="7688" width="6" style="3" customWidth="1"/>
-    <col min="7689" max="7689" width="5.5703125" style="3" customWidth="1"/>
-    <col min="7690" max="7690" width="4.42578125" style="3" customWidth="1"/>
-    <col min="7691" max="7691" width="4.85546875" style="3" customWidth="1"/>
-    <col min="7692" max="7692" width="3.42578125" style="3" customWidth="1"/>
-    <col min="7693" max="7693" width="3.7109375" style="3" customWidth="1"/>
-    <col min="7694" max="7694" width="4" style="3" customWidth="1"/>
-    <col min="7695" max="7695" width="4.7109375" style="3" customWidth="1"/>
-    <col min="7696" max="7696" width="3.7109375" style="3" customWidth="1"/>
-    <col min="7697" max="7697" width="4.42578125" style="3" customWidth="1"/>
-    <col min="7698" max="7698" width="4.85546875" style="3" customWidth="1"/>
-    <col min="7699" max="7699" width="3.28515625" style="3" customWidth="1"/>
-    <col min="7700" max="7700" width="6.85546875" style="3" customWidth="1"/>
-    <col min="7701" max="7701" width="4.7109375" style="3" customWidth="1"/>
-    <col min="7702" max="7702" width="6" style="3" customWidth="1"/>
-    <col min="7703" max="7703" width="5.42578125" style="3" customWidth="1"/>
-    <col min="7704" max="7908" width="7" style="3" customWidth="1"/>
-    <col min="7909" max="7936" width="7" style="3"/>
-    <col min="7937" max="7937" width="4.42578125" style="3" customWidth="1"/>
-    <col min="7938" max="7938" width="11" style="3" customWidth="1"/>
-    <col min="7939" max="7940" width="5.85546875" style="3" customWidth="1"/>
-    <col min="7941" max="7941" width="18.85546875" style="3" customWidth="1"/>
-    <col min="7942" max="7942" width="17.5703125" style="3" customWidth="1"/>
-    <col min="7943" max="7943" width="6.28515625" style="3" customWidth="1"/>
-    <col min="7944" max="7944" width="6" style="3" customWidth="1"/>
-    <col min="7945" max="7945" width="5.5703125" style="3" customWidth="1"/>
-    <col min="7946" max="7946" width="4.42578125" style="3" customWidth="1"/>
-    <col min="7947" max="7947" width="4.85546875" style="3" customWidth="1"/>
-    <col min="7948" max="7948" width="3.42578125" style="3" customWidth="1"/>
-    <col min="7949" max="7949" width="3.7109375" style="3" customWidth="1"/>
-    <col min="7950" max="7950" width="4" style="3" customWidth="1"/>
-    <col min="7951" max="7951" width="4.7109375" style="3" customWidth="1"/>
-    <col min="7952" max="7952" width="3.7109375" style="3" customWidth="1"/>
-    <col min="7953" max="7953" width="4.42578125" style="3" customWidth="1"/>
-    <col min="7954" max="7954" width="4.85546875" style="3" customWidth="1"/>
-    <col min="7955" max="7955" width="3.28515625" style="3" customWidth="1"/>
-    <col min="7956" max="7956" width="6.85546875" style="3" customWidth="1"/>
-    <col min="7957" max="7957" width="4.7109375" style="3" customWidth="1"/>
-    <col min="7958" max="7958" width="6" style="3" customWidth="1"/>
-    <col min="7959" max="7959" width="5.42578125" style="3" customWidth="1"/>
-    <col min="7960" max="8164" width="7" style="3" customWidth="1"/>
-    <col min="8165" max="8192" width="7" style="3"/>
-    <col min="8193" max="8193" width="4.42578125" style="3" customWidth="1"/>
-    <col min="8194" max="8194" width="11" style="3" customWidth="1"/>
-    <col min="8195" max="8196" width="5.85546875" style="3" customWidth="1"/>
-    <col min="8197" max="8197" width="18.85546875" style="3" customWidth="1"/>
-    <col min="8198" max="8198" width="17.5703125" style="3" customWidth="1"/>
-    <col min="8199" max="8199" width="6.28515625" style="3" customWidth="1"/>
-    <col min="8200" max="8200" width="6" style="3" customWidth="1"/>
-    <col min="8201" max="8201" width="5.5703125" style="3" customWidth="1"/>
-    <col min="8202" max="8202" width="4.42578125" style="3" customWidth="1"/>
-    <col min="8203" max="8203" width="4.85546875" style="3" customWidth="1"/>
-    <col min="8204" max="8204" width="3.42578125" style="3" customWidth="1"/>
-    <col min="8205" max="8205" width="3.7109375" style="3" customWidth="1"/>
-    <col min="8206" max="8206" width="4" style="3" customWidth="1"/>
-    <col min="8207" max="8207" width="4.7109375" style="3" customWidth="1"/>
-    <col min="8208" max="8208" width="3.7109375" style="3" customWidth="1"/>
-    <col min="8209" max="8209" width="4.42578125" style="3" customWidth="1"/>
-    <col min="8210" max="8210" width="4.85546875" style="3" customWidth="1"/>
-    <col min="8211" max="8211" width="3.28515625" style="3" customWidth="1"/>
-    <col min="8212" max="8212" width="6.85546875" style="3" customWidth="1"/>
-    <col min="8213" max="8213" width="4.7109375" style="3" customWidth="1"/>
-    <col min="8214" max="8214" width="6" style="3" customWidth="1"/>
-    <col min="8215" max="8215" width="5.42578125" style="3" customWidth="1"/>
-    <col min="8216" max="8420" width="7" style="3" customWidth="1"/>
-    <col min="8421" max="8448" width="7" style="3"/>
-    <col min="8449" max="8449" width="4.42578125" style="3" customWidth="1"/>
-    <col min="8450" max="8450" width="11" style="3" customWidth="1"/>
-    <col min="8451" max="8452" width="5.85546875" style="3" customWidth="1"/>
-    <col min="8453" max="8453" width="18.85546875" style="3" customWidth="1"/>
-    <col min="8454" max="8454" width="17.5703125" style="3" customWidth="1"/>
-    <col min="8455" max="8455" width="6.28515625" style="3" customWidth="1"/>
-    <col min="8456" max="8456" width="6" style="3" customWidth="1"/>
-    <col min="8457" max="8457" width="5.5703125" style="3" customWidth="1"/>
-    <col min="8458" max="8458" width="4.42578125" style="3" customWidth="1"/>
-    <col min="8459" max="8459" width="4.85546875" style="3" customWidth="1"/>
-    <col min="8460" max="8460" width="3.42578125" style="3" customWidth="1"/>
-    <col min="8461" max="8461" width="3.7109375" style="3" customWidth="1"/>
-    <col min="8462" max="8462" width="4" style="3" customWidth="1"/>
-    <col min="8463" max="8463" width="4.7109375" style="3" customWidth="1"/>
-    <col min="8464" max="8464" width="3.7109375" style="3" customWidth="1"/>
-    <col min="8465" max="8465" width="4.42578125" style="3" customWidth="1"/>
-    <col min="8466" max="8466" width="4.85546875" style="3" customWidth="1"/>
-    <col min="8467" max="8467" width="3.28515625" style="3" customWidth="1"/>
-    <col min="8468" max="8468" width="6.85546875" style="3" customWidth="1"/>
-    <col min="8469" max="8469" width="4.7109375" style="3" customWidth="1"/>
-    <col min="8470" max="8470" width="6" style="3" customWidth="1"/>
-    <col min="8471" max="8471" width="5.42578125" style="3" customWidth="1"/>
-    <col min="8472" max="8676" width="7" style="3" customWidth="1"/>
-    <col min="8677" max="8704" width="7" style="3"/>
-    <col min="8705" max="8705" width="4.42578125" style="3" customWidth="1"/>
-    <col min="8706" max="8706" width="11" style="3" customWidth="1"/>
-    <col min="8707" max="8708" width="5.85546875" style="3" customWidth="1"/>
-    <col min="8709" max="8709" width="18.85546875" style="3" customWidth="1"/>
-    <col min="8710" max="8710" width="17.5703125" style="3" customWidth="1"/>
-    <col min="8711" max="8711" width="6.28515625" style="3" customWidth="1"/>
-    <col min="8712" max="8712" width="6" style="3" customWidth="1"/>
-    <col min="8713" max="8713" width="5.5703125" style="3" customWidth="1"/>
-    <col min="8714" max="8714" width="4.42578125" style="3" customWidth="1"/>
-    <col min="8715" max="8715" width="4.85546875" style="3" customWidth="1"/>
-    <col min="8716" max="8716" width="3.42578125" style="3" customWidth="1"/>
-    <col min="8717" max="8717" width="3.7109375" style="3" customWidth="1"/>
-    <col min="8718" max="8718" width="4" style="3" customWidth="1"/>
-    <col min="8719" max="8719" width="4.7109375" style="3" customWidth="1"/>
-    <col min="8720" max="8720" width="3.7109375" style="3" customWidth="1"/>
-    <col min="8721" max="8721" width="4.42578125" style="3" customWidth="1"/>
-    <col min="8722" max="8722" width="4.85546875" style="3" customWidth="1"/>
-    <col min="8723" max="8723" width="3.28515625" style="3" customWidth="1"/>
-    <col min="8724" max="8724" width="6.85546875" style="3" customWidth="1"/>
-    <col min="8725" max="8725" width="4.7109375" style="3" customWidth="1"/>
-    <col min="8726" max="8726" width="6" style="3" customWidth="1"/>
-    <col min="8727" max="8727" width="5.42578125" style="3" customWidth="1"/>
-    <col min="8728" max="8932" width="7" style="3" customWidth="1"/>
-    <col min="8933" max="8960" width="7" style="3"/>
-    <col min="8961" max="8961" width="4.42578125" style="3" customWidth="1"/>
-    <col min="8962" max="8962" width="11" style="3" customWidth="1"/>
-    <col min="8963" max="8964" width="5.85546875" style="3" customWidth="1"/>
-    <col min="8965" max="8965" width="18.85546875" style="3" customWidth="1"/>
-    <col min="8966" max="8966" width="17.5703125" style="3" customWidth="1"/>
-    <col min="8967" max="8967" width="6.28515625" style="3" customWidth="1"/>
-    <col min="8968" max="8968" width="6" style="3" customWidth="1"/>
-    <col min="8969" max="8969" width="5.5703125" style="3" customWidth="1"/>
-    <col min="8970" max="8970" width="4.42578125" style="3" customWidth="1"/>
-    <col min="8971" max="8971" width="4.85546875" style="3" customWidth="1"/>
-    <col min="8972" max="8972" width="3.42578125" style="3" customWidth="1"/>
-    <col min="8973" max="8973" width="3.7109375" style="3" customWidth="1"/>
-    <col min="8974" max="8974" width="4" style="3" customWidth="1"/>
-    <col min="8975" max="8975" width="4.7109375" style="3" customWidth="1"/>
-    <col min="8976" max="8976" width="3.7109375" style="3" customWidth="1"/>
-    <col min="8977" max="8977" width="4.42578125" style="3" customWidth="1"/>
-    <col min="8978" max="8978" width="4.85546875" style="3" customWidth="1"/>
-    <col min="8979" max="8979" width="3.28515625" style="3" customWidth="1"/>
-    <col min="8980" max="8980" width="6.85546875" style="3" customWidth="1"/>
-    <col min="8981" max="8981" width="4.7109375" style="3" customWidth="1"/>
-    <col min="8982" max="8982" width="6" style="3" customWidth="1"/>
-    <col min="8983" max="8983" width="5.42578125" style="3" customWidth="1"/>
-    <col min="8984" max="9188" width="7" style="3" customWidth="1"/>
-    <col min="9189" max="9216" width="7" style="3"/>
-    <col min="9217" max="9217" width="4.42578125" style="3" customWidth="1"/>
-    <col min="9218" max="9218" width="11" style="3" customWidth="1"/>
-    <col min="9219" max="9220" width="5.85546875" style="3" customWidth="1"/>
-    <col min="9221" max="9221" width="18.85546875" style="3" customWidth="1"/>
-    <col min="9222" max="9222" width="17.5703125" style="3" customWidth="1"/>
-    <col min="9223" max="9223" width="6.28515625" style="3" customWidth="1"/>
-    <col min="9224" max="9224" width="6" style="3" customWidth="1"/>
-    <col min="9225" max="9225" width="5.5703125" style="3" customWidth="1"/>
-    <col min="9226" max="9226" width="4.42578125" style="3" customWidth="1"/>
-    <col min="9227" max="9227" width="4.85546875" style="3" customWidth="1"/>
-    <col min="9228" max="9228" width="3.42578125" style="3" customWidth="1"/>
-    <col min="9229" max="9229" width="3.7109375" style="3" customWidth="1"/>
-    <col min="9230" max="9230" width="4" style="3" customWidth="1"/>
-    <col min="9231" max="9231" width="4.7109375" style="3" customWidth="1"/>
-    <col min="9232" max="9232" width="3.7109375" style="3" customWidth="1"/>
-    <col min="9233" max="9233" width="4.42578125" style="3" customWidth="1"/>
-    <col min="9234" max="9234" width="4.85546875" style="3" customWidth="1"/>
-    <col min="9235" max="9235" width="3.28515625" style="3" customWidth="1"/>
-    <col min="9236" max="9236" width="6.85546875" style="3" customWidth="1"/>
-    <col min="9237" max="9237" width="4.7109375" style="3" customWidth="1"/>
-    <col min="9238" max="9238" width="6" style="3" customWidth="1"/>
-    <col min="9239" max="9239" width="5.42578125" style="3" customWidth="1"/>
-    <col min="9240" max="9444" width="7" style="3" customWidth="1"/>
-    <col min="9445" max="9472" width="7" style="3"/>
-    <col min="9473" max="9473" width="4.42578125" style="3" customWidth="1"/>
-    <col min="9474" max="9474" width="11" style="3" customWidth="1"/>
-    <col min="9475" max="9476" width="5.85546875" style="3" customWidth="1"/>
-    <col min="9477" max="9477" width="18.85546875" style="3" customWidth="1"/>
-    <col min="9478" max="9478" width="17.5703125" style="3" customWidth="1"/>
-    <col min="9479" max="9479" width="6.28515625" style="3" customWidth="1"/>
-    <col min="9480" max="9480" width="6" style="3" customWidth="1"/>
-    <col min="9481" max="9481" width="5.5703125" style="3" customWidth="1"/>
-    <col min="9482" max="9482" width="4.42578125" style="3" customWidth="1"/>
-    <col min="9483" max="9483" width="4.85546875" style="3" customWidth="1"/>
-    <col min="9484" max="9484" width="3.42578125" style="3" customWidth="1"/>
-    <col min="9485" max="9485" width="3.7109375" style="3" customWidth="1"/>
-    <col min="9486" max="9486" width="4" style="3" customWidth="1"/>
-    <col min="9487" max="9487" width="4.7109375" style="3" customWidth="1"/>
-    <col min="9488" max="9488" width="3.7109375" style="3" customWidth="1"/>
-    <col min="9489" max="9489" width="4.42578125" style="3" customWidth="1"/>
-    <col min="9490" max="9490" width="4.85546875" style="3" customWidth="1"/>
-    <col min="9491" max="9491" width="3.28515625" style="3" customWidth="1"/>
-    <col min="9492" max="9492" width="6.85546875" style="3" customWidth="1"/>
-    <col min="9493" max="9493" width="4.7109375" style="3" customWidth="1"/>
-    <col min="9494" max="9494" width="6" style="3" customWidth="1"/>
-    <col min="9495" max="9495" width="5.42578125" style="3" customWidth="1"/>
-    <col min="9496" max="9700" width="7" style="3" customWidth="1"/>
-    <col min="9701" max="9728" width="7" style="3"/>
-    <col min="9729" max="9729" width="4.42578125" style="3" customWidth="1"/>
-    <col min="9730" max="9730" width="11" style="3" customWidth="1"/>
-    <col min="9731" max="9732" width="5.85546875" style="3" customWidth="1"/>
-    <col min="9733" max="9733" width="18.85546875" style="3" customWidth="1"/>
-    <col min="9734" max="9734" width="17.5703125" style="3" customWidth="1"/>
-    <col min="9735" max="9735" width="6.28515625" style="3" customWidth="1"/>
-    <col min="9736" max="9736" width="6" style="3" customWidth="1"/>
-    <col min="9737" max="9737" width="5.5703125" style="3" customWidth="1"/>
-    <col min="9738" max="9738" width="4.42578125" style="3" customWidth="1"/>
-    <col min="9739" max="9739" width="4.85546875" style="3" customWidth="1"/>
-    <col min="9740" max="9740" width="3.42578125" style="3" customWidth="1"/>
-    <col min="9741" max="9741" width="3.7109375" style="3" customWidth="1"/>
-    <col min="9742" max="9742" width="4" style="3" customWidth="1"/>
-    <col min="9743" max="9743" width="4.7109375" style="3" customWidth="1"/>
-    <col min="9744" max="9744" width="3.7109375" style="3" customWidth="1"/>
-    <col min="9745" max="9745" width="4.42578125" style="3" customWidth="1"/>
-    <col min="9746" max="9746" width="4.85546875" style="3" customWidth="1"/>
-    <col min="9747" max="9747" width="3.28515625" style="3" customWidth="1"/>
-    <col min="9748" max="9748" width="6.85546875" style="3" customWidth="1"/>
-    <col min="9749" max="9749" width="4.7109375" style="3" customWidth="1"/>
-    <col min="9750" max="9750" width="6" style="3" customWidth="1"/>
-    <col min="9751" max="9751" width="5.42578125" style="3" customWidth="1"/>
-    <col min="9752" max="9956" width="7" style="3" customWidth="1"/>
-    <col min="9957" max="9984" width="7" style="3"/>
-    <col min="9985" max="9985" width="4.42578125" style="3" customWidth="1"/>
-    <col min="9986" max="9986" width="11" style="3" customWidth="1"/>
-    <col min="9987" max="9988" width="5.85546875" style="3" customWidth="1"/>
-    <col min="9989" max="9989" width="18.85546875" style="3" customWidth="1"/>
-    <col min="9990" max="9990" width="17.5703125" style="3" customWidth="1"/>
-    <col min="9991" max="9991" width="6.28515625" style="3" customWidth="1"/>
-    <col min="9992" max="9992" width="6" style="3" customWidth="1"/>
-    <col min="9993" max="9993" width="5.5703125" style="3" customWidth="1"/>
-    <col min="9994" max="9994" width="4.42578125" style="3" customWidth="1"/>
-    <col min="9995" max="9995" width="4.85546875" style="3" customWidth="1"/>
-    <col min="9996" max="9996" width="3.42578125" style="3" customWidth="1"/>
-    <col min="9997" max="9997" width="3.7109375" style="3" customWidth="1"/>
-    <col min="9998" max="9998" width="4" style="3" customWidth="1"/>
-    <col min="9999" max="9999" width="4.7109375" style="3" customWidth="1"/>
-    <col min="10000" max="10000" width="3.7109375" style="3" customWidth="1"/>
-    <col min="10001" max="10001" width="4.42578125" style="3" customWidth="1"/>
-    <col min="10002" max="10002" width="4.85546875" style="3" customWidth="1"/>
-    <col min="10003" max="10003" width="3.28515625" style="3" customWidth="1"/>
-    <col min="10004" max="10004" width="6.85546875" style="3" customWidth="1"/>
-    <col min="10005" max="10005" width="4.7109375" style="3" customWidth="1"/>
-    <col min="10006" max="10006" width="6" style="3" customWidth="1"/>
-    <col min="10007" max="10007" width="5.42578125" style="3" customWidth="1"/>
-    <col min="10008" max="10212" width="7" style="3" customWidth="1"/>
-    <col min="10213" max="10240" width="7" style="3"/>
-    <col min="10241" max="10241" width="4.42578125" style="3" customWidth="1"/>
-    <col min="10242" max="10242" width="11" style="3" customWidth="1"/>
-    <col min="10243" max="10244" width="5.85546875" style="3" customWidth="1"/>
-    <col min="10245" max="10245" width="18.85546875" style="3" customWidth="1"/>
-    <col min="10246" max="10246" width="17.5703125" style="3" customWidth="1"/>
-    <col min="10247" max="10247" width="6.28515625" style="3" customWidth="1"/>
-    <col min="10248" max="10248" width="6" style="3" customWidth="1"/>
-    <col min="10249" max="10249" width="5.5703125" style="3" customWidth="1"/>
-    <col min="10250" max="10250" width="4.42578125" style="3" customWidth="1"/>
-    <col min="10251" max="10251" width="4.85546875" style="3" customWidth="1"/>
-    <col min="10252" max="10252" width="3.42578125" style="3" customWidth="1"/>
-    <col min="10253" max="10253" width="3.7109375" style="3" customWidth="1"/>
-    <col min="10254" max="10254" width="4" style="3" customWidth="1"/>
-    <col min="10255" max="10255" width="4.7109375" style="3" customWidth="1"/>
-    <col min="10256" max="10256" width="3.7109375" style="3" customWidth="1"/>
-    <col min="10257" max="10257" width="4.42578125" style="3" customWidth="1"/>
-    <col min="10258" max="10258" width="4.85546875" style="3" customWidth="1"/>
-    <col min="10259" max="10259" width="3.28515625" style="3" customWidth="1"/>
-    <col min="10260" max="10260" width="6.85546875" style="3" customWidth="1"/>
-    <col min="10261" max="10261" width="4.7109375" style="3" customWidth="1"/>
-    <col min="10262" max="10262" width="6" style="3" customWidth="1"/>
-    <col min="10263" max="10263" width="5.42578125" style="3" customWidth="1"/>
-    <col min="10264" max="10468" width="7" style="3" customWidth="1"/>
-    <col min="10469" max="10496" width="7" style="3"/>
-    <col min="10497" max="10497" width="4.42578125" style="3" customWidth="1"/>
-    <col min="10498" max="10498" width="11" style="3" customWidth="1"/>
-    <col min="10499" max="10500" width="5.85546875" style="3" customWidth="1"/>
-    <col min="10501" max="10501" width="18.85546875" style="3" customWidth="1"/>
-    <col min="10502" max="10502" width="17.5703125" style="3" customWidth="1"/>
-    <col min="10503" max="10503" width="6.28515625" style="3" customWidth="1"/>
-    <col min="10504" max="10504" width="6" style="3" customWidth="1"/>
-    <col min="10505" max="10505" width="5.5703125" style="3" customWidth="1"/>
-    <col min="10506" max="10506" width="4.42578125" style="3" customWidth="1"/>
-    <col min="10507" max="10507" width="4.85546875" style="3" customWidth="1"/>
-    <col min="10508" max="10508" width="3.42578125" style="3" customWidth="1"/>
-    <col min="10509" max="10509" width="3.7109375" style="3" customWidth="1"/>
-    <col min="10510" max="10510" width="4" style="3" customWidth="1"/>
-    <col min="10511" max="10511" width="4.7109375" style="3" customWidth="1"/>
-    <col min="10512" max="10512" width="3.7109375" style="3" customWidth="1"/>
-    <col min="10513" max="10513" width="4.42578125" style="3" customWidth="1"/>
-    <col min="10514" max="10514" width="4.85546875" style="3" customWidth="1"/>
-    <col min="10515" max="10515" width="3.28515625" style="3" customWidth="1"/>
-    <col min="10516" max="10516" width="6.85546875" style="3" customWidth="1"/>
-    <col min="10517" max="10517" width="4.7109375" style="3" customWidth="1"/>
-    <col min="10518" max="10518" width="6" style="3" customWidth="1"/>
-    <col min="10519" max="10519" width="5.42578125" style="3" customWidth="1"/>
-    <col min="10520" max="10724" width="7" style="3" customWidth="1"/>
-    <col min="10725" max="10752" width="7" style="3"/>
-    <col min="10753" max="10753" width="4.42578125" style="3" customWidth="1"/>
-    <col min="10754" max="10754" width="11" style="3" customWidth="1"/>
-    <col min="10755" max="10756" width="5.85546875" style="3" customWidth="1"/>
-    <col min="10757" max="10757" width="18.85546875" style="3" customWidth="1"/>
-    <col min="10758" max="10758" width="17.5703125" style="3" customWidth="1"/>
-    <col min="10759" max="10759" width="6.28515625" style="3" customWidth="1"/>
-    <col min="10760" max="10760" width="6" style="3" customWidth="1"/>
-    <col min="10761" max="10761" width="5.5703125" style="3" customWidth="1"/>
-    <col min="10762" max="10762" width="4.42578125" style="3" customWidth="1"/>
-    <col min="10763" max="10763" width="4.85546875" style="3" customWidth="1"/>
-    <col min="10764" max="10764" width="3.42578125" style="3" customWidth="1"/>
-    <col min="10765" max="10765" width="3.7109375" style="3" customWidth="1"/>
-    <col min="10766" max="10766" width="4" style="3" customWidth="1"/>
-    <col min="10767" max="10767" width="4.7109375" style="3" customWidth="1"/>
-    <col min="10768" max="10768" width="3.7109375" style="3" customWidth="1"/>
-    <col min="10769" max="10769" width="4.42578125" style="3" customWidth="1"/>
-    <col min="10770" max="10770" width="4.85546875" style="3" customWidth="1"/>
-    <col min="10771" max="10771" width="3.28515625" style="3" customWidth="1"/>
-    <col min="10772" max="10772" width="6.85546875" style="3" customWidth="1"/>
-    <col min="10773" max="10773" width="4.7109375" style="3" customWidth="1"/>
-    <col min="10774" max="10774" width="6" style="3" customWidth="1"/>
-    <col min="10775" max="10775" width="5.42578125" style="3" customWidth="1"/>
-    <col min="10776" max="10980" width="7" style="3" customWidth="1"/>
-    <col min="10981" max="11008" width="7" style="3"/>
-    <col min="11009" max="11009" width="4.42578125" style="3" customWidth="1"/>
-    <col min="11010" max="11010" width="11" style="3" customWidth="1"/>
-    <col min="11011" max="11012" width="5.85546875" style="3" customWidth="1"/>
-    <col min="11013" max="11013" width="18.85546875" style="3" customWidth="1"/>
-    <col min="11014" max="11014" width="17.5703125" style="3" customWidth="1"/>
-    <col min="11015" max="11015" width="6.28515625" style="3" customWidth="1"/>
-    <col min="11016" max="11016" width="6" style="3" customWidth="1"/>
-    <col min="11017" max="11017" width="5.5703125" style="3" customWidth="1"/>
-    <col min="11018" max="11018" width="4.42578125" style="3" customWidth="1"/>
-    <col min="11019" max="11019" width="4.85546875" style="3" customWidth="1"/>
-    <col min="11020" max="11020" width="3.42578125" style="3" customWidth="1"/>
-    <col min="11021" max="11021" width="3.7109375" style="3" customWidth="1"/>
-    <col min="11022" max="11022" width="4" style="3" customWidth="1"/>
-    <col min="11023" max="11023" width="4.7109375" style="3" customWidth="1"/>
-    <col min="11024" max="11024" width="3.7109375" style="3" customWidth="1"/>
-    <col min="11025" max="11025" width="4.42578125" style="3" customWidth="1"/>
-    <col min="11026" max="11026" width="4.85546875" style="3" customWidth="1"/>
-    <col min="11027" max="11027" width="3.28515625" style="3" customWidth="1"/>
-    <col min="11028" max="11028" width="6.85546875" style="3" customWidth="1"/>
-    <col min="11029" max="11029" width="4.7109375" style="3" customWidth="1"/>
-    <col min="11030" max="11030" width="6" style="3" customWidth="1"/>
-    <col min="11031" max="11031" width="5.42578125" style="3" customWidth="1"/>
-    <col min="11032" max="11236" width="7" style="3" customWidth="1"/>
-    <col min="11237" max="11264" width="7" style="3"/>
-    <col min="11265" max="11265" width="4.42578125" style="3" customWidth="1"/>
-    <col min="11266" max="11266" width="11" style="3" customWidth="1"/>
-    <col min="11267" max="11268" width="5.85546875" style="3" customWidth="1"/>
-    <col min="11269" max="11269" width="18.85546875" style="3" customWidth="1"/>
-    <col min="11270" max="11270" width="17.5703125" style="3" customWidth="1"/>
-    <col min="11271" max="11271" width="6.28515625" style="3" customWidth="1"/>
-    <col min="11272" max="11272" width="6" style="3" customWidth="1"/>
-    <col min="11273" max="11273" width="5.5703125" style="3" customWidth="1"/>
-    <col min="11274" max="11274" width="4.42578125" style="3" customWidth="1"/>
-    <col min="11275" max="11275" width="4.85546875" style="3" customWidth="1"/>
-    <col min="11276" max="11276" width="3.42578125" style="3" customWidth="1"/>
-    <col min="11277" max="11277" width="3.7109375" style="3" customWidth="1"/>
-    <col min="11278" max="11278" width="4" style="3" customWidth="1"/>
-    <col min="11279" max="11279" width="4.7109375" style="3" customWidth="1"/>
-    <col min="11280" max="11280" width="3.7109375" style="3" customWidth="1"/>
-    <col min="11281" max="11281" width="4.42578125" style="3" customWidth="1"/>
-    <col min="11282" max="11282" width="4.85546875" style="3" customWidth="1"/>
-    <col min="11283" max="11283" width="3.28515625" style="3" customWidth="1"/>
-    <col min="11284" max="11284" width="6.85546875" style="3" customWidth="1"/>
-    <col min="11285" max="11285" width="4.7109375" style="3" customWidth="1"/>
-    <col min="11286" max="11286" width="6" style="3" customWidth="1"/>
-    <col min="11287" max="11287" width="5.42578125" style="3" customWidth="1"/>
-    <col min="11288" max="11492" width="7" style="3" customWidth="1"/>
-    <col min="11493" max="11520" width="7" style="3"/>
-    <col min="11521" max="11521" width="4.42578125" style="3" customWidth="1"/>
-    <col min="11522" max="11522" width="11" style="3" customWidth="1"/>
-    <col min="11523" max="11524" width="5.85546875" style="3" customWidth="1"/>
-    <col min="11525" max="11525" width="18.85546875" style="3" customWidth="1"/>
-    <col min="11526" max="11526" width="17.5703125" style="3" customWidth="1"/>
-    <col min="11527" max="11527" width="6.28515625" style="3" customWidth="1"/>
-    <col min="11528" max="11528" width="6" style="3" customWidth="1"/>
-    <col min="11529" max="11529" width="5.5703125" style="3" customWidth="1"/>
-    <col min="11530" max="11530" width="4.42578125" style="3" customWidth="1"/>
-    <col min="11531" max="11531" width="4.85546875" style="3" customWidth="1"/>
-    <col min="11532" max="11532" width="3.42578125" style="3" customWidth="1"/>
-    <col min="11533" max="11533" width="3.7109375" style="3" customWidth="1"/>
-    <col min="11534" max="11534" width="4" style="3" customWidth="1"/>
-    <col min="11535" max="11535" width="4.7109375" style="3" customWidth="1"/>
-    <col min="11536" max="11536" width="3.7109375" style="3" customWidth="1"/>
-    <col min="11537" max="11537" width="4.42578125" style="3" customWidth="1"/>
-    <col min="11538" max="11538" width="4.85546875" style="3" customWidth="1"/>
-    <col min="11539" max="11539" width="3.28515625" style="3" customWidth="1"/>
-    <col min="11540" max="11540" width="6.85546875" style="3" customWidth="1"/>
-    <col min="11541" max="11541" width="4.7109375" style="3" customWidth="1"/>
-    <col min="11542" max="11542" width="6" style="3" customWidth="1"/>
-    <col min="11543" max="11543" width="5.42578125" style="3" customWidth="1"/>
-    <col min="11544" max="11748" width="7" style="3" customWidth="1"/>
-    <col min="11749" max="11776" width="7" style="3"/>
-    <col min="11777" max="11777" width="4.42578125" style="3" customWidth="1"/>
-    <col min="11778" max="11778" width="11" style="3" customWidth="1"/>
-    <col min="11779" max="11780" width="5.85546875" style="3" customWidth="1"/>
-    <col min="11781" max="11781" width="18.85546875" style="3" customWidth="1"/>
-    <col min="11782" max="11782" width="17.5703125" style="3" customWidth="1"/>
-    <col min="11783" max="11783" width="6.28515625" style="3" customWidth="1"/>
-    <col min="11784" max="11784" width="6" style="3" customWidth="1"/>
-    <col min="11785" max="11785" width="5.5703125" style="3" customWidth="1"/>
-    <col min="11786" max="11786" width="4.42578125" style="3" customWidth="1"/>
-    <col min="11787" max="11787" width="4.85546875" style="3" customWidth="1"/>
-    <col min="11788" max="11788" width="3.42578125" style="3" customWidth="1"/>
-    <col min="11789" max="11789" width="3.7109375" style="3" customWidth="1"/>
-    <col min="11790" max="11790" width="4" style="3" customWidth="1"/>
-    <col min="11791" max="11791" width="4.7109375" style="3" customWidth="1"/>
-    <col min="11792" max="11792" width="3.7109375" style="3" customWidth="1"/>
-    <col min="11793" max="11793" width="4.42578125" style="3" customWidth="1"/>
-    <col min="11794" max="11794" width="4.85546875" style="3" customWidth="1"/>
-    <col min="11795" max="11795" width="3.28515625" style="3" customWidth="1"/>
-    <col min="11796" max="11796" width="6.85546875" style="3" customWidth="1"/>
-    <col min="11797" max="11797" width="4.7109375" style="3" customWidth="1"/>
-    <col min="11798" max="11798" width="6" style="3" customWidth="1"/>
-    <col min="11799" max="11799" width="5.42578125" style="3" customWidth="1"/>
-    <col min="11800" max="12004" width="7" style="3" customWidth="1"/>
-    <col min="12005" max="12032" width="7" style="3"/>
-    <col min="12033" max="12033" width="4.42578125" style="3" customWidth="1"/>
-    <col min="12034" max="12034" width="11" style="3" customWidth="1"/>
-    <col min="12035" max="12036" width="5.85546875" style="3" customWidth="1"/>
-    <col min="12037" max="12037" width="18.85546875" style="3" customWidth="1"/>
-    <col min="12038" max="12038" width="17.5703125" style="3" customWidth="1"/>
-    <col min="12039" max="12039" width="6.28515625" style="3" customWidth="1"/>
-    <col min="12040" max="12040" width="6" style="3" customWidth="1"/>
-    <col min="12041" max="12041" width="5.5703125" style="3" customWidth="1"/>
-    <col min="12042" max="12042" width="4.42578125" style="3" customWidth="1"/>
-    <col min="12043" max="12043" width="4.85546875" style="3" customWidth="1"/>
-    <col min="12044" max="12044" width="3.42578125" style="3" customWidth="1"/>
-    <col min="12045" max="12045" width="3.7109375" style="3" customWidth="1"/>
-    <col min="12046" max="12046" width="4" style="3" customWidth="1"/>
-    <col min="12047" max="12047" width="4.7109375" style="3" customWidth="1"/>
-    <col min="12048" max="12048" width="3.7109375" style="3" customWidth="1"/>
-    <col min="12049" max="12049" width="4.42578125" style="3" customWidth="1"/>
-    <col min="12050" max="12050" width="4.85546875" style="3" customWidth="1"/>
-    <col min="12051" max="12051" width="3.28515625" style="3" customWidth="1"/>
-    <col min="12052" max="12052" width="6.85546875" style="3" customWidth="1"/>
-    <col min="12053" max="12053" width="4.7109375" style="3" customWidth="1"/>
-    <col min="12054" max="12054" width="6" style="3" customWidth="1"/>
-    <col min="12055" max="12055" width="5.42578125" style="3" customWidth="1"/>
-    <col min="12056" max="12260" width="7" style="3" customWidth="1"/>
-    <col min="12261" max="12288" width="7" style="3"/>
-    <col min="12289" max="12289" width="4.42578125" style="3" customWidth="1"/>
-    <col min="12290" max="12290" width="11" style="3" customWidth="1"/>
-    <col min="12291" max="12292" width="5.85546875" style="3" customWidth="1"/>
-    <col min="12293" max="12293" width="18.85546875" style="3" customWidth="1"/>
-    <col min="12294" max="12294" width="17.5703125" style="3" customWidth="1"/>
-    <col min="12295" max="12295" width="6.28515625" style="3" customWidth="1"/>
-    <col min="12296" max="12296" width="6" style="3" customWidth="1"/>
-    <col min="12297" max="12297" width="5.5703125" style="3" customWidth="1"/>
-    <col min="12298" max="12298" width="4.42578125" style="3" customWidth="1"/>
-    <col min="12299" max="12299" width="4.85546875" style="3" customWidth="1"/>
-    <col min="12300" max="12300" width="3.42578125" style="3" customWidth="1"/>
-    <col min="12301" max="12301" width="3.7109375" style="3" customWidth="1"/>
-    <col min="12302" max="12302" width="4" style="3" customWidth="1"/>
-    <col min="12303" max="12303" width="4.7109375" style="3" customWidth="1"/>
-    <col min="12304" max="12304" width="3.7109375" style="3" customWidth="1"/>
-    <col min="12305" max="12305" width="4.42578125" style="3" customWidth="1"/>
-    <col min="12306" max="12306" width="4.85546875" style="3" customWidth="1"/>
-    <col min="12307" max="12307" width="3.28515625" style="3" customWidth="1"/>
-    <col min="12308" max="12308" width="6.85546875" style="3" customWidth="1"/>
-    <col min="12309" max="12309" width="4.7109375" style="3" customWidth="1"/>
-    <col min="12310" max="12310" width="6" style="3" customWidth="1"/>
-    <col min="12311" max="12311" width="5.42578125" style="3" customWidth="1"/>
-    <col min="12312" max="12516" width="7" style="3" customWidth="1"/>
-    <col min="12517" max="12544" width="7" style="3"/>
-    <col min="12545" max="12545" width="4.42578125" style="3" customWidth="1"/>
-    <col min="12546" max="12546" width="11" style="3" customWidth="1"/>
-    <col min="12547" max="12548" width="5.85546875" style="3" customWidth="1"/>
-    <col min="12549" max="12549" width="18.85546875" style="3" customWidth="1"/>
-    <col min="12550" max="12550" width="17.5703125" style="3" customWidth="1"/>
-    <col min="12551" max="12551" width="6.28515625" style="3" customWidth="1"/>
-    <col min="12552" max="12552" width="6" style="3" customWidth="1"/>
-    <col min="12553" max="12553" width="5.5703125" style="3" customWidth="1"/>
-    <col min="12554" max="12554" width="4.42578125" style="3" customWidth="1"/>
-    <col min="12555" max="12555" width="4.85546875" style="3" customWidth="1"/>
-    <col min="12556" max="12556" width="3.42578125" style="3" customWidth="1"/>
-    <col min="12557" max="12557" width="3.7109375" style="3" customWidth="1"/>
-    <col min="12558" max="12558" width="4" style="3" customWidth="1"/>
-    <col min="12559" max="12559" width="4.7109375" style="3" customWidth="1"/>
-    <col min="12560" max="12560" width="3.7109375" style="3" customWidth="1"/>
-    <col min="12561" max="12561" width="4.42578125" style="3" customWidth="1"/>
-    <col min="12562" max="12562" width="4.85546875" style="3" customWidth="1"/>
-    <col min="12563" max="12563" width="3.28515625" style="3" customWidth="1"/>
-    <col min="12564" max="12564" width="6.85546875" style="3" customWidth="1"/>
-    <col min="12565" max="12565" width="4.7109375" style="3" customWidth="1"/>
-    <col min="12566" max="12566" width="6" style="3" customWidth="1"/>
-    <col min="12567" max="12567" width="5.42578125" style="3" customWidth="1"/>
-    <col min="12568" max="12772" width="7" style="3" customWidth="1"/>
-    <col min="12773" max="12800" width="7" style="3"/>
-    <col min="12801" max="12801" width="4.42578125" style="3" customWidth="1"/>
-    <col min="12802" max="12802" width="11" style="3" customWidth="1"/>
-    <col min="12803" max="12804" width="5.85546875" style="3" customWidth="1"/>
-    <col min="12805" max="12805" width="18.85546875" style="3" customWidth="1"/>
-    <col min="12806" max="12806" width="17.5703125" style="3" customWidth="1"/>
-    <col min="12807" max="12807" width="6.28515625" style="3" customWidth="1"/>
-    <col min="12808" max="12808" width="6" style="3" customWidth="1"/>
-    <col min="12809" max="12809" width="5.5703125" style="3" customWidth="1"/>
-    <col min="12810" max="12810" width="4.42578125" style="3" customWidth="1"/>
-    <col min="12811" max="12811" width="4.85546875" style="3" customWidth="1"/>
-    <col min="12812" max="12812" width="3.42578125" style="3" customWidth="1"/>
-    <col min="12813" max="12813" width="3.7109375" style="3" customWidth="1"/>
-    <col min="12814" max="12814" width="4" style="3" customWidth="1"/>
-    <col min="12815" max="12815" width="4.7109375" style="3" customWidth="1"/>
-    <col min="12816" max="12816" width="3.7109375" style="3" customWidth="1"/>
-    <col min="12817" max="12817" width="4.42578125" style="3" customWidth="1"/>
-    <col min="12818" max="12818" width="4.85546875" style="3" customWidth="1"/>
-    <col min="12819" max="12819" width="3.28515625" style="3" customWidth="1"/>
-    <col min="12820" max="12820" width="6.85546875" style="3" customWidth="1"/>
-    <col min="12821" max="12821" width="4.7109375" style="3" customWidth="1"/>
-    <col min="12822" max="12822" width="6" style="3" customWidth="1"/>
-    <col min="12823" max="12823" width="5.42578125" style="3" customWidth="1"/>
-    <col min="12824" max="13028" width="7" style="3" customWidth="1"/>
-    <col min="13029" max="13056" width="7" style="3"/>
-    <col min="13057" max="13057" width="4.42578125" style="3" customWidth="1"/>
-    <col min="13058" max="13058" width="11" style="3" customWidth="1"/>
-    <col min="13059" max="13060" width="5.85546875" style="3" customWidth="1"/>
-    <col min="13061" max="13061" width="18.85546875" style="3" customWidth="1"/>
-    <col min="13062" max="13062" width="17.5703125" style="3" customWidth="1"/>
-    <col min="13063" max="13063" width="6.28515625" style="3" customWidth="1"/>
-    <col min="13064" max="13064" width="6" style="3" customWidth="1"/>
-    <col min="13065" max="13065" width="5.5703125" style="3" customWidth="1"/>
-    <col min="13066" max="13066" width="4.42578125" style="3" customWidth="1"/>
-    <col min="13067" max="13067" width="4.85546875" style="3" customWidth="1"/>
-    <col min="13068" max="13068" width="3.42578125" style="3" customWidth="1"/>
-    <col min="13069" max="13069" width="3.7109375" style="3" customWidth="1"/>
-    <col min="13070" max="13070" width="4" style="3" customWidth="1"/>
-    <col min="13071" max="13071" width="4.7109375" style="3" customWidth="1"/>
-    <col min="13072" max="13072" width="3.7109375" style="3" customWidth="1"/>
-    <col min="13073" max="13073" width="4.42578125" style="3" customWidth="1"/>
-    <col min="13074" max="13074" width="4.85546875" style="3" customWidth="1"/>
-    <col min="13075" max="13075" width="3.28515625" style="3" customWidth="1"/>
-    <col min="13076" max="13076" width="6.85546875" style="3" customWidth="1"/>
-    <col min="13077" max="13077" width="4.7109375" style="3" customWidth="1"/>
-    <col min="13078" max="13078" width="6" style="3" customWidth="1"/>
-    <col min="13079" max="13079" width="5.42578125" style="3" customWidth="1"/>
-    <col min="13080" max="13284" width="7" style="3" customWidth="1"/>
-    <col min="13285" max="13312" width="7" style="3"/>
-    <col min="13313" max="13313" width="4.42578125" style="3" customWidth="1"/>
-    <col min="13314" max="13314" width="11" style="3" customWidth="1"/>
-    <col min="13315" max="13316" width="5.85546875" style="3" customWidth="1"/>
-    <col min="13317" max="13317" width="18.85546875" style="3" customWidth="1"/>
-    <col min="13318" max="13318" width="17.5703125" style="3" customWidth="1"/>
-    <col min="13319" max="13319" width="6.28515625" style="3" customWidth="1"/>
-    <col min="13320" max="13320" width="6" style="3" customWidth="1"/>
-    <col min="13321" max="13321" width="5.5703125" style="3" customWidth="1"/>
-    <col min="13322" max="13322" width="4.42578125" style="3" customWidth="1"/>
-    <col min="13323" max="13323" width="4.85546875" style="3" customWidth="1"/>
-    <col min="13324" max="13324" width="3.42578125" style="3" customWidth="1"/>
-    <col min="13325" max="13325" width="3.7109375" style="3" customWidth="1"/>
-    <col min="13326" max="13326" width="4" style="3" customWidth="1"/>
-    <col min="13327" max="13327" width="4.7109375" style="3" customWidth="1"/>
-    <col min="13328" max="13328" width="3.7109375" style="3" customWidth="1"/>
-    <col min="13329" max="13329" width="4.42578125" style="3" customWidth="1"/>
-    <col min="13330" max="13330" width="4.85546875" style="3" customWidth="1"/>
-    <col min="13331" max="13331" width="3.28515625" style="3" customWidth="1"/>
-    <col min="13332" max="13332" width="6.85546875" style="3" customWidth="1"/>
-    <col min="13333" max="13333" width="4.7109375" style="3" customWidth="1"/>
-    <col min="13334" max="13334" width="6" style="3" customWidth="1"/>
-    <col min="13335" max="13335" width="5.42578125" style="3" customWidth="1"/>
-    <col min="13336" max="13540" width="7" style="3" customWidth="1"/>
-    <col min="13541" max="13568" width="7" style="3"/>
-    <col min="13569" max="13569" width="4.42578125" style="3" customWidth="1"/>
-    <col min="13570" max="13570" width="11" style="3" customWidth="1"/>
-    <col min="13571" max="13572" width="5.85546875" style="3" customWidth="1"/>
-    <col min="13573" max="13573" width="18.85546875" style="3" customWidth="1"/>
-    <col min="13574" max="13574" width="17.5703125" style="3" customWidth="1"/>
-    <col min="13575" max="13575" width="6.28515625" style="3" customWidth="1"/>
-    <col min="13576" max="13576" width="6" style="3" customWidth="1"/>
-    <col min="13577" max="13577" width="5.5703125" style="3" customWidth="1"/>
-    <col min="13578" max="13578" width="4.42578125" style="3" customWidth="1"/>
-    <col min="13579" max="13579" width="4.85546875" style="3" customWidth="1"/>
-    <col min="13580" max="13580" width="3.42578125" style="3" customWidth="1"/>
-    <col min="13581" max="13581" width="3.7109375" style="3" customWidth="1"/>
-    <col min="13582" max="13582" width="4" style="3" customWidth="1"/>
-    <col min="13583" max="13583" width="4.7109375" style="3" customWidth="1"/>
-    <col min="13584" max="13584" width="3.7109375" style="3" customWidth="1"/>
-    <col min="13585" max="13585" width="4.42578125" style="3" customWidth="1"/>
-    <col min="13586" max="13586" width="4.85546875" style="3" customWidth="1"/>
-    <col min="13587" max="13587" width="3.28515625" style="3" customWidth="1"/>
-    <col min="13588" max="13588" width="6.85546875" style="3" customWidth="1"/>
-    <col min="13589" max="13589" width="4.7109375" style="3" customWidth="1"/>
-    <col min="13590" max="13590" width="6" style="3" customWidth="1"/>
-    <col min="13591" max="13591" width="5.42578125" style="3" customWidth="1"/>
-    <col min="13592" max="13796" width="7" style="3" customWidth="1"/>
-    <col min="13797" max="13824" width="7" style="3"/>
-    <col min="13825" max="13825" width="4.42578125" style="3" customWidth="1"/>
-    <col min="13826" max="13826" width="11" style="3" customWidth="1"/>
-    <col min="13827" max="13828" width="5.85546875" style="3" customWidth="1"/>
-    <col min="13829" max="13829" width="18.85546875" style="3" customWidth="1"/>
-    <col min="13830" max="13830" width="17.5703125" style="3" customWidth="1"/>
-    <col min="13831" max="13831" width="6.28515625" style="3" customWidth="1"/>
-    <col min="13832" max="13832" width="6" style="3" customWidth="1"/>
-    <col min="13833" max="13833" width="5.5703125" style="3" customWidth="1"/>
-    <col min="13834" max="13834" width="4.42578125" style="3" customWidth="1"/>
-    <col min="13835" max="13835" width="4.85546875" style="3" customWidth="1"/>
-    <col min="13836" max="13836" width="3.42578125" style="3" customWidth="1"/>
-    <col min="13837" max="13837" width="3.7109375" style="3" customWidth="1"/>
-    <col min="13838" max="13838" width="4" style="3" customWidth="1"/>
-    <col min="13839" max="13839" width="4.7109375" style="3" customWidth="1"/>
-    <col min="13840" max="13840" width="3.7109375" style="3" customWidth="1"/>
-    <col min="13841" max="13841" width="4.42578125" style="3" customWidth="1"/>
-    <col min="13842" max="13842" width="4.85546875" style="3" customWidth="1"/>
-    <col min="13843" max="13843" width="3.28515625" style="3" customWidth="1"/>
-    <col min="13844" max="13844" width="6.85546875" style="3" customWidth="1"/>
-    <col min="13845" max="13845" width="4.7109375" style="3" customWidth="1"/>
-    <col min="13846" max="13846" width="6" style="3" customWidth="1"/>
-    <col min="13847" max="13847" width="5.42578125" style="3" customWidth="1"/>
-    <col min="13848" max="14052" width="7" style="3" customWidth="1"/>
-    <col min="14053" max="14080" width="7" style="3"/>
-    <col min="14081" max="14081" width="4.42578125" style="3" customWidth="1"/>
-    <col min="14082" max="14082" width="11" style="3" customWidth="1"/>
-    <col min="14083" max="14084" width="5.85546875" style="3" customWidth="1"/>
-    <col min="14085" max="14085" width="18.85546875" style="3" customWidth="1"/>
-    <col min="14086" max="14086" width="17.5703125" style="3" customWidth="1"/>
-    <col min="14087" max="14087" width="6.28515625" style="3" customWidth="1"/>
-    <col min="14088" max="14088" width="6" style="3" customWidth="1"/>
-    <col min="14089" max="14089" width="5.5703125" style="3" customWidth="1"/>
-    <col min="14090" max="14090" width="4.42578125" style="3" customWidth="1"/>
-    <col min="14091" max="14091" width="4.85546875" style="3" customWidth="1"/>
-    <col min="14092" max="14092" width="3.42578125" style="3" customWidth="1"/>
-    <col min="14093" max="14093" width="3.7109375" style="3" customWidth="1"/>
-    <col min="14094" max="14094" width="4" style="3" customWidth="1"/>
-    <col min="14095" max="14095" width="4.7109375" style="3" customWidth="1"/>
-    <col min="14096" max="14096" width="3.7109375" style="3" customWidth="1"/>
-    <col min="14097" max="14097" width="4.42578125" style="3" customWidth="1"/>
-    <col min="14098" max="14098" width="4.85546875" style="3" customWidth="1"/>
-    <col min="14099" max="14099" width="3.28515625" style="3" customWidth="1"/>
-    <col min="14100" max="14100" width="6.85546875" style="3" customWidth="1"/>
-    <col min="14101" max="14101" width="4.7109375" style="3" customWidth="1"/>
-    <col min="14102" max="14102" width="6" style="3" customWidth="1"/>
-    <col min="14103" max="14103" width="5.42578125" style="3" customWidth="1"/>
-    <col min="14104" max="14308" width="7" style="3" customWidth="1"/>
-    <col min="14309" max="14336" width="7" style="3"/>
-    <col min="14337" max="14337" width="4.42578125" style="3" customWidth="1"/>
-    <col min="14338" max="14338" width="11" style="3" customWidth="1"/>
-    <col min="14339" max="14340" width="5.85546875" style="3" customWidth="1"/>
-    <col min="14341" max="14341" width="18.85546875" style="3" customWidth="1"/>
-    <col min="14342" max="14342" width="17.5703125" style="3" customWidth="1"/>
-    <col min="14343" max="14343" width="6.28515625" style="3" customWidth="1"/>
-    <col min="14344" max="14344" width="6" style="3" customWidth="1"/>
-    <col min="14345" max="14345" width="5.5703125" style="3" customWidth="1"/>
-    <col min="14346" max="14346" width="4.42578125" style="3" customWidth="1"/>
-    <col min="14347" max="14347" width="4.85546875" style="3" customWidth="1"/>
-    <col min="14348" max="14348" width="3.42578125" style="3" customWidth="1"/>
-    <col min="14349" max="14349" width="3.7109375" style="3" customWidth="1"/>
-    <col min="14350" max="14350" width="4" style="3" customWidth="1"/>
-    <col min="14351" max="14351" width="4.7109375" style="3" customWidth="1"/>
-    <col min="14352" max="14352" width="3.7109375" style="3" customWidth="1"/>
-    <col min="14353" max="14353" width="4.42578125" style="3" customWidth="1"/>
-    <col min="14354" max="14354" width="4.85546875" style="3" customWidth="1"/>
-    <col min="14355" max="14355" width="3.28515625" style="3" customWidth="1"/>
-    <col min="14356" max="14356" width="6.85546875" style="3" customWidth="1"/>
-    <col min="14357" max="14357" width="4.7109375" style="3" customWidth="1"/>
-    <col min="14358" max="14358" width="6" style="3" customWidth="1"/>
-    <col min="14359" max="14359" width="5.42578125" style="3" customWidth="1"/>
-    <col min="14360" max="14564" width="7" style="3" customWidth="1"/>
-    <col min="14565" max="14592" width="7" style="3"/>
-    <col min="14593" max="14593" width="4.42578125" style="3" customWidth="1"/>
-    <col min="14594" max="14594" width="11" style="3" customWidth="1"/>
-    <col min="14595" max="14596" width="5.85546875" style="3" customWidth="1"/>
-    <col min="14597" max="14597" width="18.85546875" style="3" customWidth="1"/>
-    <col min="14598" max="14598" width="17.5703125" style="3" customWidth="1"/>
-    <col min="14599" max="14599" width="6.28515625" style="3" customWidth="1"/>
-    <col min="14600" max="14600" width="6" style="3" customWidth="1"/>
-    <col min="14601" max="14601" width="5.5703125" style="3" customWidth="1"/>
-    <col min="14602" max="14602" width="4.42578125" style="3" customWidth="1"/>
-    <col min="14603" max="14603" width="4.85546875" style="3" customWidth="1"/>
-    <col min="14604" max="14604" width="3.42578125" style="3" customWidth="1"/>
-    <col min="14605" max="14605" width="3.7109375" style="3" customWidth="1"/>
-    <col min="14606" max="14606" width="4" style="3" customWidth="1"/>
-    <col min="14607" max="14607" width="4.7109375" style="3" customWidth="1"/>
-    <col min="14608" max="14608" width="3.7109375" style="3" customWidth="1"/>
-    <col min="14609" max="14609" width="4.42578125" style="3" customWidth="1"/>
-    <col min="14610" max="14610" width="4.85546875" style="3" customWidth="1"/>
-    <col min="14611" max="14611" width="3.28515625" style="3" customWidth="1"/>
-    <col min="14612" max="14612" width="6.85546875" style="3" customWidth="1"/>
-    <col min="14613" max="14613" width="4.7109375" style="3" customWidth="1"/>
-    <col min="14614" max="14614" width="6" style="3" customWidth="1"/>
-    <col min="14615" max="14615" width="5.42578125" style="3" customWidth="1"/>
-    <col min="14616" max="14820" width="7" style="3" customWidth="1"/>
-    <col min="14821" max="14848" width="7" style="3"/>
-    <col min="14849" max="14849" width="4.42578125" style="3" customWidth="1"/>
-    <col min="14850" max="14850" width="11" style="3" customWidth="1"/>
-    <col min="14851" max="14852" width="5.85546875" style="3" customWidth="1"/>
-    <col min="14853" max="14853" width="18.85546875" style="3" customWidth="1"/>
-    <col min="14854" max="14854" width="17.5703125" style="3" customWidth="1"/>
-    <col min="14855" max="14855" width="6.28515625" style="3" customWidth="1"/>
-    <col min="14856" max="14856" width="6" style="3" customWidth="1"/>
-    <col min="14857" max="14857" width="5.5703125" style="3" customWidth="1"/>
-    <col min="14858" max="14858" width="4.42578125" style="3" customWidth="1"/>
-    <col min="14859" max="14859" width="4.85546875" style="3" customWidth="1"/>
-    <col min="14860" max="14860" width="3.42578125" style="3" customWidth="1"/>
-    <col min="14861" max="14861" width="3.7109375" style="3" customWidth="1"/>
-    <col min="14862" max="14862" width="4" style="3" customWidth="1"/>
-    <col min="14863" max="14863" width="4.7109375" style="3" customWidth="1"/>
-    <col min="14864" max="14864" width="3.7109375" style="3" customWidth="1"/>
-    <col min="14865" max="14865" width="4.42578125" style="3" customWidth="1"/>
-    <col min="14866" max="14866" width="4.85546875" style="3" customWidth="1"/>
-    <col min="14867" max="14867" width="3.28515625" style="3" customWidth="1"/>
-    <col min="14868" max="14868" width="6.85546875" style="3" customWidth="1"/>
-    <col min="14869" max="14869" width="4.7109375" style="3" customWidth="1"/>
-    <col min="14870" max="14870" width="6" style="3" customWidth="1"/>
-    <col min="14871" max="14871" width="5.42578125" style="3" customWidth="1"/>
-    <col min="14872" max="15076" width="7" style="3" customWidth="1"/>
-    <col min="15077" max="15104" width="7" style="3"/>
-    <col min="15105" max="15105" width="4.42578125" style="3" customWidth="1"/>
-    <col min="15106" max="15106" width="11" style="3" customWidth="1"/>
-    <col min="15107" max="15108" width="5.85546875" style="3" customWidth="1"/>
-    <col min="15109" max="15109" width="18.85546875" style="3" customWidth="1"/>
-    <col min="15110" max="15110" width="17.5703125" style="3" customWidth="1"/>
-    <col min="15111" max="15111" width="6.28515625" style="3" customWidth="1"/>
-    <col min="15112" max="15112" width="6" style="3" customWidth="1"/>
-    <col min="15113" max="15113" width="5.5703125" style="3" customWidth="1"/>
-    <col min="15114" max="15114" width="4.42578125" style="3" customWidth="1"/>
-    <col min="15115" max="15115" width="4.85546875" style="3" customWidth="1"/>
-    <col min="15116" max="15116" width="3.42578125" style="3" customWidth="1"/>
-    <col min="15117" max="15117" width="3.7109375" style="3" customWidth="1"/>
-    <col min="15118" max="15118" width="4" style="3" customWidth="1"/>
-    <col min="15119" max="15119" width="4.7109375" style="3" customWidth="1"/>
-    <col min="15120" max="15120" width="3.7109375" style="3" customWidth="1"/>
-    <col min="15121" max="15121" width="4.42578125" style="3" customWidth="1"/>
-    <col min="15122" max="15122" width="4.85546875" style="3" customWidth="1"/>
-    <col min="15123" max="15123" width="3.28515625" style="3" customWidth="1"/>
-    <col min="15124" max="15124" width="6.85546875" style="3" customWidth="1"/>
-    <col min="15125" max="15125" width="4.7109375" style="3" customWidth="1"/>
-    <col min="15126" max="15126" width="6" style="3" customWidth="1"/>
-    <col min="15127" max="15127" width="5.42578125" style="3" customWidth="1"/>
-    <col min="15128" max="15332" width="7" style="3" customWidth="1"/>
-    <col min="15333" max="15360" width="7" style="3"/>
-    <col min="15361" max="15361" width="4.42578125" style="3" customWidth="1"/>
-    <col min="15362" max="15362" width="11" style="3" customWidth="1"/>
-    <col min="15363" max="15364" width="5.85546875" style="3" customWidth="1"/>
-    <col min="15365" max="15365" width="18.85546875" style="3" customWidth="1"/>
-    <col min="15366" max="15366" width="17.5703125" style="3" customWidth="1"/>
-    <col min="15367" max="15367" width="6.28515625" style="3" customWidth="1"/>
-    <col min="15368" max="15368" width="6" style="3" customWidth="1"/>
-    <col min="15369" max="15369" width="5.5703125" style="3" customWidth="1"/>
-    <col min="15370" max="15370" width="4.42578125" style="3" customWidth="1"/>
-    <col min="15371" max="15371" width="4.85546875" style="3" customWidth="1"/>
-    <col min="15372" max="15372" width="3.42578125" style="3" customWidth="1"/>
-    <col min="15373" max="15373" width="3.7109375" style="3" customWidth="1"/>
-    <col min="15374" max="15374" width="4" style="3" customWidth="1"/>
-    <col min="15375" max="15375" width="4.7109375" style="3" customWidth="1"/>
-    <col min="15376" max="15376" width="3.7109375" style="3" customWidth="1"/>
-    <col min="15377" max="15377" width="4.42578125" style="3" customWidth="1"/>
-    <col min="15378" max="15378" width="4.85546875" style="3" customWidth="1"/>
-    <col min="15379" max="15379" width="3.28515625" style="3" customWidth="1"/>
-    <col min="15380" max="15380" width="6.85546875" style="3" customWidth="1"/>
-    <col min="15381" max="15381" width="4.7109375" style="3" customWidth="1"/>
-    <col min="15382" max="15382" width="6" style="3" customWidth="1"/>
-    <col min="15383" max="15383" width="5.42578125" style="3" customWidth="1"/>
-    <col min="15384" max="15588" width="7" style="3" customWidth="1"/>
-    <col min="15589" max="15616" width="7" style="3"/>
-    <col min="15617" max="15617" width="4.42578125" style="3" customWidth="1"/>
-    <col min="15618" max="15618" width="11" style="3" customWidth="1"/>
-    <col min="15619" max="15620" width="5.85546875" style="3" customWidth="1"/>
-    <col min="15621" max="15621" width="18.85546875" style="3" customWidth="1"/>
-    <col min="15622" max="15622" width="17.5703125" style="3" customWidth="1"/>
-    <col min="15623" max="15623" width="6.28515625" style="3" customWidth="1"/>
-    <col min="15624" max="15624" width="6" style="3" customWidth="1"/>
-    <col min="15625" max="15625" width="5.5703125" style="3" customWidth="1"/>
-    <col min="15626" max="15626" width="4.42578125" style="3" customWidth="1"/>
-    <col min="15627" max="15627" width="4.85546875" style="3" customWidth="1"/>
-    <col min="15628" max="15628" width="3.42578125" style="3" customWidth="1"/>
-    <col min="15629" max="15629" width="3.7109375" style="3" customWidth="1"/>
-    <col min="15630" max="15630" width="4" style="3" customWidth="1"/>
-    <col min="15631" max="15631" width="4.7109375" style="3" customWidth="1"/>
-    <col min="15632" max="15632" width="3.7109375" style="3" customWidth="1"/>
-    <col min="15633" max="15633" width="4.42578125" style="3" customWidth="1"/>
-    <col min="15634" max="15634" width="4.85546875" style="3" customWidth="1"/>
-    <col min="15635" max="15635" width="3.28515625" style="3" customWidth="1"/>
-    <col min="15636" max="15636" width="6.85546875" style="3" customWidth="1"/>
-    <col min="15637" max="15637" width="4.7109375" style="3" customWidth="1"/>
-    <col min="15638" max="15638" width="6" style="3" customWidth="1"/>
-    <col min="15639" max="15639" width="5.42578125" style="3" customWidth="1"/>
-    <col min="15640" max="15844" width="7" style="3" customWidth="1"/>
-    <col min="15845" max="15872" width="7" style="3"/>
-    <col min="15873" max="15873" width="4.42578125" style="3" customWidth="1"/>
-    <col min="15874" max="15874" width="11" style="3" customWidth="1"/>
-    <col min="15875" max="15876" width="5.85546875" style="3" customWidth="1"/>
-    <col min="15877" max="15877" width="18.85546875" style="3" customWidth="1"/>
-    <col min="15878" max="15878" width="17.5703125" style="3" customWidth="1"/>
-    <col min="15879" max="15879" width="6.28515625" style="3" customWidth="1"/>
-    <col min="15880" max="15880" width="6" style="3" customWidth="1"/>
-    <col min="15881" max="15881" width="5.5703125" style="3" customWidth="1"/>
-    <col min="15882" max="15882" width="4.42578125" style="3" customWidth="1"/>
-    <col min="15883" max="15883" width="4.85546875" style="3" customWidth="1"/>
-    <col min="15884" max="15884" width="3.42578125" style="3" customWidth="1"/>
-    <col min="15885" max="15885" width="3.7109375" style="3" customWidth="1"/>
-    <col min="15886" max="15886" width="4" style="3" customWidth="1"/>
-    <col min="15887" max="15887" width="4.7109375" style="3" customWidth="1"/>
-    <col min="15888" max="15888" width="3.7109375" style="3" customWidth="1"/>
-    <col min="15889" max="15889" width="4.42578125" style="3" customWidth="1"/>
-    <col min="15890" max="15890" width="4.85546875" style="3" customWidth="1"/>
-    <col min="15891" max="15891" width="3.28515625" style="3" customWidth="1"/>
-    <col min="15892" max="15892" width="6.85546875" style="3" customWidth="1"/>
-    <col min="15893" max="15893" width="4.7109375" style="3" customWidth="1"/>
-    <col min="15894" max="15894" width="6" style="3" customWidth="1"/>
-    <col min="15895" max="15895" width="5.42578125" style="3" customWidth="1"/>
-    <col min="15896" max="16100" width="7" style="3" customWidth="1"/>
-    <col min="16101" max="16128" width="7" style="3"/>
-    <col min="16129" max="16129" width="4.42578125" style="3" customWidth="1"/>
-    <col min="16130" max="16130" width="11" style="3" customWidth="1"/>
-    <col min="16131" max="16132" width="5.85546875" style="3" customWidth="1"/>
-    <col min="16133" max="16133" width="18.85546875" style="3" customWidth="1"/>
-    <col min="16134" max="16134" width="17.5703125" style="3" customWidth="1"/>
-    <col min="16135" max="16135" width="6.28515625" style="3" customWidth="1"/>
-    <col min="16136" max="16136" width="6" style="3" customWidth="1"/>
-    <col min="16137" max="16137" width="5.5703125" style="3" customWidth="1"/>
-    <col min="16138" max="16138" width="4.42578125" style="3" customWidth="1"/>
-    <col min="16139" max="16139" width="4.85546875" style="3" customWidth="1"/>
-    <col min="16140" max="16140" width="3.42578125" style="3" customWidth="1"/>
-    <col min="16141" max="16141" width="3.7109375" style="3" customWidth="1"/>
-    <col min="16142" max="16142" width="4" style="3" customWidth="1"/>
-    <col min="16143" max="16143" width="4.7109375" style="3" customWidth="1"/>
-    <col min="16144" max="16144" width="3.7109375" style="3" customWidth="1"/>
-    <col min="16145" max="16145" width="4.42578125" style="3" customWidth="1"/>
-    <col min="16146" max="16146" width="4.85546875" style="3" customWidth="1"/>
-    <col min="16147" max="16147" width="3.28515625" style="3" customWidth="1"/>
-    <col min="16148" max="16148" width="6.85546875" style="3" customWidth="1"/>
-    <col min="16149" max="16149" width="4.7109375" style="3" customWidth="1"/>
-    <col min="16150" max="16150" width="6" style="3" customWidth="1"/>
-    <col min="16151" max="16151" width="5.42578125" style="3" customWidth="1"/>
-    <col min="16152" max="16356" width="7" style="3" customWidth="1"/>
-    <col min="16357" max="16384" width="7" style="3"/>
+    <col min="9" max="9" width="5.5546875" style="62" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="6" style="4" customWidth="1"/>
+    <col min="12" max="12" width="5.5546875" style="62" customWidth="1"/>
+    <col min="13" max="13" width="4.44140625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="6" style="4" customWidth="1"/>
+    <col min="15" max="15" width="5.5546875" style="62" customWidth="1"/>
+    <col min="16" max="16" width="4.44140625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="6" style="4" customWidth="1"/>
+    <col min="18" max="18" width="5.5546875" style="62" customWidth="1"/>
+    <col min="19" max="19" width="4.44140625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="6" style="4" customWidth="1"/>
+    <col min="21" max="21" width="5.5546875" style="62" customWidth="1"/>
+    <col min="22" max="22" width="4.44140625" style="4" customWidth="1"/>
+    <col min="23" max="23" width="4.88671875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="3.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.6640625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="4" style="2" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="3.6640625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="4.44140625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="4.88671875" style="2" customWidth="1"/>
+    <col min="31" max="31" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.109375" style="2" customWidth="1"/>
+    <col min="33" max="33" width="6.88671875" style="2" customWidth="1"/>
+    <col min="34" max="34" width="4.6640625" style="2" customWidth="1"/>
+    <col min="35" max="35" width="6" style="2" customWidth="1"/>
+    <col min="36" max="36" width="5.44140625" style="2" customWidth="1"/>
+    <col min="37" max="241" width="7" style="2" customWidth="1"/>
+    <col min="242" max="269" width="7" style="3"/>
+    <col min="270" max="270" width="4.44140625" style="3" customWidth="1"/>
+    <col min="271" max="271" width="11" style="3" customWidth="1"/>
+    <col min="272" max="273" width="5.88671875" style="3" customWidth="1"/>
+    <col min="274" max="274" width="18.88671875" style="3" customWidth="1"/>
+    <col min="275" max="275" width="17.5546875" style="3" customWidth="1"/>
+    <col min="276" max="276" width="6.33203125" style="3" customWidth="1"/>
+    <col min="277" max="277" width="6" style="3" customWidth="1"/>
+    <col min="278" max="278" width="5.5546875" style="3" customWidth="1"/>
+    <col min="279" max="279" width="4.44140625" style="3" customWidth="1"/>
+    <col min="280" max="280" width="4.88671875" style="3" customWidth="1"/>
+    <col min="281" max="281" width="3.44140625" style="3" customWidth="1"/>
+    <col min="282" max="282" width="3.6640625" style="3" customWidth="1"/>
+    <col min="283" max="283" width="4" style="3" customWidth="1"/>
+    <col min="284" max="284" width="4.6640625" style="3" customWidth="1"/>
+    <col min="285" max="285" width="3.6640625" style="3" customWidth="1"/>
+    <col min="286" max="286" width="4.44140625" style="3" customWidth="1"/>
+    <col min="287" max="287" width="4.88671875" style="3" customWidth="1"/>
+    <col min="288" max="288" width="3.33203125" style="3" customWidth="1"/>
+    <col min="289" max="289" width="6.88671875" style="3" customWidth="1"/>
+    <col min="290" max="290" width="4.6640625" style="3" customWidth="1"/>
+    <col min="291" max="291" width="6" style="3" customWidth="1"/>
+    <col min="292" max="292" width="5.44140625" style="3" customWidth="1"/>
+    <col min="293" max="497" width="7" style="3" customWidth="1"/>
+    <col min="498" max="525" width="7" style="3"/>
+    <col min="526" max="526" width="4.44140625" style="3" customWidth="1"/>
+    <col min="527" max="527" width="11" style="3" customWidth="1"/>
+    <col min="528" max="529" width="5.88671875" style="3" customWidth="1"/>
+    <col min="530" max="530" width="18.88671875" style="3" customWidth="1"/>
+    <col min="531" max="531" width="17.5546875" style="3" customWidth="1"/>
+    <col min="532" max="532" width="6.33203125" style="3" customWidth="1"/>
+    <col min="533" max="533" width="6" style="3" customWidth="1"/>
+    <col min="534" max="534" width="5.5546875" style="3" customWidth="1"/>
+    <col min="535" max="535" width="4.44140625" style="3" customWidth="1"/>
+    <col min="536" max="536" width="4.88671875" style="3" customWidth="1"/>
+    <col min="537" max="537" width="3.44140625" style="3" customWidth="1"/>
+    <col min="538" max="538" width="3.6640625" style="3" customWidth="1"/>
+    <col min="539" max="539" width="4" style="3" customWidth="1"/>
+    <col min="540" max="540" width="4.6640625" style="3" customWidth="1"/>
+    <col min="541" max="541" width="3.6640625" style="3" customWidth="1"/>
+    <col min="542" max="542" width="4.44140625" style="3" customWidth="1"/>
+    <col min="543" max="543" width="4.88671875" style="3" customWidth="1"/>
+    <col min="544" max="544" width="3.33203125" style="3" customWidth="1"/>
+    <col min="545" max="545" width="6.88671875" style="3" customWidth="1"/>
+    <col min="546" max="546" width="4.6640625" style="3" customWidth="1"/>
+    <col min="547" max="547" width="6" style="3" customWidth="1"/>
+    <col min="548" max="548" width="5.44140625" style="3" customWidth="1"/>
+    <col min="549" max="753" width="7" style="3" customWidth="1"/>
+    <col min="754" max="781" width="7" style="3"/>
+    <col min="782" max="782" width="4.44140625" style="3" customWidth="1"/>
+    <col min="783" max="783" width="11" style="3" customWidth="1"/>
+    <col min="784" max="785" width="5.88671875" style="3" customWidth="1"/>
+    <col min="786" max="786" width="18.88671875" style="3" customWidth="1"/>
+    <col min="787" max="787" width="17.5546875" style="3" customWidth="1"/>
+    <col min="788" max="788" width="6.33203125" style="3" customWidth="1"/>
+    <col min="789" max="789" width="6" style="3" customWidth="1"/>
+    <col min="790" max="790" width="5.5546875" style="3" customWidth="1"/>
+    <col min="791" max="791" width="4.44140625" style="3" customWidth="1"/>
+    <col min="792" max="792" width="4.88671875" style="3" customWidth="1"/>
+    <col min="793" max="793" width="3.44140625" style="3" customWidth="1"/>
+    <col min="794" max="794" width="3.6640625" style="3" customWidth="1"/>
+    <col min="795" max="795" width="4" style="3" customWidth="1"/>
+    <col min="796" max="796" width="4.6640625" style="3" customWidth="1"/>
+    <col min="797" max="797" width="3.6640625" style="3" customWidth="1"/>
+    <col min="798" max="798" width="4.44140625" style="3" customWidth="1"/>
+    <col min="799" max="799" width="4.88671875" style="3" customWidth="1"/>
+    <col min="800" max="800" width="3.33203125" style="3" customWidth="1"/>
+    <col min="801" max="801" width="6.88671875" style="3" customWidth="1"/>
+    <col min="802" max="802" width="4.6640625" style="3" customWidth="1"/>
+    <col min="803" max="803" width="6" style="3" customWidth="1"/>
+    <col min="804" max="804" width="5.44140625" style="3" customWidth="1"/>
+    <col min="805" max="1009" width="7" style="3" customWidth="1"/>
+    <col min="1010" max="1037" width="7" style="3"/>
+    <col min="1038" max="1038" width="4.44140625" style="3" customWidth="1"/>
+    <col min="1039" max="1039" width="11" style="3" customWidth="1"/>
+    <col min="1040" max="1041" width="5.88671875" style="3" customWidth="1"/>
+    <col min="1042" max="1042" width="18.88671875" style="3" customWidth="1"/>
+    <col min="1043" max="1043" width="17.5546875" style="3" customWidth="1"/>
+    <col min="1044" max="1044" width="6.33203125" style="3" customWidth="1"/>
+    <col min="1045" max="1045" width="6" style="3" customWidth="1"/>
+    <col min="1046" max="1046" width="5.5546875" style="3" customWidth="1"/>
+    <col min="1047" max="1047" width="4.44140625" style="3" customWidth="1"/>
+    <col min="1048" max="1048" width="4.88671875" style="3" customWidth="1"/>
+    <col min="1049" max="1049" width="3.44140625" style="3" customWidth="1"/>
+    <col min="1050" max="1050" width="3.6640625" style="3" customWidth="1"/>
+    <col min="1051" max="1051" width="4" style="3" customWidth="1"/>
+    <col min="1052" max="1052" width="4.6640625" style="3" customWidth="1"/>
+    <col min="1053" max="1053" width="3.6640625" style="3" customWidth="1"/>
+    <col min="1054" max="1054" width="4.44140625" style="3" customWidth="1"/>
+    <col min="1055" max="1055" width="4.88671875" style="3" customWidth="1"/>
+    <col min="1056" max="1056" width="3.33203125" style="3" customWidth="1"/>
+    <col min="1057" max="1057" width="6.88671875" style="3" customWidth="1"/>
+    <col min="1058" max="1058" width="4.6640625" style="3" customWidth="1"/>
+    <col min="1059" max="1059" width="6" style="3" customWidth="1"/>
+    <col min="1060" max="1060" width="5.44140625" style="3" customWidth="1"/>
+    <col min="1061" max="1265" width="7" style="3" customWidth="1"/>
+    <col min="1266" max="1293" width="7" style="3"/>
+    <col min="1294" max="1294" width="4.44140625" style="3" customWidth="1"/>
+    <col min="1295" max="1295" width="11" style="3" customWidth="1"/>
+    <col min="1296" max="1297" width="5.88671875" style="3" customWidth="1"/>
+    <col min="1298" max="1298" width="18.88671875" style="3" customWidth="1"/>
+    <col min="1299" max="1299" width="17.5546875" style="3" customWidth="1"/>
+    <col min="1300" max="1300" width="6.33203125" style="3" customWidth="1"/>
+    <col min="1301" max="1301" width="6" style="3" customWidth="1"/>
+    <col min="1302" max="1302" width="5.5546875" style="3" customWidth="1"/>
+    <col min="1303" max="1303" width="4.44140625" style="3" customWidth="1"/>
+    <col min="1304" max="1304" width="4.88671875" style="3" customWidth="1"/>
+    <col min="1305" max="1305" width="3.44140625" style="3" customWidth="1"/>
+    <col min="1306" max="1306" width="3.6640625" style="3" customWidth="1"/>
+    <col min="1307" max="1307" width="4" style="3" customWidth="1"/>
+    <col min="1308" max="1308" width="4.6640625" style="3" customWidth="1"/>
+    <col min="1309" max="1309" width="3.6640625" style="3" customWidth="1"/>
+    <col min="1310" max="1310" width="4.44140625" style="3" customWidth="1"/>
+    <col min="1311" max="1311" width="4.88671875" style="3" customWidth="1"/>
+    <col min="1312" max="1312" width="3.33203125" style="3" customWidth="1"/>
+    <col min="1313" max="1313" width="6.88671875" style="3" customWidth="1"/>
+    <col min="1314" max="1314" width="4.6640625" style="3" customWidth="1"/>
+    <col min="1315" max="1315" width="6" style="3" customWidth="1"/>
+    <col min="1316" max="1316" width="5.44140625" style="3" customWidth="1"/>
+    <col min="1317" max="1521" width="7" style="3" customWidth="1"/>
+    <col min="1522" max="1549" width="7" style="3"/>
+    <col min="1550" max="1550" width="4.44140625" style="3" customWidth="1"/>
+    <col min="1551" max="1551" width="11" style="3" customWidth="1"/>
+    <col min="1552" max="1553" width="5.88671875" style="3" customWidth="1"/>
+    <col min="1554" max="1554" width="18.88671875" style="3" customWidth="1"/>
+    <col min="1555" max="1555" width="17.5546875" style="3" customWidth="1"/>
+    <col min="1556" max="1556" width="6.33203125" style="3" customWidth="1"/>
+    <col min="1557" max="1557" width="6" style="3" customWidth="1"/>
+    <col min="1558" max="1558" width="5.5546875" style="3" customWidth="1"/>
+    <col min="1559" max="1559" width="4.44140625" style="3" customWidth="1"/>
+    <col min="1560" max="1560" width="4.88671875" style="3" customWidth="1"/>
+    <col min="1561" max="1561" width="3.44140625" style="3" customWidth="1"/>
+    <col min="1562" max="1562" width="3.6640625" style="3" customWidth="1"/>
+    <col min="1563" max="1563" width="4" style="3" customWidth="1"/>
+    <col min="1564" max="1564" width="4.6640625" style="3" customWidth="1"/>
+    <col min="1565" max="1565" width="3.6640625" style="3" customWidth="1"/>
+    <col min="1566" max="1566" width="4.44140625" style="3" customWidth="1"/>
+    <col min="1567" max="1567" width="4.88671875" style="3" customWidth="1"/>
+    <col min="1568" max="1568" width="3.33203125" style="3" customWidth="1"/>
+    <col min="1569" max="1569" width="6.88671875" style="3" customWidth="1"/>
+    <col min="1570" max="1570" width="4.6640625" style="3" customWidth="1"/>
+    <col min="1571" max="1571" width="6" style="3" customWidth="1"/>
+    <col min="1572" max="1572" width="5.44140625" style="3" customWidth="1"/>
+    <col min="1573" max="1777" width="7" style="3" customWidth="1"/>
+    <col min="1778" max="1805" width="7" style="3"/>
+    <col min="1806" max="1806" width="4.44140625" style="3" customWidth="1"/>
+    <col min="1807" max="1807" width="11" style="3" customWidth="1"/>
+    <col min="1808" max="1809" width="5.88671875" style="3" customWidth="1"/>
+    <col min="1810" max="1810" width="18.88671875" style="3" customWidth="1"/>
+    <col min="1811" max="1811" width="17.5546875" style="3" customWidth="1"/>
+    <col min="1812" max="1812" width="6.33203125" style="3" customWidth="1"/>
+    <col min="1813" max="1813" width="6" style="3" customWidth="1"/>
+    <col min="1814" max="1814" width="5.5546875" style="3" customWidth="1"/>
+    <col min="1815" max="1815" width="4.44140625" style="3" customWidth="1"/>
+    <col min="1816" max="1816" width="4.88671875" style="3" customWidth="1"/>
+    <col min="1817" max="1817" width="3.44140625" style="3" customWidth="1"/>
+    <col min="1818" max="1818" width="3.6640625" style="3" customWidth="1"/>
+    <col min="1819" max="1819" width="4" style="3" customWidth="1"/>
+    <col min="1820" max="1820" width="4.6640625" style="3" customWidth="1"/>
+    <col min="1821" max="1821" width="3.6640625" style="3" customWidth="1"/>
+    <col min="1822" max="1822" width="4.44140625" style="3" customWidth="1"/>
+    <col min="1823" max="1823" width="4.88671875" style="3" customWidth="1"/>
+    <col min="1824" max="1824" width="3.33203125" style="3" customWidth="1"/>
+    <col min="1825" max="1825" width="6.88671875" style="3" customWidth="1"/>
+    <col min="1826" max="1826" width="4.6640625" style="3" customWidth="1"/>
+    <col min="1827" max="1827" width="6" style="3" customWidth="1"/>
+    <col min="1828" max="1828" width="5.44140625" style="3" customWidth="1"/>
+    <col min="1829" max="2033" width="7" style="3" customWidth="1"/>
+    <col min="2034" max="2061" width="7" style="3"/>
+    <col min="2062" max="2062" width="4.44140625" style="3" customWidth="1"/>
+    <col min="2063" max="2063" width="11" style="3" customWidth="1"/>
+    <col min="2064" max="2065" width="5.88671875" style="3" customWidth="1"/>
+    <col min="2066" max="2066" width="18.88671875" style="3" customWidth="1"/>
+    <col min="2067" max="2067" width="17.5546875" style="3" customWidth="1"/>
+    <col min="2068" max="2068" width="6.33203125" style="3" customWidth="1"/>
+    <col min="2069" max="2069" width="6" style="3" customWidth="1"/>
+    <col min="2070" max="2070" width="5.5546875" style="3" customWidth="1"/>
+    <col min="2071" max="2071" width="4.44140625" style="3" customWidth="1"/>
+    <col min="2072" max="2072" width="4.88671875" style="3" customWidth="1"/>
+    <col min="2073" max="2073" width="3.44140625" style="3" customWidth="1"/>
+    <col min="2074" max="2074" width="3.6640625" style="3" customWidth="1"/>
+    <col min="2075" max="2075" width="4" style="3" customWidth="1"/>
+    <col min="2076" max="2076" width="4.6640625" style="3" customWidth="1"/>
+    <col min="2077" max="2077" width="3.6640625" style="3" customWidth="1"/>
+    <col min="2078" max="2078" width="4.44140625" style="3" customWidth="1"/>
+    <col min="2079" max="2079" width="4.88671875" style="3" customWidth="1"/>
+    <col min="2080" max="2080" width="3.33203125" style="3" customWidth="1"/>
+    <col min="2081" max="2081" width="6.88671875" style="3" customWidth="1"/>
+    <col min="2082" max="2082" width="4.6640625" style="3" customWidth="1"/>
+    <col min="2083" max="2083" width="6" style="3" customWidth="1"/>
+    <col min="2084" max="2084" width="5.44140625" style="3" customWidth="1"/>
+    <col min="2085" max="2289" width="7" style="3" customWidth="1"/>
+    <col min="2290" max="2317" width="7" style="3"/>
+    <col min="2318" max="2318" width="4.44140625" style="3" customWidth="1"/>
+    <col min="2319" max="2319" width="11" style="3" customWidth="1"/>
+    <col min="2320" max="2321" width="5.88671875" style="3" customWidth="1"/>
+    <col min="2322" max="2322" width="18.88671875" style="3" customWidth="1"/>
+    <col min="2323" max="2323" width="17.5546875" style="3" customWidth="1"/>
+    <col min="2324" max="2324" width="6.33203125" style="3" customWidth="1"/>
+    <col min="2325" max="2325" width="6" style="3" customWidth="1"/>
+    <col min="2326" max="2326" width="5.5546875" style="3" customWidth="1"/>
+    <col min="2327" max="2327" width="4.44140625" style="3" customWidth="1"/>
+    <col min="2328" max="2328" width="4.88671875" style="3" customWidth="1"/>
+    <col min="2329" max="2329" width="3.44140625" style="3" customWidth="1"/>
+    <col min="2330" max="2330" width="3.6640625" style="3" customWidth="1"/>
+    <col min="2331" max="2331" width="4" style="3" customWidth="1"/>
+    <col min="2332" max="2332" width="4.6640625" style="3" customWidth="1"/>
+    <col min="2333" max="2333" width="3.6640625" style="3" customWidth="1"/>
+    <col min="2334" max="2334" width="4.44140625" style="3" customWidth="1"/>
+    <col min="2335" max="2335" width="4.88671875" style="3" customWidth="1"/>
+    <col min="2336" max="2336" width="3.33203125" style="3" customWidth="1"/>
+    <col min="2337" max="2337" width="6.88671875" style="3" customWidth="1"/>
+    <col min="2338" max="2338" width="4.6640625" style="3" customWidth="1"/>
+    <col min="2339" max="2339" width="6" style="3" customWidth="1"/>
+    <col min="2340" max="2340" width="5.44140625" style="3" customWidth="1"/>
+    <col min="2341" max="2545" width="7" style="3" customWidth="1"/>
+    <col min="2546" max="2573" width="7" style="3"/>
+    <col min="2574" max="2574" width="4.44140625" style="3" customWidth="1"/>
+    <col min="2575" max="2575" width="11" style="3" customWidth="1"/>
+    <col min="2576" max="2577" width="5.88671875" style="3" customWidth="1"/>
+    <col min="2578" max="2578" width="18.88671875" style="3" customWidth="1"/>
+    <col min="2579" max="2579" width="17.5546875" style="3" customWidth="1"/>
+    <col min="2580" max="2580" width="6.33203125" style="3" customWidth="1"/>
+    <col min="2581" max="2581" width="6" style="3" customWidth="1"/>
+    <col min="2582" max="2582" width="5.5546875" style="3" customWidth="1"/>
+    <col min="2583" max="2583" width="4.44140625" style="3" customWidth="1"/>
+    <col min="2584" max="2584" width="4.88671875" style="3" customWidth="1"/>
+    <col min="2585" max="2585" width="3.44140625" style="3" customWidth="1"/>
+    <col min="2586" max="2586" width="3.6640625" style="3" customWidth="1"/>
+    <col min="2587" max="2587" width="4" style="3" customWidth="1"/>
+    <col min="2588" max="2588" width="4.6640625" style="3" customWidth="1"/>
+    <col min="2589" max="2589" width="3.6640625" style="3" customWidth="1"/>
+    <col min="2590" max="2590" width="4.44140625" style="3" customWidth="1"/>
+    <col min="2591" max="2591" width="4.88671875" style="3" customWidth="1"/>
+    <col min="2592" max="2592" width="3.33203125" style="3" customWidth="1"/>
+    <col min="2593" max="2593" width="6.88671875" style="3" customWidth="1"/>
+    <col min="2594" max="2594" width="4.6640625" style="3" customWidth="1"/>
+    <col min="2595" max="2595" width="6" style="3" customWidth="1"/>
+    <col min="2596" max="2596" width="5.44140625" style="3" customWidth="1"/>
+    <col min="2597" max="2801" width="7" style="3" customWidth="1"/>
+    <col min="2802" max="2829" width="7" style="3"/>
+    <col min="2830" max="2830" width="4.44140625" style="3" customWidth="1"/>
+    <col min="2831" max="2831" width="11" style="3" customWidth="1"/>
+    <col min="2832" max="2833" width="5.88671875" style="3" customWidth="1"/>
+    <col min="2834" max="2834" width="18.88671875" style="3" customWidth="1"/>
+    <col min="2835" max="2835" width="17.5546875" style="3" customWidth="1"/>
+    <col min="2836" max="2836" width="6.33203125" style="3" customWidth="1"/>
+    <col min="2837" max="2837" width="6" style="3" customWidth="1"/>
+    <col min="2838" max="2838" width="5.5546875" style="3" customWidth="1"/>
+    <col min="2839" max="2839" width="4.44140625" style="3" customWidth="1"/>
+    <col min="2840" max="2840" width="4.88671875" style="3" customWidth="1"/>
+    <col min="2841" max="2841" width="3.44140625" style="3" customWidth="1"/>
+    <col min="2842" max="2842" width="3.6640625" style="3" customWidth="1"/>
+    <col min="2843" max="2843" width="4" style="3" customWidth="1"/>
+    <col min="2844" max="2844" width="4.6640625" style="3" customWidth="1"/>
+    <col min="2845" max="2845" width="3.6640625" style="3" customWidth="1"/>
+    <col min="2846" max="2846" width="4.44140625" style="3" customWidth="1"/>
+    <col min="2847" max="2847" width="4.88671875" style="3" customWidth="1"/>
+    <col min="2848" max="2848" width="3.33203125" style="3" customWidth="1"/>
+    <col min="2849" max="2849" width="6.88671875" style="3" customWidth="1"/>
+    <col min="2850" max="2850" width="4.6640625" style="3" customWidth="1"/>
+    <col min="2851" max="2851" width="6" style="3" customWidth="1"/>
+    <col min="2852" max="2852" width="5.44140625" style="3" customWidth="1"/>
+    <col min="2853" max="3057" width="7" style="3" customWidth="1"/>
+    <col min="3058" max="3085" width="7" style="3"/>
+    <col min="3086" max="3086" width="4.44140625" style="3" customWidth="1"/>
+    <col min="3087" max="3087" width="11" style="3" customWidth="1"/>
+    <col min="3088" max="3089" width="5.88671875" style="3" customWidth="1"/>
+    <col min="3090" max="3090" width="18.88671875" style="3" customWidth="1"/>
+    <col min="3091" max="3091" width="17.5546875" style="3" customWidth="1"/>
+    <col min="3092" max="3092" width="6.33203125" style="3" customWidth="1"/>
+    <col min="3093" max="3093" width="6" style="3" customWidth="1"/>
+    <col min="3094" max="3094" width="5.5546875" style="3" customWidth="1"/>
+    <col min="3095" max="3095" width="4.44140625" style="3" customWidth="1"/>
+    <col min="3096" max="3096" width="4.88671875" style="3" customWidth="1"/>
+    <col min="3097" max="3097" width="3.44140625" style="3" customWidth="1"/>
+    <col min="3098" max="3098" width="3.6640625" style="3" customWidth="1"/>
+    <col min="3099" max="3099" width="4" style="3" customWidth="1"/>
+    <col min="3100" max="3100" width="4.6640625" style="3" customWidth="1"/>
+    <col min="3101" max="3101" width="3.6640625" style="3" customWidth="1"/>
+    <col min="3102" max="3102" width="4.44140625" style="3" customWidth="1"/>
+    <col min="3103" max="3103" width="4.88671875" style="3" customWidth="1"/>
+    <col min="3104" max="3104" width="3.33203125" style="3" customWidth="1"/>
+    <col min="3105" max="3105" width="6.88671875" style="3" customWidth="1"/>
+    <col min="3106" max="3106" width="4.6640625" style="3" customWidth="1"/>
+    <col min="3107" max="3107" width="6" style="3" customWidth="1"/>
+    <col min="3108" max="3108" width="5.44140625" style="3" customWidth="1"/>
+    <col min="3109" max="3313" width="7" style="3" customWidth="1"/>
+    <col min="3314" max="3341" width="7" style="3"/>
+    <col min="3342" max="3342" width="4.44140625" style="3" customWidth="1"/>
+    <col min="3343" max="3343" width="11" style="3" customWidth="1"/>
+    <col min="3344" max="3345" width="5.88671875" style="3" customWidth="1"/>
+    <col min="3346" max="3346" width="18.88671875" style="3" customWidth="1"/>
+    <col min="3347" max="3347" width="17.5546875" style="3" customWidth="1"/>
+    <col min="3348" max="3348" width="6.33203125" style="3" customWidth="1"/>
+    <col min="3349" max="3349" width="6" style="3" customWidth="1"/>
+    <col min="3350" max="3350" width="5.5546875" style="3" customWidth="1"/>
+    <col min="3351" max="3351" width="4.44140625" style="3" customWidth="1"/>
+    <col min="3352" max="3352" width="4.88671875" style="3" customWidth="1"/>
+    <col min="3353" max="3353" width="3.44140625" style="3" customWidth="1"/>
+    <col min="3354" max="3354" width="3.6640625" style="3" customWidth="1"/>
+    <col min="3355" max="3355" width="4" style="3" customWidth="1"/>
+    <col min="3356" max="3356" width="4.6640625" style="3" customWidth="1"/>
+    <col min="3357" max="3357" width="3.6640625" style="3" customWidth="1"/>
+    <col min="3358" max="3358" width="4.44140625" style="3" customWidth="1"/>
+    <col min="3359" max="3359" width="4.88671875" style="3" customWidth="1"/>
+    <col min="3360" max="3360" width="3.33203125" style="3" customWidth="1"/>
+    <col min="3361" max="3361" width="6.88671875" style="3" customWidth="1"/>
+    <col min="3362" max="3362" width="4.6640625" style="3" customWidth="1"/>
+    <col min="3363" max="3363" width="6" style="3" customWidth="1"/>
+    <col min="3364" max="3364" width="5.44140625" style="3" customWidth="1"/>
+    <col min="3365" max="3569" width="7" style="3" customWidth="1"/>
+    <col min="3570" max="3597" width="7" style="3"/>
+    <col min="3598" max="3598" width="4.44140625" style="3" customWidth="1"/>
+    <col min="3599" max="3599" width="11" style="3" customWidth="1"/>
+    <col min="3600" max="3601" width="5.88671875" style="3" customWidth="1"/>
+    <col min="3602" max="3602" width="18.88671875" style="3" customWidth="1"/>
+    <col min="3603" max="3603" width="17.5546875" style="3" customWidth="1"/>
+    <col min="3604" max="3604" width="6.33203125" style="3" customWidth="1"/>
+    <col min="3605" max="3605" width="6" style="3" customWidth="1"/>
+    <col min="3606" max="3606" width="5.5546875" style="3" customWidth="1"/>
+    <col min="3607" max="3607" width="4.44140625" style="3" customWidth="1"/>
+    <col min="3608" max="3608" width="4.88671875" style="3" customWidth="1"/>
+    <col min="3609" max="3609" width="3.44140625" style="3" customWidth="1"/>
+    <col min="3610" max="3610" width="3.6640625" style="3" customWidth="1"/>
+    <col min="3611" max="3611" width="4" style="3" customWidth="1"/>
+    <col min="3612" max="3612" width="4.6640625" style="3" customWidth="1"/>
+    <col min="3613" max="3613" width="3.6640625" style="3" customWidth="1"/>
+    <col min="3614" max="3614" width="4.44140625" style="3" customWidth="1"/>
+    <col min="3615" max="3615" width="4.88671875" style="3" customWidth="1"/>
+    <col min="3616" max="3616" width="3.33203125" style="3" customWidth="1"/>
+    <col min="3617" max="3617" width="6.88671875" style="3" customWidth="1"/>
+    <col min="3618" max="3618" width="4.6640625" style="3" customWidth="1"/>
+    <col min="3619" max="3619" width="6" style="3" customWidth="1"/>
+    <col min="3620" max="3620" width="5.44140625" style="3" customWidth="1"/>
+    <col min="3621" max="3825" width="7" style="3" customWidth="1"/>
+    <col min="3826" max="3853" width="7" style="3"/>
+    <col min="3854" max="3854" width="4.44140625" style="3" customWidth="1"/>
+    <col min="3855" max="3855" width="11" style="3" customWidth="1"/>
+    <col min="3856" max="3857" width="5.88671875" style="3" customWidth="1"/>
+    <col min="3858" max="3858" width="18.88671875" style="3" customWidth="1"/>
+    <col min="3859" max="3859" width="17.5546875" style="3" customWidth="1"/>
+    <col min="3860" max="3860" width="6.33203125" style="3" customWidth="1"/>
+    <col min="3861" max="3861" width="6" style="3" customWidth="1"/>
+    <col min="3862" max="3862" width="5.5546875" style="3" customWidth="1"/>
+    <col min="3863" max="3863" width="4.44140625" style="3" customWidth="1"/>
+    <col min="3864" max="3864" width="4.88671875" style="3" customWidth="1"/>
+    <col min="3865" max="3865" width="3.44140625" style="3" customWidth="1"/>
+    <col min="3866" max="3866" width="3.6640625" style="3" customWidth="1"/>
+    <col min="3867" max="3867" width="4" style="3" customWidth="1"/>
+    <col min="3868" max="3868" width="4.6640625" style="3" customWidth="1"/>
+    <col min="3869" max="3869" width="3.6640625" style="3" customWidth="1"/>
+    <col min="3870" max="3870" width="4.44140625" style="3" customWidth="1"/>
+    <col min="3871" max="3871" width="4.88671875" style="3" customWidth="1"/>
+    <col min="3872" max="3872" width="3.33203125" style="3" customWidth="1"/>
+    <col min="3873" max="3873" width="6.88671875" style="3" customWidth="1"/>
+    <col min="3874" max="3874" width="4.6640625" style="3" customWidth="1"/>
+    <col min="3875" max="3875" width="6" style="3" customWidth="1"/>
+    <col min="3876" max="3876" width="5.44140625" style="3" customWidth="1"/>
+    <col min="3877" max="4081" width="7" style="3" customWidth="1"/>
+    <col min="4082" max="4109" width="7" style="3"/>
+    <col min="4110" max="4110" width="4.44140625" style="3" customWidth="1"/>
+    <col min="4111" max="4111" width="11" style="3" customWidth="1"/>
+    <col min="4112" max="4113" width="5.88671875" style="3" customWidth="1"/>
+    <col min="4114" max="4114" width="18.88671875" style="3" customWidth="1"/>
+    <col min="4115" max="4115" width="17.5546875" style="3" customWidth="1"/>
+    <col min="4116" max="4116" width="6.33203125" style="3" customWidth="1"/>
+    <col min="4117" max="4117" width="6" style="3" customWidth="1"/>
+    <col min="4118" max="4118" width="5.5546875" style="3" customWidth="1"/>
+    <col min="4119" max="4119" width="4.44140625" style="3" customWidth="1"/>
+    <col min="4120" max="4120" width="4.88671875" style="3" customWidth="1"/>
+    <col min="4121" max="4121" width="3.44140625" style="3" customWidth="1"/>
+    <col min="4122" max="4122" width="3.6640625" style="3" customWidth="1"/>
+    <col min="4123" max="4123" width="4" style="3" customWidth="1"/>
+    <col min="4124" max="4124" width="4.6640625" style="3" customWidth="1"/>
+    <col min="4125" max="4125" width="3.6640625" style="3" customWidth="1"/>
+    <col min="4126" max="4126" width="4.44140625" style="3" customWidth="1"/>
+    <col min="4127" max="4127" width="4.88671875" style="3" customWidth="1"/>
+    <col min="4128" max="4128" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4129" max="4129" width="6.88671875" style="3" customWidth="1"/>
+    <col min="4130" max="4130" width="4.6640625" style="3" customWidth="1"/>
+    <col min="4131" max="4131" width="6" style="3" customWidth="1"/>
+    <col min="4132" max="4132" width="5.44140625" style="3" customWidth="1"/>
+    <col min="4133" max="4337" width="7" style="3" customWidth="1"/>
+    <col min="4338" max="4365" width="7" style="3"/>
+    <col min="4366" max="4366" width="4.44140625" style="3" customWidth="1"/>
+    <col min="4367" max="4367" width="11" style="3" customWidth="1"/>
+    <col min="4368" max="4369" width="5.88671875" style="3" customWidth="1"/>
+    <col min="4370" max="4370" width="18.88671875" style="3" customWidth="1"/>
+    <col min="4371" max="4371" width="17.5546875" style="3" customWidth="1"/>
+    <col min="4372" max="4372" width="6.33203125" style="3" customWidth="1"/>
+    <col min="4373" max="4373" width="6" style="3" customWidth="1"/>
+    <col min="4374" max="4374" width="5.5546875" style="3" customWidth="1"/>
+    <col min="4375" max="4375" width="4.44140625" style="3" customWidth="1"/>
+    <col min="4376" max="4376" width="4.88671875" style="3" customWidth="1"/>
+    <col min="4377" max="4377" width="3.44140625" style="3" customWidth="1"/>
+    <col min="4378" max="4378" width="3.6640625" style="3" customWidth="1"/>
+    <col min="4379" max="4379" width="4" style="3" customWidth="1"/>
+    <col min="4380" max="4380" width="4.6640625" style="3" customWidth="1"/>
+    <col min="4381" max="4381" width="3.6640625" style="3" customWidth="1"/>
+    <col min="4382" max="4382" width="4.44140625" style="3" customWidth="1"/>
+    <col min="4383" max="4383" width="4.88671875" style="3" customWidth="1"/>
+    <col min="4384" max="4384" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4385" max="4385" width="6.88671875" style="3" customWidth="1"/>
+    <col min="4386" max="4386" width="4.6640625" style="3" customWidth="1"/>
+    <col min="4387" max="4387" width="6" style="3" customWidth="1"/>
+    <col min="4388" max="4388" width="5.44140625" style="3" customWidth="1"/>
+    <col min="4389" max="4593" width="7" style="3" customWidth="1"/>
+    <col min="4594" max="4621" width="7" style="3"/>
+    <col min="4622" max="4622" width="4.44140625" style="3" customWidth="1"/>
+    <col min="4623" max="4623" width="11" style="3" customWidth="1"/>
+    <col min="4624" max="4625" width="5.88671875" style="3" customWidth="1"/>
+    <col min="4626" max="4626" width="18.88671875" style="3" customWidth="1"/>
+    <col min="4627" max="4627" width="17.5546875" style="3" customWidth="1"/>
+    <col min="4628" max="4628" width="6.33203125" style="3" customWidth="1"/>
+    <col min="4629" max="4629" width="6" style="3" customWidth="1"/>
+    <col min="4630" max="4630" width="5.5546875" style="3" customWidth="1"/>
+    <col min="4631" max="4631" width="4.44140625" style="3" customWidth="1"/>
+    <col min="4632" max="4632" width="4.88671875" style="3" customWidth="1"/>
+    <col min="4633" max="4633" width="3.44140625" style="3" customWidth="1"/>
+    <col min="4634" max="4634" width="3.6640625" style="3" customWidth="1"/>
+    <col min="4635" max="4635" width="4" style="3" customWidth="1"/>
+    <col min="4636" max="4636" width="4.6640625" style="3" customWidth="1"/>
+    <col min="4637" max="4637" width="3.6640625" style="3" customWidth="1"/>
+    <col min="4638" max="4638" width="4.44140625" style="3" customWidth="1"/>
+    <col min="4639" max="4639" width="4.88671875" style="3" customWidth="1"/>
+    <col min="4640" max="4640" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4641" max="4641" width="6.88671875" style="3" customWidth="1"/>
+    <col min="4642" max="4642" width="4.6640625" style="3" customWidth="1"/>
+    <col min="4643" max="4643" width="6" style="3" customWidth="1"/>
+    <col min="4644" max="4644" width="5.44140625" style="3" customWidth="1"/>
+    <col min="4645" max="4849" width="7" style="3" customWidth="1"/>
+    <col min="4850" max="4877" width="7" style="3"/>
+    <col min="4878" max="4878" width="4.44140625" style="3" customWidth="1"/>
+    <col min="4879" max="4879" width="11" style="3" customWidth="1"/>
+    <col min="4880" max="4881" width="5.88671875" style="3" customWidth="1"/>
+    <col min="4882" max="4882" width="18.88671875" style="3" customWidth="1"/>
+    <col min="4883" max="4883" width="17.5546875" style="3" customWidth="1"/>
+    <col min="4884" max="4884" width="6.33203125" style="3" customWidth="1"/>
+    <col min="4885" max="4885" width="6" style="3" customWidth="1"/>
+    <col min="4886" max="4886" width="5.5546875" style="3" customWidth="1"/>
+    <col min="4887" max="4887" width="4.44140625" style="3" customWidth="1"/>
+    <col min="4888" max="4888" width="4.88671875" style="3" customWidth="1"/>
+    <col min="4889" max="4889" width="3.44140625" style="3" customWidth="1"/>
+    <col min="4890" max="4890" width="3.6640625" style="3" customWidth="1"/>
+    <col min="4891" max="4891" width="4" style="3" customWidth="1"/>
+    <col min="4892" max="4892" width="4.6640625" style="3" customWidth="1"/>
+    <col min="4893" max="4893" width="3.6640625" style="3" customWidth="1"/>
+    <col min="4894" max="4894" width="4.44140625" style="3" customWidth="1"/>
+    <col min="4895" max="4895" width="4.88671875" style="3" customWidth="1"/>
+    <col min="4896" max="4896" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4897" max="4897" width="6.88671875" style="3" customWidth="1"/>
+    <col min="4898" max="4898" width="4.6640625" style="3" customWidth="1"/>
+    <col min="4899" max="4899" width="6" style="3" customWidth="1"/>
+    <col min="4900" max="4900" width="5.44140625" style="3" customWidth="1"/>
+    <col min="4901" max="5105" width="7" style="3" customWidth="1"/>
+    <col min="5106" max="5133" width="7" style="3"/>
+    <col min="5134" max="5134" width="4.44140625" style="3" customWidth="1"/>
+    <col min="5135" max="5135" width="11" style="3" customWidth="1"/>
+    <col min="5136" max="5137" width="5.88671875" style="3" customWidth="1"/>
+    <col min="5138" max="5138" width="18.88671875" style="3" customWidth="1"/>
+    <col min="5139" max="5139" width="17.5546875" style="3" customWidth="1"/>
+    <col min="5140" max="5140" width="6.33203125" style="3" customWidth="1"/>
+    <col min="5141" max="5141" width="6" style="3" customWidth="1"/>
+    <col min="5142" max="5142" width="5.5546875" style="3" customWidth="1"/>
+    <col min="5143" max="5143" width="4.44140625" style="3" customWidth="1"/>
+    <col min="5144" max="5144" width="4.88671875" style="3" customWidth="1"/>
+    <col min="5145" max="5145" width="3.44140625" style="3" customWidth="1"/>
+    <col min="5146" max="5146" width="3.6640625" style="3" customWidth="1"/>
+    <col min="5147" max="5147" width="4" style="3" customWidth="1"/>
+    <col min="5148" max="5148" width="4.6640625" style="3" customWidth="1"/>
+    <col min="5149" max="5149" width="3.6640625" style="3" customWidth="1"/>
+    <col min="5150" max="5150" width="4.44140625" style="3" customWidth="1"/>
+    <col min="5151" max="5151" width="4.88671875" style="3" customWidth="1"/>
+    <col min="5152" max="5152" width="3.33203125" style="3" customWidth="1"/>
+    <col min="5153" max="5153" width="6.88671875" style="3" customWidth="1"/>
+    <col min="5154" max="5154" width="4.6640625" style="3" customWidth="1"/>
+    <col min="5155" max="5155" width="6" style="3" customWidth="1"/>
+    <col min="5156" max="5156" width="5.44140625" style="3" customWidth="1"/>
+    <col min="5157" max="5361" width="7" style="3" customWidth="1"/>
+    <col min="5362" max="5389" width="7" style="3"/>
+    <col min="5390" max="5390" width="4.44140625" style="3" customWidth="1"/>
+    <col min="5391" max="5391" width="11" style="3" customWidth="1"/>
+    <col min="5392" max="5393" width="5.88671875" style="3" customWidth="1"/>
+    <col min="5394" max="5394" width="18.88671875" style="3" customWidth="1"/>
+    <col min="5395" max="5395" width="17.5546875" style="3" customWidth="1"/>
+    <col min="5396" max="5396" width="6.33203125" style="3" customWidth="1"/>
+    <col min="5397" max="5397" width="6" style="3" customWidth="1"/>
+    <col min="5398" max="5398" width="5.5546875" style="3" customWidth="1"/>
+    <col min="5399" max="5399" width="4.44140625" style="3" customWidth="1"/>
+    <col min="5400" max="5400" width="4.88671875" style="3" customWidth="1"/>
+    <col min="5401" max="5401" width="3.44140625" style="3" customWidth="1"/>
+    <col min="5402" max="5402" width="3.6640625" style="3" customWidth="1"/>
+    <col min="5403" max="5403" width="4" style="3" customWidth="1"/>
+    <col min="5404" max="5404" width="4.6640625" style="3" customWidth="1"/>
+    <col min="5405" max="5405" width="3.6640625" style="3" customWidth="1"/>
+    <col min="5406" max="5406" width="4.44140625" style="3" customWidth="1"/>
+    <col min="5407" max="5407" width="4.88671875" style="3" customWidth="1"/>
+    <col min="5408" max="5408" width="3.33203125" style="3" customWidth="1"/>
+    <col min="5409" max="5409" width="6.88671875" style="3" customWidth="1"/>
+    <col min="5410" max="5410" width="4.6640625" style="3" customWidth="1"/>
+    <col min="5411" max="5411" width="6" style="3" customWidth="1"/>
+    <col min="5412" max="5412" width="5.44140625" style="3" customWidth="1"/>
+    <col min="5413" max="5617" width="7" style="3" customWidth="1"/>
+    <col min="5618" max="5645" width="7" style="3"/>
+    <col min="5646" max="5646" width="4.44140625" style="3" customWidth="1"/>
+    <col min="5647" max="5647" width="11" style="3" customWidth="1"/>
+    <col min="5648" max="5649" width="5.88671875" style="3" customWidth="1"/>
+    <col min="5650" max="5650" width="18.88671875" style="3" customWidth="1"/>
+    <col min="5651" max="5651" width="17.5546875" style="3" customWidth="1"/>
+    <col min="5652" max="5652" width="6.33203125" style="3" customWidth="1"/>
+    <col min="5653" max="5653" width="6" style="3" customWidth="1"/>
+    <col min="5654" max="5654" width="5.5546875" style="3" customWidth="1"/>
+    <col min="5655" max="5655" width="4.44140625" style="3" customWidth="1"/>
+    <col min="5656" max="5656" width="4.88671875" style="3" customWidth="1"/>
+    <col min="5657" max="5657" width="3.44140625" style="3" customWidth="1"/>
+    <col min="5658" max="5658" width="3.6640625" style="3" customWidth="1"/>
+    <col min="5659" max="5659" width="4" style="3" customWidth="1"/>
+    <col min="5660" max="5660" width="4.6640625" style="3" customWidth="1"/>
+    <col min="5661" max="5661" width="3.6640625" style="3" customWidth="1"/>
+    <col min="5662" max="5662" width="4.44140625" style="3" customWidth="1"/>
+    <col min="5663" max="5663" width="4.88671875" style="3" customWidth="1"/>
+    <col min="5664" max="5664" width="3.33203125" style="3" customWidth="1"/>
+    <col min="5665" max="5665" width="6.88671875" style="3" customWidth="1"/>
+    <col min="5666" max="5666" width="4.6640625" style="3" customWidth="1"/>
+    <col min="5667" max="5667" width="6" style="3" customWidth="1"/>
+    <col min="5668" max="5668" width="5.44140625" style="3" customWidth="1"/>
+    <col min="5669" max="5873" width="7" style="3" customWidth="1"/>
+    <col min="5874" max="5901" width="7" style="3"/>
+    <col min="5902" max="5902" width="4.44140625" style="3" customWidth="1"/>
+    <col min="5903" max="5903" width="11" style="3" customWidth="1"/>
+    <col min="5904" max="5905" width="5.88671875" style="3" customWidth="1"/>
+    <col min="5906" max="5906" width="18.88671875" style="3" customWidth="1"/>
+    <col min="5907" max="5907" width="17.5546875" style="3" customWidth="1"/>
+    <col min="5908" max="5908" width="6.33203125" style="3" customWidth="1"/>
+    <col min="5909" max="5909" width="6" style="3" customWidth="1"/>
+    <col min="5910" max="5910" width="5.5546875" style="3" customWidth="1"/>
+    <col min="5911" max="5911" width="4.44140625" style="3" customWidth="1"/>
+    <col min="5912" max="5912" width="4.88671875" style="3" customWidth="1"/>
+    <col min="5913" max="5913" width="3.44140625" style="3" customWidth="1"/>
+    <col min="5914" max="5914" width="3.6640625" style="3" customWidth="1"/>
+    <col min="5915" max="5915" width="4" style="3" customWidth="1"/>
+    <col min="5916" max="5916" width="4.6640625" style="3" customWidth="1"/>
+    <col min="5917" max="5917" width="3.6640625" style="3" customWidth="1"/>
+    <col min="5918" max="5918" width="4.44140625" style="3" customWidth="1"/>
+    <col min="5919" max="5919" width="4.88671875" style="3" customWidth="1"/>
+    <col min="5920" max="5920" width="3.33203125" style="3" customWidth="1"/>
+    <col min="5921" max="5921" width="6.88671875" style="3" customWidth="1"/>
+    <col min="5922" max="5922" width="4.6640625" style="3" customWidth="1"/>
+    <col min="5923" max="5923" width="6" style="3" customWidth="1"/>
+    <col min="5924" max="5924" width="5.44140625" style="3" customWidth="1"/>
+    <col min="5925" max="6129" width="7" style="3" customWidth="1"/>
+    <col min="6130" max="6157" width="7" style="3"/>
+    <col min="6158" max="6158" width="4.44140625" style="3" customWidth="1"/>
+    <col min="6159" max="6159" width="11" style="3" customWidth="1"/>
+    <col min="6160" max="6161" width="5.88671875" style="3" customWidth="1"/>
+    <col min="6162" max="6162" width="18.88671875" style="3" customWidth="1"/>
+    <col min="6163" max="6163" width="17.5546875" style="3" customWidth="1"/>
+    <col min="6164" max="6164" width="6.33203125" style="3" customWidth="1"/>
+    <col min="6165" max="6165" width="6" style="3" customWidth="1"/>
+    <col min="6166" max="6166" width="5.5546875" style="3" customWidth="1"/>
+    <col min="6167" max="6167" width="4.44140625" style="3" customWidth="1"/>
+    <col min="6168" max="6168" width="4.88671875" style="3" customWidth="1"/>
+    <col min="6169" max="6169" width="3.44140625" style="3" customWidth="1"/>
+    <col min="6170" max="6170" width="3.6640625" style="3" customWidth="1"/>
+    <col min="6171" max="6171" width="4" style="3" customWidth="1"/>
+    <col min="6172" max="6172" width="4.6640625" style="3" customWidth="1"/>
+    <col min="6173" max="6173" width="3.6640625" style="3" customWidth="1"/>
+    <col min="6174" max="6174" width="4.44140625" style="3" customWidth="1"/>
+    <col min="6175" max="6175" width="4.88671875" style="3" customWidth="1"/>
+    <col min="6176" max="6176" width="3.33203125" style="3" customWidth="1"/>
+    <col min="6177" max="6177" width="6.88671875" style="3" customWidth="1"/>
+    <col min="6178" max="6178" width="4.6640625" style="3" customWidth="1"/>
+    <col min="6179" max="6179" width="6" style="3" customWidth="1"/>
+    <col min="6180" max="6180" width="5.44140625" style="3" customWidth="1"/>
+    <col min="6181" max="6385" width="7" style="3" customWidth="1"/>
+    <col min="6386" max="6413" width="7" style="3"/>
+    <col min="6414" max="6414" width="4.44140625" style="3" customWidth="1"/>
+    <col min="6415" max="6415" width="11" style="3" customWidth="1"/>
+    <col min="6416" max="6417" width="5.88671875" style="3" customWidth="1"/>
+    <col min="6418" max="6418" width="18.88671875" style="3" customWidth="1"/>
+    <col min="6419" max="6419" width="17.5546875" style="3" customWidth="1"/>
+    <col min="6420" max="6420" width="6.33203125" style="3" customWidth="1"/>
+    <col min="6421" max="6421" width="6" style="3" customWidth="1"/>
+    <col min="6422" max="6422" width="5.5546875" style="3" customWidth="1"/>
+    <col min="6423" max="6423" width="4.44140625" style="3" customWidth="1"/>
+    <col min="6424" max="6424" width="4.88671875" style="3" customWidth="1"/>
+    <col min="6425" max="6425" width="3.44140625" style="3" customWidth="1"/>
+    <col min="6426" max="6426" width="3.6640625" style="3" customWidth="1"/>
+    <col min="6427" max="6427" width="4" style="3" customWidth="1"/>
+    <col min="6428" max="6428" width="4.6640625" style="3" customWidth="1"/>
+    <col min="6429" max="6429" width="3.6640625" style="3" customWidth="1"/>
+    <col min="6430" max="6430" width="4.44140625" style="3" customWidth="1"/>
+    <col min="6431" max="6431" width="4.88671875" style="3" customWidth="1"/>
+    <col min="6432" max="6432" width="3.33203125" style="3" customWidth="1"/>
+    <col min="6433" max="6433" width="6.88671875" style="3" customWidth="1"/>
+    <col min="6434" max="6434" width="4.6640625" style="3" customWidth="1"/>
+    <col min="6435" max="6435" width="6" style="3" customWidth="1"/>
+    <col min="6436" max="6436" width="5.44140625" style="3" customWidth="1"/>
+    <col min="6437" max="6641" width="7" style="3" customWidth="1"/>
+    <col min="6642" max="6669" width="7" style="3"/>
+    <col min="6670" max="6670" width="4.44140625" style="3" customWidth="1"/>
+    <col min="6671" max="6671" width="11" style="3" customWidth="1"/>
+    <col min="6672" max="6673" width="5.88671875" style="3" customWidth="1"/>
+    <col min="6674" max="6674" width="18.88671875" style="3" customWidth="1"/>
+    <col min="6675" max="6675" width="17.5546875" style="3" customWidth="1"/>
+    <col min="6676" max="6676" width="6.33203125" style="3" customWidth="1"/>
+    <col min="6677" max="6677" width="6" style="3" customWidth="1"/>
+    <col min="6678" max="6678" width="5.5546875" style="3" customWidth="1"/>
+    <col min="6679" max="6679" width="4.44140625" style="3" customWidth="1"/>
+    <col min="6680" max="6680" width="4.88671875" style="3" customWidth="1"/>
+    <col min="6681" max="6681" width="3.44140625" style="3" customWidth="1"/>
+    <col min="6682" max="6682" width="3.6640625" style="3" customWidth="1"/>
+    <col min="6683" max="6683" width="4" style="3" customWidth="1"/>
+    <col min="6684" max="6684" width="4.6640625" style="3" customWidth="1"/>
+    <col min="6685" max="6685" width="3.6640625" style="3" customWidth="1"/>
+    <col min="6686" max="6686" width="4.44140625" style="3" customWidth="1"/>
+    <col min="6687" max="6687" width="4.88671875" style="3" customWidth="1"/>
+    <col min="6688" max="6688" width="3.33203125" style="3" customWidth="1"/>
+    <col min="6689" max="6689" width="6.88671875" style="3" customWidth="1"/>
+    <col min="6690" max="6690" width="4.6640625" style="3" customWidth="1"/>
+    <col min="6691" max="6691" width="6" style="3" customWidth="1"/>
+    <col min="6692" max="6692" width="5.44140625" style="3" customWidth="1"/>
+    <col min="6693" max="6897" width="7" style="3" customWidth="1"/>
+    <col min="6898" max="6925" width="7" style="3"/>
+    <col min="6926" max="6926" width="4.44140625" style="3" customWidth="1"/>
+    <col min="6927" max="6927" width="11" style="3" customWidth="1"/>
+    <col min="6928" max="6929" width="5.88671875" style="3" customWidth="1"/>
+    <col min="6930" max="6930" width="18.88671875" style="3" customWidth="1"/>
+    <col min="6931" max="6931" width="17.5546875" style="3" customWidth="1"/>
+    <col min="6932" max="6932" width="6.33203125" style="3" customWidth="1"/>
+    <col min="6933" max="6933" width="6" style="3" customWidth="1"/>
+    <col min="6934" max="6934" width="5.5546875" style="3" customWidth="1"/>
+    <col min="6935" max="6935" width="4.44140625" style="3" customWidth="1"/>
+    <col min="6936" max="6936" width="4.88671875" style="3" customWidth="1"/>
+    <col min="6937" max="6937" width="3.44140625" style="3" customWidth="1"/>
+    <col min="6938" max="6938" width="3.6640625" style="3" customWidth="1"/>
+    <col min="6939" max="6939" width="4" style="3" customWidth="1"/>
+    <col min="6940" max="6940" width="4.6640625" style="3" customWidth="1"/>
+    <col min="6941" max="6941" width="3.6640625" style="3" customWidth="1"/>
+    <col min="6942" max="6942" width="4.44140625" style="3" customWidth="1"/>
+    <col min="6943" max="6943" width="4.88671875" style="3" customWidth="1"/>
+    <col min="6944" max="6944" width="3.33203125" style="3" customWidth="1"/>
+    <col min="6945" max="6945" width="6.88671875" style="3" customWidth="1"/>
+    <col min="6946" max="6946" width="4.6640625" style="3" customWidth="1"/>
+    <col min="6947" max="6947" width="6" style="3" customWidth="1"/>
+    <col min="6948" max="6948" width="5.44140625" style="3" customWidth="1"/>
+    <col min="6949" max="7153" width="7" style="3" customWidth="1"/>
+    <col min="7154" max="7181" width="7" style="3"/>
+    <col min="7182" max="7182" width="4.44140625" style="3" customWidth="1"/>
+    <col min="7183" max="7183" width="11" style="3" customWidth="1"/>
+    <col min="7184" max="7185" width="5.88671875" style="3" customWidth="1"/>
+    <col min="7186" max="7186" width="18.88671875" style="3" customWidth="1"/>
+    <col min="7187" max="7187" width="17.5546875" style="3" customWidth="1"/>
+    <col min="7188" max="7188" width="6.33203125" style="3" customWidth="1"/>
+    <col min="7189" max="7189" width="6" style="3" customWidth="1"/>
+    <col min="7190" max="7190" width="5.5546875" style="3" customWidth="1"/>
+    <col min="7191" max="7191" width="4.44140625" style="3" customWidth="1"/>
+    <col min="7192" max="7192" width="4.88671875" style="3" customWidth="1"/>
+    <col min="7193" max="7193" width="3.44140625" style="3" customWidth="1"/>
+    <col min="7194" max="7194" width="3.6640625" style="3" customWidth="1"/>
+    <col min="7195" max="7195" width="4" style="3" customWidth="1"/>
+    <col min="7196" max="7196" width="4.6640625" style="3" customWidth="1"/>
+    <col min="7197" max="7197" width="3.6640625" style="3" customWidth="1"/>
+    <col min="7198" max="7198" width="4.44140625" style="3" customWidth="1"/>
+    <col min="7199" max="7199" width="4.88671875" style="3" customWidth="1"/>
+    <col min="7200" max="7200" width="3.33203125" style="3" customWidth="1"/>
+    <col min="7201" max="7201" width="6.88671875" style="3" customWidth="1"/>
+    <col min="7202" max="7202" width="4.6640625" style="3" customWidth="1"/>
+    <col min="7203" max="7203" width="6" style="3" customWidth="1"/>
+    <col min="7204" max="7204" width="5.44140625" style="3" customWidth="1"/>
+    <col min="7205" max="7409" width="7" style="3" customWidth="1"/>
+    <col min="7410" max="7437" width="7" style="3"/>
+    <col min="7438" max="7438" width="4.44140625" style="3" customWidth="1"/>
+    <col min="7439" max="7439" width="11" style="3" customWidth="1"/>
+    <col min="7440" max="7441" width="5.88671875" style="3" customWidth="1"/>
+    <col min="7442" max="7442" width="18.88671875" style="3" customWidth="1"/>
+    <col min="7443" max="7443" width="17.5546875" style="3" customWidth="1"/>
+    <col min="7444" max="7444" width="6.33203125" style="3" customWidth="1"/>
+    <col min="7445" max="7445" width="6" style="3" customWidth="1"/>
+    <col min="7446" max="7446" width="5.5546875" style="3" customWidth="1"/>
+    <col min="7447" max="7447" width="4.44140625" style="3" customWidth="1"/>
+    <col min="7448" max="7448" width="4.88671875" style="3" customWidth="1"/>
+    <col min="7449" max="7449" width="3.44140625" style="3" customWidth="1"/>
+    <col min="7450" max="7450" width="3.6640625" style="3" customWidth="1"/>
+    <col min="7451" max="7451" width="4" style="3" customWidth="1"/>
+    <col min="7452" max="7452" width="4.6640625" style="3" customWidth="1"/>
+    <col min="7453" max="7453" width="3.6640625" style="3" customWidth="1"/>
+    <col min="7454" max="7454" width="4.44140625" style="3" customWidth="1"/>
+    <col min="7455" max="7455" width="4.88671875" style="3" customWidth="1"/>
+    <col min="7456" max="7456" width="3.33203125" style="3" customWidth="1"/>
+    <col min="7457" max="7457" width="6.88671875" style="3" customWidth="1"/>
+    <col min="7458" max="7458" width="4.6640625" style="3" customWidth="1"/>
+    <col min="7459" max="7459" width="6" style="3" customWidth="1"/>
+    <col min="7460" max="7460" width="5.44140625" style="3" customWidth="1"/>
+    <col min="7461" max="7665" width="7" style="3" customWidth="1"/>
+    <col min="7666" max="7693" width="7" style="3"/>
+    <col min="7694" max="7694" width="4.44140625" style="3" customWidth="1"/>
+    <col min="7695" max="7695" width="11" style="3" customWidth="1"/>
+    <col min="7696" max="7697" width="5.88671875" style="3" customWidth="1"/>
+    <col min="7698" max="7698" width="18.88671875" style="3" customWidth="1"/>
+    <col min="7699" max="7699" width="17.5546875" style="3" customWidth="1"/>
+    <col min="7700" max="7700" width="6.33203125" style="3" customWidth="1"/>
+    <col min="7701" max="7701" width="6" style="3" customWidth="1"/>
+    <col min="7702" max="7702" width="5.5546875" style="3" customWidth="1"/>
+    <col min="7703" max="7703" width="4.44140625" style="3" customWidth="1"/>
+    <col min="7704" max="7704" width="4.88671875" style="3" customWidth="1"/>
+    <col min="7705" max="7705" width="3.44140625" style="3" customWidth="1"/>
+    <col min="7706" max="7706" width="3.6640625" style="3" customWidth="1"/>
+    <col min="7707" max="7707" width="4" style="3" customWidth="1"/>
+    <col min="7708" max="7708" width="4.6640625" style="3" customWidth="1"/>
+    <col min="7709" max="7709" width="3.6640625" style="3" customWidth="1"/>
+    <col min="7710" max="7710" width="4.44140625" style="3" customWidth="1"/>
+    <col min="7711" max="7711" width="4.88671875" style="3" customWidth="1"/>
+    <col min="7712" max="7712" width="3.33203125" style="3" customWidth="1"/>
+    <col min="7713" max="7713" width="6.88671875" style="3" customWidth="1"/>
+    <col min="7714" max="7714" width="4.6640625" style="3" customWidth="1"/>
+    <col min="7715" max="7715" width="6" style="3" customWidth="1"/>
+    <col min="7716" max="7716" width="5.44140625" style="3" customWidth="1"/>
+    <col min="7717" max="7921" width="7" style="3" customWidth="1"/>
+    <col min="7922" max="7949" width="7" style="3"/>
+    <col min="7950" max="7950" width="4.44140625" style="3" customWidth="1"/>
+    <col min="7951" max="7951" width="11" style="3" customWidth="1"/>
+    <col min="7952" max="7953" width="5.88671875" style="3" customWidth="1"/>
+    <col min="7954" max="7954" width="18.88671875" style="3" customWidth="1"/>
+    <col min="7955" max="7955" width="17.5546875" style="3" customWidth="1"/>
+    <col min="7956" max="7956" width="6.33203125" style="3" customWidth="1"/>
+    <col min="7957" max="7957" width="6" style="3" customWidth="1"/>
+    <col min="7958" max="7958" width="5.5546875" style="3" customWidth="1"/>
+    <col min="7959" max="7959" width="4.44140625" style="3" customWidth="1"/>
+    <col min="7960" max="7960" width="4.88671875" style="3" customWidth="1"/>
+    <col min="7961" max="7961" width="3.44140625" style="3" customWidth="1"/>
+    <col min="7962" max="7962" width="3.6640625" style="3" customWidth="1"/>
+    <col min="7963" max="7963" width="4" style="3" customWidth="1"/>
+    <col min="7964" max="7964" width="4.6640625" style="3" customWidth="1"/>
+    <col min="7965" max="7965" width="3.6640625" style="3" customWidth="1"/>
+    <col min="7966" max="7966" width="4.44140625" style="3" customWidth="1"/>
+    <col min="7967" max="7967" width="4.88671875" style="3" customWidth="1"/>
+    <col min="7968" max="7968" width="3.33203125" style="3" customWidth="1"/>
+    <col min="7969" max="7969" width="6.88671875" style="3" customWidth="1"/>
+    <col min="7970" max="7970" width="4.6640625" style="3" customWidth="1"/>
+    <col min="7971" max="7971" width="6" style="3" customWidth="1"/>
+    <col min="7972" max="7972" width="5.44140625" style="3" customWidth="1"/>
+    <col min="7973" max="8177" width="7" style="3" customWidth="1"/>
+    <col min="8178" max="8205" width="7" style="3"/>
+    <col min="8206" max="8206" width="4.44140625" style="3" customWidth="1"/>
+    <col min="8207" max="8207" width="11" style="3" customWidth="1"/>
+    <col min="8208" max="8209" width="5.88671875" style="3" customWidth="1"/>
+    <col min="8210" max="8210" width="18.88671875" style="3" customWidth="1"/>
+    <col min="8211" max="8211" width="17.5546875" style="3" customWidth="1"/>
+    <col min="8212" max="8212" width="6.33203125" style="3" customWidth="1"/>
+    <col min="8213" max="8213" width="6" style="3" customWidth="1"/>
+    <col min="8214" max="8214" width="5.5546875" style="3" customWidth="1"/>
+    <col min="8215" max="8215" width="4.44140625" style="3" customWidth="1"/>
+    <col min="8216" max="8216" width="4.88671875" style="3" customWidth="1"/>
+    <col min="8217" max="8217" width="3.44140625" style="3" customWidth="1"/>
+    <col min="8218" max="8218" width="3.6640625" style="3" customWidth="1"/>
+    <col min="8219" max="8219" width="4" style="3" customWidth="1"/>
+    <col min="8220" max="8220" width="4.6640625" style="3" customWidth="1"/>
+    <col min="8221" max="8221" width="3.6640625" style="3" customWidth="1"/>
+    <col min="8222" max="8222" width="4.44140625" style="3" customWidth="1"/>
+    <col min="8223" max="8223" width="4.88671875" style="3" customWidth="1"/>
+    <col min="8224" max="8224" width="3.33203125" style="3" customWidth="1"/>
+    <col min="8225" max="8225" width="6.88671875" style="3" customWidth="1"/>
+    <col min="8226" max="8226" width="4.6640625" style="3" customWidth="1"/>
+    <col min="8227" max="8227" width="6" style="3" customWidth="1"/>
+    <col min="8228" max="8228" width="5.44140625" style="3" customWidth="1"/>
+    <col min="8229" max="8433" width="7" style="3" customWidth="1"/>
+    <col min="8434" max="8461" width="7" style="3"/>
+    <col min="8462" max="8462" width="4.44140625" style="3" customWidth="1"/>
+    <col min="8463" max="8463" width="11" style="3" customWidth="1"/>
+    <col min="8464" max="8465" width="5.88671875" style="3" customWidth="1"/>
+    <col min="8466" max="8466" width="18.88671875" style="3" customWidth="1"/>
+    <col min="8467" max="8467" width="17.5546875" style="3" customWidth="1"/>
+    <col min="8468" max="8468" width="6.33203125" style="3" customWidth="1"/>
+    <col min="8469" max="8469" width="6" style="3" customWidth="1"/>
+    <col min="8470" max="8470" width="5.5546875" style="3" customWidth="1"/>
+    <col min="8471" max="8471" width="4.44140625" style="3" customWidth="1"/>
+    <col min="8472" max="8472" width="4.88671875" style="3" customWidth="1"/>
+    <col min="8473" max="8473" width="3.44140625" style="3" customWidth="1"/>
+    <col min="8474" max="8474" width="3.6640625" style="3" customWidth="1"/>
+    <col min="8475" max="8475" width="4" style="3" customWidth="1"/>
+    <col min="8476" max="8476" width="4.6640625" style="3" customWidth="1"/>
+    <col min="8477" max="8477" width="3.6640625" style="3" customWidth="1"/>
+    <col min="8478" max="8478" width="4.44140625" style="3" customWidth="1"/>
+    <col min="8479" max="8479" width="4.88671875" style="3" customWidth="1"/>
+    <col min="8480" max="8480" width="3.33203125" style="3" customWidth="1"/>
+    <col min="8481" max="8481" width="6.88671875" style="3" customWidth="1"/>
+    <col min="8482" max="8482" width="4.6640625" style="3" customWidth="1"/>
+    <col min="8483" max="8483" width="6" style="3" customWidth="1"/>
+    <col min="8484" max="8484" width="5.44140625" style="3" customWidth="1"/>
+    <col min="8485" max="8689" width="7" style="3" customWidth="1"/>
+    <col min="8690" max="8717" width="7" style="3"/>
+    <col min="8718" max="8718" width="4.44140625" style="3" customWidth="1"/>
+    <col min="8719" max="8719" width="11" style="3" customWidth="1"/>
+    <col min="8720" max="8721" width="5.88671875" style="3" customWidth="1"/>
+    <col min="8722" max="8722" width="18.88671875" style="3" customWidth="1"/>
+    <col min="8723" max="8723" width="17.5546875" style="3" customWidth="1"/>
+    <col min="8724" max="8724" width="6.33203125" style="3" customWidth="1"/>
+    <col min="8725" max="8725" width="6" style="3" customWidth="1"/>
+    <col min="8726" max="8726" width="5.5546875" style="3" customWidth="1"/>
+    <col min="8727" max="8727" width="4.44140625" style="3" customWidth="1"/>
+    <col min="8728" max="8728" width="4.88671875" style="3" customWidth="1"/>
+    <col min="8729" max="8729" width="3.44140625" style="3" customWidth="1"/>
+    <col min="8730" max="8730" width="3.6640625" style="3" customWidth="1"/>
+    <col min="8731" max="8731" width="4" style="3" customWidth="1"/>
+    <col min="8732" max="8732" width="4.6640625" style="3" customWidth="1"/>
+    <col min="8733" max="8733" width="3.6640625" style="3" customWidth="1"/>
+    <col min="8734" max="8734" width="4.44140625" style="3" customWidth="1"/>
+    <col min="8735" max="8735" width="4.88671875" style="3" customWidth="1"/>
+    <col min="8736" max="8736" width="3.33203125" style="3" customWidth="1"/>
+    <col min="8737" max="8737" width="6.88671875" style="3" customWidth="1"/>
+    <col min="8738" max="8738" width="4.6640625" style="3" customWidth="1"/>
+    <col min="8739" max="8739" width="6" style="3" customWidth="1"/>
+    <col min="8740" max="8740" width="5.44140625" style="3" customWidth="1"/>
+    <col min="8741" max="8945" width="7" style="3" customWidth="1"/>
+    <col min="8946" max="8973" width="7" style="3"/>
+    <col min="8974" max="8974" width="4.44140625" style="3" customWidth="1"/>
+    <col min="8975" max="8975" width="11" style="3" customWidth="1"/>
+    <col min="8976" max="8977" width="5.88671875" style="3" customWidth="1"/>
+    <col min="8978" max="8978" width="18.88671875" style="3" customWidth="1"/>
+    <col min="8979" max="8979" width="17.5546875" style="3" customWidth="1"/>
+    <col min="8980" max="8980" width="6.33203125" style="3" customWidth="1"/>
+    <col min="8981" max="8981" width="6" style="3" customWidth="1"/>
+    <col min="8982" max="8982" width="5.5546875" style="3" customWidth="1"/>
+    <col min="8983" max="8983" width="4.44140625" style="3" customWidth="1"/>
+    <col min="8984" max="8984" width="4.88671875" style="3" customWidth="1"/>
+    <col min="8985" max="8985" width="3.44140625" style="3" customWidth="1"/>
+    <col min="8986" max="8986" width="3.6640625" style="3" customWidth="1"/>
+    <col min="8987" max="8987" width="4" style="3" customWidth="1"/>
+    <col min="8988" max="8988" width="4.6640625" style="3" customWidth="1"/>
+    <col min="8989" max="8989" width="3.6640625" style="3" customWidth="1"/>
+    <col min="8990" max="8990" width="4.44140625" style="3" customWidth="1"/>
+    <col min="8991" max="8991" width="4.88671875" style="3" customWidth="1"/>
+    <col min="8992" max="8992" width="3.33203125" style="3" customWidth="1"/>
+    <col min="8993" max="8993" width="6.88671875" style="3" customWidth="1"/>
+    <col min="8994" max="8994" width="4.6640625" style="3" customWidth="1"/>
+    <col min="8995" max="8995" width="6" style="3" customWidth="1"/>
+    <col min="8996" max="8996" width="5.44140625" style="3" customWidth="1"/>
+    <col min="8997" max="9201" width="7" style="3" customWidth="1"/>
+    <col min="9202" max="9229" width="7" style="3"/>
+    <col min="9230" max="9230" width="4.44140625" style="3" customWidth="1"/>
+    <col min="9231" max="9231" width="11" style="3" customWidth="1"/>
+    <col min="9232" max="9233" width="5.88671875" style="3" customWidth="1"/>
+    <col min="9234" max="9234" width="18.88671875" style="3" customWidth="1"/>
+    <col min="9235" max="9235" width="17.5546875" style="3" customWidth="1"/>
+    <col min="9236" max="9236" width="6.33203125" style="3" customWidth="1"/>
+    <col min="9237" max="9237" width="6" style="3" customWidth="1"/>
+    <col min="9238" max="9238" width="5.5546875" style="3" customWidth="1"/>
+    <col min="9239" max="9239" width="4.44140625" style="3" customWidth="1"/>
+    <col min="9240" max="9240" width="4.88671875" style="3" customWidth="1"/>
+    <col min="9241" max="9241" width="3.44140625" style="3" customWidth="1"/>
+    <col min="9242" max="9242" width="3.6640625" style="3" customWidth="1"/>
+    <col min="9243" max="9243" width="4" style="3" customWidth="1"/>
+    <col min="9244" max="9244" width="4.6640625" style="3" customWidth="1"/>
+    <col min="9245" max="9245" width="3.6640625" style="3" customWidth="1"/>
+    <col min="9246" max="9246" width="4.44140625" style="3" customWidth="1"/>
+    <col min="9247" max="9247" width="4.88671875" style="3" customWidth="1"/>
+    <col min="9248" max="9248" width="3.33203125" style="3" customWidth="1"/>
+    <col min="9249" max="9249" width="6.88671875" style="3" customWidth="1"/>
+    <col min="9250" max="9250" width="4.6640625" style="3" customWidth="1"/>
+    <col min="9251" max="9251" width="6" style="3" customWidth="1"/>
+    <col min="9252" max="9252" width="5.44140625" style="3" customWidth="1"/>
+    <col min="9253" max="9457" width="7" style="3" customWidth="1"/>
+    <col min="9458" max="9485" width="7" style="3"/>
+    <col min="9486" max="9486" width="4.44140625" style="3" customWidth="1"/>
+    <col min="9487" max="9487" width="11" style="3" customWidth="1"/>
+    <col min="9488" max="9489" width="5.88671875" style="3" customWidth="1"/>
+    <col min="9490" max="9490" width="18.88671875" style="3" customWidth="1"/>
+    <col min="9491" max="9491" width="17.5546875" style="3" customWidth="1"/>
+    <col min="9492" max="9492" width="6.33203125" style="3" customWidth="1"/>
+    <col min="9493" max="9493" width="6" style="3" customWidth="1"/>
+    <col min="9494" max="9494" width="5.5546875" style="3" customWidth="1"/>
+    <col min="9495" max="9495" width="4.44140625" style="3" customWidth="1"/>
+    <col min="9496" max="9496" width="4.88671875" style="3" customWidth="1"/>
+    <col min="9497" max="9497" width="3.44140625" style="3" customWidth="1"/>
+    <col min="9498" max="9498" width="3.6640625" style="3" customWidth="1"/>
+    <col min="9499" max="9499" width="4" style="3" customWidth="1"/>
+    <col min="9500" max="9500" width="4.6640625" style="3" customWidth="1"/>
+    <col min="9501" max="9501" width="3.6640625" style="3" customWidth="1"/>
+    <col min="9502" max="9502" width="4.44140625" style="3" customWidth="1"/>
+    <col min="9503" max="9503" width="4.88671875" style="3" customWidth="1"/>
+    <col min="9504" max="9504" width="3.33203125" style="3" customWidth="1"/>
+    <col min="9505" max="9505" width="6.88671875" style="3" customWidth="1"/>
+    <col min="9506" max="9506" width="4.6640625" style="3" customWidth="1"/>
+    <col min="9507" max="9507" width="6" style="3" customWidth="1"/>
+    <col min="9508" max="9508" width="5.44140625" style="3" customWidth="1"/>
+    <col min="9509" max="9713" width="7" style="3" customWidth="1"/>
+    <col min="9714" max="9741" width="7" style="3"/>
+    <col min="9742" max="9742" width="4.44140625" style="3" customWidth="1"/>
+    <col min="9743" max="9743" width="11" style="3" customWidth="1"/>
+    <col min="9744" max="9745" width="5.88671875" style="3" customWidth="1"/>
+    <col min="9746" max="9746" width="18.88671875" style="3" customWidth="1"/>
+    <col min="9747" max="9747" width="17.5546875" style="3" customWidth="1"/>
+    <col min="9748" max="9748" width="6.33203125" style="3" customWidth="1"/>
+    <col min="9749" max="9749" width="6" style="3" customWidth="1"/>
+    <col min="9750" max="9750" width="5.5546875" style="3" customWidth="1"/>
+    <col min="9751" max="9751" width="4.44140625" style="3" customWidth="1"/>
+    <col min="9752" max="9752" width="4.88671875" style="3" customWidth="1"/>
+    <col min="9753" max="9753" width="3.44140625" style="3" customWidth="1"/>
+    <col min="9754" max="9754" width="3.6640625" style="3" customWidth="1"/>
+    <col min="9755" max="9755" width="4" style="3" customWidth="1"/>
+    <col min="9756" max="9756" width="4.6640625" style="3" customWidth="1"/>
+    <col min="9757" max="9757" width="3.6640625" style="3" customWidth="1"/>
+    <col min="9758" max="9758" width="4.44140625" style="3" customWidth="1"/>
+    <col min="9759" max="9759" width="4.88671875" style="3" customWidth="1"/>
+    <col min="9760" max="9760" width="3.33203125" style="3" customWidth="1"/>
+    <col min="9761" max="9761" width="6.88671875" style="3" customWidth="1"/>
+    <col min="9762" max="9762" width="4.6640625" style="3" customWidth="1"/>
+    <col min="9763" max="9763" width="6" style="3" customWidth="1"/>
+    <col min="9764" max="9764" width="5.44140625" style="3" customWidth="1"/>
+    <col min="9765" max="9969" width="7" style="3" customWidth="1"/>
+    <col min="9970" max="9997" width="7" style="3"/>
+    <col min="9998" max="9998" width="4.44140625" style="3" customWidth="1"/>
+    <col min="9999" max="9999" width="11" style="3" customWidth="1"/>
+    <col min="10000" max="10001" width="5.88671875" style="3" customWidth="1"/>
+    <col min="10002" max="10002" width="18.88671875" style="3" customWidth="1"/>
+    <col min="10003" max="10003" width="17.5546875" style="3" customWidth="1"/>
+    <col min="10004" max="10004" width="6.33203125" style="3" customWidth="1"/>
+    <col min="10005" max="10005" width="6" style="3" customWidth="1"/>
+    <col min="10006" max="10006" width="5.5546875" style="3" customWidth="1"/>
+    <col min="10007" max="10007" width="4.44140625" style="3" customWidth="1"/>
+    <col min="10008" max="10008" width="4.88671875" style="3" customWidth="1"/>
+    <col min="10009" max="10009" width="3.44140625" style="3" customWidth="1"/>
+    <col min="10010" max="10010" width="3.6640625" style="3" customWidth="1"/>
+    <col min="10011" max="10011" width="4" style="3" customWidth="1"/>
+    <col min="10012" max="10012" width="4.6640625" style="3" customWidth="1"/>
+    <col min="10013" max="10013" width="3.6640625" style="3" customWidth="1"/>
+    <col min="10014" max="10014" width="4.44140625" style="3" customWidth="1"/>
+    <col min="10015" max="10015" width="4.88671875" style="3" customWidth="1"/>
+    <col min="10016" max="10016" width="3.33203125" style="3" customWidth="1"/>
+    <col min="10017" max="10017" width="6.88671875" style="3" customWidth="1"/>
+    <col min="10018" max="10018" width="4.6640625" style="3" customWidth="1"/>
+    <col min="10019" max="10019" width="6" style="3" customWidth="1"/>
+    <col min="10020" max="10020" width="5.44140625" style="3" customWidth="1"/>
+    <col min="10021" max="10225" width="7" style="3" customWidth="1"/>
+    <col min="10226" max="10253" width="7" style="3"/>
+    <col min="10254" max="10254" width="4.44140625" style="3" customWidth="1"/>
+    <col min="10255" max="10255" width="11" style="3" customWidth="1"/>
+    <col min="10256" max="10257" width="5.88671875" style="3" customWidth="1"/>
+    <col min="10258" max="10258" width="18.88671875" style="3" customWidth="1"/>
+    <col min="10259" max="10259" width="17.5546875" style="3" customWidth="1"/>
+    <col min="10260" max="10260" width="6.33203125" style="3" customWidth="1"/>
+    <col min="10261" max="10261" width="6" style="3" customWidth="1"/>
+    <col min="10262" max="10262" width="5.5546875" style="3" customWidth="1"/>
+    <col min="10263" max="10263" width="4.44140625" style="3" customWidth="1"/>
+    <col min="10264" max="10264" width="4.88671875" style="3" customWidth="1"/>
+    <col min="10265" max="10265" width="3.44140625" style="3" customWidth="1"/>
+    <col min="10266" max="10266" width="3.6640625" style="3" customWidth="1"/>
+    <col min="10267" max="10267" width="4" style="3" customWidth="1"/>
+    <col min="10268" max="10268" width="4.6640625" style="3" customWidth="1"/>
+    <col min="10269" max="10269" width="3.6640625" style="3" customWidth="1"/>
+    <col min="10270" max="10270" width="4.44140625" style="3" customWidth="1"/>
+    <col min="10271" max="10271" width="4.88671875" style="3" customWidth="1"/>
+    <col min="10272" max="10272" width="3.33203125" style="3" customWidth="1"/>
+    <col min="10273" max="10273" width="6.88671875" style="3" customWidth="1"/>
+    <col min="10274" max="10274" width="4.6640625" style="3" customWidth="1"/>
+    <col min="10275" max="10275" width="6" style="3" customWidth="1"/>
+    <col min="10276" max="10276" width="5.44140625" style="3" customWidth="1"/>
+    <col min="10277" max="10481" width="7" style="3" customWidth="1"/>
+    <col min="10482" max="10509" width="7" style="3"/>
+    <col min="10510" max="10510" width="4.44140625" style="3" customWidth="1"/>
+    <col min="10511" max="10511" width="11" style="3" customWidth="1"/>
+    <col min="10512" max="10513" width="5.88671875" style="3" customWidth="1"/>
+    <col min="10514" max="10514" width="18.88671875" style="3" customWidth="1"/>
+    <col min="10515" max="10515" width="17.5546875" style="3" customWidth="1"/>
+    <col min="10516" max="10516" width="6.33203125" style="3" customWidth="1"/>
+    <col min="10517" max="10517" width="6" style="3" customWidth="1"/>
+    <col min="10518" max="10518" width="5.5546875" style="3" customWidth="1"/>
+    <col min="10519" max="10519" width="4.44140625" style="3" customWidth="1"/>
+    <col min="10520" max="10520" width="4.88671875" style="3" customWidth="1"/>
+    <col min="10521" max="10521" width="3.44140625" style="3" customWidth="1"/>
+    <col min="10522" max="10522" width="3.6640625" style="3" customWidth="1"/>
+    <col min="10523" max="10523" width="4" style="3" customWidth="1"/>
+    <col min="10524" max="10524" width="4.6640625" style="3" customWidth="1"/>
+    <col min="10525" max="10525" width="3.6640625" style="3" customWidth="1"/>
+    <col min="10526" max="10526" width="4.44140625" style="3" customWidth="1"/>
+    <col min="10527" max="10527" width="4.88671875" style="3" customWidth="1"/>
+    <col min="10528" max="10528" width="3.33203125" style="3" customWidth="1"/>
+    <col min="10529" max="10529" width="6.88671875" style="3" customWidth="1"/>
+    <col min="10530" max="10530" width="4.6640625" style="3" customWidth="1"/>
+    <col min="10531" max="10531" width="6" style="3" customWidth="1"/>
+    <col min="10532" max="10532" width="5.44140625" style="3" customWidth="1"/>
+    <col min="10533" max="10737" width="7" style="3" customWidth="1"/>
+    <col min="10738" max="10765" width="7" style="3"/>
+    <col min="10766" max="10766" width="4.44140625" style="3" customWidth="1"/>
+    <col min="10767" max="10767" width="11" style="3" customWidth="1"/>
+    <col min="10768" max="10769" width="5.88671875" style="3" customWidth="1"/>
+    <col min="10770" max="10770" width="18.88671875" style="3" customWidth="1"/>
+    <col min="10771" max="10771" width="17.5546875" style="3" customWidth="1"/>
+    <col min="10772" max="10772" width="6.33203125" style="3" customWidth="1"/>
+    <col min="10773" max="10773" width="6" style="3" customWidth="1"/>
+    <col min="10774" max="10774" width="5.5546875" style="3" customWidth="1"/>
+    <col min="10775" max="10775" width="4.44140625" style="3" customWidth="1"/>
+    <col min="10776" max="10776" width="4.88671875" style="3" customWidth="1"/>
+    <col min="10777" max="10777" width="3.44140625" style="3" customWidth="1"/>
+    <col min="10778" max="10778" width="3.6640625" style="3" customWidth="1"/>
+    <col min="10779" max="10779" width="4" style="3" customWidth="1"/>
+    <col min="10780" max="10780" width="4.6640625" style="3" customWidth="1"/>
+    <col min="10781" max="10781" width="3.6640625" style="3" customWidth="1"/>
+    <col min="10782" max="10782" width="4.44140625" style="3" customWidth="1"/>
+    <col min="10783" max="10783" width="4.88671875" style="3" customWidth="1"/>
+    <col min="10784" max="10784" width="3.33203125" style="3" customWidth="1"/>
+    <col min="10785" max="10785" width="6.88671875" style="3" customWidth="1"/>
+    <col min="10786" max="10786" width="4.6640625" style="3" customWidth="1"/>
+    <col min="10787" max="10787" width="6" style="3" customWidth="1"/>
+    <col min="10788" max="10788" width="5.44140625" style="3" customWidth="1"/>
+    <col min="10789" max="10993" width="7" style="3" customWidth="1"/>
+    <col min="10994" max="11021" width="7" style="3"/>
+    <col min="11022" max="11022" width="4.44140625" style="3" customWidth="1"/>
+    <col min="11023" max="11023" width="11" style="3" customWidth="1"/>
+    <col min="11024" max="11025" width="5.88671875" style="3" customWidth="1"/>
+    <col min="11026" max="11026" width="18.88671875" style="3" customWidth="1"/>
+    <col min="11027" max="11027" width="17.5546875" style="3" customWidth="1"/>
+    <col min="11028" max="11028" width="6.33203125" style="3" customWidth="1"/>
+    <col min="11029" max="11029" width="6" style="3" customWidth="1"/>
+    <col min="11030" max="11030" width="5.5546875" style="3" customWidth="1"/>
+    <col min="11031" max="11031" width="4.44140625" style="3" customWidth="1"/>
+    <col min="11032" max="11032" width="4.88671875" style="3" customWidth="1"/>
+    <col min="11033" max="11033" width="3.44140625" style="3" customWidth="1"/>
+    <col min="11034" max="11034" width="3.6640625" style="3" customWidth="1"/>
+    <col min="11035" max="11035" width="4" style="3" customWidth="1"/>
+    <col min="11036" max="11036" width="4.6640625" style="3" customWidth="1"/>
+    <col min="11037" max="11037" width="3.6640625" style="3" customWidth="1"/>
+    <col min="11038" max="11038" width="4.44140625" style="3" customWidth="1"/>
+    <col min="11039" max="11039" width="4.88671875" style="3" customWidth="1"/>
+    <col min="11040" max="11040" width="3.33203125" style="3" customWidth="1"/>
+    <col min="11041" max="11041" width="6.88671875" style="3" customWidth="1"/>
+    <col min="11042" max="11042" width="4.6640625" style="3" customWidth="1"/>
+    <col min="11043" max="11043" width="6" style="3" customWidth="1"/>
+    <col min="11044" max="11044" width="5.44140625" style="3" customWidth="1"/>
+    <col min="11045" max="11249" width="7" style="3" customWidth="1"/>
+    <col min="11250" max="11277" width="7" style="3"/>
+    <col min="11278" max="11278" width="4.44140625" style="3" customWidth="1"/>
+    <col min="11279" max="11279" width="11" style="3" customWidth="1"/>
+    <col min="11280" max="11281" width="5.88671875" style="3" customWidth="1"/>
+    <col min="11282" max="11282" width="18.88671875" style="3" customWidth="1"/>
+    <col min="11283" max="11283" width="17.5546875" style="3" customWidth="1"/>
+    <col min="11284" max="11284" width="6.33203125" style="3" customWidth="1"/>
+    <col min="11285" max="11285" width="6" style="3" customWidth="1"/>
+    <col min="11286" max="11286" width="5.5546875" style="3" customWidth="1"/>
+    <col min="11287" max="11287" width="4.44140625" style="3" customWidth="1"/>
+    <col min="11288" max="11288" width="4.88671875" style="3" customWidth="1"/>
+    <col min="11289" max="11289" width="3.44140625" style="3" customWidth="1"/>
+    <col min="11290" max="11290" width="3.6640625" style="3" customWidth="1"/>
+    <col min="11291" max="11291" width="4" style="3" customWidth="1"/>
+    <col min="11292" max="11292" width="4.6640625" style="3" customWidth="1"/>
+    <col min="11293" max="11293" width="3.6640625" style="3" customWidth="1"/>
+    <col min="11294" max="11294" width="4.44140625" style="3" customWidth="1"/>
+    <col min="11295" max="11295" width="4.88671875" style="3" customWidth="1"/>
+    <col min="11296" max="11296" width="3.33203125" style="3" customWidth="1"/>
+    <col min="11297" max="11297" width="6.88671875" style="3" customWidth="1"/>
+    <col min="11298" max="11298" width="4.6640625" style="3" customWidth="1"/>
+    <col min="11299" max="11299" width="6" style="3" customWidth="1"/>
+    <col min="11300" max="11300" width="5.44140625" style="3" customWidth="1"/>
+    <col min="11301" max="11505" width="7" style="3" customWidth="1"/>
+    <col min="11506" max="11533" width="7" style="3"/>
+    <col min="11534" max="11534" width="4.44140625" style="3" customWidth="1"/>
+    <col min="11535" max="11535" width="11" style="3" customWidth="1"/>
+    <col min="11536" max="11537" width="5.88671875" style="3" customWidth="1"/>
+    <col min="11538" max="11538" width="18.88671875" style="3" customWidth="1"/>
+    <col min="11539" max="11539" width="17.5546875" style="3" customWidth="1"/>
+    <col min="11540" max="11540" width="6.33203125" style="3" customWidth="1"/>
+    <col min="11541" max="11541" width="6" style="3" customWidth="1"/>
+    <col min="11542" max="11542" width="5.5546875" style="3" customWidth="1"/>
+    <col min="11543" max="11543" width="4.44140625" style="3" customWidth="1"/>
+    <col min="11544" max="11544" width="4.88671875" style="3" customWidth="1"/>
+    <col min="11545" max="11545" width="3.44140625" style="3" customWidth="1"/>
+    <col min="11546" max="11546" width="3.6640625" style="3" customWidth="1"/>
+    <col min="11547" max="11547" width="4" style="3" customWidth="1"/>
+    <col min="11548" max="11548" width="4.6640625" style="3" customWidth="1"/>
+    <col min="11549" max="11549" width="3.6640625" style="3" customWidth="1"/>
+    <col min="11550" max="11550" width="4.44140625" style="3" customWidth="1"/>
+    <col min="11551" max="11551" width="4.88671875" style="3" customWidth="1"/>
+    <col min="11552" max="11552" width="3.33203125" style="3" customWidth="1"/>
+    <col min="11553" max="11553" width="6.88671875" style="3" customWidth="1"/>
+    <col min="11554" max="11554" width="4.6640625" style="3" customWidth="1"/>
+    <col min="11555" max="11555" width="6" style="3" customWidth="1"/>
+    <col min="11556" max="11556" width="5.44140625" style="3" customWidth="1"/>
+    <col min="11557" max="11761" width="7" style="3" customWidth="1"/>
+    <col min="11762" max="11789" width="7" style="3"/>
+    <col min="11790" max="11790" width="4.44140625" style="3" customWidth="1"/>
+    <col min="11791" max="11791" width="11" style="3" customWidth="1"/>
+    <col min="11792" max="11793" width="5.88671875" style="3" customWidth="1"/>
+    <col min="11794" max="11794" width="18.88671875" style="3" customWidth="1"/>
+    <col min="11795" max="11795" width="17.5546875" style="3" customWidth="1"/>
+    <col min="11796" max="11796" width="6.33203125" style="3" customWidth="1"/>
+    <col min="11797" max="11797" width="6" style="3" customWidth="1"/>
+    <col min="11798" max="11798" width="5.5546875" style="3" customWidth="1"/>
+    <col min="11799" max="11799" width="4.44140625" style="3" customWidth="1"/>
+    <col min="11800" max="11800" width="4.88671875" style="3" customWidth="1"/>
+    <col min="11801" max="11801" width="3.44140625" style="3" customWidth="1"/>
+    <col min="11802" max="11802" width="3.6640625" style="3" customWidth="1"/>
+    <col min="11803" max="11803" width="4" style="3" customWidth="1"/>
+    <col min="11804" max="11804" width="4.6640625" style="3" customWidth="1"/>
+    <col min="11805" max="11805" width="3.6640625" style="3" customWidth="1"/>
+    <col min="11806" max="11806" width="4.44140625" style="3" customWidth="1"/>
+    <col min="11807" max="11807" width="4.88671875" style="3" customWidth="1"/>
+    <col min="11808" max="11808" width="3.33203125" style="3" customWidth="1"/>
+    <col min="11809" max="11809" width="6.88671875" style="3" customWidth="1"/>
+    <col min="11810" max="11810" width="4.6640625" style="3" customWidth="1"/>
+    <col min="11811" max="11811" width="6" style="3" customWidth="1"/>
+    <col min="11812" max="11812" width="5.44140625" style="3" customWidth="1"/>
+    <col min="11813" max="12017" width="7" style="3" customWidth="1"/>
+    <col min="12018" max="12045" width="7" style="3"/>
+    <col min="12046" max="12046" width="4.44140625" style="3" customWidth="1"/>
+    <col min="12047" max="12047" width="11" style="3" customWidth="1"/>
+    <col min="12048" max="12049" width="5.88671875" style="3" customWidth="1"/>
+    <col min="12050" max="12050" width="18.88671875" style="3" customWidth="1"/>
+    <col min="12051" max="12051" width="17.5546875" style="3" customWidth="1"/>
+    <col min="12052" max="12052" width="6.33203125" style="3" customWidth="1"/>
+    <col min="12053" max="12053" width="6" style="3" customWidth="1"/>
+    <col min="12054" max="12054" width="5.5546875" style="3" customWidth="1"/>
+    <col min="12055" max="12055" width="4.44140625" style="3" customWidth="1"/>
+    <col min="12056" max="12056" width="4.88671875" style="3" customWidth="1"/>
+    <col min="12057" max="12057" width="3.44140625" style="3" customWidth="1"/>
+    <col min="12058" max="12058" width="3.6640625" style="3" customWidth="1"/>
+    <col min="12059" max="12059" width="4" style="3" customWidth="1"/>
+    <col min="12060" max="12060" width="4.6640625" style="3" customWidth="1"/>
+    <col min="12061" max="12061" width="3.6640625" style="3" customWidth="1"/>
+    <col min="12062" max="12062" width="4.44140625" style="3" customWidth="1"/>
+    <col min="12063" max="12063" width="4.88671875" style="3" customWidth="1"/>
+    <col min="12064" max="12064" width="3.33203125" style="3" customWidth="1"/>
+    <col min="12065" max="12065" width="6.88671875" style="3" customWidth="1"/>
+    <col min="12066" max="12066" width="4.6640625" style="3" customWidth="1"/>
+    <col min="12067" max="12067" width="6" style="3" customWidth="1"/>
+    <col min="12068" max="12068" width="5.44140625" style="3" customWidth="1"/>
+    <col min="12069" max="12273" width="7" style="3" customWidth="1"/>
+    <col min="12274" max="12301" width="7" style="3"/>
+    <col min="12302" max="12302" width="4.44140625" style="3" customWidth="1"/>
+    <col min="12303" max="12303" width="11" style="3" customWidth="1"/>
+    <col min="12304" max="12305" width="5.88671875" style="3" customWidth="1"/>
+    <col min="12306" max="12306" width="18.88671875" style="3" customWidth="1"/>
+    <col min="12307" max="12307" width="17.5546875" style="3" customWidth="1"/>
+    <col min="12308" max="12308" width="6.33203125" style="3" customWidth="1"/>
+    <col min="12309" max="12309" width="6" style="3" customWidth="1"/>
+    <col min="12310" max="12310" width="5.5546875" style="3" customWidth="1"/>
+    <col min="12311" max="12311" width="4.44140625" style="3" customWidth="1"/>
+    <col min="12312" max="12312" width="4.88671875" style="3" customWidth="1"/>
+    <col min="12313" max="12313" width="3.44140625" style="3" customWidth="1"/>
+    <col min="12314" max="12314" width="3.6640625" style="3" customWidth="1"/>
+    <col min="12315" max="12315" width="4" style="3" customWidth="1"/>
+    <col min="12316" max="12316" width="4.6640625" style="3" customWidth="1"/>
+    <col min="12317" max="12317" width="3.6640625" style="3" customWidth="1"/>
+    <col min="12318" max="12318" width="4.44140625" style="3" customWidth="1"/>
+    <col min="12319" max="12319" width="4.88671875" style="3" customWidth="1"/>
+    <col min="12320" max="12320" width="3.33203125" style="3" customWidth="1"/>
+    <col min="12321" max="12321" width="6.88671875" style="3" customWidth="1"/>
+    <col min="12322" max="12322" width="4.6640625" style="3" customWidth="1"/>
+    <col min="12323" max="12323" width="6" style="3" customWidth="1"/>
+    <col min="12324" max="12324" width="5.44140625" style="3" customWidth="1"/>
+    <col min="12325" max="12529" width="7" style="3" customWidth="1"/>
+    <col min="12530" max="12557" width="7" style="3"/>
+    <col min="12558" max="12558" width="4.44140625" style="3" customWidth="1"/>
+    <col min="12559" max="12559" width="11" style="3" customWidth="1"/>
+    <col min="12560" max="12561" width="5.88671875" style="3" customWidth="1"/>
+    <col min="12562" max="12562" width="18.88671875" style="3" customWidth="1"/>
+    <col min="12563" max="12563" width="17.5546875" style="3" customWidth="1"/>
+    <col min="12564" max="12564" width="6.33203125" style="3" customWidth="1"/>
+    <col min="12565" max="12565" width="6" style="3" customWidth="1"/>
+    <col min="12566" max="12566" width="5.5546875" style="3" customWidth="1"/>
+    <col min="12567" max="12567" width="4.44140625" style="3" customWidth="1"/>
+    <col min="12568" max="12568" width="4.88671875" style="3" customWidth="1"/>
+    <col min="12569" max="12569" width="3.44140625" style="3" customWidth="1"/>
+    <col min="12570" max="12570" width="3.6640625" style="3" customWidth="1"/>
+    <col min="12571" max="12571" width="4" style="3" customWidth="1"/>
+    <col min="12572" max="12572" width="4.6640625" style="3" customWidth="1"/>
+    <col min="12573" max="12573" width="3.6640625" style="3" customWidth="1"/>
+    <col min="12574" max="12574" width="4.44140625" style="3" customWidth="1"/>
+    <col min="12575" max="12575" width="4.88671875" style="3" customWidth="1"/>
+    <col min="12576" max="12576" width="3.33203125" style="3" customWidth="1"/>
+    <col min="12577" max="12577" width="6.88671875" style="3" customWidth="1"/>
+    <col min="12578" max="12578" width="4.6640625" style="3" customWidth="1"/>
+    <col min="12579" max="12579" width="6" style="3" customWidth="1"/>
+    <col min="12580" max="12580" width="5.44140625" style="3" customWidth="1"/>
+    <col min="12581" max="12785" width="7" style="3" customWidth="1"/>
+    <col min="12786" max="12813" width="7" style="3"/>
+    <col min="12814" max="12814" width="4.44140625" style="3" customWidth="1"/>
+    <col min="12815" max="12815" width="11" style="3" customWidth="1"/>
+    <col min="12816" max="12817" width="5.88671875" style="3" customWidth="1"/>
+    <col min="12818" max="12818" width="18.88671875" style="3" customWidth="1"/>
+    <col min="12819" max="12819" width="17.5546875" style="3" customWidth="1"/>
+    <col min="12820" max="12820" width="6.33203125" style="3" customWidth="1"/>
+    <col min="12821" max="12821" width="6" style="3" customWidth="1"/>
+    <col min="12822" max="12822" width="5.5546875" style="3" customWidth="1"/>
+    <col min="12823" max="12823" width="4.44140625" style="3" customWidth="1"/>
+    <col min="12824" max="12824" width="4.88671875" style="3" customWidth="1"/>
+    <col min="12825" max="12825" width="3.44140625" style="3" customWidth="1"/>
+    <col min="12826" max="12826" width="3.6640625" style="3" customWidth="1"/>
+    <col min="12827" max="12827" width="4" style="3" customWidth="1"/>
+    <col min="12828" max="12828" width="4.6640625" style="3" customWidth="1"/>
+    <col min="12829" max="12829" width="3.6640625" style="3" customWidth="1"/>
+    <col min="12830" max="12830" width="4.44140625" style="3" customWidth="1"/>
+    <col min="12831" max="12831" width="4.88671875" style="3" customWidth="1"/>
+    <col min="12832" max="12832" width="3.33203125" style="3" customWidth="1"/>
+    <col min="12833" max="12833" width="6.88671875" style="3" customWidth="1"/>
+    <col min="12834" max="12834" width="4.6640625" style="3" customWidth="1"/>
+    <col min="12835" max="12835" width="6" style="3" customWidth="1"/>
+    <col min="12836" max="12836" width="5.44140625" style="3" customWidth="1"/>
+    <col min="12837" max="13041" width="7" style="3" customWidth="1"/>
+    <col min="13042" max="13069" width="7" style="3"/>
+    <col min="13070" max="13070" width="4.44140625" style="3" customWidth="1"/>
+    <col min="13071" max="13071" width="11" style="3" customWidth="1"/>
+    <col min="13072" max="13073" width="5.88671875" style="3" customWidth="1"/>
+    <col min="13074" max="13074" width="18.88671875" style="3" customWidth="1"/>
+    <col min="13075" max="13075" width="17.5546875" style="3" customWidth="1"/>
+    <col min="13076" max="13076" width="6.33203125" style="3" customWidth="1"/>
+    <col min="13077" max="13077" width="6" style="3" customWidth="1"/>
+    <col min="13078" max="13078" width="5.5546875" style="3" customWidth="1"/>
+    <col min="13079" max="13079" width="4.44140625" style="3" customWidth="1"/>
+    <col min="13080" max="13080" width="4.88671875" style="3" customWidth="1"/>
+    <col min="13081" max="13081" width="3.44140625" style="3" customWidth="1"/>
+    <col min="13082" max="13082" width="3.6640625" style="3" customWidth="1"/>
+    <col min="13083" max="13083" width="4" style="3" customWidth="1"/>
+    <col min="13084" max="13084" width="4.6640625" style="3" customWidth="1"/>
+    <col min="13085" max="13085" width="3.6640625" style="3" customWidth="1"/>
+    <col min="13086" max="13086" width="4.44140625" style="3" customWidth="1"/>
+    <col min="13087" max="13087" width="4.88671875" style="3" customWidth="1"/>
+    <col min="13088" max="13088" width="3.33203125" style="3" customWidth="1"/>
+    <col min="13089" max="13089" width="6.88671875" style="3" customWidth="1"/>
+    <col min="13090" max="13090" width="4.6640625" style="3" customWidth="1"/>
+    <col min="13091" max="13091" width="6" style="3" customWidth="1"/>
+    <col min="13092" max="13092" width="5.44140625" style="3" customWidth="1"/>
+    <col min="13093" max="13297" width="7" style="3" customWidth="1"/>
+    <col min="13298" max="13325" width="7" style="3"/>
+    <col min="13326" max="13326" width="4.44140625" style="3" customWidth="1"/>
+    <col min="13327" max="13327" width="11" style="3" customWidth="1"/>
+    <col min="13328" max="13329" width="5.88671875" style="3" customWidth="1"/>
+    <col min="13330" max="13330" width="18.88671875" style="3" customWidth="1"/>
+    <col min="13331" max="13331" width="17.5546875" style="3" customWidth="1"/>
+    <col min="13332" max="13332" width="6.33203125" style="3" customWidth="1"/>
+    <col min="13333" max="13333" width="6" style="3" customWidth="1"/>
+    <col min="13334" max="13334" width="5.5546875" style="3" customWidth="1"/>
+    <col min="13335" max="13335" width="4.44140625" style="3" customWidth="1"/>
+    <col min="13336" max="13336" width="4.88671875" style="3" customWidth="1"/>
+    <col min="13337" max="13337" width="3.44140625" style="3" customWidth="1"/>
+    <col min="13338" max="13338" width="3.6640625" style="3" customWidth="1"/>
+    <col min="13339" max="13339" width="4" style="3" customWidth="1"/>
+    <col min="13340" max="13340" width="4.6640625" style="3" customWidth="1"/>
+    <col min="13341" max="13341" width="3.6640625" style="3" customWidth="1"/>
+    <col min="13342" max="13342" width="4.44140625" style="3" customWidth="1"/>
+    <col min="13343" max="13343" width="4.88671875" style="3" customWidth="1"/>
+    <col min="13344" max="13344" width="3.33203125" style="3" customWidth="1"/>
+    <col min="13345" max="13345" width="6.88671875" style="3" customWidth="1"/>
+    <col min="13346" max="13346" width="4.6640625" style="3" customWidth="1"/>
+    <col min="13347" max="13347" width="6" style="3" customWidth="1"/>
+    <col min="13348" max="13348" width="5.44140625" style="3" customWidth="1"/>
+    <col min="13349" max="13553" width="7" style="3" customWidth="1"/>
+    <col min="13554" max="13581" width="7" style="3"/>
+    <col min="13582" max="13582" width="4.44140625" style="3" customWidth="1"/>
+    <col min="13583" max="13583" width="11" style="3" customWidth="1"/>
+    <col min="13584" max="13585" width="5.88671875" style="3" customWidth="1"/>
+    <col min="13586" max="13586" width="18.88671875" style="3" customWidth="1"/>
+    <col min="13587" max="13587" width="17.5546875" style="3" customWidth="1"/>
+    <col min="13588" max="13588" width="6.33203125" style="3" customWidth="1"/>
+    <col min="13589" max="13589" width="6" style="3" customWidth="1"/>
+    <col min="13590" max="13590" width="5.5546875" style="3" customWidth="1"/>
+    <col min="13591" max="13591" width="4.44140625" style="3" customWidth="1"/>
+    <col min="13592" max="13592" width="4.88671875" style="3" customWidth="1"/>
+    <col min="13593" max="13593" width="3.44140625" style="3" customWidth="1"/>
+    <col min="13594" max="13594" width="3.6640625" style="3" customWidth="1"/>
+    <col min="13595" max="13595" width="4" style="3" customWidth="1"/>
+    <col min="13596" max="13596" width="4.6640625" style="3" customWidth="1"/>
+    <col min="13597" max="13597" width="3.6640625" style="3" customWidth="1"/>
+    <col min="13598" max="13598" width="4.44140625" style="3" customWidth="1"/>
+    <col min="13599" max="13599" width="4.88671875" style="3" customWidth="1"/>
+    <col min="13600" max="13600" width="3.33203125" style="3" customWidth="1"/>
+    <col min="13601" max="13601" width="6.88671875" style="3" customWidth="1"/>
+    <col min="13602" max="13602" width="4.6640625" style="3" customWidth="1"/>
+    <col min="13603" max="13603" width="6" style="3" customWidth="1"/>
+    <col min="13604" max="13604" width="5.44140625" style="3" customWidth="1"/>
+    <col min="13605" max="13809" width="7" style="3" customWidth="1"/>
+    <col min="13810" max="13837" width="7" style="3"/>
+    <col min="13838" max="13838" width="4.44140625" style="3" customWidth="1"/>
+    <col min="13839" max="13839" width="11" style="3" customWidth="1"/>
+    <col min="13840" max="13841" width="5.88671875" style="3" customWidth="1"/>
+    <col min="13842" max="13842" width="18.88671875" style="3" customWidth="1"/>
+    <col min="13843" max="13843" width="17.5546875" style="3" customWidth="1"/>
+    <col min="13844" max="13844" width="6.33203125" style="3" customWidth="1"/>
+    <col min="13845" max="13845" width="6" style="3" customWidth="1"/>
+    <col min="13846" max="13846" width="5.5546875" style="3" customWidth="1"/>
+    <col min="13847" max="13847" width="4.44140625" style="3" customWidth="1"/>
+    <col min="13848" max="13848" width="4.88671875" style="3" customWidth="1"/>
+    <col min="13849" max="13849" width="3.44140625" style="3" customWidth="1"/>
+    <col min="13850" max="13850" width="3.6640625" style="3" customWidth="1"/>
+    <col min="13851" max="13851" width="4" style="3" customWidth="1"/>
+    <col min="13852" max="13852" width="4.6640625" style="3" customWidth="1"/>
+    <col min="13853" max="13853" width="3.6640625" style="3" customWidth="1"/>
+    <col min="13854" max="13854" width="4.44140625" style="3" customWidth="1"/>
+    <col min="13855" max="13855" width="4.88671875" style="3" customWidth="1"/>
+    <col min="13856" max="13856" width="3.33203125" style="3" customWidth="1"/>
+    <col min="13857" max="13857" width="6.88671875" style="3" customWidth="1"/>
+    <col min="13858" max="13858" width="4.6640625" style="3" customWidth="1"/>
+    <col min="13859" max="13859" width="6" style="3" customWidth="1"/>
+    <col min="13860" max="13860" width="5.44140625" style="3" customWidth="1"/>
+    <col min="13861" max="14065" width="7" style="3" customWidth="1"/>
+    <col min="14066" max="14093" width="7" style="3"/>
+    <col min="14094" max="14094" width="4.44140625" style="3" customWidth="1"/>
+    <col min="14095" max="14095" width="11" style="3" customWidth="1"/>
+    <col min="14096" max="14097" width="5.88671875" style="3" customWidth="1"/>
+    <col min="14098" max="14098" width="18.88671875" style="3" customWidth="1"/>
+    <col min="14099" max="14099" width="17.5546875" style="3" customWidth="1"/>
+    <col min="14100" max="14100" width="6.33203125" style="3" customWidth="1"/>
+    <col min="14101" max="14101" width="6" style="3" customWidth="1"/>
+    <col min="14102" max="14102" width="5.5546875" style="3" customWidth="1"/>
+    <col min="14103" max="14103" width="4.44140625" style="3" customWidth="1"/>
+    <col min="14104" max="14104" width="4.88671875" style="3" customWidth="1"/>
+    <col min="14105" max="14105" width="3.44140625" style="3" customWidth="1"/>
+    <col min="14106" max="14106" width="3.6640625" style="3" customWidth="1"/>
+    <col min="14107" max="14107" width="4" style="3" customWidth="1"/>
+    <col min="14108" max="14108" width="4.6640625" style="3" customWidth="1"/>
+    <col min="14109" max="14109" width="3.6640625" style="3" customWidth="1"/>
+    <col min="14110" max="14110" width="4.44140625" style="3" customWidth="1"/>
+    <col min="14111" max="14111" width="4.88671875" style="3" customWidth="1"/>
+    <col min="14112" max="14112" width="3.33203125" style="3" customWidth="1"/>
+    <col min="14113" max="14113" width="6.88671875" style="3" customWidth="1"/>
+    <col min="14114" max="14114" width="4.6640625" style="3" customWidth="1"/>
+    <col min="14115" max="14115" width="6" style="3" customWidth="1"/>
+    <col min="14116" max="14116" width="5.44140625" style="3" customWidth="1"/>
+    <col min="14117" max="14321" width="7" style="3" customWidth="1"/>
+    <col min="14322" max="14349" width="7" style="3"/>
+    <col min="14350" max="14350" width="4.44140625" style="3" customWidth="1"/>
+    <col min="14351" max="14351" width="11" style="3" customWidth="1"/>
+    <col min="14352" max="14353" width="5.88671875" style="3" customWidth="1"/>
+    <col min="14354" max="14354" width="18.88671875" style="3" customWidth="1"/>
+    <col min="14355" max="14355" width="17.5546875" style="3" customWidth="1"/>
+    <col min="14356" max="14356" width="6.33203125" style="3" customWidth="1"/>
+    <col min="14357" max="14357" width="6" style="3" customWidth="1"/>
+    <col min="14358" max="14358" width="5.5546875" style="3" customWidth="1"/>
+    <col min="14359" max="14359" width="4.44140625" style="3" customWidth="1"/>
+    <col min="14360" max="14360" width="4.88671875" style="3" customWidth="1"/>
+    <col min="14361" max="14361" width="3.44140625" style="3" customWidth="1"/>
+    <col min="14362" max="14362" width="3.6640625" style="3" customWidth="1"/>
+    <col min="14363" max="14363" width="4" style="3" customWidth="1"/>
+    <col min="14364" max="14364" width="4.6640625" style="3" customWidth="1"/>
+    <col min="14365" max="14365" width="3.6640625" style="3" customWidth="1"/>
+    <col min="14366" max="14366" width="4.44140625" style="3" customWidth="1"/>
+    <col min="14367" max="14367" width="4.88671875" style="3" customWidth="1"/>
+    <col min="14368" max="14368" width="3.33203125" style="3" customWidth="1"/>
+    <col min="14369" max="14369" width="6.88671875" style="3" customWidth="1"/>
+    <col min="14370" max="14370" width="4.6640625" style="3" customWidth="1"/>
+    <col min="14371" max="14371" width="6" style="3" customWidth="1"/>
+    <col min="14372" max="14372" width="5.44140625" style="3" customWidth="1"/>
+    <col min="14373" max="14577" width="7" style="3" customWidth="1"/>
+    <col min="14578" max="14605" width="7" style="3"/>
+    <col min="14606" max="14606" width="4.44140625" style="3" customWidth="1"/>
+    <col min="14607" max="14607" width="11" style="3" customWidth="1"/>
+    <col min="14608" max="14609" width="5.88671875" style="3" customWidth="1"/>
+    <col min="14610" max="14610" width="18.88671875" style="3" customWidth="1"/>
+    <col min="14611" max="14611" width="17.5546875" style="3" customWidth="1"/>
+    <col min="14612" max="14612" width="6.33203125" style="3" customWidth="1"/>
+    <col min="14613" max="14613" width="6" style="3" customWidth="1"/>
+    <col min="14614" max="14614" width="5.5546875" style="3" customWidth="1"/>
+    <col min="14615" max="14615" width="4.44140625" style="3" customWidth="1"/>
+    <col min="14616" max="14616" width="4.88671875" style="3" customWidth="1"/>
+    <col min="14617" max="14617" width="3.44140625" style="3" customWidth="1"/>
+    <col min="14618" max="14618" width="3.6640625" style="3" customWidth="1"/>
+    <col min="14619" max="14619" width="4" style="3" customWidth="1"/>
+    <col min="14620" max="14620" width="4.6640625" style="3" customWidth="1"/>
+    <col min="14621" max="14621" width="3.6640625" style="3" customWidth="1"/>
+    <col min="14622" max="14622" width="4.44140625" style="3" customWidth="1"/>
+    <col min="14623" max="14623" width="4.88671875" style="3" customWidth="1"/>
+    <col min="14624" max="14624" width="3.33203125" style="3" customWidth="1"/>
+    <col min="14625" max="14625" width="6.88671875" style="3" customWidth="1"/>
+    <col min="14626" max="14626" width="4.6640625" style="3" customWidth="1"/>
+    <col min="14627" max="14627" width="6" style="3" customWidth="1"/>
+    <col min="14628" max="14628" width="5.44140625" style="3" customWidth="1"/>
+    <col min="14629" max="14833" width="7" style="3" customWidth="1"/>
+    <col min="14834" max="14861" width="7" style="3"/>
+    <col min="14862" max="14862" width="4.44140625" style="3" customWidth="1"/>
+    <col min="14863" max="14863" width="11" style="3" customWidth="1"/>
+    <col min="14864" max="14865" width="5.88671875" style="3" customWidth="1"/>
+    <col min="14866" max="14866" width="18.88671875" style="3" customWidth="1"/>
+    <col min="14867" max="14867" width="17.5546875" style="3" customWidth="1"/>
+    <col min="14868" max="14868" width="6.33203125" style="3" customWidth="1"/>
+    <col min="14869" max="14869" width="6" style="3" customWidth="1"/>
+    <col min="14870" max="14870" width="5.5546875" style="3" customWidth="1"/>
+    <col min="14871" max="14871" width="4.44140625" style="3" customWidth="1"/>
+    <col min="14872" max="14872" width="4.88671875" style="3" customWidth="1"/>
+    <col min="14873" max="14873" width="3.44140625" style="3" customWidth="1"/>
+    <col min="14874" max="14874" width="3.6640625" style="3" customWidth="1"/>
+    <col min="14875" max="14875" width="4" style="3" customWidth="1"/>
+    <col min="14876" max="14876" width="4.6640625" style="3" customWidth="1"/>
+    <col min="14877" max="14877" width="3.6640625" style="3" customWidth="1"/>
+    <col min="14878" max="14878" width="4.44140625" style="3" customWidth="1"/>
+    <col min="14879" max="14879" width="4.88671875" style="3" customWidth="1"/>
+    <col min="14880" max="14880" width="3.33203125" style="3" customWidth="1"/>
+    <col min="14881" max="14881" width="6.88671875" style="3" customWidth="1"/>
+    <col min="14882" max="14882" width="4.6640625" style="3" customWidth="1"/>
+    <col min="14883" max="14883" width="6" style="3" customWidth="1"/>
+    <col min="14884" max="14884" width="5.44140625" style="3" customWidth="1"/>
+    <col min="14885" max="15089" width="7" style="3" customWidth="1"/>
+    <col min="15090" max="15117" width="7" style="3"/>
+    <col min="15118" max="15118" width="4.44140625" style="3" customWidth="1"/>
+    <col min="15119" max="15119" width="11" style="3" customWidth="1"/>
+    <col min="15120" max="15121" width="5.88671875" style="3" customWidth="1"/>
+    <col min="15122" max="15122" width="18.88671875" style="3" customWidth="1"/>
+    <col min="15123" max="15123" width="17.5546875" style="3" customWidth="1"/>
+    <col min="15124" max="15124" width="6.33203125" style="3" customWidth="1"/>
+    <col min="15125" max="15125" width="6" style="3" customWidth="1"/>
+    <col min="15126" max="15126" width="5.5546875" style="3" customWidth="1"/>
+    <col min="15127" max="15127" width="4.44140625" style="3" customWidth="1"/>
+    <col min="15128" max="15128" width="4.88671875" style="3" customWidth="1"/>
+    <col min="15129" max="15129" width="3.44140625" style="3" customWidth="1"/>
+    <col min="15130" max="15130" width="3.6640625" style="3" customWidth="1"/>
+    <col min="15131" max="15131" width="4" style="3" customWidth="1"/>
+    <col min="15132" max="15132" width="4.6640625" style="3" customWidth="1"/>
+    <col min="15133" max="15133" width="3.6640625" style="3" customWidth="1"/>
+    <col min="15134" max="15134" width="4.44140625" style="3" customWidth="1"/>
+    <col min="15135" max="15135" width="4.88671875" style="3" customWidth="1"/>
+    <col min="15136" max="15136" width="3.33203125" style="3" customWidth="1"/>
+    <col min="15137" max="15137" width="6.88671875" style="3" customWidth="1"/>
+    <col min="15138" max="15138" width="4.6640625" style="3" customWidth="1"/>
+    <col min="15139" max="15139" width="6" style="3" customWidth="1"/>
+    <col min="15140" max="15140" width="5.44140625" style="3" customWidth="1"/>
+    <col min="15141" max="15345" width="7" style="3" customWidth="1"/>
+    <col min="15346" max="15373" width="7" style="3"/>
+    <col min="15374" max="15374" width="4.44140625" style="3" customWidth="1"/>
+    <col min="15375" max="15375" width="11" style="3" customWidth="1"/>
+    <col min="15376" max="15377" width="5.88671875" style="3" customWidth="1"/>
+    <col min="15378" max="15378" width="18.88671875" style="3" customWidth="1"/>
+    <col min="15379" max="15379" width="17.5546875" style="3" customWidth="1"/>
+    <col min="15380" max="15380" width="6.33203125" style="3" customWidth="1"/>
+    <col min="15381" max="15381" width="6" style="3" customWidth="1"/>
+    <col min="15382" max="15382" width="5.5546875" style="3" customWidth="1"/>
+    <col min="15383" max="15383" width="4.44140625" style="3" customWidth="1"/>
+    <col min="15384" max="15384" width="4.88671875" style="3" customWidth="1"/>
+    <col min="15385" max="15385" width="3.44140625" style="3" customWidth="1"/>
+    <col min="15386" max="15386" width="3.6640625" style="3" customWidth="1"/>
+    <col min="15387" max="15387" width="4" style="3" customWidth="1"/>
+    <col min="15388" max="15388" width="4.6640625" style="3" customWidth="1"/>
+    <col min="15389" max="15389" width="3.6640625" style="3" customWidth="1"/>
+    <col min="15390" max="15390" width="4.44140625" style="3" customWidth="1"/>
+    <col min="15391" max="15391" width="4.88671875" style="3" customWidth="1"/>
+    <col min="15392" max="15392" width="3.33203125" style="3" customWidth="1"/>
+    <col min="15393" max="15393" width="6.88671875" style="3" customWidth="1"/>
+    <col min="15394" max="15394" width="4.6640625" style="3" customWidth="1"/>
+    <col min="15395" max="15395" width="6" style="3" customWidth="1"/>
+    <col min="15396" max="15396" width="5.44140625" style="3" customWidth="1"/>
+    <col min="15397" max="15601" width="7" style="3" customWidth="1"/>
+    <col min="15602" max="15629" width="7" style="3"/>
+    <col min="15630" max="15630" width="4.44140625" style="3" customWidth="1"/>
+    <col min="15631" max="15631" width="11" style="3" customWidth="1"/>
+    <col min="15632" max="15633" width="5.88671875" style="3" customWidth="1"/>
+    <col min="15634" max="15634" width="18.88671875" style="3" customWidth="1"/>
+    <col min="15635" max="15635" width="17.5546875" style="3" customWidth="1"/>
+    <col min="15636" max="15636" width="6.33203125" style="3" customWidth="1"/>
+    <col min="15637" max="15637" width="6" style="3" customWidth="1"/>
+    <col min="15638" max="15638" width="5.5546875" style="3" customWidth="1"/>
+    <col min="15639" max="15639" width="4.44140625" style="3" customWidth="1"/>
+    <col min="15640" max="15640" width="4.88671875" style="3" customWidth="1"/>
+    <col min="15641" max="15641" width="3.44140625" style="3" customWidth="1"/>
+    <col min="15642" max="15642" width="3.6640625" style="3" customWidth="1"/>
+    <col min="15643" max="15643" width="4" style="3" customWidth="1"/>
+    <col min="15644" max="15644" width="4.6640625" style="3" customWidth="1"/>
+    <col min="15645" max="15645" width="3.6640625" style="3" customWidth="1"/>
+    <col min="15646" max="15646" width="4.44140625" style="3" customWidth="1"/>
+    <col min="15647" max="15647" width="4.88671875" style="3" customWidth="1"/>
+    <col min="15648" max="15648" width="3.33203125" style="3" customWidth="1"/>
+    <col min="15649" max="15649" width="6.88671875" style="3" customWidth="1"/>
+    <col min="15650" max="15650" width="4.6640625" style="3" customWidth="1"/>
+    <col min="15651" max="15651" width="6" style="3" customWidth="1"/>
+    <col min="15652" max="15652" width="5.44140625" style="3" customWidth="1"/>
+    <col min="15653" max="15857" width="7" style="3" customWidth="1"/>
+    <col min="15858" max="15885" width="7" style="3"/>
+    <col min="15886" max="15886" width="4.44140625" style="3" customWidth="1"/>
+    <col min="15887" max="15887" width="11" style="3" customWidth="1"/>
+    <col min="15888" max="15889" width="5.88671875" style="3" customWidth="1"/>
+    <col min="15890" max="15890" width="18.88671875" style="3" customWidth="1"/>
+    <col min="15891" max="15891" width="17.5546875" style="3" customWidth="1"/>
+    <col min="15892" max="15892" width="6.33203125" style="3" customWidth="1"/>
+    <col min="15893" max="15893" width="6" style="3" customWidth="1"/>
+    <col min="15894" max="15894" width="5.5546875" style="3" customWidth="1"/>
+    <col min="15895" max="15895" width="4.44140625" style="3" customWidth="1"/>
+    <col min="15896" max="15896" width="4.88671875" style="3" customWidth="1"/>
+    <col min="15897" max="15897" width="3.44140625" style="3" customWidth="1"/>
+    <col min="15898" max="15898" width="3.6640625" style="3" customWidth="1"/>
+    <col min="15899" max="15899" width="4" style="3" customWidth="1"/>
+    <col min="15900" max="15900" width="4.6640625" style="3" customWidth="1"/>
+    <col min="15901" max="15901" width="3.6640625" style="3" customWidth="1"/>
+    <col min="15902" max="15902" width="4.44140625" style="3" customWidth="1"/>
+    <col min="15903" max="15903" width="4.88671875" style="3" customWidth="1"/>
+    <col min="15904" max="15904" width="3.33203125" style="3" customWidth="1"/>
+    <col min="15905" max="15905" width="6.88671875" style="3" customWidth="1"/>
+    <col min="15906" max="15906" width="4.6640625" style="3" customWidth="1"/>
+    <col min="15907" max="15907" width="6" style="3" customWidth="1"/>
+    <col min="15908" max="15908" width="5.44140625" style="3" customWidth="1"/>
+    <col min="15909" max="16113" width="7" style="3" customWidth="1"/>
+    <col min="16114" max="16141" width="7" style="3"/>
+    <col min="16142" max="16142" width="4.44140625" style="3" customWidth="1"/>
+    <col min="16143" max="16143" width="11" style="3" customWidth="1"/>
+    <col min="16144" max="16145" width="5.88671875" style="3" customWidth="1"/>
+    <col min="16146" max="16146" width="18.88671875" style="3" customWidth="1"/>
+    <col min="16147" max="16147" width="17.5546875" style="3" customWidth="1"/>
+    <col min="16148" max="16148" width="6.33203125" style="3" customWidth="1"/>
+    <col min="16149" max="16149" width="6" style="3" customWidth="1"/>
+    <col min="16150" max="16150" width="5.5546875" style="3" customWidth="1"/>
+    <col min="16151" max="16151" width="4.44140625" style="3" customWidth="1"/>
+    <col min="16152" max="16152" width="4.88671875" style="3" customWidth="1"/>
+    <col min="16153" max="16153" width="3.44140625" style="3" customWidth="1"/>
+    <col min="16154" max="16154" width="3.6640625" style="3" customWidth="1"/>
+    <col min="16155" max="16155" width="4" style="3" customWidth="1"/>
+    <col min="16156" max="16156" width="4.6640625" style="3" customWidth="1"/>
+    <col min="16157" max="16157" width="3.6640625" style="3" customWidth="1"/>
+    <col min="16158" max="16158" width="4.44140625" style="3" customWidth="1"/>
+    <col min="16159" max="16159" width="4.88671875" style="3" customWidth="1"/>
+    <col min="16160" max="16160" width="3.33203125" style="3" customWidth="1"/>
+    <col min="16161" max="16161" width="6.88671875" style="3" customWidth="1"/>
+    <col min="16162" max="16162" width="4.6640625" style="3" customWidth="1"/>
+    <col min="16163" max="16163" width="6" style="3" customWidth="1"/>
+    <col min="16164" max="16164" width="5.44140625" style="3" customWidth="1"/>
+    <col min="16165" max="16369" width="7" style="3" customWidth="1"/>
+    <col min="16370" max="16384" width="7" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:269">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
       <c r="F1" s="1"/>
       <c r="G1" s="65"/>
       <c r="H1" s="1"/>
@@ -2785,76 +2822,107 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="82" t="s">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
     </row>
-    <row r="2" spans="1:256" ht="18.75">
-      <c r="A2" s="82" t="s">
+    <row r="2" spans="1:269" ht="17.399999999999999">
+      <c r="A2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
       <c r="I2" s="4"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="83" t="s">
+      <c r="L2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="77"/>
     </row>
-    <row r="3" spans="1:256">
-      <c r="A3" s="84"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
+    <row r="3" spans="1:269">
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
     </row>
-    <row r="4" spans="1:256">
-      <c r="A4" s="79"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
+    <row r="4" spans="1:269">
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
       <c r="F4" s="6"/>
       <c r="G4" s="64"/>
       <c r="H4" s="6"/>
@@ -2862,75 +2930,114 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="80" t="s">
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="74"/>
+      <c r="AJ4" s="74"/>
+    </row>
+    <row r="5" spans="1:269" ht="22.5" customHeight="1">
+      <c r="A5" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="80"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="80"/>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="80"/>
+      <c r="AD5" s="80"/>
+      <c r="AE5" s="80"/>
+      <c r="AF5" s="80"/>
+      <c r="AG5" s="80"/>
+      <c r="AH5" s="80"/>
+      <c r="AI5" s="80"/>
+      <c r="AJ5" s="80"/>
     </row>
-    <row r="5" spans="1:256" ht="22.5" customHeight="1">
-      <c r="A5" s="70" t="s">
+    <row r="6" spans="1:269" ht="22.5" customHeight="1">
+      <c r="A6" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="80"/>
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="80"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="80"/>
+      <c r="AF6" s="80"/>
+      <c r="AG6" s="80"/>
+      <c r="AH6" s="80"/>
+      <c r="AI6" s="80"/>
+      <c r="AJ6" s="80"/>
     </row>
-    <row r="6" spans="1:256" ht="22.5" customHeight="1">
-      <c r="A6" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-    </row>
-    <row r="7" spans="1:256" ht="18.75">
+    <row r="7" spans="1:269" ht="17.399999999999999">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -2938,90 +3045,113 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="66"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="70"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
     </row>
-    <row r="8" spans="1:256">
-      <c r="A8" s="85" t="s">
+    <row r="8" spans="1:269">
+      <c r="A8" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="69" t="s">
+      <c r="F8" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="69" t="s">
+      <c r="G8" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="69" t="s">
+      <c r="H8" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69" t="s">
+      <c r="X8" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="69" t="s">
+      <c r="Y8" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="69" t="s">
+      <c r="Z8" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="69" t="s">
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG8" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="78" t="s">
+      <c r="AH8" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="U8" s="69" t="s">
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="V8" s="69"/>
-      <c r="W8" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
       <c r="AK8" s="8"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="8"/>
@@ -3242,90 +3372,153 @@
       <c r="IT8" s="8"/>
       <c r="IU8" s="8"/>
       <c r="IV8" s="8"/>
+      <c r="IW8" s="8"/>
+      <c r="IX8" s="8"/>
+      <c r="IY8" s="8"/>
+      <c r="IZ8" s="8"/>
+      <c r="JA8" s="8"/>
+      <c r="JB8" s="8"/>
+      <c r="JC8" s="8"/>
+      <c r="JD8" s="8"/>
+      <c r="JE8" s="8"/>
+      <c r="JF8" s="8"/>
+      <c r="JG8" s="8"/>
+      <c r="JH8" s="8"/>
+      <c r="JI8" s="8"/>
     </row>
-    <row r="9" spans="1:256" s="9" customFormat="1">
-      <c r="A9" s="85"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69" t="s">
+    <row r="9" spans="1:269" s="9" customFormat="1">
+      <c r="A9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="69" t="s">
+      <c r="J9" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="69" t="s">
+      <c r="K9" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="S9" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="U9" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="V9" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69" t="s">
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69" t="s">
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69" t="s">
+      <c r="AE9" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="S9" s="69" t="s">
+      <c r="AF9" s="89"/>
+      <c r="AG9" s="89"/>
+      <c r="AH9" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="T9" s="78"/>
-      <c r="U9" s="69" t="s">
+      <c r="AI9" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="V9" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="W9" s="69"/>
+      <c r="AJ9" s="72"/>
     </row>
-    <row r="10" spans="1:256" s="9" customFormat="1" ht="36">
-      <c r="A10" s="85"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="10" t="s">
+    <row r="10" spans="1:269" s="9" customFormat="1" ht="33" customHeight="1">
+      <c r="A10" s="81"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" s="10" t="s">
+      <c r="AB10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Q10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="72"/>
+      <c r="AF10" s="89"/>
+      <c r="AG10" s="89"/>
+      <c r="AH10" s="72"/>
+      <c r="AI10" s="72"/>
+      <c r="AJ10" s="72"/>
     </row>
-    <row r="11" spans="1:256" s="48" customFormat="1" ht="12.75">
+    <row r="11" spans="1:269" s="48" customFormat="1" ht="13.2">
       <c r="A11" s="44"/>
       <c r="B11" s="49"/>
       <c r="C11" s="45"/>
       <c r="D11" s="52"/>
       <c r="E11" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="47"/>
       <c r="G11" s="68"/>
@@ -3333,24 +3526,37 @@
       <c r="I11" s="58"/>
       <c r="J11" s="50"/>
       <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
+      <c r="L11" s="58"/>
       <c r="M11" s="50"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="58"/>
       <c r="S11" s="50"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="58"/>
       <c r="V11" s="50"/>
       <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="51"/>
+      <c r="AG11" s="51"/>
+      <c r="AH11" s="50"/>
+      <c r="AI11" s="50"/>
+      <c r="AJ11" s="50"/>
     </row>
-    <row r="12" spans="1:256">
-      <c r="A12" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="73"/>
+    <row r="12" spans="1:269">
+      <c r="A12" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="84"/>
       <c r="C12" s="53"/>
       <c r="D12" s="53"/>
       <c r="E12" s="2"/>
@@ -3359,21 +3565,34 @@
       <c r="H12" s="2"/>
       <c r="I12" s="59"/>
       <c r="J12" s="2"/>
-      <c r="O12" s="74" t="s">
+      <c r="K12" s="2"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="2"/>
+      <c r="AA12" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB12" s="85"/>
+      <c r="AC12" s="85"/>
+      <c r="AD12" s="85"/>
+      <c r="AE12" s="85"/>
+      <c r="AF12" s="85"/>
+      <c r="AG12" s="85"/>
+      <c r="AH12" s="85"/>
+      <c r="AI12" s="85"/>
+      <c r="AJ12" s="85"/>
+    </row>
+    <row r="13" spans="1:269" s="17" customFormat="1" ht="12">
+      <c r="A13" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="74"/>
-      <c r="V12" s="74"/>
-      <c r="W12" s="74"/>
-    </row>
-    <row r="13" spans="1:256" s="17" customFormat="1" ht="12">
-      <c r="A13" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="54"/>
@@ -3385,30 +3604,30 @@
       <c r="I13" s="60"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
+      <c r="L13" s="60"/>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="75"/>
-      <c r="T13" s="75"/>
-      <c r="U13" s="75"/>
-      <c r="V13" s="75"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="14"/>
       <c r="W13" s="14"/>
       <c r="X13" s="14"/>
       <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
       <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="14"/>
-      <c r="AI13" s="14"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="86"/>
+      <c r="AD13" s="86"/>
+      <c r="AE13" s="86"/>
+      <c r="AF13" s="86"/>
+      <c r="AG13" s="86"/>
+      <c r="AH13" s="86"/>
+      <c r="AI13" s="86"/>
       <c r="AJ13" s="14"/>
       <c r="AK13" s="14"/>
       <c r="AL13" s="14"/>
@@ -3602,10 +3821,23 @@
       <c r="HR13" s="14"/>
       <c r="HS13" s="14"/>
       <c r="HT13" s="14"/>
+      <c r="HU13" s="14"/>
+      <c r="HV13" s="14"/>
+      <c r="HW13" s="14"/>
+      <c r="HX13" s="14"/>
+      <c r="HY13" s="14"/>
+      <c r="HZ13" s="14"/>
+      <c r="IA13" s="14"/>
+      <c r="IB13" s="14"/>
+      <c r="IC13" s="14"/>
+      <c r="ID13" s="14"/>
+      <c r="IE13" s="14"/>
+      <c r="IF13" s="14"/>
+      <c r="IG13" s="14"/>
     </row>
-    <row r="14" spans="1:256" s="17" customFormat="1" ht="12">
+    <row r="14" spans="1:269" s="17" customFormat="1" ht="12">
       <c r="A14" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="54"/>
@@ -3617,23 +3849,23 @@
       <c r="I14" s="60"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+      <c r="L14" s="60"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="16"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
+      <c r="R14" s="60"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
+      <c r="U14" s="60"/>
       <c r="V14" s="14"/>
       <c r="W14" s="14"/>
       <c r="X14" s="14"/>
       <c r="Y14" s="14"/>
       <c r="Z14" s="14"/>
       <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
+      <c r="AB14" s="16"/>
       <c r="AC14" s="14"/>
       <c r="AD14" s="14"/>
       <c r="AE14" s="14"/>
@@ -3834,10 +4066,23 @@
       <c r="HR14" s="14"/>
       <c r="HS14" s="14"/>
       <c r="HT14" s="14"/>
+      <c r="HU14" s="14"/>
+      <c r="HV14" s="14"/>
+      <c r="HW14" s="14"/>
+      <c r="HX14" s="14"/>
+      <c r="HY14" s="14"/>
+      <c r="HZ14" s="14"/>
+      <c r="IA14" s="14"/>
+      <c r="IB14" s="14"/>
+      <c r="IC14" s="14"/>
+      <c r="ID14" s="14"/>
+      <c r="IE14" s="14"/>
+      <c r="IF14" s="14"/>
+      <c r="IG14" s="14"/>
     </row>
-    <row r="15" spans="1:256" s="17" customFormat="1" ht="12">
+    <row r="15" spans="1:269" s="17" customFormat="1" ht="12">
       <c r="A15" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="54"/>
@@ -3849,30 +4094,30 @@
       <c r="I15" s="60"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="L15" s="60"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="14"/>
       <c r="W15" s="14"/>
       <c r="X15" s="14"/>
       <c r="Y15" s="14"/>
       <c r="Z15" s="14"/>
       <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="14"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="20"/>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="20"/>
       <c r="AJ15" s="14"/>
       <c r="AK15" s="14"/>
       <c r="AL15" s="14"/>
@@ -4066,8 +4311,21 @@
       <c r="HR15" s="14"/>
       <c r="HS15" s="14"/>
       <c r="HT15" s="14"/>
+      <c r="HU15" s="14"/>
+      <c r="HV15" s="14"/>
+      <c r="HW15" s="14"/>
+      <c r="HX15" s="14"/>
+      <c r="HY15" s="14"/>
+      <c r="HZ15" s="14"/>
+      <c r="IA15" s="14"/>
+      <c r="IB15" s="14"/>
+      <c r="IC15" s="14"/>
+      <c r="ID15" s="14"/>
+      <c r="IE15" s="14"/>
+      <c r="IF15" s="14"/>
+      <c r="IG15" s="14"/>
     </row>
-    <row r="16" spans="1:256">
+    <row r="16" spans="1:269">
       <c r="A16" s="21"/>
       <c r="B16" s="22"/>
       <c r="C16" s="55"/>
@@ -4078,10 +4336,22 @@
       <c r="H16" s="2"/>
       <c r="I16" s="59"/>
       <c r="J16" s="2"/>
-      <c r="P16" s="24"/>
-      <c r="W16" s="25"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="2"/>
+      <c r="AB16" s="24"/>
+      <c r="AJ16" s="25"/>
     </row>
-    <row r="17" spans="1:256">
+    <row r="17" spans="1:269">
       <c r="A17" s="22"/>
       <c r="B17" s="26"/>
       <c r="C17" s="56"/>
@@ -4092,15 +4362,28 @@
       <c r="H17" s="2"/>
       <c r="I17" s="59"/>
       <c r="J17" s="2"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="76"/>
-      <c r="W17" s="27"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="2"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="87"/>
+      <c r="AD17" s="87"/>
+      <c r="AE17" s="87"/>
+      <c r="AF17" s="87"/>
+      <c r="AG17" s="87"/>
+      <c r="AH17" s="87"/>
+      <c r="AJ17" s="27"/>
     </row>
-    <row r="18" spans="1:256">
+    <row r="18" spans="1:269">
       <c r="A18" s="21"/>
       <c r="B18" s="26"/>
       <c r="C18" s="56"/>
@@ -4111,20 +4394,19 @@
       <c r="H18" s="2"/>
       <c r="I18" s="59"/>
       <c r="J18" s="2"/>
-      <c r="P18" s="24"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28"/>
-      <c r="AJ18" s="28"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="2"/>
+      <c r="AB18" s="24"/>
       <c r="AK18" s="28"/>
       <c r="AL18" s="28"/>
       <c r="AM18" s="28"/>
@@ -4317,19 +4599,19 @@
       <c r="HR18" s="28"/>
       <c r="HS18" s="28"/>
       <c r="HT18" s="28"/>
-      <c r="HU18" s="29"/>
-      <c r="HV18" s="29"/>
-      <c r="HW18" s="29"/>
-      <c r="HX18" s="29"/>
-      <c r="HY18" s="29"/>
-      <c r="HZ18" s="29"/>
-      <c r="IA18" s="29"/>
-      <c r="IB18" s="29"/>
-      <c r="IC18" s="29"/>
-      <c r="ID18" s="29"/>
-      <c r="IE18" s="29"/>
-      <c r="IF18" s="29"/>
-      <c r="IG18" s="29"/>
+      <c r="HU18" s="28"/>
+      <c r="HV18" s="28"/>
+      <c r="HW18" s="28"/>
+      <c r="HX18" s="28"/>
+      <c r="HY18" s="28"/>
+      <c r="HZ18" s="28"/>
+      <c r="IA18" s="28"/>
+      <c r="IB18" s="28"/>
+      <c r="IC18" s="28"/>
+      <c r="ID18" s="28"/>
+      <c r="IE18" s="28"/>
+      <c r="IF18" s="28"/>
+      <c r="IG18" s="28"/>
       <c r="IH18" s="29"/>
       <c r="II18" s="29"/>
       <c r="IJ18" s="29"/>
@@ -4345,8 +4627,21 @@
       <c r="IT18" s="29"/>
       <c r="IU18" s="29"/>
       <c r="IV18" s="29"/>
+      <c r="IW18" s="29"/>
+      <c r="IX18" s="29"/>
+      <c r="IY18" s="29"/>
+      <c r="IZ18" s="29"/>
+      <c r="JA18" s="29"/>
+      <c r="JB18" s="29"/>
+      <c r="JC18" s="29"/>
+      <c r="JD18" s="29"/>
+      <c r="JE18" s="29"/>
+      <c r="JF18" s="29"/>
+      <c r="JG18" s="29"/>
+      <c r="JH18" s="29"/>
+      <c r="JI18" s="29"/>
     </row>
-    <row r="19" spans="1:256" s="28" customFormat="1">
+    <row r="19" spans="1:269" s="28" customFormat="1">
       <c r="A19" s="21"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -4354,26 +4649,26 @@
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
       <c r="G19" s="67"/>
-      <c r="H19" s="32"/>
+      <c r="H19" s="71"/>
       <c r="I19" s="61"/>
-      <c r="J19" s="32"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="HU19" s="29"/>
-      <c r="HV19" s="29"/>
-      <c r="HW19" s="29"/>
-      <c r="HX19" s="29"/>
-      <c r="HY19" s="29"/>
-      <c r="HZ19" s="29"/>
-      <c r="IA19" s="29"/>
-      <c r="IB19" s="29"/>
-      <c r="IC19" s="29"/>
-      <c r="ID19" s="29"/>
-      <c r="IE19" s="29"/>
-      <c r="IF19" s="29"/>
-      <c r="IG19" s="29"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="32"/>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="33"/>
+      <c r="AG19" s="33"/>
+      <c r="AH19" s="33"/>
       <c r="IH19" s="29"/>
       <c r="II19" s="29"/>
       <c r="IJ19" s="29"/>
@@ -4389,8 +4684,21 @@
       <c r="IT19" s="29"/>
       <c r="IU19" s="29"/>
       <c r="IV19" s="29"/>
+      <c r="IW19" s="29"/>
+      <c r="IX19" s="29"/>
+      <c r="IY19" s="29"/>
+      <c r="IZ19" s="29"/>
+      <c r="JA19" s="29"/>
+      <c r="JB19" s="29"/>
+      <c r="JC19" s="29"/>
+      <c r="JD19" s="29"/>
+      <c r="JE19" s="29"/>
+      <c r="JF19" s="29"/>
+      <c r="JG19" s="29"/>
+      <c r="JH19" s="29"/>
+      <c r="JI19" s="29"/>
     </row>
-    <row r="20" spans="1:256" s="28" customFormat="1">
+    <row r="20" spans="1:269" s="28" customFormat="1">
       <c r="A20" s="34"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
@@ -4398,29 +4706,29 @@
       <c r="E20" s="31"/>
       <c r="F20" s="35"/>
       <c r="G20" s="67"/>
-      <c r="H20" s="32"/>
+      <c r="H20" s="71"/>
       <c r="I20" s="61"/>
-      <c r="J20" s="32"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="74"/>
-      <c r="S20" s="74"/>
-      <c r="T20" s="74"/>
-      <c r="U20" s="74"/>
-      <c r="V20" s="74"/>
-      <c r="W20" s="74"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
-      <c r="AH20" s="2"/>
-      <c r="AI20" s="2"/>
-      <c r="AJ20" s="2"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="61"/>
+      <c r="V20" s="32"/>
+      <c r="AC20" s="85"/>
+      <c r="AD20" s="85"/>
+      <c r="AE20" s="85"/>
+      <c r="AF20" s="85"/>
+      <c r="AG20" s="85"/>
+      <c r="AH20" s="85"/>
+      <c r="AI20" s="85"/>
+      <c r="AJ20" s="85"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
@@ -4613,19 +4921,19 @@
       <c r="HR20" s="2"/>
       <c r="HS20" s="2"/>
       <c r="HT20" s="2"/>
-      <c r="HU20" s="3"/>
-      <c r="HV20" s="3"/>
-      <c r="HW20" s="3"/>
-      <c r="HX20" s="3"/>
-      <c r="HY20" s="3"/>
-      <c r="HZ20" s="3"/>
-      <c r="IA20" s="3"/>
-      <c r="IB20" s="3"/>
-      <c r="IC20" s="3"/>
-      <c r="ID20" s="3"/>
-      <c r="IE20" s="3"/>
-      <c r="IF20" s="3"/>
-      <c r="IG20" s="3"/>
+      <c r="HU20" s="2"/>
+      <c r="HV20" s="2"/>
+      <c r="HW20" s="2"/>
+      <c r="HX20" s="2"/>
+      <c r="HY20" s="2"/>
+      <c r="HZ20" s="2"/>
+      <c r="IA20" s="2"/>
+      <c r="IB20" s="2"/>
+      <c r="IC20" s="2"/>
+      <c r="ID20" s="2"/>
+      <c r="IE20" s="2"/>
+      <c r="IF20" s="2"/>
+      <c r="IG20" s="2"/>
       <c r="IH20" s="3"/>
       <c r="II20" s="3"/>
       <c r="IJ20" s="3"/>
@@ -4641,48 +4949,48 @@
       <c r="IT20" s="3"/>
       <c r="IU20" s="3"/>
       <c r="IV20" s="3"/>
+      <c r="IW20" s="3"/>
+      <c r="IX20" s="3"/>
+      <c r="IY20" s="3"/>
+      <c r="IZ20" s="3"/>
+      <c r="JA20" s="3"/>
+      <c r="JB20" s="3"/>
+      <c r="JC20" s="3"/>
+      <c r="JD20" s="3"/>
+      <c r="JE20" s="3"/>
+      <c r="JF20" s="3"/>
+      <c r="JG20" s="3"/>
+      <c r="JH20" s="3"/>
+      <c r="JI20" s="3"/>
     </row>
-    <row r="21" spans="1:256">
+    <row r="21" spans="1:269">
       <c r="A21" s="36"/>
       <c r="B21" s="37"/>
       <c r="D21" s="57"/>
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
-      <c r="S21" s="28"/>
+      <c r="AE21" s="28"/>
     </row>
-    <row r="22" spans="1:256">
+    <row r="22" spans="1:269">
       <c r="A22" s="36"/>
       <c r="B22" s="37"/>
       <c r="D22" s="57"/>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
     </row>
-    <row r="23" spans="1:256">
+    <row r="23" spans="1:269">
       <c r="A23" s="36"/>
       <c r="B23" s="37"/>
       <c r="D23" s="40"/>
       <c r="E23" s="39"/>
       <c r="F23" s="41"/>
-      <c r="V23" s="42"/>
+      <c r="AI23" s="42"/>
     </row>
-    <row r="24" spans="1:256">
+    <row r="24" spans="1:269">
       <c r="B24" s="37"/>
       <c r="D24" s="40"/>
       <c r="E24" s="39"/>
       <c r="F24" s="41"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="28"/>
       <c r="AK24" s="28"/>
       <c r="AL24" s="28"/>
       <c r="AM24" s="28"/>
@@ -4875,19 +5183,19 @@
       <c r="HR24" s="28"/>
       <c r="HS24" s="28"/>
       <c r="HT24" s="28"/>
-      <c r="HU24" s="29"/>
-      <c r="HV24" s="29"/>
-      <c r="HW24" s="29"/>
-      <c r="HX24" s="29"/>
-      <c r="HY24" s="29"/>
-      <c r="HZ24" s="29"/>
-      <c r="IA24" s="29"/>
-      <c r="IB24" s="29"/>
-      <c r="IC24" s="29"/>
-      <c r="ID24" s="29"/>
-      <c r="IE24" s="29"/>
-      <c r="IF24" s="29"/>
-      <c r="IG24" s="29"/>
+      <c r="HU24" s="28"/>
+      <c r="HV24" s="28"/>
+      <c r="HW24" s="28"/>
+      <c r="HX24" s="28"/>
+      <c r="HY24" s="28"/>
+      <c r="HZ24" s="28"/>
+      <c r="IA24" s="28"/>
+      <c r="IB24" s="28"/>
+      <c r="IC24" s="28"/>
+      <c r="ID24" s="28"/>
+      <c r="IE24" s="28"/>
+      <c r="IF24" s="28"/>
+      <c r="IG24" s="28"/>
       <c r="IH24" s="29"/>
       <c r="II24" s="29"/>
       <c r="IJ24" s="29"/>
@@ -4903,31 +5211,43 @@
       <c r="IT24" s="29"/>
       <c r="IU24" s="29"/>
       <c r="IV24" s="29"/>
+      <c r="IW24" s="29"/>
+      <c r="IX24" s="29"/>
+      <c r="IY24" s="29"/>
+      <c r="IZ24" s="29"/>
+      <c r="JA24" s="29"/>
+      <c r="JB24" s="29"/>
+      <c r="JC24" s="29"/>
+      <c r="JD24" s="29"/>
+      <c r="JE24" s="29"/>
+      <c r="JF24" s="29"/>
+      <c r="JG24" s="29"/>
+      <c r="JH24" s="29"/>
+      <c r="JI24" s="29"/>
     </row>
-    <row r="25" spans="1:256" s="28" customFormat="1">
+    <row r="25" spans="1:269" s="28" customFormat="1">
       <c r="A25" s="3"/>
       <c r="B25" s="37"/>
       <c r="C25" s="38"/>
       <c r="D25" s="30"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="43"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="63"/>
-      <c r="J25" s="43"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
-      <c r="AF25" s="2"/>
-      <c r="AG25" s="2"/>
-      <c r="AH25" s="2"/>
-      <c r="AI25" s="2"/>
-      <c r="AJ25" s="2"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="69"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="43"/>
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
@@ -5120,19 +5440,19 @@
       <c r="HR25" s="2"/>
       <c r="HS25" s="2"/>
       <c r="HT25" s="2"/>
-      <c r="HU25" s="3"/>
-      <c r="HV25" s="3"/>
-      <c r="HW25" s="3"/>
-      <c r="HX25" s="3"/>
-      <c r="HY25" s="3"/>
-      <c r="HZ25" s="3"/>
-      <c r="IA25" s="3"/>
-      <c r="IB25" s="3"/>
-      <c r="IC25" s="3"/>
-      <c r="ID25" s="3"/>
-      <c r="IE25" s="3"/>
-      <c r="IF25" s="3"/>
-      <c r="IG25" s="3"/>
+      <c r="HU25" s="2"/>
+      <c r="HV25" s="2"/>
+      <c r="HW25" s="2"/>
+      <c r="HX25" s="2"/>
+      <c r="HY25" s="2"/>
+      <c r="HZ25" s="2"/>
+      <c r="IA25" s="2"/>
+      <c r="IB25" s="2"/>
+      <c r="IC25" s="2"/>
+      <c r="ID25" s="2"/>
+      <c r="IE25" s="2"/>
+      <c r="IF25" s="2"/>
+      <c r="IG25" s="2"/>
       <c r="IH25" s="3"/>
       <c r="II25" s="3"/>
       <c r="IJ25" s="3"/>
@@ -5148,33 +5468,53 @@
       <c r="IT25" s="3"/>
       <c r="IU25" s="3"/>
       <c r="IV25" s="3"/>
+      <c r="IW25" s="3"/>
+      <c r="IX25" s="3"/>
+      <c r="IY25" s="3"/>
+      <c r="IZ25" s="3"/>
+      <c r="JA25" s="3"/>
+      <c r="JB25" s="3"/>
+      <c r="JC25" s="3"/>
+      <c r="JD25" s="3"/>
+      <c r="JE25" s="3"/>
+      <c r="JF25" s="3"/>
+      <c r="JG25" s="3"/>
+      <c r="JH25" s="3"/>
+      <c r="JI25" s="3"/>
     </row>
-    <row r="26" spans="1:256" ht="18.75">
+    <row r="26" spans="1:269" ht="18">
       <c r="A26" s="29"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="72"/>
+      <c r="AB26" s="83"/>
+      <c r="AC26" s="83"/>
+      <c r="AD26" s="83"/>
+      <c r="AE26" s="83"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="57">
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
     <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:W10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="M4:W4"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="M1:W1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="M2:W2"/>
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="A5:W5"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="AB26:AE26"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="AA12:AJ12"/>
+    <mergeCell ref="AC13:AI13"/>
+    <mergeCell ref="AC17:AH17"/>
+    <mergeCell ref="AC20:AJ20"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A5:AJ5"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
@@ -5182,22 +5522,32 @@
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="G8:G10"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="O12:W12"/>
-    <mergeCell ref="Q13:V13"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="N8:S8"/>
-    <mergeCell ref="T8:T10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="A6:AJ6"/>
+    <mergeCell ref="X8:X10"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="Z8:AE8"/>
+    <mergeCell ref="AG8:AG10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="Y4:AJ4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="Y1:AJ1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="Y2:AJ2"/>
+    <mergeCell ref="A3:AJ3"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:W10"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AJ8:AJ10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="AF8:AF10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
